--- a/Tests/Validation/Wheat/data/Lincoln2024.xlsx
+++ b/Tests/Validation/Wheat/data/Lincoln2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\ApsimX\Tests\Validation\Wheat\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD40E9A2-5201-4A15-A0C2-252A51E9C7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D825E61-4497-4198-B76F-7F76C26A044B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" autoFilterDateGrouping="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="74">
   <si>
     <t>SimulationName</t>
   </si>
@@ -206,9 +206,6 @@
     <t>MaxLeafSize.Script.MaxLeafSize</t>
   </si>
   <si>
-    <t>Wheat.PlantNumber</t>
-  </si>
-  <si>
     <t>Wheat.Phenology.CurrentStageName</t>
   </si>
   <si>
@@ -228,9 +225,6 @@
   </si>
   <si>
     <t>Tillering</t>
-  </si>
-  <si>
-    <t>HarvestRipe</t>
   </si>
   <si>
     <t>Wheat.Grain.LiveFWt</t>
@@ -261,6 +255,12 @@
   </si>
   <si>
     <t>Wheat.Leaf.SpecificAreaCanopy</t>
+  </si>
+  <si>
+    <t>Wheat.Population</t>
+  </si>
+  <si>
+    <t>EndGrainFill</t>
   </si>
 </sst>
 </file>
@@ -321,7 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -334,6 +334,15 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,13 +678,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y1001"/>
+  <dimension ref="A1:Y1549"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F992" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="U999" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F996" sqref="F996"/>
+      <selection pane="bottomRight" activeCell="A1002" sqref="A1002:B1549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -715,7 +724,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -727,7 +736,7 @@
         <v>44</v>
       </c>
       <c r="K1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L1" t="s">
         <v>46</v>
@@ -736,40 +745,40 @@
         <v>52</v>
       </c>
       <c r="N1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q1" t="s">
         <v>37</v>
       </c>
       <c r="R1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1" t="s">
+        <v>65</v>
+      </c>
+      <c r="V1" t="s">
         <v>66</v>
-      </c>
-      <c r="U1" t="s">
-        <v>67</v>
-      </c>
-      <c r="V1" t="s">
-        <v>68</v>
       </c>
       <c r="W1" t="s">
         <v>38</v>
       </c>
       <c r="X1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
@@ -806,11 +815,12 @@
         <v>20</v>
       </c>
       <c r="R2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S2">
         <v>4</v>
       </c>
+      <c r="Y2" s="10"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -845,6 +855,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
+      <c r="Y3" s="10"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -879,6 +890,7 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
+      <c r="Y4" s="10"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -917,11 +929,12 @@
         <v>20</v>
       </c>
       <c r="R5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S5">
         <v>4</v>
       </c>
+      <c r="Y5" s="10"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -956,6 +969,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
+      <c r="Y6" s="10"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -990,6 +1004,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
+      <c r="Y7" s="10"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1028,11 +1043,12 @@
         <v>20</v>
       </c>
       <c r="R8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S8">
         <v>4</v>
       </c>
+      <c r="Y8" s="10"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1067,6 +1083,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
+      <c r="Y9" s="10"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1101,6 +1118,7 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
+      <c r="Y10" s="10"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1139,11 +1157,12 @@
         <v>20</v>
       </c>
       <c r="R11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S11">
         <v>4</v>
       </c>
+      <c r="Y11" s="10"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1178,6 +1197,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
+      <c r="Y12" s="10"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1212,6 +1232,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
+      <c r="Y13" s="10"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1250,11 +1271,12 @@
         <v>20</v>
       </c>
       <c r="R14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S14">
         <v>4</v>
       </c>
+      <c r="Y14" s="10"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1293,11 +1315,12 @@
         <v>20</v>
       </c>
       <c r="R15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S15">
         <v>4</v>
       </c>
+      <c r="Y15" s="10"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1336,11 +1359,12 @@
         <v>20</v>
       </c>
       <c r="R16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S16">
         <v>4</v>
       </c>
+      <c r="Y16" s="10"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -1379,7 +1403,7 @@
         <v>20</v>
       </c>
       <c r="R17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S17">
         <v>4</v>
@@ -14173,10 +14197,10 @@
         <v>90</v>
       </c>
       <c r="R822" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="S822">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="823" spans="1:19" x14ac:dyDescent="0.3">
@@ -14227,10 +14251,10 @@
         <v>90</v>
       </c>
       <c r="R823" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="S823">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="824" spans="1:19" x14ac:dyDescent="0.3">
@@ -14281,10 +14305,10 @@
         <v>90</v>
       </c>
       <c r="R824" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="S824">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="825" spans="1:19" x14ac:dyDescent="0.3">
@@ -14335,10 +14359,10 @@
         <v>90</v>
       </c>
       <c r="R825" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="S825">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="826" spans="1:19" x14ac:dyDescent="0.3">
@@ -14621,10 +14645,10 @@
         <v>90</v>
       </c>
       <c r="R834" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="S834">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="835" spans="1:19" x14ac:dyDescent="0.3">
@@ -14675,10 +14699,10 @@
         <v>90</v>
       </c>
       <c r="R835" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="S835">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="836" spans="1:19" x14ac:dyDescent="0.3">
@@ -14729,10 +14753,10 @@
         <v>90</v>
       </c>
       <c r="R836" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="S836">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="837" spans="1:19" x14ac:dyDescent="0.3">
@@ -14783,10 +14807,10 @@
         <v>90</v>
       </c>
       <c r="R837" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="S837">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="838" spans="1:19" x14ac:dyDescent="0.3">
@@ -15521,7 +15545,7 @@
         <v>10</v>
       </c>
       <c r="R954" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S954">
         <v>3</v>
@@ -15539,7 +15563,7 @@
         <v>10</v>
       </c>
       <c r="R955" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S955">
         <v>3</v>
@@ -15557,7 +15581,7 @@
         <v>10</v>
       </c>
       <c r="R956" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S956">
         <v>3</v>
@@ -15575,7 +15599,7 @@
         <v>10</v>
       </c>
       <c r="R957" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S957">
         <v>3</v>
@@ -15593,7 +15617,7 @@
         <v>10</v>
       </c>
       <c r="R958" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S958">
         <v>3</v>
@@ -15611,7 +15635,7 @@
         <v>10</v>
       </c>
       <c r="R959" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S959">
         <v>3</v>
@@ -15629,7 +15653,7 @@
         <v>10</v>
       </c>
       <c r="R960" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S960">
         <v>3</v>
@@ -15647,7 +15671,7 @@
         <v>10</v>
       </c>
       <c r="R961" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S961">
         <v>3</v>
@@ -15758,7 +15782,7 @@
       </c>
       <c r="G970" s="8"/>
       <c r="R970" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S970">
         <v>5</v>
@@ -15773,7 +15797,7 @@
       </c>
       <c r="G971" s="8"/>
       <c r="R971" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S971">
         <v>5</v>
@@ -15788,7 +15812,7 @@
       </c>
       <c r="G972" s="8"/>
       <c r="R972" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S972">
         <v>5</v>
@@ -15803,7 +15827,7 @@
       </c>
       <c r="G973" s="8"/>
       <c r="R973" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S973">
         <v>5</v>
@@ -15818,7 +15842,7 @@
       </c>
       <c r="G974" s="8"/>
       <c r="R974" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S974">
         <v>5</v>
@@ -15833,7 +15857,7 @@
       </c>
       <c r="G975" s="8"/>
       <c r="R975" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S975">
         <v>5</v>
@@ -15848,7 +15872,7 @@
       </c>
       <c r="G976" s="8"/>
       <c r="R976" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S976">
         <v>5</v>
@@ -15863,7 +15887,7 @@
       </c>
       <c r="G977" s="8"/>
       <c r="R977" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S977">
         <v>5</v>
@@ -15881,7 +15905,7 @@
         <v>32</v>
       </c>
       <c r="R978" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="979" spans="1:19" x14ac:dyDescent="0.3">
@@ -15896,7 +15920,7 @@
         <v>32</v>
       </c>
       <c r="R979" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="980" spans="1:19" x14ac:dyDescent="0.3">
@@ -15911,7 +15935,7 @@
         <v>32</v>
       </c>
       <c r="R980" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="981" spans="1:19" x14ac:dyDescent="0.3">
@@ -15926,7 +15950,7 @@
         <v>32</v>
       </c>
       <c r="R981" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="982" spans="1:19" x14ac:dyDescent="0.3">
@@ -15941,7 +15965,7 @@
         <v>32</v>
       </c>
       <c r="R982" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="983" spans="1:19" x14ac:dyDescent="0.3">
@@ -15956,7 +15980,7 @@
         <v>32</v>
       </c>
       <c r="R983" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="984" spans="1:19" x14ac:dyDescent="0.3">
@@ -15971,7 +15995,7 @@
         <v>32</v>
       </c>
       <c r="R984" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="985" spans="1:19" x14ac:dyDescent="0.3">
@@ -15986,7 +16010,7 @@
         <v>32</v>
       </c>
       <c r="R985" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="986" spans="1:19" x14ac:dyDescent="0.3">
@@ -16001,7 +16025,7 @@
         <v>39</v>
       </c>
       <c r="R986" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S986">
         <v>6</v>
@@ -16019,7 +16043,7 @@
         <v>39</v>
       </c>
       <c r="R987" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S987">
         <v>6</v>
@@ -16037,7 +16061,7 @@
         <v>39</v>
       </c>
       <c r="R988" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S988">
         <v>6</v>
@@ -16055,7 +16079,7 @@
         <v>39</v>
       </c>
       <c r="R989" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S989">
         <v>6</v>
@@ -16073,7 +16097,7 @@
         <v>39</v>
       </c>
       <c r="R990" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S990">
         <v>6</v>
@@ -16091,7 +16115,7 @@
         <v>39</v>
       </c>
       <c r="R991" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S991">
         <v>6</v>
@@ -16109,13 +16133,13 @@
         <v>39</v>
       </c>
       <c r="R992" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S992">
         <v>6</v>
       </c>
     </row>
-    <row r="993" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A993" t="s">
         <v>31</v>
       </c>
@@ -16127,13 +16151,14 @@
         <v>39</v>
       </c>
       <c r="R993" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S993">
         <v>6</v>
       </c>
-    </row>
-    <row r="994" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Y993" s="10"/>
+    </row>
+    <row r="994" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A994" t="s">
         <v>33</v>
       </c>
@@ -16145,13 +16170,14 @@
         <v>60</v>
       </c>
       <c r="R994" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S994">
         <v>8</v>
       </c>
-    </row>
-    <row r="995" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Y994" s="10"/>
+    </row>
+    <row r="995" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A995" t="s">
         <v>36</v>
       </c>
@@ -16163,13 +16189,14 @@
         <v>60</v>
       </c>
       <c r="R995" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S995">
         <v>8</v>
       </c>
-    </row>
-    <row r="996" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Y995" s="10"/>
+    </row>
+    <row r="996" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A996" t="s">
         <v>34</v>
       </c>
@@ -16181,13 +16208,14 @@
         <v>60</v>
       </c>
       <c r="R996" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S996">
         <v>8</v>
       </c>
-    </row>
-    <row r="997" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Y996" s="10"/>
+    </row>
+    <row r="997" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A997" t="s">
         <v>35</v>
       </c>
@@ -16199,13 +16227,14 @@
         <v>60</v>
       </c>
       <c r="R997" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S997">
         <v>8</v>
       </c>
-    </row>
-    <row r="998" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Y997" s="10"/>
+    </row>
+    <row r="998" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A998" t="s">
         <v>30</v>
       </c>
@@ -16217,13 +16246,14 @@
         <v>60</v>
       </c>
       <c r="R998" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S998">
         <v>8</v>
       </c>
-    </row>
-    <row r="999" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Y998" s="10"/>
+    </row>
+    <row r="999" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A999" t="s">
         <v>32</v>
       </c>
@@ -16235,13 +16265,14 @@
         <v>60</v>
       </c>
       <c r="R999" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S999">
         <v>8</v>
       </c>
-    </row>
-    <row r="1000" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Y999" s="10"/>
+    </row>
+    <row r="1000" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1000" t="s">
         <v>29</v>
       </c>
@@ -16253,13 +16284,14 @@
         <v>60</v>
       </c>
       <c r="R1000" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S1000">
         <v>8</v>
       </c>
-    </row>
-    <row r="1001" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Y1000" s="10"/>
+    </row>
+    <row r="1001" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1001" t="s">
         <v>31</v>
       </c>
@@ -16271,10 +16303,6039 @@
         <v>60</v>
       </c>
       <c r="R1001" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S1001">
         <v>8</v>
+      </c>
+      <c r="Y1001" s="10"/>
+    </row>
+    <row r="1002" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1002" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1002" s="14">
+        <v>45399</v>
+      </c>
+      <c r="Y1002" s="10">
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1003" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1003" s="13">
+        <v>45401</v>
+      </c>
+      <c r="Y1003" s="10">
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1004" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1004" s="13">
+        <v>45404</v>
+      </c>
+      <c r="Y1004" s="10">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1005" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1005" s="13">
+        <v>45406</v>
+      </c>
+      <c r="Y1005" s="10">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1006" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1006" s="13">
+        <v>45412</v>
+      </c>
+      <c r="Y1006" s="10">
+        <v>3.8333333333333335</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1007" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1007" s="13">
+        <v>45415</v>
+      </c>
+      <c r="Y1007" s="10">
+        <v>4.833333333333333</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1008" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1008" s="13">
+        <v>45418</v>
+      </c>
+      <c r="Y1008" s="10">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1009" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1009" s="13">
+        <v>45420</v>
+      </c>
+      <c r="Y1009" s="10">
+        <v>6.333333333333333</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1010" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1010" s="13">
+        <v>45424</v>
+      </c>
+      <c r="Y1010" s="10">
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1011" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1011" s="13">
+        <v>45429</v>
+      </c>
+      <c r="Y1011" s="10">
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1012" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1012" s="13">
+        <v>45432</v>
+      </c>
+      <c r="Y1012" s="10">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1013" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1013" s="13">
+        <v>45436</v>
+      </c>
+      <c r="Y1013" s="10">
+        <v>11.083333333333334</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1014" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1014" s="13">
+        <v>45440</v>
+      </c>
+      <c r="Y1014" s="10">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1015" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1015" s="13">
+        <v>45443</v>
+      </c>
+      <c r="Y1015" s="10">
+        <v>12.583333333333334</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1016" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1016" s="13">
+        <v>45446</v>
+      </c>
+      <c r="Y1016" s="10">
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1017" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1017" s="13">
+        <v>45449</v>
+      </c>
+      <c r="Y1017" s="10">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1018" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1018" s="13">
+        <v>45453</v>
+      </c>
+      <c r="Y1018" s="10">
+        <v>15.666666666666666</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1019" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1019" s="13">
+        <v>45456</v>
+      </c>
+      <c r="Y1019" s="10">
+        <v>16.583333333333332</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1020" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1020" s="13">
+        <v>45460</v>
+      </c>
+      <c r="Y1020" s="10">
+        <v>17.666666666666668</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1021" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1021" s="13">
+        <v>45465</v>
+      </c>
+      <c r="Y1021" s="10">
+        <v>18.916666666666668</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1022" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1022" s="13">
+        <v>45468</v>
+      </c>
+      <c r="Y1022" s="10">
+        <v>19.166666666666668</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1023" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1023" s="13">
+        <v>45471</v>
+      </c>
+      <c r="Y1023" s="10">
+        <v>19.416666666666668</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1024" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1024" s="13">
+        <v>45475</v>
+      </c>
+      <c r="Y1024" s="10">
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1025" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1025" s="13">
+        <v>45478</v>
+      </c>
+      <c r="Y1025" s="10">
+        <v>19.833333333333332</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1026" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1026" s="13">
+        <v>45483</v>
+      </c>
+      <c r="Y1026" s="10">
+        <v>19.916666666666668</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1027" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1027" s="13">
+        <v>45489</v>
+      </c>
+      <c r="Y1027" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1028" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1028" s="13">
+        <v>45492</v>
+      </c>
+      <c r="Y1028" s="10">
+        <v>20.083333333333332</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1029" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1029" s="13">
+        <v>45495</v>
+      </c>
+      <c r="Y1029" s="10">
+        <v>20.083333333333332</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1030" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1030" s="13">
+        <v>45502</v>
+      </c>
+      <c r="Y1030" s="10">
+        <v>20.083333333333332</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1031" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1031" s="13">
+        <v>45509</v>
+      </c>
+      <c r="Y1031" s="10">
+        <v>20.083333333333332</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1032" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1032" s="13">
+        <v>45513</v>
+      </c>
+      <c r="Y1032" s="10">
+        <v>20.166666666666668</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1033" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1033" s="13">
+        <v>45523</v>
+      </c>
+      <c r="Y1033" s="10">
+        <v>19.25</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1034" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1034" s="13">
+        <v>45530</v>
+      </c>
+      <c r="Y1034" s="10">
+        <v>17.583333333333332</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1035" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1035" s="13">
+        <v>45537</v>
+      </c>
+      <c r="Y1035" s="10">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1036" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1036" s="13">
+        <v>45541</v>
+      </c>
+      <c r="Y1036" s="10">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1037" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1037" s="13">
+        <v>45544</v>
+      </c>
+      <c r="Y1037" s="10">
+        <v>11.083333333333334</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1038" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1038" s="13">
+        <v>45547</v>
+      </c>
+      <c r="Y1038" s="10">
+        <v>10.333333333333334</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1039" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1039" s="13">
+        <v>45551</v>
+      </c>
+      <c r="Y1039" s="10">
+        <v>9.3333333333333339</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1040" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1040" s="13">
+        <v>45555</v>
+      </c>
+      <c r="Y1040" s="10">
+        <v>8.5833333333333339</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1041" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1041" s="13">
+        <v>45558</v>
+      </c>
+      <c r="Y1041" s="10">
+        <v>8.4166666666666661</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1042" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1042" s="13">
+        <v>45561</v>
+      </c>
+      <c r="Y1042" s="10">
+        <v>7.666666666666667</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1043" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1043" s="13">
+        <v>45565</v>
+      </c>
+      <c r="Y1043" s="10">
+        <v>7.166666666666667</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1044" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1044" s="13">
+        <v>45569</v>
+      </c>
+      <c r="Y1044" s="10">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1045" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1045" s="13">
+        <v>45572</v>
+      </c>
+      <c r="Y1045" s="10">
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1046" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1046" s="13">
+        <v>45576</v>
+      </c>
+      <c r="Y1046" s="10">
+        <v>6.333333333333333</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1047" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1047" s="13">
+        <v>45579</v>
+      </c>
+      <c r="Y1047" s="10">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1048" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1048" s="13">
+        <v>45582</v>
+      </c>
+      <c r="Y1048" s="10">
+        <v>6.166666666666667</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1049" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1049" s="13">
+        <v>45586</v>
+      </c>
+      <c r="Y1049" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1050" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1050" s="13">
+        <v>45590</v>
+      </c>
+      <c r="Y1050" s="10">
+        <v>5.583333333333333</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1051" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1051" s="13">
+        <v>45593</v>
+      </c>
+      <c r="Y1051" s="10">
+        <v>5.416666666666667</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1052" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1052" s="13">
+        <v>45597</v>
+      </c>
+      <c r="Y1052" s="10">
+        <v>5.166666666666667</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1053" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1053" s="13">
+        <v>45599</v>
+      </c>
+      <c r="Y1053" s="10">
+        <v>5.083333333333333</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1054" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1054" s="13">
+        <v>45603</v>
+      </c>
+      <c r="Y1054" s="10">
+        <v>5.083333333333333</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1055" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1055" s="13">
+        <v>45607</v>
+      </c>
+      <c r="Y1055" s="10">
+        <v>5.083333333333333</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1056" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1056" s="13">
+        <v>45610</v>
+      </c>
+      <c r="Y1056" s="10">
+        <v>5.083333333333333</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1057" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1057" s="13">
+        <v>45614</v>
+      </c>
+      <c r="Y1057" s="10">
+        <v>5.083333333333333</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1058" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1058" s="13">
+        <v>45618</v>
+      </c>
+      <c r="Y1058" s="10">
+        <v>5.083333333333333</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1059" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1059" s="13">
+        <v>45621</v>
+      </c>
+      <c r="Y1059" s="10">
+        <v>5.083333333333333</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1060" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1060" s="13">
+        <v>45625</v>
+      </c>
+      <c r="Y1060" s="10">
+        <v>5.083333333333333</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1061" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1061" s="13">
+        <v>45628</v>
+      </c>
+      <c r="Y1061" s="10">
+        <v>5.083333333333333</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1062" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1062" s="13">
+        <v>45632</v>
+      </c>
+      <c r="Y1062" s="10">
+        <v>5.083333333333333</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1063" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1063" s="13">
+        <v>45635</v>
+      </c>
+      <c r="Y1063" s="10">
+        <v>4.916666666666667</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1064" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1064" s="13">
+        <v>45639</v>
+      </c>
+      <c r="Y1064" s="10">
+        <v>4.833333333333333</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1065" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1065" s="13">
+        <v>45642</v>
+      </c>
+      <c r="Y1065" s="10">
+        <v>4.833333333333333</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1066" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1066" s="13">
+        <v>45646</v>
+      </c>
+      <c r="Y1066" s="10">
+        <v>4.833333333333333</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1067" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1067" s="13">
+        <v>45649</v>
+      </c>
+      <c r="Y1067" s="10">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1068" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1068" s="13">
+        <v>45653</v>
+      </c>
+      <c r="Y1068" s="10">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1069" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1069" s="13">
+        <v>45656</v>
+      </c>
+      <c r="Y1069" s="10">
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1070" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1070" s="13">
+        <v>45659</v>
+      </c>
+      <c r="Y1070" s="10">
+        <v>4.583333333333333</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1071" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1071" s="13">
+        <v>45663</v>
+      </c>
+      <c r="Y1071" s="10">
+        <v>4.583333333333333</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1072" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1072" s="13">
+        <v>45666</v>
+      </c>
+      <c r="Y1072" s="10">
+        <v>4.083333333333333</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1073" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1073" s="13">
+        <v>45399</v>
+      </c>
+      <c r="Y1073" s="10">
+        <v>1.5454545454545454</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1074" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1074" s="13">
+        <v>45401</v>
+      </c>
+      <c r="Y1074" s="10">
+        <v>1.6363636363636365</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1075" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1075" s="13">
+        <v>45404</v>
+      </c>
+      <c r="Y1075" s="10">
+        <v>2.5454545454545454</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1076" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1076" s="13">
+        <v>45406</v>
+      </c>
+      <c r="Y1076" s="10">
+        <v>2.7272727272727271</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1077" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1077" s="13">
+        <v>45412</v>
+      </c>
+      <c r="Y1077" s="10">
+        <v>4.3636363636363633</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1078" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1078" s="13">
+        <v>45415</v>
+      </c>
+      <c r="Y1078" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1079" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1079" s="13">
+        <v>45418</v>
+      </c>
+      <c r="Y1079" s="10">
+        <v>5.5454545454545459</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1080" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1080" s="13">
+        <v>45420</v>
+      </c>
+      <c r="Y1080" s="10">
+        <v>6.6363636363636367</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1081" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1081" s="13">
+        <v>45424</v>
+      </c>
+      <c r="Y1081" s="10">
+        <v>7.2727272727272725</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1082" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1082" s="13">
+        <v>45429</v>
+      </c>
+      <c r="Y1082" s="10">
+        <v>8.7272727272727266</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1083" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1083" s="13">
+        <v>45432</v>
+      </c>
+      <c r="Y1083" s="10">
+        <v>10.272727272727273</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1084" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1084" s="13">
+        <v>45436</v>
+      </c>
+      <c r="Y1084" s="10">
+        <v>12.090909090909092</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1085" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1085" s="13">
+        <v>45440</v>
+      </c>
+      <c r="Y1085" s="10">
+        <v>13.636363636363637</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1086" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1086" s="13">
+        <v>45443</v>
+      </c>
+      <c r="Y1086" s="10">
+        <v>14.545454545454545</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1087" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1087" s="13">
+        <v>45446</v>
+      </c>
+      <c r="Y1087" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1088" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1088" s="13">
+        <v>45449</v>
+      </c>
+      <c r="Y1088" s="10">
+        <v>16.90909090909091</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1089" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1089" s="13">
+        <v>45453</v>
+      </c>
+      <c r="Y1089" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1090" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1090" s="13">
+        <v>45456</v>
+      </c>
+      <c r="Y1090" s="10">
+        <v>19.636363636363637</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1091" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1091" s="13">
+        <v>45460</v>
+      </c>
+      <c r="Y1091" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1092" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1092" s="13">
+        <v>45465</v>
+      </c>
+      <c r="Y1092" s="10">
+        <v>21.90909090909091</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1093" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1093" s="13">
+        <v>45468</v>
+      </c>
+      <c r="Y1093" s="10">
+        <v>22.09090909090909</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1094" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1094" s="13">
+        <v>45471</v>
+      </c>
+      <c r="Y1094" s="10">
+        <v>22.727272727272727</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1095" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1095" s="13">
+        <v>45475</v>
+      </c>
+      <c r="Y1095" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1096" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1096" s="13">
+        <v>45478</v>
+      </c>
+      <c r="Y1096" s="10">
+        <v>23.181818181818183</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1097" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1097" s="13">
+        <v>45483</v>
+      </c>
+      <c r="Y1097" s="10">
+        <v>23.272727272727273</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1098" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1098" s="13">
+        <v>45489</v>
+      </c>
+      <c r="Y1098" s="10">
+        <v>23.363636363636363</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1099" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1099" s="13">
+        <v>45492</v>
+      </c>
+      <c r="Y1099" s="10">
+        <v>23.363636363636363</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1100" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1100" s="13">
+        <v>45495</v>
+      </c>
+      <c r="Y1100" s="10">
+        <v>23.363636363636363</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1101" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1101" s="13">
+        <v>45502</v>
+      </c>
+      <c r="Y1101" s="10">
+        <v>23.454545454545453</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1102" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1102" s="13">
+        <v>45509</v>
+      </c>
+      <c r="Y1102" s="10">
+        <v>23.545454545454547</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1103" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1103" s="13">
+        <v>45513</v>
+      </c>
+      <c r="Y1103" s="10">
+        <v>23.545454545454547</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1104" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1104" s="13">
+        <v>45523</v>
+      </c>
+      <c r="Y1104" s="10">
+        <v>21.272727272727273</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1105" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1105" s="13">
+        <v>45530</v>
+      </c>
+      <c r="Y1105" s="10">
+        <v>20.09090909090909</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1106" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1106" s="13">
+        <v>45537</v>
+      </c>
+      <c r="Y1106" s="10">
+        <v>17.363636363636363</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1107" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1107" s="13">
+        <v>45541</v>
+      </c>
+      <c r="Y1107" s="10">
+        <v>15.818181818181818</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1108" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1108" s="13">
+        <v>45544</v>
+      </c>
+      <c r="Y1108" s="10">
+        <v>13.909090909090908</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1109" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1109" s="13">
+        <v>45547</v>
+      </c>
+      <c r="Y1109" s="10">
+        <v>13.272727272727273</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1110" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1110" s="13">
+        <v>45551</v>
+      </c>
+      <c r="Y1110" s="10">
+        <v>11.909090909090908</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1111" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1111" s="13">
+        <v>45555</v>
+      </c>
+      <c r="Y1111" s="10">
+        <v>11.272727272727273</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1112" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1112" s="13">
+        <v>45558</v>
+      </c>
+      <c r="Y1112" s="10">
+        <v>10.272727272727273</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1113" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1113" s="13">
+        <v>45561</v>
+      </c>
+      <c r="Y1113" s="10">
+        <v>9.9090909090909083</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1114" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1114" s="13">
+        <v>45565</v>
+      </c>
+      <c r="Y1114" s="10">
+        <v>8.9090909090909083</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1115" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1115" s="13">
+        <v>45569</v>
+      </c>
+      <c r="Y1115" s="10">
+        <v>8.454545454545455</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1116" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1116" s="13">
+        <v>45572</v>
+      </c>
+      <c r="Y1116" s="10">
+        <v>8.2727272727272734</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1117" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1117" s="13">
+        <v>45576</v>
+      </c>
+      <c r="Y1117" s="10">
+        <v>7.7272727272727275</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1118" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1118" s="13">
+        <v>45579</v>
+      </c>
+      <c r="Y1118" s="10">
+        <v>7.2727272727272725</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1119" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1119" s="13">
+        <v>45582</v>
+      </c>
+      <c r="Y1119" s="10">
+        <v>7.1818181818181817</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1120" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1120" s="13">
+        <v>45586</v>
+      </c>
+      <c r="Y1120" s="10">
+        <v>7.0909090909090908</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1121" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1121" s="13">
+        <v>45590</v>
+      </c>
+      <c r="Y1121" s="10">
+        <v>6.6363636363636367</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1122" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1122" s="13">
+        <v>45593</v>
+      </c>
+      <c r="Y1122" s="10">
+        <v>6.5454545454545459</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1123" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1123" s="13">
+        <v>45597</v>
+      </c>
+      <c r="Y1123" s="10">
+        <v>6.3636363636363633</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1124" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1124" s="13">
+        <v>45599</v>
+      </c>
+      <c r="Y1124" s="10">
+        <v>6.2727272727272725</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1125" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1125" s="13">
+        <v>45603</v>
+      </c>
+      <c r="Y1125" s="10">
+        <v>6.2727272727272725</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1126" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1126" s="13">
+        <v>45607</v>
+      </c>
+      <c r="Y1126" s="10">
+        <v>6.1818181818181817</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1127" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1127" s="13">
+        <v>45610</v>
+      </c>
+      <c r="Y1127" s="10">
+        <v>6.0909090909090908</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1128" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1128" s="13">
+        <v>45614</v>
+      </c>
+      <c r="Y1128" s="10">
+        <v>5.8181818181818183</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1129" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1129" s="13">
+        <v>45618</v>
+      </c>
+      <c r="Y1129" s="10">
+        <v>5.8181818181818183</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1130" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1130" s="13">
+        <v>45621</v>
+      </c>
+      <c r="Y1130" s="10">
+        <v>5.8181818181818183</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1131" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1131" s="13">
+        <v>45625</v>
+      </c>
+      <c r="Y1131" s="10">
+        <v>5.8181818181818183</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1132" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1132" s="13">
+        <v>45628</v>
+      </c>
+      <c r="Y1132" s="10">
+        <v>5.7272727272727275</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1133" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1133" s="13">
+        <v>45632</v>
+      </c>
+      <c r="Y1133" s="10">
+        <v>5.6363636363636367</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1134" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1134" s="13">
+        <v>45635</v>
+      </c>
+      <c r="Y1134" s="10">
+        <v>5.6363636363636367</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1135" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1135" s="13">
+        <v>45639</v>
+      </c>
+      <c r="Y1135" s="10">
+        <v>5.5454545454545459</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1136" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1136" s="13">
+        <v>45642</v>
+      </c>
+      <c r="Y1136" s="10">
+        <v>5.5454545454545459</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1137" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1137" s="13">
+        <v>45646</v>
+      </c>
+      <c r="Y1137" s="10">
+        <v>5.5454545454545459</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1138" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1138" s="13">
+        <v>45649</v>
+      </c>
+      <c r="Y1138" s="10">
+        <v>5.5454545454545459</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1139" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1139" s="13">
+        <v>45653</v>
+      </c>
+      <c r="Y1139" s="10">
+        <v>5.5454545454545459</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1140" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1140" s="13">
+        <v>45656</v>
+      </c>
+      <c r="Y1140" s="10">
+        <v>5.5454545454545459</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1141" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1141" s="13">
+        <v>45659</v>
+      </c>
+      <c r="Y1141" s="10">
+        <v>5.5454545454545459</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1142" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1142" s="13">
+        <v>45663</v>
+      </c>
+      <c r="Y1142" s="10">
+        <v>5.5454545454545459</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1143" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1143" s="13">
+        <v>45666</v>
+      </c>
+      <c r="Y1143" s="10">
+        <v>5.083333333333333</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1144" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1144" s="13">
+        <v>45399</v>
+      </c>
+      <c r="Y1144" s="10">
+        <v>1.3636363636363635</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1145" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1145" s="13">
+        <v>45401</v>
+      </c>
+      <c r="Y1145" s="10">
+        <v>1.6363636363636365</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1146" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1146" s="13">
+        <v>45404</v>
+      </c>
+      <c r="Y1146" s="10">
+        <v>2.2727272727272729</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1147" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1147" s="13">
+        <v>45406</v>
+      </c>
+      <c r="Y1147" s="10">
+        <v>2.6363636363636362</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1148" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1148" s="13">
+        <v>45412</v>
+      </c>
+      <c r="Y1148" s="10">
+        <v>4.0909090909090908</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1149" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1149" s="13">
+        <v>45415</v>
+      </c>
+      <c r="Y1149" s="10">
+        <v>5.1818181818181817</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1150" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1150" s="13">
+        <v>45418</v>
+      </c>
+      <c r="Y1150" s="10">
+        <v>6.1818181818181817</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1151" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1151" s="13">
+        <v>45420</v>
+      </c>
+      <c r="Y1151" s="10">
+        <v>6.9090909090909092</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1152" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1152" s="13">
+        <v>45424</v>
+      </c>
+      <c r="Y1152" s="10">
+        <v>7.3636363636363633</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1153" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1153" s="13">
+        <v>45429</v>
+      </c>
+      <c r="Y1153" s="10">
+        <v>9.0909090909090917</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1154" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1154" s="13">
+        <v>45432</v>
+      </c>
+      <c r="Y1154" s="10">
+        <v>10.363636363636363</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1155" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1155" s="13">
+        <v>45436</v>
+      </c>
+      <c r="Y1155" s="10">
+        <v>12.272727272727273</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1156" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1156" s="13">
+        <v>45440</v>
+      </c>
+      <c r="Y1156" s="10">
+        <v>13.090909090909092</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1157" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1157" s="13">
+        <v>45443</v>
+      </c>
+      <c r="Y1157" s="10">
+        <v>13.636363636363637</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1158" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1158" s="13">
+        <v>45446</v>
+      </c>
+      <c r="Y1158" s="10">
+        <v>14.909090909090908</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1159" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1159" s="13">
+        <v>45449</v>
+      </c>
+      <c r="Y1159" s="10">
+        <v>16.363636363636363</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1160" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1160" s="13">
+        <v>45453</v>
+      </c>
+      <c r="Y1160" s="10">
+        <v>17.818181818181817</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1161" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1161" s="13">
+        <v>45456</v>
+      </c>
+      <c r="Y1161" s="10">
+        <v>19.272727272727273</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1162" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1162" s="13">
+        <v>45460</v>
+      </c>
+      <c r="Y1162" s="10">
+        <v>21.272727272727273</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1163" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1163" s="13">
+        <v>45465</v>
+      </c>
+      <c r="Y1163" s="10">
+        <v>22.636363636363637</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1164" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1164" s="13">
+        <v>45468</v>
+      </c>
+      <c r="Y1164" s="10">
+        <v>22.727272727272727</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1165" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1165" s="13">
+        <v>45471</v>
+      </c>
+      <c r="Y1165" s="10">
+        <v>23.454545454545453</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1166" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1166" s="13">
+        <v>45475</v>
+      </c>
+      <c r="Y1166" s="10">
+        <v>23.454545454545453</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1167" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1167" s="13">
+        <v>45478</v>
+      </c>
+      <c r="Y1167" s="10">
+        <v>23.545454545454547</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1168" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1168" s="13">
+        <v>45483</v>
+      </c>
+      <c r="Y1168" s="10">
+        <v>23.636363636363637</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1169" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1169" s="13">
+        <v>45489</v>
+      </c>
+      <c r="Y1169" s="10">
+        <v>23.636363636363637</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1170" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1170" s="13">
+        <v>45492</v>
+      </c>
+      <c r="Y1170" s="10">
+        <v>23.636363636363637</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1171" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1171" s="13">
+        <v>45495</v>
+      </c>
+      <c r="Y1171" s="10">
+        <v>23.636363636363637</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1172" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1172" s="13">
+        <v>45502</v>
+      </c>
+      <c r="Y1172" s="10">
+        <v>23.636363636363637</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1173" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1173" s="13">
+        <v>45509</v>
+      </c>
+      <c r="Y1173" s="10">
+        <v>23.636363636363637</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1174" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1174" s="13">
+        <v>45513</v>
+      </c>
+      <c r="Y1174" s="10">
+        <v>23.636363636363637</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1175" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1175" s="13">
+        <v>45523</v>
+      </c>
+      <c r="Y1175" s="10">
+        <v>22.09090909090909</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1176" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1176" s="13">
+        <v>45530</v>
+      </c>
+      <c r="Y1176" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1177" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1177" s="13">
+        <v>45537</v>
+      </c>
+      <c r="Y1177" s="10">
+        <v>17.454545454545453</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1178" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1178" s="13">
+        <v>45541</v>
+      </c>
+      <c r="Y1178" s="10">
+        <v>15.545454545454545</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1179" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1179" s="13">
+        <v>45544</v>
+      </c>
+      <c r="Y1179" s="10">
+        <v>13.909090909090908</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1180" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1180" s="13">
+        <v>45547</v>
+      </c>
+      <c r="Y1180" s="10">
+        <v>13.636363636363637</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1181" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1181" s="13">
+        <v>45551</v>
+      </c>
+      <c r="Y1181" s="10">
+        <v>12.545454545454545</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1182" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1182" s="13">
+        <v>45555</v>
+      </c>
+      <c r="Y1182" s="10">
+        <v>11.909090909090908</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1183" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1183" s="13">
+        <v>45558</v>
+      </c>
+      <c r="Y1183" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1184" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1184" s="13">
+        <v>45561</v>
+      </c>
+      <c r="Y1184" s="10">
+        <v>10.363636363636363</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1185" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1185" s="13">
+        <v>45565</v>
+      </c>
+      <c r="Y1185" s="10">
+        <v>9.454545454545455</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1186" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1186" s="13">
+        <v>45569</v>
+      </c>
+      <c r="Y1186" s="10">
+        <v>8.545454545454545</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1187" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1187" s="13">
+        <v>45572</v>
+      </c>
+      <c r="Y1187" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1188" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1188" s="13">
+        <v>45576</v>
+      </c>
+      <c r="Y1188" s="10">
+        <v>7.4545454545454541</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1189" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1189" s="13">
+        <v>45579</v>
+      </c>
+      <c r="Y1189" s="10">
+        <v>7.1818181818181817</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1190" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1190" s="13">
+        <v>45582</v>
+      </c>
+      <c r="Y1190" s="10">
+        <v>6.9090909090909092</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1191" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1191" s="13">
+        <v>45586</v>
+      </c>
+      <c r="Y1191" s="10">
+        <v>6.7272727272727275</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1192" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1192" s="13">
+        <v>45590</v>
+      </c>
+      <c r="Y1192" s="10">
+        <v>6.7272727272727275</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1193" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1193" s="13">
+        <v>45593</v>
+      </c>
+      <c r="Y1193" s="10">
+        <v>6.6363636363636367</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1194" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1194" s="13">
+        <v>45597</v>
+      </c>
+      <c r="Y1194" s="10">
+        <v>6.3636363636363633</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1195" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1195" s="13">
+        <v>45599</v>
+      </c>
+      <c r="Y1195" s="10">
+        <v>6.2727272727272725</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1196" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1196" s="13">
+        <v>45603</v>
+      </c>
+      <c r="Y1196" s="10">
+        <v>6.2727272727272725</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1197" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1197" s="13">
+        <v>45607</v>
+      </c>
+      <c r="Y1197" s="10">
+        <v>6.1818181818181817</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1198" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1198" s="13">
+        <v>45610</v>
+      </c>
+      <c r="Y1198" s="10">
+        <v>6.1818181818181817</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1199" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1199" s="13">
+        <v>45614</v>
+      </c>
+      <c r="Y1199" s="10">
+        <v>6.0909090909090908</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1200" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1200" s="13">
+        <v>45618</v>
+      </c>
+      <c r="Y1200" s="10">
+        <v>6.0909090909090908</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1201" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1201" s="13">
+        <v>45621</v>
+      </c>
+      <c r="Y1201" s="10">
+        <v>5.9090909090909092</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1202" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1202" s="13">
+        <v>45625</v>
+      </c>
+      <c r="Y1202" s="10">
+        <v>5.8181818181818183</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1203" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1203" s="13">
+        <v>45628</v>
+      </c>
+      <c r="Y1203" s="10">
+        <v>5.8181818181818183</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1204" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1204" s="13">
+        <v>45632</v>
+      </c>
+      <c r="Y1204" s="10">
+        <v>5.7272727272727275</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1205" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1205" s="13">
+        <v>45635</v>
+      </c>
+      <c r="Y1205" s="10">
+        <v>5.5454545454545459</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1206" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1206" s="13">
+        <v>45639</v>
+      </c>
+      <c r="Y1206" s="10">
+        <v>5.3636363636363633</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1207" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1207" s="13">
+        <v>45642</v>
+      </c>
+      <c r="Y1207" s="10">
+        <v>5.3636363636363633</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1208" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1208" s="13">
+        <v>45646</v>
+      </c>
+      <c r="Y1208" s="10">
+        <v>5.0909090909090908</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1209" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1209" s="13">
+        <v>45649</v>
+      </c>
+      <c r="Y1209" s="10">
+        <v>5.0909090909090908</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1210" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1210" s="13">
+        <v>45653</v>
+      </c>
+      <c r="Y1210" s="10">
+        <v>5.0909090909090908</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1211" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1211" s="13">
+        <v>45656</v>
+      </c>
+      <c r="Y1211" s="10">
+        <v>5.0909090909090908</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1212" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1212" s="13">
+        <v>45659</v>
+      </c>
+      <c r="Y1212" s="10">
+        <v>5.0909090909090908</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1213" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1213" s="13">
+        <v>45663</v>
+      </c>
+      <c r="Y1213" s="10">
+        <v>5.0909090909090908</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1214" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1214" s="13">
+        <v>45666</v>
+      </c>
+      <c r="Y1214" s="10">
+        <v>4.833333333333333</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1215" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1215" s="13">
+        <v>45399</v>
+      </c>
+      <c r="Y1215" s="10">
+        <v>1.7777777777777777</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1216" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1216" s="13">
+        <v>45401</v>
+      </c>
+      <c r="Y1216" s="10">
+        <v>1.8888888888888888</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1217" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1217" s="13">
+        <v>45404</v>
+      </c>
+      <c r="Y1217" s="10">
+        <v>2.4444444444444446</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1218" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1218" s="13">
+        <v>45406</v>
+      </c>
+      <c r="Y1218" s="10">
+        <v>2.5555555555555554</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1219" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1219" s="13">
+        <v>45412</v>
+      </c>
+      <c r="Y1219" s="10">
+        <v>3.8888888888888888</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1220" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1220" s="13">
+        <v>45415</v>
+      </c>
+      <c r="Y1220" s="10">
+        <v>5.1111111111111107</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1221" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1221" s="13">
+        <v>45418</v>
+      </c>
+      <c r="Y1221" s="10">
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1222" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1222" s="13">
+        <v>45420</v>
+      </c>
+      <c r="Y1222" s="10">
+        <v>6.2222222222222223</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1223" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1223" s="13">
+        <v>45424</v>
+      </c>
+      <c r="Y1223" s="10">
+        <v>7.2222222222222223</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1224" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1224" s="13">
+        <v>45429</v>
+      </c>
+      <c r="Y1224" s="10">
+        <v>8.5555555555555554</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1225" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1225" s="13">
+        <v>45432</v>
+      </c>
+      <c r="Y1225" s="10">
+        <v>9.7777777777777786</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1226" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1226" s="13">
+        <v>45436</v>
+      </c>
+      <c r="Y1226" s="10">
+        <v>11.444444444444445</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1227" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1227" s="13">
+        <v>45440</v>
+      </c>
+      <c r="Y1227" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1228" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1228" s="13">
+        <v>45443</v>
+      </c>
+      <c r="Y1228" s="10">
+        <v>13.777777777777779</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1229" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1229" s="13">
+        <v>45446</v>
+      </c>
+      <c r="Y1229" s="10">
+        <v>15.222222222222221</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1230" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1230" s="13">
+        <v>45449</v>
+      </c>
+      <c r="Y1230" s="10">
+        <v>15.777777777777779</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1231" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1231" s="13">
+        <v>45453</v>
+      </c>
+      <c r="Y1231" s="10">
+        <v>17.444444444444443</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1232" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1232" s="13">
+        <v>45456</v>
+      </c>
+      <c r="Y1232" s="10">
+        <v>18.555555555555557</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1233" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1233" s="13">
+        <v>45460</v>
+      </c>
+      <c r="Y1233" s="10">
+        <v>19.444444444444443</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1234" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1234" s="13">
+        <v>45465</v>
+      </c>
+      <c r="Y1234" s="10">
+        <v>20.444444444444443</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1235" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1235" s="13">
+        <v>45468</v>
+      </c>
+      <c r="Y1235" s="10">
+        <v>20.888888888888889</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1236" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1236" s="13">
+        <v>45471</v>
+      </c>
+      <c r="Y1236" s="10">
+        <v>21.444444444444443</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1237" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1237" s="13">
+        <v>45475</v>
+      </c>
+      <c r="Y1237" s="10">
+        <v>21.777777777777779</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1238" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1238" s="13">
+        <v>45478</v>
+      </c>
+      <c r="Y1238" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1239" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1239" s="13">
+        <v>45483</v>
+      </c>
+      <c r="Y1239" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1240" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1240" s="13">
+        <v>45489</v>
+      </c>
+      <c r="Y1240" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1241" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1241" s="13">
+        <v>45492</v>
+      </c>
+      <c r="Y1241" s="10">
+        <v>22.111111111111111</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1242" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1242" s="13">
+        <v>45495</v>
+      </c>
+      <c r="Y1242" s="10">
+        <v>22.444444444444443</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1243" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1243" s="13">
+        <v>45502</v>
+      </c>
+      <c r="Y1243" s="10">
+        <v>22.444444444444443</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1244" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1244" s="13">
+        <v>45509</v>
+      </c>
+      <c r="Y1244" s="10">
+        <v>22.444444444444443</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1245" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1245" s="13">
+        <v>45513</v>
+      </c>
+      <c r="Y1245" s="10">
+        <v>22.444444444444443</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1246" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1246" s="13">
+        <v>45523</v>
+      </c>
+      <c r="Y1246" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1247" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1247" s="13">
+        <v>45530</v>
+      </c>
+      <c r="Y1247" s="10">
+        <v>19.555555555555557</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1248" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1248" s="13">
+        <v>45537</v>
+      </c>
+      <c r="Y1248" s="10">
+        <v>16.888888888888889</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1249" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1249" s="13">
+        <v>45541</v>
+      </c>
+      <c r="Y1249" s="10">
+        <v>14.666666666666666</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1250" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1250" s="13">
+        <v>45544</v>
+      </c>
+      <c r="Y1250" s="10">
+        <v>13.555555555555555</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1251" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1251" s="13">
+        <v>45547</v>
+      </c>
+      <c r="Y1251" s="10">
+        <v>12.777777777777779</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1252" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1252" s="13">
+        <v>45551</v>
+      </c>
+      <c r="Y1252" s="10">
+        <v>11.777777777777779</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1253" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1253" s="13">
+        <v>45555</v>
+      </c>
+      <c r="Y1253" s="10">
+        <v>10.888888888888889</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1254" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1254" s="13">
+        <v>45558</v>
+      </c>
+      <c r="Y1254" s="10">
+        <v>9.8888888888888893</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1255" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1255" s="13">
+        <v>45561</v>
+      </c>
+      <c r="Y1255" s="10">
+        <v>9.3333333333333339</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1256" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1256" s="13">
+        <v>45565</v>
+      </c>
+      <c r="Y1256" s="10">
+        <v>8.7777777777777786</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1257" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1257" s="13">
+        <v>45569</v>
+      </c>
+      <c r="Y1257" s="10">
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1258" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1258" s="13">
+        <v>45572</v>
+      </c>
+      <c r="Y1258" s="10">
+        <v>7.7777777777777777</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1259" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1259" s="13">
+        <v>45576</v>
+      </c>
+      <c r="Y1259" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1260" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1260" s="13">
+        <v>45579</v>
+      </c>
+      <c r="Y1260" s="10">
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1261" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1261" s="13">
+        <v>45582</v>
+      </c>
+      <c r="Y1261" s="10">
+        <v>6.5555555555555554</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1262" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1262" s="13">
+        <v>45586</v>
+      </c>
+      <c r="Y1262" s="10">
+        <v>6.4444444444444446</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1263" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1263" s="13">
+        <v>45590</v>
+      </c>
+      <c r="Y1263" s="10">
+        <v>6.333333333333333</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1264" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1264" s="13">
+        <v>45593</v>
+      </c>
+      <c r="Y1264" s="10">
+        <v>6.333333333333333</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1265" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1265" s="13">
+        <v>45597</v>
+      </c>
+      <c r="Y1265" s="10">
+        <v>6.2222222222222223</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1266" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1266" s="13">
+        <v>45599</v>
+      </c>
+      <c r="Y1266" s="10">
+        <v>6.2222222222222223</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1267" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1267" s="13">
+        <v>45603</v>
+      </c>
+      <c r="Y1267" s="10">
+        <v>6.2222222222222223</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1268" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1268" s="13">
+        <v>45607</v>
+      </c>
+      <c r="Y1268" s="10">
+        <v>6.2222222222222223</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1269" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1269" s="13">
+        <v>45610</v>
+      </c>
+      <c r="Y1269" s="10">
+        <v>6.1111111111111107</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1270" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1270" s="13">
+        <v>45614</v>
+      </c>
+      <c r="Y1270" s="10">
+        <v>5.8888888888888893</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1271" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1271" s="13">
+        <v>45618</v>
+      </c>
+      <c r="Y1271" s="10">
+        <v>5.8888888888888893</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1272" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1272" s="13">
+        <v>45621</v>
+      </c>
+      <c r="Y1272" s="10">
+        <v>5.8888888888888893</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1273" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1273" s="13">
+        <v>45625</v>
+      </c>
+      <c r="Y1273" s="10">
+        <v>5.7777777777777777</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1274" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1274" s="13">
+        <v>45628</v>
+      </c>
+      <c r="Y1274" s="10">
+        <v>5.7777777777777777</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1275" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1275" s="13">
+        <v>45632</v>
+      </c>
+      <c r="Y1275" s="10">
+        <v>5.7777777777777777</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1276" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1276" s="13">
+        <v>45635</v>
+      </c>
+      <c r="Y1276" s="10">
+        <v>5.7777777777777777</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1277" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1277" s="13">
+        <v>45639</v>
+      </c>
+      <c r="Y1277" s="10">
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1278" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1278" s="13">
+        <v>45642</v>
+      </c>
+      <c r="Y1278" s="10">
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1279" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1279" s="13">
+        <v>45646</v>
+      </c>
+      <c r="Y1279" s="10">
+        <v>5.5555555555555554</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1280" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1280" s="13">
+        <v>45649</v>
+      </c>
+      <c r="Y1280" s="10">
+        <v>5.5555555555555554</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1281" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1281" s="13">
+        <v>45653</v>
+      </c>
+      <c r="Y1281" s="10">
+        <v>5.5555555555555554</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1282" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1282" s="13">
+        <v>45656</v>
+      </c>
+      <c r="Y1282" s="10">
+        <v>5.5555555555555554</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1283" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1283" s="13">
+        <v>45659</v>
+      </c>
+      <c r="Y1283" s="10">
+        <v>5.5555555555555554</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1284" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1284" s="13">
+        <v>45663</v>
+      </c>
+      <c r="Y1284" s="10">
+        <v>5.5555555555555554</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1285" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1285" s="13">
+        <v>45666</v>
+      </c>
+      <c r="Y1285" s="10">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1286" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1286" s="13">
+        <v>45435</v>
+      </c>
+      <c r="Y1286" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1287" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1287" s="13">
+        <v>45442</v>
+      </c>
+      <c r="Y1287" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1288" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1288" s="13">
+        <v>45447</v>
+      </c>
+      <c r="Y1288" s="10">
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1289" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1289" s="13">
+        <v>45450</v>
+      </c>
+      <c r="Y1289" s="10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1290" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1290" s="13">
+        <v>45454</v>
+      </c>
+      <c r="Y1290" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1291" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1291" s="13">
+        <v>45457</v>
+      </c>
+      <c r="Y1291" s="10">
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1292" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1292" s="13">
+        <v>45463</v>
+      </c>
+      <c r="Y1292" s="10">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1293" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1293" s="13">
+        <v>45467</v>
+      </c>
+      <c r="Y1293" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1294" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1294" s="13">
+        <v>45470</v>
+      </c>
+      <c r="Y1294" s="10">
+        <v>3.8333333333333335</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1295" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1295" s="13">
+        <v>45474</v>
+      </c>
+      <c r="Y1295" s="10">
+        <v>4.416666666666667</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1296" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1296" s="13">
+        <v>45477</v>
+      </c>
+      <c r="Y1296" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1297" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1297" s="13">
+        <v>45481</v>
+      </c>
+      <c r="Y1297" s="10">
+        <v>5.166666666666667</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1298" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1298" s="13">
+        <v>45488</v>
+      </c>
+      <c r="Y1298" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1299" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1299" s="13">
+        <v>45492</v>
+      </c>
+      <c r="Y1299" s="10">
+        <v>7.083333333333333</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1300" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1300" s="13">
+        <v>45495</v>
+      </c>
+      <c r="Y1300" s="10">
+        <v>7.583333333333333</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1301" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1301" s="13">
+        <v>45498</v>
+      </c>
+      <c r="Y1301" s="10">
+        <v>7.916666666666667</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1302" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1302" s="13">
+        <v>45502</v>
+      </c>
+      <c r="Y1302" s="10">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1303" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1303" s="13">
+        <v>45506</v>
+      </c>
+      <c r="Y1303" s="10">
+        <v>9.9166666666666661</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1304" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1304" s="13">
+        <v>45509</v>
+      </c>
+      <c r="Y1304" s="10">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1305" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1305" s="13">
+        <v>45513</v>
+      </c>
+      <c r="Y1305" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1306" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1306" s="13">
+        <v>45516</v>
+      </c>
+      <c r="Y1306" s="10">
+        <v>11.916666666666666</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1307" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1307" s="13">
+        <v>45520</v>
+      </c>
+      <c r="Y1307" s="10">
+        <v>12.833333333333334</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1308" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1308" s="13">
+        <v>45523</v>
+      </c>
+      <c r="Y1308" s="10">
+        <v>13.583333333333334</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1309" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1309" s="13">
+        <v>45527</v>
+      </c>
+      <c r="Y1309" s="10">
+        <v>14.083333333333334</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1310" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1310" s="13">
+        <v>45530</v>
+      </c>
+      <c r="Y1310" s="10">
+        <v>14.333333333333334</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1311" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1311" s="13">
+        <v>45534</v>
+      </c>
+      <c r="Y1311" s="10">
+        <v>14.333333333333334</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1312" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1312" s="13">
+        <v>45537</v>
+      </c>
+      <c r="Y1312" s="10">
+        <v>14.416666666666666</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1313" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1313" s="13">
+        <v>45541</v>
+      </c>
+      <c r="Y1313" s="10">
+        <v>14.416666666666666</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1314" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1314" s="13">
+        <v>45544</v>
+      </c>
+      <c r="Y1314" s="10">
+        <v>14.416666666666666</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1315" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1315" s="13">
+        <v>45547</v>
+      </c>
+      <c r="Y1315" s="10">
+        <v>14.333333333333334</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1316" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1316" s="13">
+        <v>45551</v>
+      </c>
+      <c r="Y1316" s="10">
+        <v>14.333333333333334</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1317" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1317" s="13">
+        <v>45555</v>
+      </c>
+      <c r="Y1317" s="10">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1318" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1318" s="13">
+        <v>45558</v>
+      </c>
+      <c r="Y1318" s="10">
+        <v>14.083333333333334</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1319" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1319" s="13">
+        <v>45561</v>
+      </c>
+      <c r="Y1319" s="10">
+        <v>13.833333333333334</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1320" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1320" s="13">
+        <v>45565</v>
+      </c>
+      <c r="Y1320" s="10">
+        <v>13.833333333333334</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1321" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1321" s="13">
+        <v>45569</v>
+      </c>
+      <c r="Y1321" s="10">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1322" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1322" s="13">
+        <v>45572</v>
+      </c>
+      <c r="Y1322" s="10">
+        <v>13.166666666666666</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1323" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1323" s="13">
+        <v>45576</v>
+      </c>
+      <c r="Y1323" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1324" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1324" s="13">
+        <v>45579</v>
+      </c>
+      <c r="Y1324" s="10">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1325" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1325" s="13">
+        <v>45582</v>
+      </c>
+      <c r="Y1325" s="10">
+        <v>12.333333333333334</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1326" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1326" s="13">
+        <v>45586</v>
+      </c>
+      <c r="Y1326" s="10">
+        <v>11.416666666666666</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1327" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1327" s="13">
+        <v>45590</v>
+      </c>
+      <c r="Y1327" s="10">
+        <v>10.083333333333334</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1328" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1328" s="13">
+        <v>45593</v>
+      </c>
+      <c r="Y1328" s="10">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1329" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1329" s="13">
+        <v>45597</v>
+      </c>
+      <c r="Y1329" s="10">
+        <v>8.0833333333333339</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1330" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1330" s="13">
+        <v>45599</v>
+      </c>
+      <c r="Y1330" s="10">
+        <v>7.833333333333333</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1331" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1331" s="13">
+        <v>45603</v>
+      </c>
+      <c r="Y1331" s="10">
+        <v>7.583333333333333</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1332" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1332" s="13">
+        <v>45607</v>
+      </c>
+      <c r="Y1332" s="10">
+        <v>7.166666666666667</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1333" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1333" s="13">
+        <v>45610</v>
+      </c>
+      <c r="Y1333" s="10">
+        <v>6.916666666666667</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1334" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1334" s="13">
+        <v>45614</v>
+      </c>
+      <c r="Y1334" s="10">
+        <v>6.916666666666667</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1335" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1335" s="13">
+        <v>45618</v>
+      </c>
+      <c r="Y1335" s="10">
+        <v>6.916666666666667</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1336" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1336" s="13">
+        <v>45621</v>
+      </c>
+      <c r="Y1336" s="10">
+        <v>6.916666666666667</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1337" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1337" s="13">
+        <v>45625</v>
+      </c>
+      <c r="Y1337" s="10">
+        <v>6.833333333333333</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1338" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1338" s="13">
+        <v>45628</v>
+      </c>
+      <c r="Y1338" s="10">
+        <v>6.833333333333333</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1339" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1339" s="13">
+        <v>45632</v>
+      </c>
+      <c r="Y1339" s="10">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1340" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1340" s="13">
+        <v>45635</v>
+      </c>
+      <c r="Y1340" s="10">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1341" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1341" s="13">
+        <v>45639</v>
+      </c>
+      <c r="Y1341" s="10">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1342" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1342" s="13">
+        <v>45642</v>
+      </c>
+      <c r="Y1342" s="10">
+        <v>6.416666666666667</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1343" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1343" s="13">
+        <v>45646</v>
+      </c>
+      <c r="Y1343" s="10">
+        <v>6.333333333333333</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1344" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1344" s="13">
+        <v>45649</v>
+      </c>
+      <c r="Y1344" s="10">
+        <v>6.333333333333333</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1345" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1345" s="13">
+        <v>45653</v>
+      </c>
+      <c r="Y1345" s="10">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1346" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1346" s="13">
+        <v>45656</v>
+      </c>
+      <c r="Y1346" s="10">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1347" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1347" s="13">
+        <v>45659</v>
+      </c>
+      <c r="Y1347" s="10">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1348" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1348" s="13">
+        <v>45663</v>
+      </c>
+      <c r="Y1348" s="10">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1349" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1349" s="13">
+        <v>45670</v>
+      </c>
+      <c r="Y1349" s="10">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1350" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1350" s="13">
+        <v>45674</v>
+      </c>
+      <c r="Y1350" s="10">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1351" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1351" s="13">
+        <v>45677</v>
+      </c>
+      <c r="Y1351" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1352" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1352" s="13">
+        <v>45435</v>
+      </c>
+      <c r="Y1352" s="10">
+        <v>1.0833333333333333</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1353" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1353" s="13">
+        <v>45442</v>
+      </c>
+      <c r="Y1353" s="10">
+        <v>1.0833333333333333</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1354" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1354" s="13">
+        <v>45447</v>
+      </c>
+      <c r="Y1354" s="10">
+        <v>1.5833333333333333</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1355" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1355" s="13">
+        <v>45450</v>
+      </c>
+      <c r="Y1355" s="10">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1356" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1356" s="13">
+        <v>45454</v>
+      </c>
+      <c r="Y1356" s="10">
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1357" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1357" s="13">
+        <v>45457</v>
+      </c>
+      <c r="Y1357" s="10">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1358" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1358" s="13">
+        <v>45463</v>
+      </c>
+      <c r="Y1358" s="10">
+        <v>2.8333333333333335</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1359" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1359" s="13">
+        <v>45467</v>
+      </c>
+      <c r="Y1359" s="10">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1360" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1360" s="13">
+        <v>45470</v>
+      </c>
+      <c r="Y1360" s="10">
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1361" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1361" s="13">
+        <v>45474</v>
+      </c>
+      <c r="Y1361" s="10">
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1362" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1362" s="13">
+        <v>45477</v>
+      </c>
+      <c r="Y1362" s="10">
+        <v>5.166666666666667</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1363" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1363" s="13">
+        <v>45481</v>
+      </c>
+      <c r="Y1363" s="10">
+        <v>5.833333333333333</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1364" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1364" s="13">
+        <v>45488</v>
+      </c>
+      <c r="Y1364" s="10">
+        <v>6.833333333333333</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1365" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1365" s="13">
+        <v>45492</v>
+      </c>
+      <c r="Y1365" s="10">
+        <v>7.583333333333333</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1366" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1366" s="13">
+        <v>45495</v>
+      </c>
+      <c r="Y1366" s="10">
+        <v>8.5833333333333339</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1367" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1367" s="13">
+        <v>45498</v>
+      </c>
+      <c r="Y1367" s="10">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1368" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1368" s="13">
+        <v>45502</v>
+      </c>
+      <c r="Y1368" s="10">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1369" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1369" s="13">
+        <v>45506</v>
+      </c>
+      <c r="Y1369" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1370" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1370" s="13">
+        <v>45509</v>
+      </c>
+      <c r="Y1370" s="10">
+        <v>11.916666666666666</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1371" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1371" s="13">
+        <v>45513</v>
+      </c>
+      <c r="Y1371" s="10">
+        <v>12.833333333333334</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1372" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1372" s="13">
+        <v>45516</v>
+      </c>
+      <c r="Y1372" s="10">
+        <v>13.833333333333334</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1373" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1373" s="13">
+        <v>45520</v>
+      </c>
+      <c r="Y1373" s="10">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1374" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1374" s="13">
+        <v>45523</v>
+      </c>
+      <c r="Y1374" s="10">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1375" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1375" s="13">
+        <v>45527</v>
+      </c>
+      <c r="Y1375" s="10">
+        <v>15.916666666666666</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1376" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1376" s="13">
+        <v>45530</v>
+      </c>
+      <c r="Y1376" s="10">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1377" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1377" s="13">
+        <v>45534</v>
+      </c>
+      <c r="Y1377" s="10">
+        <v>16.916666666666668</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1378" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1378" s="13">
+        <v>45537</v>
+      </c>
+      <c r="Y1378" s="10">
+        <v>17.083333333333332</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1379" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1379" s="13">
+        <v>45541</v>
+      </c>
+      <c r="Y1379" s="10">
+        <v>17.083333333333332</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1380" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1380" s="13">
+        <v>45544</v>
+      </c>
+      <c r="Y1380" s="10">
+        <v>17.083333333333332</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1381" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1381" s="13">
+        <v>45547</v>
+      </c>
+      <c r="Y1381" s="10">
+        <v>17.083333333333332</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1382" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1382" s="13">
+        <v>45551</v>
+      </c>
+      <c r="Y1382" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1383" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1383" s="13">
+        <v>45555</v>
+      </c>
+      <c r="Y1383" s="10">
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1384" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1384" s="13">
+        <v>45558</v>
+      </c>
+      <c r="Y1384" s="10">
+        <v>16.583333333333332</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1385" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1385" s="13">
+        <v>45561</v>
+      </c>
+      <c r="Y1385" s="10">
+        <v>16.333333333333332</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1386" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1386" s="13">
+        <v>45565</v>
+      </c>
+      <c r="Y1386" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1387" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1387" s="13">
+        <v>45569</v>
+      </c>
+      <c r="Y1387" s="10">
+        <v>15.583333333333334</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1388" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1388" s="13">
+        <v>45572</v>
+      </c>
+      <c r="Y1388" s="10">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1389" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1389" s="13">
+        <v>45576</v>
+      </c>
+      <c r="Y1389" s="10">
+        <v>14.083333333333334</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1390" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1390" s="13">
+        <v>45579</v>
+      </c>
+      <c r="Y1390" s="10">
+        <v>12.833333333333334</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1391" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1391" s="13">
+        <v>45582</v>
+      </c>
+      <c r="Y1391" s="10">
+        <v>12.416666666666666</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1392" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1392" s="13">
+        <v>45586</v>
+      </c>
+      <c r="Y1392" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1393" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1393" s="13">
+        <v>45590</v>
+      </c>
+      <c r="Y1393" s="10">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1394" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1394" s="13">
+        <v>45593</v>
+      </c>
+      <c r="Y1394" s="10">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1395" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1395" s="13">
+        <v>45597</v>
+      </c>
+      <c r="Y1395" s="10">
+        <v>8.6666666666666661</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1396" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1396" s="13">
+        <v>45599</v>
+      </c>
+      <c r="Y1396" s="10">
+        <v>8.4166666666666661</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1397" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1397" s="13">
+        <v>45603</v>
+      </c>
+      <c r="Y1397" s="10">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1398" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1398" s="13">
+        <v>45607</v>
+      </c>
+      <c r="Y1398" s="10">
+        <v>7.833333333333333</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1399" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1399" s="13">
+        <v>45610</v>
+      </c>
+      <c r="Y1399" s="10">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1400" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1400" s="13">
+        <v>45614</v>
+      </c>
+      <c r="Y1400" s="10">
+        <v>7.666666666666667</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1401" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1401" s="13">
+        <v>45618</v>
+      </c>
+      <c r="Y1401" s="10">
+        <v>7.416666666666667</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1402" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1402" s="13">
+        <v>45621</v>
+      </c>
+      <c r="Y1402" s="10">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1403" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1403" s="13">
+        <v>45625</v>
+      </c>
+      <c r="Y1403" s="10">
+        <v>7.083333333333333</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1404" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1404" s="13">
+        <v>45628</v>
+      </c>
+      <c r="Y1404" s="10">
+        <v>6.916666666666667</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1405" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1405" s="13">
+        <v>45632</v>
+      </c>
+      <c r="Y1405" s="10">
+        <v>6.833333333333333</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1406" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1406" s="13">
+        <v>45635</v>
+      </c>
+      <c r="Y1406" s="10">
+        <v>6.833333333333333</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1407" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1407" s="13">
+        <v>45639</v>
+      </c>
+      <c r="Y1407" s="10">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1408" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1408" s="13">
+        <v>45642</v>
+      </c>
+      <c r="Y1408" s="10">
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1409" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1409" s="13">
+        <v>45646</v>
+      </c>
+      <c r="Y1409" s="10">
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1410" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1410" s="13">
+        <v>45649</v>
+      </c>
+      <c r="Y1410" s="10">
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1411" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1411" s="13">
+        <v>45653</v>
+      </c>
+      <c r="Y1411" s="10">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1412" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1412" s="13">
+        <v>45656</v>
+      </c>
+      <c r="Y1412" s="10">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1413" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1413" s="13">
+        <v>45659</v>
+      </c>
+      <c r="Y1413" s="10">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1414" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1414" s="13">
+        <v>45663</v>
+      </c>
+      <c r="Y1414" s="10">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1415" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1415" s="13">
+        <v>45670</v>
+      </c>
+      <c r="Y1415" s="10">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1416" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1416" s="13">
+        <v>45674</v>
+      </c>
+      <c r="Y1416" s="10">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1417" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1417" s="13">
+        <v>45677</v>
+      </c>
+      <c r="Y1417" s="10">
+        <v>6.083333333333333</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1418" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1418" s="13">
+        <v>45435</v>
+      </c>
+      <c r="Y1418" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1419" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1419" s="13">
+        <v>45442</v>
+      </c>
+      <c r="Y1419" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1420" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1420" s="13">
+        <v>45447</v>
+      </c>
+      <c r="Y1420" s="10">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1421" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1421" s="13">
+        <v>45450</v>
+      </c>
+      <c r="Y1421" s="10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1422" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1422" s="13">
+        <v>45454</v>
+      </c>
+      <c r="Y1422" s="10">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1423" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1423" s="13">
+        <v>45457</v>
+      </c>
+      <c r="Y1423" s="10">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1424" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1424" s="13">
+        <v>45463</v>
+      </c>
+      <c r="Y1424" s="10">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1425" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1425" s="13">
+        <v>45467</v>
+      </c>
+      <c r="Y1425" s="10">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1426" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1426" s="13">
+        <v>45470</v>
+      </c>
+      <c r="Y1426" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1427" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1427" s="13">
+        <v>45474</v>
+      </c>
+      <c r="Y1427" s="10">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1428" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1428" s="13">
+        <v>45477</v>
+      </c>
+      <c r="Y1428" s="10">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1429" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1429" s="13">
+        <v>45481</v>
+      </c>
+      <c r="Y1429" s="10">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1430" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1430" s="13">
+        <v>45488</v>
+      </c>
+      <c r="Y1430" s="10">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1431" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1431" s="13">
+        <v>45492</v>
+      </c>
+      <c r="Y1431" s="10">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1432" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1432" s="13">
+        <v>45495</v>
+      </c>
+      <c r="Y1432" s="10">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1433" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1433" s="13">
+        <v>45498</v>
+      </c>
+      <c r="Y1433" s="10">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1434" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1434" s="13">
+        <v>45502</v>
+      </c>
+      <c r="Y1434" s="10">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1435" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1435" s="13">
+        <v>45506</v>
+      </c>
+      <c r="Y1435" s="10">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1436" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1436" s="13">
+        <v>45509</v>
+      </c>
+      <c r="Y1436" s="10">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1437" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1437" s="13">
+        <v>45513</v>
+      </c>
+      <c r="Y1437" s="10">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1438" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1438" s="13">
+        <v>45516</v>
+      </c>
+      <c r="Y1438" s="10">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1439" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1439" s="13">
+        <v>45520</v>
+      </c>
+      <c r="Y1439" s="10">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1440" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1440" s="13">
+        <v>45523</v>
+      </c>
+      <c r="Y1440" s="10">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1441" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1441" s="13">
+        <v>45527</v>
+      </c>
+      <c r="Y1441" s="10">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1442" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1442" s="13">
+        <v>45530</v>
+      </c>
+      <c r="Y1442" s="10">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1443" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1443" s="13">
+        <v>45534</v>
+      </c>
+      <c r="Y1443" s="10">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1444" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1444" s="13">
+        <v>45537</v>
+      </c>
+      <c r="Y1444" s="10">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1445" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1445" s="13">
+        <v>45541</v>
+      </c>
+      <c r="Y1445" s="10">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1446" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1446" s="13">
+        <v>45544</v>
+      </c>
+      <c r="Y1446" s="10">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1447" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1447" s="13">
+        <v>45547</v>
+      </c>
+      <c r="Y1447" s="10">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1448" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1448" s="13">
+        <v>45551</v>
+      </c>
+      <c r="Y1448" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1449" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1449" s="13">
+        <v>45555</v>
+      </c>
+      <c r="Y1449" s="10">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1450" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1450" s="13">
+        <v>45558</v>
+      </c>
+      <c r="Y1450" s="10">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1451" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1451" s="13">
+        <v>45561</v>
+      </c>
+      <c r="Y1451" s="10">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1452" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1452" s="13">
+        <v>45565</v>
+      </c>
+      <c r="Y1452" s="10">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1453" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1453" s="13">
+        <v>45569</v>
+      </c>
+      <c r="Y1453" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1454" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1454" s="13">
+        <v>45572</v>
+      </c>
+      <c r="Y1454" s="10">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1455" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1455" s="13">
+        <v>45576</v>
+      </c>
+      <c r="Y1455" s="10">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1456" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1456" s="13">
+        <v>45579</v>
+      </c>
+      <c r="Y1456" s="10">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1457" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1457" s="13">
+        <v>45582</v>
+      </c>
+      <c r="Y1457" s="10">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1458" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1458" s="13">
+        <v>45586</v>
+      </c>
+      <c r="Y1458" s="10">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1459" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1459" s="13">
+        <v>45590</v>
+      </c>
+      <c r="Y1459" s="10">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1460" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1460" s="13">
+        <v>45593</v>
+      </c>
+      <c r="Y1460" s="10">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1461" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1461" s="13">
+        <v>45597</v>
+      </c>
+      <c r="Y1461" s="10">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1462" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1462" s="13">
+        <v>45599</v>
+      </c>
+      <c r="Y1462" s="10">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1463" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1463" s="13">
+        <v>45603</v>
+      </c>
+      <c r="Y1463" s="10">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1464" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1464" s="13">
+        <v>45607</v>
+      </c>
+      <c r="Y1464" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1465" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1465" s="13">
+        <v>45610</v>
+      </c>
+      <c r="Y1465" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1466" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1466" s="13">
+        <v>45614</v>
+      </c>
+      <c r="Y1466" s="10">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1467" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1467" s="13">
+        <v>45618</v>
+      </c>
+      <c r="Y1467" s="10">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1468" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1468" s="13">
+        <v>45621</v>
+      </c>
+      <c r="Y1468" s="10">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1469" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1469" s="13">
+        <v>45625</v>
+      </c>
+      <c r="Y1469" s="10">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1470" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1470" s="13">
+        <v>45628</v>
+      </c>
+      <c r="Y1470" s="10">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1471" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1471" s="13">
+        <v>45632</v>
+      </c>
+      <c r="Y1471" s="10">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1472" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1472" s="13">
+        <v>45635</v>
+      </c>
+      <c r="Y1472" s="10">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1473" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1473" s="13">
+        <v>45639</v>
+      </c>
+      <c r="Y1473" s="10">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1474" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1474" s="13">
+        <v>45642</v>
+      </c>
+      <c r="Y1474" s="10">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1475" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1475" s="13">
+        <v>45646</v>
+      </c>
+      <c r="Y1475" s="10">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1476" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1476" s="13">
+        <v>45649</v>
+      </c>
+      <c r="Y1476" s="10">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1477" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1477" s="13">
+        <v>45653</v>
+      </c>
+      <c r="Y1477" s="10">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1478" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1478" s="13">
+        <v>45656</v>
+      </c>
+      <c r="Y1478" s="10">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1479" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1479" s="13">
+        <v>45659</v>
+      </c>
+      <c r="Y1479" s="10">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1480" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1480" s="13">
+        <v>45663</v>
+      </c>
+      <c r="Y1480" s="10">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1481" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1481" s="13">
+        <v>45670</v>
+      </c>
+      <c r="Y1481" s="10">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1482" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1482" s="13">
+        <v>45674</v>
+      </c>
+      <c r="Y1482" s="10">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1483" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1483" s="13">
+        <v>45677</v>
+      </c>
+      <c r="Y1483" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1484" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1484" s="13">
+        <v>45435</v>
+      </c>
+      <c r="Y1484" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1485" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1485" s="13">
+        <v>45442</v>
+      </c>
+      <c r="Y1485" s="10">
+        <v>1.0833333333333333</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1486" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1486" s="13">
+        <v>45447</v>
+      </c>
+      <c r="Y1486" s="10">
+        <v>1.4166666666666667</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1487" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1487" s="13">
+        <v>45450</v>
+      </c>
+      <c r="Y1487" s="10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1488" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1488" s="13">
+        <v>45454</v>
+      </c>
+      <c r="Y1488" s="10">
+        <v>2.1666666666666665</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1489" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1489" s="13">
+        <v>45457</v>
+      </c>
+      <c r="Y1489" s="10">
+        <v>2.4166666666666665</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1490" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1490" s="13">
+        <v>45463</v>
+      </c>
+      <c r="Y1490" s="10">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1491" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1491" s="13">
+        <v>45467</v>
+      </c>
+      <c r="Y1491" s="10">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1492" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1492" s="13">
+        <v>45470</v>
+      </c>
+      <c r="Y1492" s="10">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1493" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1493" s="13">
+        <v>45474</v>
+      </c>
+      <c r="Y1493" s="10">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1494" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1494" s="13">
+        <v>45477</v>
+      </c>
+      <c r="Y1494" s="10">
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1495" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1495" s="13">
+        <v>45481</v>
+      </c>
+      <c r="Y1495" s="10">
+        <v>5.833333333333333</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1496" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1496" s="13">
+        <v>45488</v>
+      </c>
+      <c r="Y1496" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1497" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1497" s="13">
+        <v>45492</v>
+      </c>
+      <c r="Y1497" s="10">
+        <v>7.833333333333333</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1498" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1498" s="13">
+        <v>45495</v>
+      </c>
+      <c r="Y1498" s="10">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1499" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1499" s="13">
+        <v>45498</v>
+      </c>
+      <c r="Y1499" s="10">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1500" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1500" s="13">
+        <v>45502</v>
+      </c>
+      <c r="Y1500" s="10">
+        <v>10.583333333333334</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1501" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1501" s="13">
+        <v>45506</v>
+      </c>
+      <c r="Y1501" s="10">
+        <v>11.333333333333334</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1502" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1502" s="13">
+        <v>45509</v>
+      </c>
+      <c r="Y1502" s="10">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1503" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1503" s="13">
+        <v>45513</v>
+      </c>
+      <c r="Y1503" s="10">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1504" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1504" s="13">
+        <v>45516</v>
+      </c>
+      <c r="Y1504" s="10">
+        <v>14.333333333333334</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1505" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1505" s="13">
+        <v>45520</v>
+      </c>
+      <c r="Y1505" s="10">
+        <v>15.416666666666666</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1506" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1506" s="13">
+        <v>45523</v>
+      </c>
+      <c r="Y1506" s="10">
+        <v>15.916666666666666</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1507" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1507" s="13">
+        <v>45527</v>
+      </c>
+      <c r="Y1507" s="10">
+        <v>16.75</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1508" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1508" s="13">
+        <v>45530</v>
+      </c>
+      <c r="Y1508" s="10">
+        <v>17.166666666666668</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1509" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1509" s="13">
+        <v>45534</v>
+      </c>
+      <c r="Y1509" s="10">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1510" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1510" s="13">
+        <v>45537</v>
+      </c>
+      <c r="Y1510" s="10">
+        <v>17.583333333333332</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1511" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1511" s="13">
+        <v>45541</v>
+      </c>
+      <c r="Y1511" s="10">
+        <v>17.666666666666668</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1512" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1512" s="13">
+        <v>45544</v>
+      </c>
+      <c r="Y1512" s="10">
+        <v>17.583333333333332</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1513" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1513" s="13">
+        <v>45547</v>
+      </c>
+      <c r="Y1513" s="10">
+        <v>17.583333333333332</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1514" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1514" s="13">
+        <v>45551</v>
+      </c>
+      <c r="Y1514" s="10">
+        <v>17.583333333333332</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1515" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1515" s="13">
+        <v>45555</v>
+      </c>
+      <c r="Y1515" s="10">
+        <v>17.416666666666668</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1516" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1516" s="13">
+        <v>45558</v>
+      </c>
+      <c r="Y1516" s="10">
+        <v>17.333333333333332</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1517" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1517" s="13">
+        <v>45561</v>
+      </c>
+      <c r="Y1517" s="10">
+        <v>16.833333333333332</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1518" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1518" s="13">
+        <v>45565</v>
+      </c>
+      <c r="Y1518" s="10">
+        <v>16.583333333333332</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1519" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1519" s="13">
+        <v>45569</v>
+      </c>
+      <c r="Y1519" s="10">
+        <v>16.166666666666668</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1520" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1520" s="13">
+        <v>45572</v>
+      </c>
+      <c r="Y1520" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1521" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1521" s="13">
+        <v>45576</v>
+      </c>
+      <c r="Y1521" s="10">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1522" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1522" s="13">
+        <v>45579</v>
+      </c>
+      <c r="Y1522" s="10">
+        <v>14.916666666666666</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1523" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1523" s="13">
+        <v>45582</v>
+      </c>
+      <c r="Y1523" s="10">
+        <v>14.416666666666666</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1524" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1524" s="13">
+        <v>45586</v>
+      </c>
+      <c r="Y1524" s="10">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1525" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1525" s="13">
+        <v>45590</v>
+      </c>
+      <c r="Y1525" s="10">
+        <v>11.083333333333334</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1526" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1526" s="13">
+        <v>45593</v>
+      </c>
+      <c r="Y1526" s="10">
+        <v>10.166666666666666</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1527" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1527" s="13">
+        <v>45597</v>
+      </c>
+      <c r="Y1527" s="10">
+        <v>9.5833333333333339</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1528" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1528" s="13">
+        <v>45599</v>
+      </c>
+      <c r="Y1528" s="10">
+        <v>9.1666666666666661</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1529" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1529" s="13">
+        <v>45603</v>
+      </c>
+      <c r="Y1529" s="10">
+        <v>9.0833333333333339</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1530" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1530" s="13">
+        <v>45607</v>
+      </c>
+      <c r="Y1530" s="10">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1531" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1531" s="13">
+        <v>45610</v>
+      </c>
+      <c r="Y1531" s="10">
+        <v>8.5833333333333339</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1532" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1532" s="13">
+        <v>45614</v>
+      </c>
+      <c r="Y1532" s="10">
+        <v>8.4166666666666661</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1533" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1533" s="13">
+        <v>45618</v>
+      </c>
+      <c r="Y1533" s="10">
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1534" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1534" s="13">
+        <v>45621</v>
+      </c>
+      <c r="Y1534" s="10">
+        <v>8.1666666666666661</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1535" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1535" s="13">
+        <v>45625</v>
+      </c>
+      <c r="Y1535" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1536" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1536" s="13">
+        <v>45628</v>
+      </c>
+      <c r="Y1536" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1537" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1537" s="13">
+        <v>45632</v>
+      </c>
+      <c r="Y1537" s="10">
+        <v>7.666666666666667</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1538" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1538" s="13">
+        <v>45635</v>
+      </c>
+      <c r="Y1538" s="10">
+        <v>7.583333333333333</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1539" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1539" s="13">
+        <v>45639</v>
+      </c>
+      <c r="Y1539" s="10">
+        <v>7.166666666666667</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1540" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1540" s="13">
+        <v>45642</v>
+      </c>
+      <c r="Y1540" s="10">
+        <v>7.166666666666667</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1541" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1541" s="13">
+        <v>45646</v>
+      </c>
+      <c r="Y1541" s="10">
+        <v>7.083333333333333</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1542" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1542" s="13">
+        <v>45649</v>
+      </c>
+      <c r="Y1542" s="10">
+        <v>7.083333333333333</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1543" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1543" s="13">
+        <v>45653</v>
+      </c>
+      <c r="Y1543" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1544" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1544" s="13">
+        <v>45656</v>
+      </c>
+      <c r="Y1544" s="10">
+        <v>6.833333333333333</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1545" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1545" s="13">
+        <v>45659</v>
+      </c>
+      <c r="Y1545" s="10">
+        <v>6.833333333333333</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1546" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1546" s="13">
+        <v>45663</v>
+      </c>
+      <c r="Y1546" s="10">
+        <v>6.833333333333333</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1547" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1547" s="13">
+        <v>45670</v>
+      </c>
+      <c r="Y1547" s="10">
+        <v>6.833333333333333</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1548" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1548" s="13">
+        <v>45674</v>
+      </c>
+      <c r="Y1548" s="10">
+        <v>6.583333333333333</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1549" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1549" s="13">
+        <v>45677</v>
+      </c>
+      <c r="Y1549" s="10">
+        <v>6.416666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -17812,14 +23873,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="322cff4d-e128-4275-8c17-01ea60ce9850" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002CA9C2C83C87A7408E0099D61CB2C224" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3ce516e8a7524994cf4149f9aaa4cac7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="322cff4d-e128-4275-8c17-01ea60ce9850" xmlns:ns4="7391035e-a561-4b14-b643-167d3e77bc43" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="449e7fc92384ad82c475872e96556466" ns3:_="" ns4:_="">
     <xsd:import namespace="322cff4d-e128-4275-8c17-01ea60ce9850"/>
@@ -18072,7 +24125,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -18081,24 +24134,15 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3709C4F5-F4CD-4825-B22E-AD384DC6F7E6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="322cff4d-e128-4275-8c17-01ea60ce9850"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7391035e-a561-4b14-b643-167d3e77bc43"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="322cff4d-e128-4275-8c17-01ea60ce9850" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1EA98CE-4368-4F90-9C57-5CE2133AA34B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18117,10 +24161,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{565FE936-45C1-4267-BB01-0C6ECA531FFF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3709C4F5-F4CD-4825-B22E-AD384DC6F7E6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="322cff4d-e128-4275-8c17-01ea60ce9850"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7391035e-a561-4b14-b643-167d3e77bc43"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Tests/Validation/Wheat/data/Lincoln2024.xlsx
+++ b/Tests/Validation/Wheat/data/Lincoln2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\ApsimX\Tests\Validation\Wheat\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D825E61-4497-4198-B76F-7F76C26A044B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0EF73D-E86A-4346-82AB-877875FC482E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" autoFilterDateGrouping="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -260,7 +260,7 @@
     <t>Wheat.Population</t>
   </si>
   <si>
-    <t>EndGrainFill</t>
+    <t>HarvestRipe</t>
   </si>
 </sst>
 </file>
@@ -321,7 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -334,9 +334,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -681,10 +678,10 @@
   <dimension ref="A1:Y1549"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="U999" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="R826" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1002" sqref="A1002:B1549"/>
+      <selection pane="bottomRight" activeCell="R834" sqref="R834:R837"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -777,7 +774,7 @@
       <c r="X1" t="s">
         <v>72</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -820,7 +817,6 @@
       <c r="S2">
         <v>4</v>
       </c>
-      <c r="Y2" s="10"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -855,7 +851,6 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Y3" s="10"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -890,7 +885,6 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Y4" s="10"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -934,7 +928,6 @@
       <c r="S5">
         <v>4</v>
       </c>
-      <c r="Y5" s="10"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -969,7 +962,6 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Y6" s="10"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1004,7 +996,6 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Y7" s="10"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1048,7 +1039,6 @@
       <c r="S8">
         <v>4</v>
       </c>
-      <c r="Y8" s="10"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1083,7 +1073,6 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="Y9" s="10"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1118,7 +1107,6 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Y10" s="10"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1162,7 +1150,6 @@
       <c r="S11">
         <v>4</v>
       </c>
-      <c r="Y11" s="10"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1197,7 +1184,6 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Y12" s="10"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1232,7 +1218,6 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Y13" s="10"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1276,7 +1261,6 @@
       <c r="S14">
         <v>4</v>
       </c>
-      <c r="Y14" s="10"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1320,7 +1304,6 @@
       <c r="S15">
         <v>4</v>
       </c>
-      <c r="Y15" s="10"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1364,7 +1347,6 @@
       <c r="S16">
         <v>4</v>
       </c>
-      <c r="Y16" s="10"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -16156,7 +16138,6 @@
       <c r="S993">
         <v>6</v>
       </c>
-      <c r="Y993" s="10"/>
     </row>
     <row r="994" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A994" t="s">
@@ -16175,7 +16156,6 @@
       <c r="S994">
         <v>8</v>
       </c>
-      <c r="Y994" s="10"/>
     </row>
     <row r="995" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A995" t="s">
@@ -16194,7 +16174,6 @@
       <c r="S995">
         <v>8</v>
       </c>
-      <c r="Y995" s="10"/>
     </row>
     <row r="996" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A996" t="s">
@@ -16213,7 +16192,6 @@
       <c r="S996">
         <v>8</v>
       </c>
-      <c r="Y996" s="10"/>
     </row>
     <row r="997" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A997" t="s">
@@ -16232,7 +16210,6 @@
       <c r="S997">
         <v>8</v>
       </c>
-      <c r="Y997" s="10"/>
     </row>
     <row r="998" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A998" t="s">
@@ -16251,7 +16228,6 @@
       <c r="S998">
         <v>8</v>
       </c>
-      <c r="Y998" s="10"/>
     </row>
     <row r="999" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A999" t="s">
@@ -16270,7 +16246,6 @@
       <c r="S999">
         <v>8</v>
       </c>
-      <c r="Y999" s="10"/>
     </row>
     <row r="1000" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1000" t="s">
@@ -16289,7 +16264,6 @@
       <c r="S1000">
         <v>8</v>
       </c>
-      <c r="Y1000" s="10"/>
     </row>
     <row r="1001" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1001" t="s">
@@ -16308,6033 +16282,6032 @@
       <c r="S1001">
         <v>8</v>
       </c>
-      <c r="Y1001" s="10"/>
     </row>
     <row r="1002" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1002" s="12" t="s">
+      <c r="A1002" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B1002" s="14">
+      <c r="B1002" s="11">
         <v>45399</v>
       </c>
-      <c r="Y1002" s="10">
+      <c r="Y1002">
         <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="1003" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1003" s="11" t="s">
+      <c r="A1003" t="s">
         <v>33</v>
       </c>
-      <c r="B1003" s="13">
+      <c r="B1003" s="10">
         <v>45401</v>
       </c>
-      <c r="Y1003" s="10">
+      <c r="Y1003">
         <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="1004" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1004" s="11" t="s">
+      <c r="A1004" t="s">
         <v>33</v>
       </c>
-      <c r="B1004" s="13">
+      <c r="B1004" s="10">
         <v>45404</v>
       </c>
-      <c r="Y1004" s="10">
+      <c r="Y1004">
         <v>2.25</v>
       </c>
     </row>
     <row r="1005" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1005" s="11" t="s">
+      <c r="A1005" t="s">
         <v>33</v>
       </c>
-      <c r="B1005" s="13">
+      <c r="B1005" s="10">
         <v>45406</v>
       </c>
-      <c r="Y1005" s="10">
+      <c r="Y1005">
         <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="1006" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1006" s="11" t="s">
+      <c r="A1006" t="s">
         <v>33</v>
       </c>
-      <c r="B1006" s="13">
+      <c r="B1006" s="10">
         <v>45412</v>
       </c>
-      <c r="Y1006" s="10">
+      <c r="Y1006">
         <v>3.8333333333333335</v>
       </c>
     </row>
     <row r="1007" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1007" s="11" t="s">
+      <c r="A1007" t="s">
         <v>33</v>
       </c>
-      <c r="B1007" s="13">
+      <c r="B1007" s="10">
         <v>45415</v>
       </c>
-      <c r="Y1007" s="10">
+      <c r="Y1007">
         <v>4.833333333333333</v>
       </c>
     </row>
     <row r="1008" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1008" s="11" t="s">
+      <c r="A1008" t="s">
         <v>33</v>
       </c>
-      <c r="B1008" s="13">
+      <c r="B1008" s="10">
         <v>45418</v>
       </c>
-      <c r="Y1008" s="10">
+      <c r="Y1008">
         <v>5.5</v>
       </c>
     </row>
     <row r="1009" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1009" s="11" t="s">
+      <c r="A1009" t="s">
         <v>33</v>
       </c>
-      <c r="B1009" s="13">
+      <c r="B1009" s="10">
         <v>45420</v>
       </c>
-      <c r="Y1009" s="10">
+      <c r="Y1009">
         <v>6.333333333333333</v>
       </c>
     </row>
     <row r="1010" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1010" s="11" t="s">
+      <c r="A1010" t="s">
         <v>33</v>
       </c>
-      <c r="B1010" s="13">
+      <c r="B1010" s="10">
         <v>45424</v>
       </c>
-      <c r="Y1010" s="10">
+      <c r="Y1010">
         <v>6.666666666666667</v>
       </c>
     </row>
     <row r="1011" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1011" s="11" t="s">
+      <c r="A1011" t="s">
         <v>33</v>
       </c>
-      <c r="B1011" s="13">
+      <c r="B1011" s="10">
         <v>45429</v>
       </c>
-      <c r="Y1011" s="10">
+      <c r="Y1011">
         <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="1012" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1012" s="11" t="s">
+      <c r="A1012" t="s">
         <v>33</v>
       </c>
-      <c r="B1012" s="13">
+      <c r="B1012" s="10">
         <v>45432</v>
       </c>
-      <c r="Y1012" s="10">
+      <c r="Y1012">
         <v>9.5</v>
       </c>
     </row>
     <row r="1013" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1013" s="11" t="s">
+      <c r="A1013" t="s">
         <v>33</v>
       </c>
-      <c r="B1013" s="13">
+      <c r="B1013" s="10">
         <v>45436</v>
       </c>
-      <c r="Y1013" s="10">
+      <c r="Y1013">
         <v>11.083333333333334</v>
       </c>
     </row>
     <row r="1014" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1014" s="11" t="s">
+      <c r="A1014" t="s">
         <v>33</v>
       </c>
-      <c r="B1014" s="13">
+      <c r="B1014" s="10">
         <v>45440</v>
       </c>
-      <c r="Y1014" s="10">
+      <c r="Y1014">
         <v>12.25</v>
       </c>
     </row>
     <row r="1015" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1015" s="11" t="s">
+      <c r="A1015" t="s">
         <v>33</v>
       </c>
-      <c r="B1015" s="13">
+      <c r="B1015" s="10">
         <v>45443</v>
       </c>
-      <c r="Y1015" s="10">
+      <c r="Y1015">
         <v>12.583333333333334</v>
       </c>
     </row>
     <row r="1016" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1016" s="11" t="s">
+      <c r="A1016" t="s">
         <v>33</v>
       </c>
-      <c r="B1016" s="13">
+      <c r="B1016" s="10">
         <v>45446</v>
       </c>
-      <c r="Y1016" s="10">
+      <c r="Y1016">
         <v>13.333333333333334</v>
       </c>
     </row>
     <row r="1017" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1017" s="11" t="s">
+      <c r="A1017" t="s">
         <v>33</v>
       </c>
-      <c r="B1017" s="13">
+      <c r="B1017" s="10">
         <v>45449</v>
       </c>
-      <c r="Y1017" s="10">
+      <c r="Y1017">
         <v>14.25</v>
       </c>
     </row>
     <row r="1018" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1018" s="11" t="s">
+      <c r="A1018" t="s">
         <v>33</v>
       </c>
-      <c r="B1018" s="13">
+      <c r="B1018" s="10">
         <v>45453</v>
       </c>
-      <c r="Y1018" s="10">
+      <c r="Y1018">
         <v>15.666666666666666</v>
       </c>
     </row>
     <row r="1019" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1019" s="11" t="s">
+      <c r="A1019" t="s">
         <v>33</v>
       </c>
-      <c r="B1019" s="13">
+      <c r="B1019" s="10">
         <v>45456</v>
       </c>
-      <c r="Y1019" s="10">
+      <c r="Y1019">
         <v>16.583333333333332</v>
       </c>
     </row>
     <row r="1020" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1020" s="11" t="s">
+      <c r="A1020" t="s">
         <v>33</v>
       </c>
-      <c r="B1020" s="13">
+      <c r="B1020" s="10">
         <v>45460</v>
       </c>
-      <c r="Y1020" s="10">
+      <c r="Y1020">
         <v>17.666666666666668</v>
       </c>
     </row>
     <row r="1021" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1021" s="11" t="s">
+      <c r="A1021" t="s">
         <v>33</v>
       </c>
-      <c r="B1021" s="13">
+      <c r="B1021" s="10">
         <v>45465</v>
       </c>
-      <c r="Y1021" s="10">
+      <c r="Y1021">
         <v>18.916666666666668</v>
       </c>
     </row>
     <row r="1022" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1022" s="11" t="s">
+      <c r="A1022" t="s">
         <v>33</v>
       </c>
-      <c r="B1022" s="13">
+      <c r="B1022" s="10">
         <v>45468</v>
       </c>
-      <c r="Y1022" s="10">
+      <c r="Y1022">
         <v>19.166666666666668</v>
       </c>
     </row>
     <row r="1023" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1023" s="11" t="s">
+      <c r="A1023" t="s">
         <v>33</v>
       </c>
-      <c r="B1023" s="13">
+      <c r="B1023" s="10">
         <v>45471</v>
       </c>
-      <c r="Y1023" s="10">
+      <c r="Y1023">
         <v>19.416666666666668</v>
       </c>
     </row>
     <row r="1024" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1024" s="11" t="s">
+      <c r="A1024" t="s">
         <v>33</v>
       </c>
-      <c r="B1024" s="13">
+      <c r="B1024" s="10">
         <v>45475</v>
       </c>
-      <c r="Y1024" s="10">
+      <c r="Y1024">
         <v>19.75</v>
       </c>
     </row>
     <row r="1025" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1025" s="11" t="s">
+      <c r="A1025" t="s">
         <v>33</v>
       </c>
-      <c r="B1025" s="13">
+      <c r="B1025" s="10">
         <v>45478</v>
       </c>
-      <c r="Y1025" s="10">
+      <c r="Y1025">
         <v>19.833333333333332</v>
       </c>
     </row>
     <row r="1026" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1026" s="11" t="s">
+      <c r="A1026" t="s">
         <v>33</v>
       </c>
-      <c r="B1026" s="13">
+      <c r="B1026" s="10">
         <v>45483</v>
       </c>
-      <c r="Y1026" s="10">
+      <c r="Y1026">
         <v>19.916666666666668</v>
       </c>
     </row>
     <row r="1027" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1027" s="11" t="s">
+      <c r="A1027" t="s">
         <v>33</v>
       </c>
-      <c r="B1027" s="13">
+      <c r="B1027" s="10">
         <v>45489</v>
       </c>
-      <c r="Y1027" s="10">
+      <c r="Y1027">
         <v>20</v>
       </c>
     </row>
     <row r="1028" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1028" s="11" t="s">
+      <c r="A1028" t="s">
         <v>33</v>
       </c>
-      <c r="B1028" s="13">
+      <c r="B1028" s="10">
         <v>45492</v>
       </c>
-      <c r="Y1028" s="10">
+      <c r="Y1028">
         <v>20.083333333333332</v>
       </c>
     </row>
     <row r="1029" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1029" s="11" t="s">
+      <c r="A1029" t="s">
         <v>33</v>
       </c>
-      <c r="B1029" s="13">
+      <c r="B1029" s="10">
         <v>45495</v>
       </c>
-      <c r="Y1029" s="10">
+      <c r="Y1029">
         <v>20.083333333333332</v>
       </c>
     </row>
     <row r="1030" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1030" s="11" t="s">
+      <c r="A1030" t="s">
         <v>33</v>
       </c>
-      <c r="B1030" s="13">
+      <c r="B1030" s="10">
         <v>45502</v>
       </c>
-      <c r="Y1030" s="10">
+      <c r="Y1030">
         <v>20.083333333333332</v>
       </c>
     </row>
     <row r="1031" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1031" s="11" t="s">
+      <c r="A1031" t="s">
         <v>33</v>
       </c>
-      <c r="B1031" s="13">
+      <c r="B1031" s="10">
         <v>45509</v>
       </c>
-      <c r="Y1031" s="10">
+      <c r="Y1031">
         <v>20.083333333333332</v>
       </c>
     </row>
     <row r="1032" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1032" s="11" t="s">
+      <c r="A1032" t="s">
         <v>33</v>
       </c>
-      <c r="B1032" s="13">
+      <c r="B1032" s="10">
         <v>45513</v>
       </c>
-      <c r="Y1032" s="10">
+      <c r="Y1032">
         <v>20.166666666666668</v>
       </c>
     </row>
     <row r="1033" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1033" s="11" t="s">
+      <c r="A1033" t="s">
         <v>33</v>
       </c>
-      <c r="B1033" s="13">
+      <c r="B1033" s="10">
         <v>45523</v>
       </c>
-      <c r="Y1033" s="10">
+      <c r="Y1033">
         <v>19.25</v>
       </c>
     </row>
     <row r="1034" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1034" s="11" t="s">
+      <c r="A1034" t="s">
         <v>33</v>
       </c>
-      <c r="B1034" s="13">
+      <c r="B1034" s="10">
         <v>45530</v>
       </c>
-      <c r="Y1034" s="10">
+      <c r="Y1034">
         <v>17.583333333333332</v>
       </c>
     </row>
     <row r="1035" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1035" s="11" t="s">
+      <c r="A1035" t="s">
         <v>33</v>
       </c>
-      <c r="B1035" s="13">
+      <c r="B1035" s="10">
         <v>45537</v>
       </c>
-      <c r="Y1035" s="10">
+      <c r="Y1035">
         <v>13.75</v>
       </c>
     </row>
     <row r="1036" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1036" s="11" t="s">
+      <c r="A1036" t="s">
         <v>33</v>
       </c>
-      <c r="B1036" s="13">
+      <c r="B1036" s="10">
         <v>45541</v>
       </c>
-      <c r="Y1036" s="10">
+      <c r="Y1036">
         <v>12.75</v>
       </c>
     </row>
     <row r="1037" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1037" s="11" t="s">
+      <c r="A1037" t="s">
         <v>33</v>
       </c>
-      <c r="B1037" s="13">
+      <c r="B1037" s="10">
         <v>45544</v>
       </c>
-      <c r="Y1037" s="10">
+      <c r="Y1037">
         <v>11.083333333333334</v>
       </c>
     </row>
     <row r="1038" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1038" s="11" t="s">
+      <c r="A1038" t="s">
         <v>33</v>
       </c>
-      <c r="B1038" s="13">
+      <c r="B1038" s="10">
         <v>45547</v>
       </c>
-      <c r="Y1038" s="10">
+      <c r="Y1038">
         <v>10.333333333333334</v>
       </c>
     </row>
     <row r="1039" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1039" s="11" t="s">
+      <c r="A1039" t="s">
         <v>33</v>
       </c>
-      <c r="B1039" s="13">
+      <c r="B1039" s="10">
         <v>45551</v>
       </c>
-      <c r="Y1039" s="10">
+      <c r="Y1039">
         <v>9.3333333333333339</v>
       </c>
     </row>
     <row r="1040" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1040" s="11" t="s">
+      <c r="A1040" t="s">
         <v>33</v>
       </c>
-      <c r="B1040" s="13">
+      <c r="B1040" s="10">
         <v>45555</v>
       </c>
-      <c r="Y1040" s="10">
+      <c r="Y1040">
         <v>8.5833333333333339</v>
       </c>
     </row>
     <row r="1041" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1041" s="11" t="s">
+      <c r="A1041" t="s">
         <v>33</v>
       </c>
-      <c r="B1041" s="13">
+      <c r="B1041" s="10">
         <v>45558</v>
       </c>
-      <c r="Y1041" s="10">
+      <c r="Y1041">
         <v>8.4166666666666661</v>
       </c>
     </row>
     <row r="1042" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1042" s="11" t="s">
+      <c r="A1042" t="s">
         <v>33</v>
       </c>
-      <c r="B1042" s="13">
+      <c r="B1042" s="10">
         <v>45561</v>
       </c>
-      <c r="Y1042" s="10">
+      <c r="Y1042">
         <v>7.666666666666667</v>
       </c>
     </row>
     <row r="1043" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1043" s="11" t="s">
+      <c r="A1043" t="s">
         <v>33</v>
       </c>
-      <c r="B1043" s="13">
+      <c r="B1043" s="10">
         <v>45565</v>
       </c>
-      <c r="Y1043" s="10">
+      <c r="Y1043">
         <v>7.166666666666667</v>
       </c>
     </row>
     <row r="1044" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1044" s="11" t="s">
+      <c r="A1044" t="s">
         <v>33</v>
       </c>
-      <c r="B1044" s="13">
+      <c r="B1044" s="10">
         <v>45569</v>
       </c>
-      <c r="Y1044" s="10">
+      <c r="Y1044">
         <v>6.75</v>
       </c>
     </row>
     <row r="1045" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1045" s="11" t="s">
+      <c r="A1045" t="s">
         <v>33</v>
       </c>
-      <c r="B1045" s="13">
+      <c r="B1045" s="10">
         <v>45572</v>
       </c>
-      <c r="Y1045" s="10">
+      <c r="Y1045">
         <v>6.666666666666667</v>
       </c>
     </row>
     <row r="1046" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1046" s="11" t="s">
+      <c r="A1046" t="s">
         <v>33</v>
       </c>
-      <c r="B1046" s="13">
+      <c r="B1046" s="10">
         <v>45576</v>
       </c>
-      <c r="Y1046" s="10">
+      <c r="Y1046">
         <v>6.333333333333333</v>
       </c>
     </row>
     <row r="1047" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1047" s="11" t="s">
+      <c r="A1047" t="s">
         <v>33</v>
       </c>
-      <c r="B1047" s="13">
+      <c r="B1047" s="10">
         <v>45579</v>
       </c>
-      <c r="Y1047" s="10">
+      <c r="Y1047">
         <v>6.25</v>
       </c>
     </row>
     <row r="1048" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1048" s="11" t="s">
+      <c r="A1048" t="s">
         <v>33</v>
       </c>
-      <c r="B1048" s="13">
+      <c r="B1048" s="10">
         <v>45582</v>
       </c>
-      <c r="Y1048" s="10">
+      <c r="Y1048">
         <v>6.166666666666667</v>
       </c>
     </row>
     <row r="1049" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1049" s="11" t="s">
+      <c r="A1049" t="s">
         <v>33</v>
       </c>
-      <c r="B1049" s="13">
+      <c r="B1049" s="10">
         <v>45586</v>
       </c>
-      <c r="Y1049" s="10">
+      <c r="Y1049">
         <v>6</v>
       </c>
     </row>
     <row r="1050" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1050" s="11" t="s">
+      <c r="A1050" t="s">
         <v>33</v>
       </c>
-      <c r="B1050" s="13">
+      <c r="B1050" s="10">
         <v>45590</v>
       </c>
-      <c r="Y1050" s="10">
+      <c r="Y1050">
         <v>5.583333333333333</v>
       </c>
     </row>
     <row r="1051" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1051" s="11" t="s">
+      <c r="A1051" t="s">
         <v>33</v>
       </c>
-      <c r="B1051" s="13">
+      <c r="B1051" s="10">
         <v>45593</v>
       </c>
-      <c r="Y1051" s="10">
+      <c r="Y1051">
         <v>5.416666666666667</v>
       </c>
     </row>
     <row r="1052" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1052" s="11" t="s">
+      <c r="A1052" t="s">
         <v>33</v>
       </c>
-      <c r="B1052" s="13">
+      <c r="B1052" s="10">
         <v>45597</v>
       </c>
-      <c r="Y1052" s="10">
+      <c r="Y1052">
         <v>5.166666666666667</v>
       </c>
     </row>
     <row r="1053" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1053" s="11" t="s">
+      <c r="A1053" t="s">
         <v>33</v>
       </c>
-      <c r="B1053" s="13">
+      <c r="B1053" s="10">
         <v>45599</v>
       </c>
-      <c r="Y1053" s="10">
+      <c r="Y1053">
         <v>5.083333333333333</v>
       </c>
     </row>
     <row r="1054" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1054" s="11" t="s">
+      <c r="A1054" t="s">
         <v>33</v>
       </c>
-      <c r="B1054" s="13">
+      <c r="B1054" s="10">
         <v>45603</v>
       </c>
-      <c r="Y1054" s="10">
+      <c r="Y1054">
         <v>5.083333333333333</v>
       </c>
     </row>
     <row r="1055" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1055" s="11" t="s">
+      <c r="A1055" t="s">
         <v>33</v>
       </c>
-      <c r="B1055" s="13">
+      <c r="B1055" s="10">
         <v>45607</v>
       </c>
-      <c r="Y1055" s="10">
+      <c r="Y1055">
         <v>5.083333333333333</v>
       </c>
     </row>
     <row r="1056" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1056" s="11" t="s">
+      <c r="A1056" t="s">
         <v>33</v>
       </c>
-      <c r="B1056" s="13">
+      <c r="B1056" s="10">
         <v>45610</v>
       </c>
-      <c r="Y1056" s="10">
+      <c r="Y1056">
         <v>5.083333333333333</v>
       </c>
     </row>
     <row r="1057" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1057" s="11" t="s">
+      <c r="A1057" t="s">
         <v>33</v>
       </c>
-      <c r="B1057" s="13">
+      <c r="B1057" s="10">
         <v>45614</v>
       </c>
-      <c r="Y1057" s="10">
+      <c r="Y1057">
         <v>5.083333333333333</v>
       </c>
     </row>
     <row r="1058" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1058" s="11" t="s">
+      <c r="A1058" t="s">
         <v>33</v>
       </c>
-      <c r="B1058" s="13">
+      <c r="B1058" s="10">
         <v>45618</v>
       </c>
-      <c r="Y1058" s="10">
+      <c r="Y1058">
         <v>5.083333333333333</v>
       </c>
     </row>
     <row r="1059" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1059" s="11" t="s">
+      <c r="A1059" t="s">
         <v>33</v>
       </c>
-      <c r="B1059" s="13">
+      <c r="B1059" s="10">
         <v>45621</v>
       </c>
-      <c r="Y1059" s="10">
+      <c r="Y1059">
         <v>5.083333333333333</v>
       </c>
     </row>
     <row r="1060" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1060" s="11" t="s">
+      <c r="A1060" t="s">
         <v>33</v>
       </c>
-      <c r="B1060" s="13">
+      <c r="B1060" s="10">
         <v>45625</v>
       </c>
-      <c r="Y1060" s="10">
+      <c r="Y1060">
         <v>5.083333333333333</v>
       </c>
     </row>
     <row r="1061" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1061" s="11" t="s">
+      <c r="A1061" t="s">
         <v>33</v>
       </c>
-      <c r="B1061" s="13">
+      <c r="B1061" s="10">
         <v>45628</v>
       </c>
-      <c r="Y1061" s="10">
+      <c r="Y1061">
         <v>5.083333333333333</v>
       </c>
     </row>
     <row r="1062" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1062" s="11" t="s">
+      <c r="A1062" t="s">
         <v>33</v>
       </c>
-      <c r="B1062" s="13">
+      <c r="B1062" s="10">
         <v>45632</v>
       </c>
-      <c r="Y1062" s="10">
+      <c r="Y1062">
         <v>5.083333333333333</v>
       </c>
     </row>
     <row r="1063" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1063" s="11" t="s">
+      <c r="A1063" t="s">
         <v>33</v>
       </c>
-      <c r="B1063" s="13">
+      <c r="B1063" s="10">
         <v>45635</v>
       </c>
-      <c r="Y1063" s="10">
+      <c r="Y1063">
         <v>4.916666666666667</v>
       </c>
     </row>
     <row r="1064" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1064" s="11" t="s">
+      <c r="A1064" t="s">
         <v>33</v>
       </c>
-      <c r="B1064" s="13">
+      <c r="B1064" s="10">
         <v>45639</v>
       </c>
-      <c r="Y1064" s="10">
+      <c r="Y1064">
         <v>4.833333333333333</v>
       </c>
     </row>
     <row r="1065" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1065" s="11" t="s">
+      <c r="A1065" t="s">
         <v>33</v>
       </c>
-      <c r="B1065" s="13">
+      <c r="B1065" s="10">
         <v>45642</v>
       </c>
-      <c r="Y1065" s="10">
+      <c r="Y1065">
         <v>4.833333333333333</v>
       </c>
     </row>
     <row r="1066" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1066" s="11" t="s">
+      <c r="A1066" t="s">
         <v>33</v>
       </c>
-      <c r="B1066" s="13">
+      <c r="B1066" s="10">
         <v>45646</v>
       </c>
-      <c r="Y1066" s="10">
+      <c r="Y1066">
         <v>4.833333333333333</v>
       </c>
     </row>
     <row r="1067" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1067" s="11" t="s">
+      <c r="A1067" t="s">
         <v>33</v>
       </c>
-      <c r="B1067" s="13">
+      <c r="B1067" s="10">
         <v>45649</v>
       </c>
-      <c r="Y1067" s="10">
+      <c r="Y1067">
         <v>4.75</v>
       </c>
     </row>
     <row r="1068" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1068" s="11" t="s">
+      <c r="A1068" t="s">
         <v>33</v>
       </c>
-      <c r="B1068" s="13">
+      <c r="B1068" s="10">
         <v>45653</v>
       </c>
-      <c r="Y1068" s="10">
+      <c r="Y1068">
         <v>4.75</v>
       </c>
     </row>
     <row r="1069" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1069" s="11" t="s">
+      <c r="A1069" t="s">
         <v>33</v>
       </c>
-      <c r="B1069" s="13">
+      <c r="B1069" s="10">
         <v>45656</v>
       </c>
-      <c r="Y1069" s="10">
+      <c r="Y1069">
         <v>4.666666666666667</v>
       </c>
     </row>
     <row r="1070" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1070" s="11" t="s">
+      <c r="A1070" t="s">
         <v>33</v>
       </c>
-      <c r="B1070" s="13">
+      <c r="B1070" s="10">
         <v>45659</v>
       </c>
-      <c r="Y1070" s="10">
+      <c r="Y1070">
         <v>4.583333333333333</v>
       </c>
     </row>
     <row r="1071" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1071" s="11" t="s">
+      <c r="A1071" t="s">
         <v>33</v>
       </c>
-      <c r="B1071" s="13">
+      <c r="B1071" s="10">
         <v>45663</v>
       </c>
-      <c r="Y1071" s="10">
+      <c r="Y1071">
         <v>4.583333333333333</v>
       </c>
     </row>
     <row r="1072" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1072" s="11" t="s">
+      <c r="A1072" t="s">
         <v>33</v>
       </c>
-      <c r="B1072" s="13">
+      <c r="B1072" s="10">
         <v>45666</v>
       </c>
-      <c r="Y1072" s="10">
+      <c r="Y1072">
         <v>4.083333333333333</v>
       </c>
     </row>
     <row r="1073" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1073" s="11" t="s">
+      <c r="A1073" t="s">
         <v>36</v>
       </c>
-      <c r="B1073" s="13">
+      <c r="B1073" s="10">
         <v>45399</v>
       </c>
-      <c r="Y1073" s="10">
+      <c r="Y1073">
         <v>1.5454545454545454</v>
       </c>
     </row>
     <row r="1074" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1074" s="11" t="s">
+      <c r="A1074" t="s">
         <v>36</v>
       </c>
-      <c r="B1074" s="13">
+      <c r="B1074" s="10">
         <v>45401</v>
       </c>
-      <c r="Y1074" s="10">
+      <c r="Y1074">
         <v>1.6363636363636365</v>
       </c>
     </row>
     <row r="1075" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1075" s="11" t="s">
+      <c r="A1075" t="s">
         <v>36</v>
       </c>
-      <c r="B1075" s="13">
+      <c r="B1075" s="10">
         <v>45404</v>
       </c>
-      <c r="Y1075" s="10">
+      <c r="Y1075">
         <v>2.5454545454545454</v>
       </c>
     </row>
     <row r="1076" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1076" s="11" t="s">
+      <c r="A1076" t="s">
         <v>36</v>
       </c>
-      <c r="B1076" s="13">
+      <c r="B1076" s="10">
         <v>45406</v>
       </c>
-      <c r="Y1076" s="10">
+      <c r="Y1076">
         <v>2.7272727272727271</v>
       </c>
     </row>
     <row r="1077" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1077" s="11" t="s">
+      <c r="A1077" t="s">
         <v>36</v>
       </c>
-      <c r="B1077" s="13">
+      <c r="B1077" s="10">
         <v>45412</v>
       </c>
-      <c r="Y1077" s="10">
+      <c r="Y1077">
         <v>4.3636363636363633</v>
       </c>
     </row>
     <row r="1078" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1078" s="11" t="s">
+      <c r="A1078" t="s">
         <v>36</v>
       </c>
-      <c r="B1078" s="13">
+      <c r="B1078" s="10">
         <v>45415</v>
       </c>
-      <c r="Y1078" s="10">
+      <c r="Y1078">
         <v>5</v>
       </c>
     </row>
     <row r="1079" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1079" s="11" t="s">
+      <c r="A1079" t="s">
         <v>36</v>
       </c>
-      <c r="B1079" s="13">
+      <c r="B1079" s="10">
         <v>45418</v>
       </c>
-      <c r="Y1079" s="10">
+      <c r="Y1079">
         <v>5.5454545454545459</v>
       </c>
     </row>
     <row r="1080" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1080" s="11" t="s">
+      <c r="A1080" t="s">
         <v>36</v>
       </c>
-      <c r="B1080" s="13">
+      <c r="B1080" s="10">
         <v>45420</v>
       </c>
-      <c r="Y1080" s="10">
+      <c r="Y1080">
         <v>6.6363636363636367</v>
       </c>
     </row>
     <row r="1081" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1081" s="11" t="s">
+      <c r="A1081" t="s">
         <v>36</v>
       </c>
-      <c r="B1081" s="13">
+      <c r="B1081" s="10">
         <v>45424</v>
       </c>
-      <c r="Y1081" s="10">
+      <c r="Y1081">
         <v>7.2727272727272725</v>
       </c>
     </row>
     <row r="1082" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1082" s="11" t="s">
+      <c r="A1082" t="s">
         <v>36</v>
       </c>
-      <c r="B1082" s="13">
+      <c r="B1082" s="10">
         <v>45429</v>
       </c>
-      <c r="Y1082" s="10">
+      <c r="Y1082">
         <v>8.7272727272727266</v>
       </c>
     </row>
     <row r="1083" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1083" s="11" t="s">
+      <c r="A1083" t="s">
         <v>36</v>
       </c>
-      <c r="B1083" s="13">
+      <c r="B1083" s="10">
         <v>45432</v>
       </c>
-      <c r="Y1083" s="10">
+      <c r="Y1083">
         <v>10.272727272727273</v>
       </c>
     </row>
     <row r="1084" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1084" s="11" t="s">
+      <c r="A1084" t="s">
         <v>36</v>
       </c>
-      <c r="B1084" s="13">
+      <c r="B1084" s="10">
         <v>45436</v>
       </c>
-      <c r="Y1084" s="10">
+      <c r="Y1084">
         <v>12.090909090909092</v>
       </c>
     </row>
     <row r="1085" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1085" s="11" t="s">
+      <c r="A1085" t="s">
         <v>36</v>
       </c>
-      <c r="B1085" s="13">
+      <c r="B1085" s="10">
         <v>45440</v>
       </c>
-      <c r="Y1085" s="10">
+      <c r="Y1085">
         <v>13.636363636363637</v>
       </c>
     </row>
     <row r="1086" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1086" s="11" t="s">
+      <c r="A1086" t="s">
         <v>36</v>
       </c>
-      <c r="B1086" s="13">
+      <c r="B1086" s="10">
         <v>45443</v>
       </c>
-      <c r="Y1086" s="10">
+      <c r="Y1086">
         <v>14.545454545454545</v>
       </c>
     </row>
     <row r="1087" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1087" s="11" t="s">
+      <c r="A1087" t="s">
         <v>36</v>
       </c>
-      <c r="B1087" s="13">
+      <c r="B1087" s="10">
         <v>45446</v>
       </c>
-      <c r="Y1087" s="10">
+      <c r="Y1087">
         <v>16</v>
       </c>
     </row>
     <row r="1088" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1088" s="11" t="s">
+      <c r="A1088" t="s">
         <v>36</v>
       </c>
-      <c r="B1088" s="13">
+      <c r="B1088" s="10">
         <v>45449</v>
       </c>
-      <c r="Y1088" s="10">
+      <c r="Y1088">
         <v>16.90909090909091</v>
       </c>
     </row>
     <row r="1089" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1089" s="11" t="s">
+      <c r="A1089" t="s">
         <v>36</v>
       </c>
-      <c r="B1089" s="13">
+      <c r="B1089" s="10">
         <v>45453</v>
       </c>
-      <c r="Y1089" s="10">
+      <c r="Y1089">
         <v>18</v>
       </c>
     </row>
     <row r="1090" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1090" s="11" t="s">
+      <c r="A1090" t="s">
         <v>36</v>
       </c>
-      <c r="B1090" s="13">
+      <c r="B1090" s="10">
         <v>45456</v>
       </c>
-      <c r="Y1090" s="10">
+      <c r="Y1090">
         <v>19.636363636363637</v>
       </c>
     </row>
     <row r="1091" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1091" s="11" t="s">
+      <c r="A1091" t="s">
         <v>36</v>
       </c>
-      <c r="B1091" s="13">
+      <c r="B1091" s="10">
         <v>45460</v>
       </c>
-      <c r="Y1091" s="10">
+      <c r="Y1091">
         <v>21</v>
       </c>
     </row>
     <row r="1092" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1092" s="11" t="s">
+      <c r="A1092" t="s">
         <v>36</v>
       </c>
-      <c r="B1092" s="13">
+      <c r="B1092" s="10">
         <v>45465</v>
       </c>
-      <c r="Y1092" s="10">
+      <c r="Y1092">
         <v>21.90909090909091</v>
       </c>
     </row>
     <row r="1093" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1093" s="11" t="s">
+      <c r="A1093" t="s">
         <v>36</v>
       </c>
-      <c r="B1093" s="13">
+      <c r="B1093" s="10">
         <v>45468</v>
       </c>
-      <c r="Y1093" s="10">
+      <c r="Y1093">
         <v>22.09090909090909</v>
       </c>
     </row>
     <row r="1094" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1094" s="11" t="s">
+      <c r="A1094" t="s">
         <v>36</v>
       </c>
-      <c r="B1094" s="13">
+      <c r="B1094" s="10">
         <v>45471</v>
       </c>
-      <c r="Y1094" s="10">
+      <c r="Y1094">
         <v>22.727272727272727</v>
       </c>
     </row>
     <row r="1095" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1095" s="11" t="s">
+      <c r="A1095" t="s">
         <v>36</v>
       </c>
-      <c r="B1095" s="13">
+      <c r="B1095" s="10">
         <v>45475</v>
       </c>
-      <c r="Y1095" s="10">
+      <c r="Y1095">
         <v>23</v>
       </c>
     </row>
     <row r="1096" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1096" s="11" t="s">
+      <c r="A1096" t="s">
         <v>36</v>
       </c>
-      <c r="B1096" s="13">
+      <c r="B1096" s="10">
         <v>45478</v>
       </c>
-      <c r="Y1096" s="10">
+      <c r="Y1096">
         <v>23.181818181818183</v>
       </c>
     </row>
     <row r="1097" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1097" s="11" t="s">
+      <c r="A1097" t="s">
         <v>36</v>
       </c>
-      <c r="B1097" s="13">
+      <c r="B1097" s="10">
         <v>45483</v>
       </c>
-      <c r="Y1097" s="10">
+      <c r="Y1097">
         <v>23.272727272727273</v>
       </c>
     </row>
     <row r="1098" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1098" s="11" t="s">
+      <c r="A1098" t="s">
         <v>36</v>
       </c>
-      <c r="B1098" s="13">
+      <c r="B1098" s="10">
         <v>45489</v>
       </c>
-      <c r="Y1098" s="10">
+      <c r="Y1098">
         <v>23.363636363636363</v>
       </c>
     </row>
     <row r="1099" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1099" s="11" t="s">
+      <c r="A1099" t="s">
         <v>36</v>
       </c>
-      <c r="B1099" s="13">
+      <c r="B1099" s="10">
         <v>45492</v>
       </c>
-      <c r="Y1099" s="10">
+      <c r="Y1099">
         <v>23.363636363636363</v>
       </c>
     </row>
     <row r="1100" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1100" s="11" t="s">
+      <c r="A1100" t="s">
         <v>36</v>
       </c>
-      <c r="B1100" s="13">
+      <c r="B1100" s="10">
         <v>45495</v>
       </c>
-      <c r="Y1100" s="10">
+      <c r="Y1100">
         <v>23.363636363636363</v>
       </c>
     </row>
     <row r="1101" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1101" s="11" t="s">
+      <c r="A1101" t="s">
         <v>36</v>
       </c>
-      <c r="B1101" s="13">
+      <c r="B1101" s="10">
         <v>45502</v>
       </c>
-      <c r="Y1101" s="10">
+      <c r="Y1101">
         <v>23.454545454545453</v>
       </c>
     </row>
     <row r="1102" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1102" s="11" t="s">
+      <c r="A1102" t="s">
         <v>36</v>
       </c>
-      <c r="B1102" s="13">
+      <c r="B1102" s="10">
         <v>45509</v>
       </c>
-      <c r="Y1102" s="10">
+      <c r="Y1102">
         <v>23.545454545454547</v>
       </c>
     </row>
     <row r="1103" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1103" s="11" t="s">
+      <c r="A1103" t="s">
         <v>36</v>
       </c>
-      <c r="B1103" s="13">
+      <c r="B1103" s="10">
         <v>45513</v>
       </c>
-      <c r="Y1103" s="10">
+      <c r="Y1103">
         <v>23.545454545454547</v>
       </c>
     </row>
     <row r="1104" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1104" s="11" t="s">
+      <c r="A1104" t="s">
         <v>36</v>
       </c>
-      <c r="B1104" s="13">
+      <c r="B1104" s="10">
         <v>45523</v>
       </c>
-      <c r="Y1104" s="10">
+      <c r="Y1104">
         <v>21.272727272727273</v>
       </c>
     </row>
     <row r="1105" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1105" s="11" t="s">
+      <c r="A1105" t="s">
         <v>36</v>
       </c>
-      <c r="B1105" s="13">
+      <c r="B1105" s="10">
         <v>45530</v>
       </c>
-      <c r="Y1105" s="10">
+      <c r="Y1105">
         <v>20.09090909090909</v>
       </c>
     </row>
     <row r="1106" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1106" s="11" t="s">
+      <c r="A1106" t="s">
         <v>36</v>
       </c>
-      <c r="B1106" s="13">
+      <c r="B1106" s="10">
         <v>45537</v>
       </c>
-      <c r="Y1106" s="10">
+      <c r="Y1106">
         <v>17.363636363636363</v>
       </c>
     </row>
     <row r="1107" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1107" s="11" t="s">
+      <c r="A1107" t="s">
         <v>36</v>
       </c>
-      <c r="B1107" s="13">
+      <c r="B1107" s="10">
         <v>45541</v>
       </c>
-      <c r="Y1107" s="10">
+      <c r="Y1107">
         <v>15.818181818181818</v>
       </c>
     </row>
     <row r="1108" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1108" s="11" t="s">
+      <c r="A1108" t="s">
         <v>36</v>
       </c>
-      <c r="B1108" s="13">
+      <c r="B1108" s="10">
         <v>45544</v>
       </c>
-      <c r="Y1108" s="10">
+      <c r="Y1108">
         <v>13.909090909090908</v>
       </c>
     </row>
     <row r="1109" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1109" s="11" t="s">
+      <c r="A1109" t="s">
         <v>36</v>
       </c>
-      <c r="B1109" s="13">
+      <c r="B1109" s="10">
         <v>45547</v>
       </c>
-      <c r="Y1109" s="10">
+      <c r="Y1109">
         <v>13.272727272727273</v>
       </c>
     </row>
     <row r="1110" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1110" s="11" t="s">
+      <c r="A1110" t="s">
         <v>36</v>
       </c>
-      <c r="B1110" s="13">
+      <c r="B1110" s="10">
         <v>45551</v>
       </c>
-      <c r="Y1110" s="10">
+      <c r="Y1110">
         <v>11.909090909090908</v>
       </c>
     </row>
     <row r="1111" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1111" s="11" t="s">
+      <c r="A1111" t="s">
         <v>36</v>
       </c>
-      <c r="B1111" s="13">
+      <c r="B1111" s="10">
         <v>45555</v>
       </c>
-      <c r="Y1111" s="10">
+      <c r="Y1111">
         <v>11.272727272727273</v>
       </c>
     </row>
     <row r="1112" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1112" s="11" t="s">
+      <c r="A1112" t="s">
         <v>36</v>
       </c>
-      <c r="B1112" s="13">
+      <c r="B1112" s="10">
         <v>45558</v>
       </c>
-      <c r="Y1112" s="10">
+      <c r="Y1112">
         <v>10.272727272727273</v>
       </c>
     </row>
     <row r="1113" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1113" s="11" t="s">
+      <c r="A1113" t="s">
         <v>36</v>
       </c>
-      <c r="B1113" s="13">
+      <c r="B1113" s="10">
         <v>45561</v>
       </c>
-      <c r="Y1113" s="10">
+      <c r="Y1113">
         <v>9.9090909090909083</v>
       </c>
     </row>
     <row r="1114" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1114" s="11" t="s">
+      <c r="A1114" t="s">
         <v>36</v>
       </c>
-      <c r="B1114" s="13">
+      <c r="B1114" s="10">
         <v>45565</v>
       </c>
-      <c r="Y1114" s="10">
+      <c r="Y1114">
         <v>8.9090909090909083</v>
       </c>
     </row>
     <row r="1115" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1115" s="11" t="s">
+      <c r="A1115" t="s">
         <v>36</v>
       </c>
-      <c r="B1115" s="13">
+      <c r="B1115" s="10">
         <v>45569</v>
       </c>
-      <c r="Y1115" s="10">
+      <c r="Y1115">
         <v>8.454545454545455</v>
       </c>
     </row>
     <row r="1116" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1116" s="11" t="s">
+      <c r="A1116" t="s">
         <v>36</v>
       </c>
-      <c r="B1116" s="13">
+      <c r="B1116" s="10">
         <v>45572</v>
       </c>
-      <c r="Y1116" s="10">
+      <c r="Y1116">
         <v>8.2727272727272734</v>
       </c>
     </row>
     <row r="1117" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1117" s="11" t="s">
+      <c r="A1117" t="s">
         <v>36</v>
       </c>
-      <c r="B1117" s="13">
+      <c r="B1117" s="10">
         <v>45576</v>
       </c>
-      <c r="Y1117" s="10">
+      <c r="Y1117">
         <v>7.7272727272727275</v>
       </c>
     </row>
     <row r="1118" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1118" s="11" t="s">
+      <c r="A1118" t="s">
         <v>36</v>
       </c>
-      <c r="B1118" s="13">
+      <c r="B1118" s="10">
         <v>45579</v>
       </c>
-      <c r="Y1118" s="10">
+      <c r="Y1118">
         <v>7.2727272727272725</v>
       </c>
     </row>
     <row r="1119" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1119" s="11" t="s">
+      <c r="A1119" t="s">
         <v>36</v>
       </c>
-      <c r="B1119" s="13">
+      <c r="B1119" s="10">
         <v>45582</v>
       </c>
-      <c r="Y1119" s="10">
+      <c r="Y1119">
         <v>7.1818181818181817</v>
       </c>
     </row>
     <row r="1120" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1120" s="11" t="s">
+      <c r="A1120" t="s">
         <v>36</v>
       </c>
-      <c r="B1120" s="13">
+      <c r="B1120" s="10">
         <v>45586</v>
       </c>
-      <c r="Y1120" s="10">
+      <c r="Y1120">
         <v>7.0909090909090908</v>
       </c>
     </row>
     <row r="1121" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1121" s="11" t="s">
+      <c r="A1121" t="s">
         <v>36</v>
       </c>
-      <c r="B1121" s="13">
+      <c r="B1121" s="10">
         <v>45590</v>
       </c>
-      <c r="Y1121" s="10">
+      <c r="Y1121">
         <v>6.6363636363636367</v>
       </c>
     </row>
     <row r="1122" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1122" s="11" t="s">
+      <c r="A1122" t="s">
         <v>36</v>
       </c>
-      <c r="B1122" s="13">
+      <c r="B1122" s="10">
         <v>45593</v>
       </c>
-      <c r="Y1122" s="10">
+      <c r="Y1122">
         <v>6.5454545454545459</v>
       </c>
     </row>
     <row r="1123" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1123" s="11" t="s">
+      <c r="A1123" t="s">
         <v>36</v>
       </c>
-      <c r="B1123" s="13">
+      <c r="B1123" s="10">
         <v>45597</v>
       </c>
-      <c r="Y1123" s="10">
+      <c r="Y1123">
         <v>6.3636363636363633</v>
       </c>
     </row>
     <row r="1124" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1124" s="11" t="s">
+      <c r="A1124" t="s">
         <v>36</v>
       </c>
-      <c r="B1124" s="13">
+      <c r="B1124" s="10">
         <v>45599</v>
       </c>
-      <c r="Y1124" s="10">
+      <c r="Y1124">
         <v>6.2727272727272725</v>
       </c>
     </row>
     <row r="1125" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1125" s="11" t="s">
+      <c r="A1125" t="s">
         <v>36</v>
       </c>
-      <c r="B1125" s="13">
+      <c r="B1125" s="10">
         <v>45603</v>
       </c>
-      <c r="Y1125" s="10">
+      <c r="Y1125">
         <v>6.2727272727272725</v>
       </c>
     </row>
     <row r="1126" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1126" s="11" t="s">
+      <c r="A1126" t="s">
         <v>36</v>
       </c>
-      <c r="B1126" s="13">
+      <c r="B1126" s="10">
         <v>45607</v>
       </c>
-      <c r="Y1126" s="10">
+      <c r="Y1126">
         <v>6.1818181818181817</v>
       </c>
     </row>
     <row r="1127" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1127" s="11" t="s">
+      <c r="A1127" t="s">
         <v>36</v>
       </c>
-      <c r="B1127" s="13">
+      <c r="B1127" s="10">
         <v>45610</v>
       </c>
-      <c r="Y1127" s="10">
+      <c r="Y1127">
         <v>6.0909090909090908</v>
       </c>
     </row>
     <row r="1128" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1128" s="11" t="s">
+      <c r="A1128" t="s">
         <v>36</v>
       </c>
-      <c r="B1128" s="13">
+      <c r="B1128" s="10">
         <v>45614</v>
       </c>
-      <c r="Y1128" s="10">
+      <c r="Y1128">
         <v>5.8181818181818183</v>
       </c>
     </row>
     <row r="1129" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1129" s="11" t="s">
+      <c r="A1129" t="s">
         <v>36</v>
       </c>
-      <c r="B1129" s="13">
+      <c r="B1129" s="10">
         <v>45618</v>
       </c>
-      <c r="Y1129" s="10">
+      <c r="Y1129">
         <v>5.8181818181818183</v>
       </c>
     </row>
     <row r="1130" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1130" s="11" t="s">
+      <c r="A1130" t="s">
         <v>36</v>
       </c>
-      <c r="B1130" s="13">
+      <c r="B1130" s="10">
         <v>45621</v>
       </c>
-      <c r="Y1130" s="10">
+      <c r="Y1130">
         <v>5.8181818181818183</v>
       </c>
     </row>
     <row r="1131" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1131" s="11" t="s">
+      <c r="A1131" t="s">
         <v>36</v>
       </c>
-      <c r="B1131" s="13">
+      <c r="B1131" s="10">
         <v>45625</v>
       </c>
-      <c r="Y1131" s="10">
+      <c r="Y1131">
         <v>5.8181818181818183</v>
       </c>
     </row>
     <row r="1132" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1132" s="11" t="s">
+      <c r="A1132" t="s">
         <v>36</v>
       </c>
-      <c r="B1132" s="13">
+      <c r="B1132" s="10">
         <v>45628</v>
       </c>
-      <c r="Y1132" s="10">
+      <c r="Y1132">
         <v>5.7272727272727275</v>
       </c>
     </row>
     <row r="1133" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1133" s="11" t="s">
+      <c r="A1133" t="s">
         <v>36</v>
       </c>
-      <c r="B1133" s="13">
+      <c r="B1133" s="10">
         <v>45632</v>
       </c>
-      <c r="Y1133" s="10">
+      <c r="Y1133">
         <v>5.6363636363636367</v>
       </c>
     </row>
     <row r="1134" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1134" s="11" t="s">
+      <c r="A1134" t="s">
         <v>36</v>
       </c>
-      <c r="B1134" s="13">
+      <c r="B1134" s="10">
         <v>45635</v>
       </c>
-      <c r="Y1134" s="10">
+      <c r="Y1134">
         <v>5.6363636363636367</v>
       </c>
     </row>
     <row r="1135" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1135" s="11" t="s">
+      <c r="A1135" t="s">
         <v>36</v>
       </c>
-      <c r="B1135" s="13">
+      <c r="B1135" s="10">
         <v>45639</v>
       </c>
-      <c r="Y1135" s="10">
+      <c r="Y1135">
         <v>5.5454545454545459</v>
       </c>
     </row>
     <row r="1136" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1136" s="11" t="s">
+      <c r="A1136" t="s">
         <v>36</v>
       </c>
-      <c r="B1136" s="13">
+      <c r="B1136" s="10">
         <v>45642</v>
       </c>
-      <c r="Y1136" s="10">
+      <c r="Y1136">
         <v>5.5454545454545459</v>
       </c>
     </row>
     <row r="1137" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1137" s="11" t="s">
+      <c r="A1137" t="s">
         <v>36</v>
       </c>
-      <c r="B1137" s="13">
+      <c r="B1137" s="10">
         <v>45646</v>
       </c>
-      <c r="Y1137" s="10">
+      <c r="Y1137">
         <v>5.5454545454545459</v>
       </c>
     </row>
     <row r="1138" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1138" s="11" t="s">
+      <c r="A1138" t="s">
         <v>36</v>
       </c>
-      <c r="B1138" s="13">
+      <c r="B1138" s="10">
         <v>45649</v>
       </c>
-      <c r="Y1138" s="10">
+      <c r="Y1138">
         <v>5.5454545454545459</v>
       </c>
     </row>
     <row r="1139" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1139" s="11" t="s">
+      <c r="A1139" t="s">
         <v>36</v>
       </c>
-      <c r="B1139" s="13">
+      <c r="B1139" s="10">
         <v>45653</v>
       </c>
-      <c r="Y1139" s="10">
+      <c r="Y1139">
         <v>5.5454545454545459</v>
       </c>
     </row>
     <row r="1140" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1140" s="11" t="s">
+      <c r="A1140" t="s">
         <v>36</v>
       </c>
-      <c r="B1140" s="13">
+      <c r="B1140" s="10">
         <v>45656</v>
       </c>
-      <c r="Y1140" s="10">
+      <c r="Y1140">
         <v>5.5454545454545459</v>
       </c>
     </row>
     <row r="1141" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1141" s="11" t="s">
+      <c r="A1141" t="s">
         <v>36</v>
       </c>
-      <c r="B1141" s="13">
+      <c r="B1141" s="10">
         <v>45659</v>
       </c>
-      <c r="Y1141" s="10">
+      <c r="Y1141">
         <v>5.5454545454545459</v>
       </c>
     </row>
     <row r="1142" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1142" s="11" t="s">
+      <c r="A1142" t="s">
         <v>36</v>
       </c>
-      <c r="B1142" s="13">
+      <c r="B1142" s="10">
         <v>45663</v>
       </c>
-      <c r="Y1142" s="10">
+      <c r="Y1142">
         <v>5.5454545454545459</v>
       </c>
     </row>
     <row r="1143" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1143" s="11" t="s">
+      <c r="A1143" t="s">
         <v>36</v>
       </c>
-      <c r="B1143" s="13">
+      <c r="B1143" s="10">
         <v>45666</v>
       </c>
-      <c r="Y1143" s="10">
+      <c r="Y1143">
         <v>5.083333333333333</v>
       </c>
     </row>
     <row r="1144" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1144" s="11" t="s">
+      <c r="A1144" t="s">
         <v>34</v>
       </c>
-      <c r="B1144" s="13">
+      <c r="B1144" s="10">
         <v>45399</v>
       </c>
-      <c r="Y1144" s="10">
+      <c r="Y1144">
         <v>1.3636363636363635</v>
       </c>
     </row>
     <row r="1145" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1145" s="11" t="s">
+      <c r="A1145" t="s">
         <v>34</v>
       </c>
-      <c r="B1145" s="13">
+      <c r="B1145" s="10">
         <v>45401</v>
       </c>
-      <c r="Y1145" s="10">
+      <c r="Y1145">
         <v>1.6363636363636365</v>
       </c>
     </row>
     <row r="1146" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1146" s="11" t="s">
+      <c r="A1146" t="s">
         <v>34</v>
       </c>
-      <c r="B1146" s="13">
+      <c r="B1146" s="10">
         <v>45404</v>
       </c>
-      <c r="Y1146" s="10">
+      <c r="Y1146">
         <v>2.2727272727272729</v>
       </c>
     </row>
     <row r="1147" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1147" s="11" t="s">
+      <c r="A1147" t="s">
         <v>34</v>
       </c>
-      <c r="B1147" s="13">
+      <c r="B1147" s="10">
         <v>45406</v>
       </c>
-      <c r="Y1147" s="10">
+      <c r="Y1147">
         <v>2.6363636363636362</v>
       </c>
     </row>
     <row r="1148" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1148" s="11" t="s">
+      <c r="A1148" t="s">
         <v>34</v>
       </c>
-      <c r="B1148" s="13">
+      <c r="B1148" s="10">
         <v>45412</v>
       </c>
-      <c r="Y1148" s="10">
+      <c r="Y1148">
         <v>4.0909090909090908</v>
       </c>
     </row>
     <row r="1149" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1149" s="11" t="s">
+      <c r="A1149" t="s">
         <v>34</v>
       </c>
-      <c r="B1149" s="13">
+      <c r="B1149" s="10">
         <v>45415</v>
       </c>
-      <c r="Y1149" s="10">
+      <c r="Y1149">
         <v>5.1818181818181817</v>
       </c>
     </row>
     <row r="1150" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1150" s="11" t="s">
+      <c r="A1150" t="s">
         <v>34</v>
       </c>
-      <c r="B1150" s="13">
+      <c r="B1150" s="10">
         <v>45418</v>
       </c>
-      <c r="Y1150" s="10">
+      <c r="Y1150">
         <v>6.1818181818181817</v>
       </c>
     </row>
     <row r="1151" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1151" s="11" t="s">
+      <c r="A1151" t="s">
         <v>34</v>
       </c>
-      <c r="B1151" s="13">
+      <c r="B1151" s="10">
         <v>45420</v>
       </c>
-      <c r="Y1151" s="10">
+      <c r="Y1151">
         <v>6.9090909090909092</v>
       </c>
     </row>
     <row r="1152" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1152" s="11" t="s">
+      <c r="A1152" t="s">
         <v>34</v>
       </c>
-      <c r="B1152" s="13">
+      <c r="B1152" s="10">
         <v>45424</v>
       </c>
-      <c r="Y1152" s="10">
+      <c r="Y1152">
         <v>7.3636363636363633</v>
       </c>
     </row>
     <row r="1153" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1153" s="11" t="s">
+      <c r="A1153" t="s">
         <v>34</v>
       </c>
-      <c r="B1153" s="13">
+      <c r="B1153" s="10">
         <v>45429</v>
       </c>
-      <c r="Y1153" s="10">
+      <c r="Y1153">
         <v>9.0909090909090917</v>
       </c>
     </row>
     <row r="1154" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1154" s="11" t="s">
+      <c r="A1154" t="s">
         <v>34</v>
       </c>
-      <c r="B1154" s="13">
+      <c r="B1154" s="10">
         <v>45432</v>
       </c>
-      <c r="Y1154" s="10">
+      <c r="Y1154">
         <v>10.363636363636363</v>
       </c>
     </row>
     <row r="1155" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1155" s="11" t="s">
+      <c r="A1155" t="s">
         <v>34</v>
       </c>
-      <c r="B1155" s="13">
+      <c r="B1155" s="10">
         <v>45436</v>
       </c>
-      <c r="Y1155" s="10">
+      <c r="Y1155">
         <v>12.272727272727273</v>
       </c>
     </row>
     <row r="1156" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1156" s="11" t="s">
+      <c r="A1156" t="s">
         <v>34</v>
       </c>
-      <c r="B1156" s="13">
+      <c r="B1156" s="10">
         <v>45440</v>
       </c>
-      <c r="Y1156" s="10">
+      <c r="Y1156">
         <v>13.090909090909092</v>
       </c>
     </row>
     <row r="1157" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1157" s="11" t="s">
+      <c r="A1157" t="s">
         <v>34</v>
       </c>
-      <c r="B1157" s="13">
+      <c r="B1157" s="10">
         <v>45443</v>
       </c>
-      <c r="Y1157" s="10">
+      <c r="Y1157">
         <v>13.636363636363637</v>
       </c>
     </row>
     <row r="1158" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1158" s="11" t="s">
+      <c r="A1158" t="s">
         <v>34</v>
       </c>
-      <c r="B1158" s="13">
+      <c r="B1158" s="10">
         <v>45446</v>
       </c>
-      <c r="Y1158" s="10">
+      <c r="Y1158">
         <v>14.909090909090908</v>
       </c>
     </row>
     <row r="1159" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1159" s="11" t="s">
+      <c r="A1159" t="s">
         <v>34</v>
       </c>
-      <c r="B1159" s="13">
+      <c r="B1159" s="10">
         <v>45449</v>
       </c>
-      <c r="Y1159" s="10">
+      <c r="Y1159">
         <v>16.363636363636363</v>
       </c>
     </row>
     <row r="1160" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1160" s="11" t="s">
+      <c r="A1160" t="s">
         <v>34</v>
       </c>
-      <c r="B1160" s="13">
+      <c r="B1160" s="10">
         <v>45453</v>
       </c>
-      <c r="Y1160" s="10">
+      <c r="Y1160">
         <v>17.818181818181817</v>
       </c>
     </row>
     <row r="1161" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1161" s="11" t="s">
+      <c r="A1161" t="s">
         <v>34</v>
       </c>
-      <c r="B1161" s="13">
+      <c r="B1161" s="10">
         <v>45456</v>
       </c>
-      <c r="Y1161" s="10">
+      <c r="Y1161">
         <v>19.272727272727273</v>
       </c>
     </row>
     <row r="1162" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1162" s="11" t="s">
+      <c r="A1162" t="s">
         <v>34</v>
       </c>
-      <c r="B1162" s="13">
+      <c r="B1162" s="10">
         <v>45460</v>
       </c>
-      <c r="Y1162" s="10">
+      <c r="Y1162">
         <v>21.272727272727273</v>
       </c>
     </row>
     <row r="1163" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1163" s="11" t="s">
+      <c r="A1163" t="s">
         <v>34</v>
       </c>
-      <c r="B1163" s="13">
+      <c r="B1163" s="10">
         <v>45465</v>
       </c>
-      <c r="Y1163" s="10">
+      <c r="Y1163">
         <v>22.636363636363637</v>
       </c>
     </row>
     <row r="1164" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1164" s="11" t="s">
+      <c r="A1164" t="s">
         <v>34</v>
       </c>
-      <c r="B1164" s="13">
+      <c r="B1164" s="10">
         <v>45468</v>
       </c>
-      <c r="Y1164" s="10">
+      <c r="Y1164">
         <v>22.727272727272727</v>
       </c>
     </row>
     <row r="1165" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1165" s="11" t="s">
+      <c r="A1165" t="s">
         <v>34</v>
       </c>
-      <c r="B1165" s="13">
+      <c r="B1165" s="10">
         <v>45471</v>
       </c>
-      <c r="Y1165" s="10">
+      <c r="Y1165">
         <v>23.454545454545453</v>
       </c>
     </row>
     <row r="1166" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1166" s="11" t="s">
+      <c r="A1166" t="s">
         <v>34</v>
       </c>
-      <c r="B1166" s="13">
+      <c r="B1166" s="10">
         <v>45475</v>
       </c>
-      <c r="Y1166" s="10">
+      <c r="Y1166">
         <v>23.454545454545453</v>
       </c>
     </row>
     <row r="1167" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1167" s="11" t="s">
+      <c r="A1167" t="s">
         <v>34</v>
       </c>
-      <c r="B1167" s="13">
+      <c r="B1167" s="10">
         <v>45478</v>
       </c>
-      <c r="Y1167" s="10">
+      <c r="Y1167">
         <v>23.545454545454547</v>
       </c>
     </row>
     <row r="1168" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1168" s="11" t="s">
+      <c r="A1168" t="s">
         <v>34</v>
       </c>
-      <c r="B1168" s="13">
+      <c r="B1168" s="10">
         <v>45483</v>
       </c>
-      <c r="Y1168" s="10">
+      <c r="Y1168">
         <v>23.636363636363637</v>
       </c>
     </row>
     <row r="1169" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1169" s="11" t="s">
+      <c r="A1169" t="s">
         <v>34</v>
       </c>
-      <c r="B1169" s="13">
+      <c r="B1169" s="10">
         <v>45489</v>
       </c>
-      <c r="Y1169" s="10">
+      <c r="Y1169">
         <v>23.636363636363637</v>
       </c>
     </row>
     <row r="1170" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1170" s="11" t="s">
+      <c r="A1170" t="s">
         <v>34</v>
       </c>
-      <c r="B1170" s="13">
+      <c r="B1170" s="10">
         <v>45492</v>
       </c>
-      <c r="Y1170" s="10">
+      <c r="Y1170">
         <v>23.636363636363637</v>
       </c>
     </row>
     <row r="1171" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1171" s="11" t="s">
+      <c r="A1171" t="s">
         <v>34</v>
       </c>
-      <c r="B1171" s="13">
+      <c r="B1171" s="10">
         <v>45495</v>
       </c>
-      <c r="Y1171" s="10">
+      <c r="Y1171">
         <v>23.636363636363637</v>
       </c>
     </row>
     <row r="1172" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1172" s="11" t="s">
+      <c r="A1172" t="s">
         <v>34</v>
       </c>
-      <c r="B1172" s="13">
+      <c r="B1172" s="10">
         <v>45502</v>
       </c>
-      <c r="Y1172" s="10">
+      <c r="Y1172">
         <v>23.636363636363637</v>
       </c>
     </row>
     <row r="1173" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1173" s="11" t="s">
+      <c r="A1173" t="s">
         <v>34</v>
       </c>
-      <c r="B1173" s="13">
+      <c r="B1173" s="10">
         <v>45509</v>
       </c>
-      <c r="Y1173" s="10">
+      <c r="Y1173">
         <v>23.636363636363637</v>
       </c>
     </row>
     <row r="1174" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1174" s="11" t="s">
+      <c r="A1174" t="s">
         <v>34</v>
       </c>
-      <c r="B1174" s="13">
+      <c r="B1174" s="10">
         <v>45513</v>
       </c>
-      <c r="Y1174" s="10">
+      <c r="Y1174">
         <v>23.636363636363637</v>
       </c>
     </row>
     <row r="1175" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1175" s="11" t="s">
+      <c r="A1175" t="s">
         <v>34</v>
       </c>
-      <c r="B1175" s="13">
+      <c r="B1175" s="10">
         <v>45523</v>
       </c>
-      <c r="Y1175" s="10">
+      <c r="Y1175">
         <v>22.09090909090909</v>
       </c>
     </row>
     <row r="1176" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1176" s="11" t="s">
+      <c r="A1176" t="s">
         <v>34</v>
       </c>
-      <c r="B1176" s="13">
+      <c r="B1176" s="10">
         <v>45530</v>
       </c>
-      <c r="Y1176" s="10">
+      <c r="Y1176">
         <v>20</v>
       </c>
     </row>
     <row r="1177" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1177" s="11" t="s">
+      <c r="A1177" t="s">
         <v>34</v>
       </c>
-      <c r="B1177" s="13">
+      <c r="B1177" s="10">
         <v>45537</v>
       </c>
-      <c r="Y1177" s="10">
+      <c r="Y1177">
         <v>17.454545454545453</v>
       </c>
     </row>
     <row r="1178" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1178" s="11" t="s">
+      <c r="A1178" t="s">
         <v>34</v>
       </c>
-      <c r="B1178" s="13">
+      <c r="B1178" s="10">
         <v>45541</v>
       </c>
-      <c r="Y1178" s="10">
+      <c r="Y1178">
         <v>15.545454545454545</v>
       </c>
     </row>
     <row r="1179" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1179" s="11" t="s">
+      <c r="A1179" t="s">
         <v>34</v>
       </c>
-      <c r="B1179" s="13">
+      <c r="B1179" s="10">
         <v>45544</v>
       </c>
-      <c r="Y1179" s="10">
+      <c r="Y1179">
         <v>13.909090909090908</v>
       </c>
     </row>
     <row r="1180" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1180" s="11" t="s">
+      <c r="A1180" t="s">
         <v>34</v>
       </c>
-      <c r="B1180" s="13">
+      <c r="B1180" s="10">
         <v>45547</v>
       </c>
-      <c r="Y1180" s="10">
+      <c r="Y1180">
         <v>13.636363636363637</v>
       </c>
     </row>
     <row r="1181" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1181" s="11" t="s">
+      <c r="A1181" t="s">
         <v>34</v>
       </c>
-      <c r="B1181" s="13">
+      <c r="B1181" s="10">
         <v>45551</v>
       </c>
-      <c r="Y1181" s="10">
+      <c r="Y1181">
         <v>12.545454545454545</v>
       </c>
     </row>
     <row r="1182" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1182" s="11" t="s">
+      <c r="A1182" t="s">
         <v>34</v>
       </c>
-      <c r="B1182" s="13">
+      <c r="B1182" s="10">
         <v>45555</v>
       </c>
-      <c r="Y1182" s="10">
+      <c r="Y1182">
         <v>11.909090909090908</v>
       </c>
     </row>
     <row r="1183" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1183" s="11" t="s">
+      <c r="A1183" t="s">
         <v>34</v>
       </c>
-      <c r="B1183" s="13">
+      <c r="B1183" s="10">
         <v>45558</v>
       </c>
-      <c r="Y1183" s="10">
+      <c r="Y1183">
         <v>11</v>
       </c>
     </row>
     <row r="1184" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1184" s="11" t="s">
+      <c r="A1184" t="s">
         <v>34</v>
       </c>
-      <c r="B1184" s="13">
+      <c r="B1184" s="10">
         <v>45561</v>
       </c>
-      <c r="Y1184" s="10">
+      <c r="Y1184">
         <v>10.363636363636363</v>
       </c>
     </row>
     <row r="1185" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1185" s="11" t="s">
+      <c r="A1185" t="s">
         <v>34</v>
       </c>
-      <c r="B1185" s="13">
+      <c r="B1185" s="10">
         <v>45565</v>
       </c>
-      <c r="Y1185" s="10">
+      <c r="Y1185">
         <v>9.454545454545455</v>
       </c>
     </row>
     <row r="1186" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1186" s="11" t="s">
+      <c r="A1186" t="s">
         <v>34</v>
       </c>
-      <c r="B1186" s="13">
+      <c r="B1186" s="10">
         <v>45569</v>
       </c>
-      <c r="Y1186" s="10">
+      <c r="Y1186">
         <v>8.545454545454545</v>
       </c>
     </row>
     <row r="1187" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1187" s="11" t="s">
+      <c r="A1187" t="s">
         <v>34</v>
       </c>
-      <c r="B1187" s="13">
+      <c r="B1187" s="10">
         <v>45572</v>
       </c>
-      <c r="Y1187" s="10">
+      <c r="Y1187">
         <v>8</v>
       </c>
     </row>
     <row r="1188" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1188" s="11" t="s">
+      <c r="A1188" t="s">
         <v>34</v>
       </c>
-      <c r="B1188" s="13">
+      <c r="B1188" s="10">
         <v>45576</v>
       </c>
-      <c r="Y1188" s="10">
+      <c r="Y1188">
         <v>7.4545454545454541</v>
       </c>
     </row>
     <row r="1189" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1189" s="11" t="s">
+      <c r="A1189" t="s">
         <v>34</v>
       </c>
-      <c r="B1189" s="13">
+      <c r="B1189" s="10">
         <v>45579</v>
       </c>
-      <c r="Y1189" s="10">
+      <c r="Y1189">
         <v>7.1818181818181817</v>
       </c>
     </row>
     <row r="1190" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1190" s="11" t="s">
+      <c r="A1190" t="s">
         <v>34</v>
       </c>
-      <c r="B1190" s="13">
+      <c r="B1190" s="10">
         <v>45582</v>
       </c>
-      <c r="Y1190" s="10">
+      <c r="Y1190">
         <v>6.9090909090909092</v>
       </c>
     </row>
     <row r="1191" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1191" s="11" t="s">
+      <c r="A1191" t="s">
         <v>34</v>
       </c>
-      <c r="B1191" s="13">
+      <c r="B1191" s="10">
         <v>45586</v>
       </c>
-      <c r="Y1191" s="10">
+      <c r="Y1191">
         <v>6.7272727272727275</v>
       </c>
     </row>
     <row r="1192" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1192" s="11" t="s">
+      <c r="A1192" t="s">
         <v>34</v>
       </c>
-      <c r="B1192" s="13">
+      <c r="B1192" s="10">
         <v>45590</v>
       </c>
-      <c r="Y1192" s="10">
+      <c r="Y1192">
         <v>6.7272727272727275</v>
       </c>
     </row>
     <row r="1193" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1193" s="11" t="s">
+      <c r="A1193" t="s">
         <v>34</v>
       </c>
-      <c r="B1193" s="13">
+      <c r="B1193" s="10">
         <v>45593</v>
       </c>
-      <c r="Y1193" s="10">
+      <c r="Y1193">
         <v>6.6363636363636367</v>
       </c>
     </row>
     <row r="1194" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1194" s="11" t="s">
+      <c r="A1194" t="s">
         <v>34</v>
       </c>
-      <c r="B1194" s="13">
+      <c r="B1194" s="10">
         <v>45597</v>
       </c>
-      <c r="Y1194" s="10">
+      <c r="Y1194">
         <v>6.3636363636363633</v>
       </c>
     </row>
     <row r="1195" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1195" s="11" t="s">
+      <c r="A1195" t="s">
         <v>34</v>
       </c>
-      <c r="B1195" s="13">
+      <c r="B1195" s="10">
         <v>45599</v>
       </c>
-      <c r="Y1195" s="10">
+      <c r="Y1195">
         <v>6.2727272727272725</v>
       </c>
     </row>
     <row r="1196" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1196" s="11" t="s">
+      <c r="A1196" t="s">
         <v>34</v>
       </c>
-      <c r="B1196" s="13">
+      <c r="B1196" s="10">
         <v>45603</v>
       </c>
-      <c r="Y1196" s="10">
+      <c r="Y1196">
         <v>6.2727272727272725</v>
       </c>
     </row>
     <row r="1197" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1197" s="11" t="s">
+      <c r="A1197" t="s">
         <v>34</v>
       </c>
-      <c r="B1197" s="13">
+      <c r="B1197" s="10">
         <v>45607</v>
       </c>
-      <c r="Y1197" s="10">
+      <c r="Y1197">
         <v>6.1818181818181817</v>
       </c>
     </row>
     <row r="1198" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1198" s="11" t="s">
+      <c r="A1198" t="s">
         <v>34</v>
       </c>
-      <c r="B1198" s="13">
+      <c r="B1198" s="10">
         <v>45610</v>
       </c>
-      <c r="Y1198" s="10">
+      <c r="Y1198">
         <v>6.1818181818181817</v>
       </c>
     </row>
     <row r="1199" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1199" s="11" t="s">
+      <c r="A1199" t="s">
         <v>34</v>
       </c>
-      <c r="B1199" s="13">
+      <c r="B1199" s="10">
         <v>45614</v>
       </c>
-      <c r="Y1199" s="10">
+      <c r="Y1199">
         <v>6.0909090909090908</v>
       </c>
     </row>
     <row r="1200" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1200" s="11" t="s">
+      <c r="A1200" t="s">
         <v>34</v>
       </c>
-      <c r="B1200" s="13">
+      <c r="B1200" s="10">
         <v>45618</v>
       </c>
-      <c r="Y1200" s="10">
+      <c r="Y1200">
         <v>6.0909090909090908</v>
       </c>
     </row>
     <row r="1201" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1201" s="11" t="s">
+      <c r="A1201" t="s">
         <v>34</v>
       </c>
-      <c r="B1201" s="13">
+      <c r="B1201" s="10">
         <v>45621</v>
       </c>
-      <c r="Y1201" s="10">
+      <c r="Y1201">
         <v>5.9090909090909092</v>
       </c>
     </row>
     <row r="1202" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1202" s="11" t="s">
+      <c r="A1202" t="s">
         <v>34</v>
       </c>
-      <c r="B1202" s="13">
+      <c r="B1202" s="10">
         <v>45625</v>
       </c>
-      <c r="Y1202" s="10">
+      <c r="Y1202">
         <v>5.8181818181818183</v>
       </c>
     </row>
     <row r="1203" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1203" s="11" t="s">
+      <c r="A1203" t="s">
         <v>34</v>
       </c>
-      <c r="B1203" s="13">
+      <c r="B1203" s="10">
         <v>45628</v>
       </c>
-      <c r="Y1203" s="10">
+      <c r="Y1203">
         <v>5.8181818181818183</v>
       </c>
     </row>
     <row r="1204" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1204" s="11" t="s">
+      <c r="A1204" t="s">
         <v>34</v>
       </c>
-      <c r="B1204" s="13">
+      <c r="B1204" s="10">
         <v>45632</v>
       </c>
-      <c r="Y1204" s="10">
+      <c r="Y1204">
         <v>5.7272727272727275</v>
       </c>
     </row>
     <row r="1205" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1205" s="11" t="s">
+      <c r="A1205" t="s">
         <v>34</v>
       </c>
-      <c r="B1205" s="13">
+      <c r="B1205" s="10">
         <v>45635</v>
       </c>
-      <c r="Y1205" s="10">
+      <c r="Y1205">
         <v>5.5454545454545459</v>
       </c>
     </row>
     <row r="1206" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1206" s="11" t="s">
+      <c r="A1206" t="s">
         <v>34</v>
       </c>
-      <c r="B1206" s="13">
+      <c r="B1206" s="10">
         <v>45639</v>
       </c>
-      <c r="Y1206" s="10">
+      <c r="Y1206">
         <v>5.3636363636363633</v>
       </c>
     </row>
     <row r="1207" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1207" s="11" t="s">
+      <c r="A1207" t="s">
         <v>34</v>
       </c>
-      <c r="B1207" s="13">
+      <c r="B1207" s="10">
         <v>45642</v>
       </c>
-      <c r="Y1207" s="10">
+      <c r="Y1207">
         <v>5.3636363636363633</v>
       </c>
     </row>
     <row r="1208" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1208" s="11" t="s">
+      <c r="A1208" t="s">
         <v>34</v>
       </c>
-      <c r="B1208" s="13">
+      <c r="B1208" s="10">
         <v>45646</v>
       </c>
-      <c r="Y1208" s="10">
+      <c r="Y1208">
         <v>5.0909090909090908</v>
       </c>
     </row>
     <row r="1209" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1209" s="11" t="s">
+      <c r="A1209" t="s">
         <v>34</v>
       </c>
-      <c r="B1209" s="13">
+      <c r="B1209" s="10">
         <v>45649</v>
       </c>
-      <c r="Y1209" s="10">
+      <c r="Y1209">
         <v>5.0909090909090908</v>
       </c>
     </row>
     <row r="1210" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1210" s="11" t="s">
+      <c r="A1210" t="s">
         <v>34</v>
       </c>
-      <c r="B1210" s="13">
+      <c r="B1210" s="10">
         <v>45653</v>
       </c>
-      <c r="Y1210" s="10">
+      <c r="Y1210">
         <v>5.0909090909090908</v>
       </c>
     </row>
     <row r="1211" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1211" s="11" t="s">
+      <c r="A1211" t="s">
         <v>34</v>
       </c>
-      <c r="B1211" s="13">
+      <c r="B1211" s="10">
         <v>45656</v>
       </c>
-      <c r="Y1211" s="10">
+      <c r="Y1211">
         <v>5.0909090909090908</v>
       </c>
     </row>
     <row r="1212" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1212" s="11" t="s">
+      <c r="A1212" t="s">
         <v>34</v>
       </c>
-      <c r="B1212" s="13">
+      <c r="B1212" s="10">
         <v>45659</v>
       </c>
-      <c r="Y1212" s="10">
+      <c r="Y1212">
         <v>5.0909090909090908</v>
       </c>
     </row>
     <row r="1213" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1213" s="11" t="s">
+      <c r="A1213" t="s">
         <v>34</v>
       </c>
-      <c r="B1213" s="13">
+      <c r="B1213" s="10">
         <v>45663</v>
       </c>
-      <c r="Y1213" s="10">
+      <c r="Y1213">
         <v>5.0909090909090908</v>
       </c>
     </row>
     <row r="1214" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1214" s="11" t="s">
+      <c r="A1214" t="s">
         <v>34</v>
       </c>
-      <c r="B1214" s="13">
+      <c r="B1214" s="10">
         <v>45666</v>
       </c>
-      <c r="Y1214" s="10">
+      <c r="Y1214">
         <v>4.833333333333333</v>
       </c>
     </row>
     <row r="1215" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1215" s="11" t="s">
+      <c r="A1215" t="s">
         <v>35</v>
       </c>
-      <c r="B1215" s="13">
+      <c r="B1215" s="10">
         <v>45399</v>
       </c>
-      <c r="Y1215" s="10">
+      <c r="Y1215">
         <v>1.7777777777777777</v>
       </c>
     </row>
     <row r="1216" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1216" s="11" t="s">
+      <c r="A1216" t="s">
         <v>35</v>
       </c>
-      <c r="B1216" s="13">
+      <c r="B1216" s="10">
         <v>45401</v>
       </c>
-      <c r="Y1216" s="10">
+      <c r="Y1216">
         <v>1.8888888888888888</v>
       </c>
     </row>
     <row r="1217" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1217" s="11" t="s">
+      <c r="A1217" t="s">
         <v>35</v>
       </c>
-      <c r="B1217" s="13">
+      <c r="B1217" s="10">
         <v>45404</v>
       </c>
-      <c r="Y1217" s="10">
+      <c r="Y1217">
         <v>2.4444444444444446</v>
       </c>
     </row>
     <row r="1218" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1218" s="11" t="s">
+      <c r="A1218" t="s">
         <v>35</v>
       </c>
-      <c r="B1218" s="13">
+      <c r="B1218" s="10">
         <v>45406</v>
       </c>
-      <c r="Y1218" s="10">
+      <c r="Y1218">
         <v>2.5555555555555554</v>
       </c>
     </row>
     <row r="1219" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1219" s="11" t="s">
+      <c r="A1219" t="s">
         <v>35</v>
       </c>
-      <c r="B1219" s="13">
+      <c r="B1219" s="10">
         <v>45412</v>
       </c>
-      <c r="Y1219" s="10">
+      <c r="Y1219">
         <v>3.8888888888888888</v>
       </c>
     </row>
     <row r="1220" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1220" s="11" t="s">
+      <c r="A1220" t="s">
         <v>35</v>
       </c>
-      <c r="B1220" s="13">
+      <c r="B1220" s="10">
         <v>45415</v>
       </c>
-      <c r="Y1220" s="10">
+      <c r="Y1220">
         <v>5.1111111111111107</v>
       </c>
     </row>
     <row r="1221" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1221" s="11" t="s">
+      <c r="A1221" t="s">
         <v>35</v>
       </c>
-      <c r="B1221" s="13">
+      <c r="B1221" s="10">
         <v>45418</v>
       </c>
-      <c r="Y1221" s="10">
+      <c r="Y1221">
         <v>5.666666666666667</v>
       </c>
     </row>
     <row r="1222" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1222" s="11" t="s">
+      <c r="A1222" t="s">
         <v>35</v>
       </c>
-      <c r="B1222" s="13">
+      <c r="B1222" s="10">
         <v>45420</v>
       </c>
-      <c r="Y1222" s="10">
+      <c r="Y1222">
         <v>6.2222222222222223</v>
       </c>
     </row>
     <row r="1223" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1223" s="11" t="s">
+      <c r="A1223" t="s">
         <v>35</v>
       </c>
-      <c r="B1223" s="13">
+      <c r="B1223" s="10">
         <v>45424</v>
       </c>
-      <c r="Y1223" s="10">
+      <c r="Y1223">
         <v>7.2222222222222223</v>
       </c>
     </row>
     <row r="1224" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1224" s="11" t="s">
+      <c r="A1224" t="s">
         <v>35</v>
       </c>
-      <c r="B1224" s="13">
+      <c r="B1224" s="10">
         <v>45429</v>
       </c>
-      <c r="Y1224" s="10">
+      <c r="Y1224">
         <v>8.5555555555555554</v>
       </c>
     </row>
     <row r="1225" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1225" s="11" t="s">
+      <c r="A1225" t="s">
         <v>35</v>
       </c>
-      <c r="B1225" s="13">
+      <c r="B1225" s="10">
         <v>45432</v>
       </c>
-      <c r="Y1225" s="10">
+      <c r="Y1225">
         <v>9.7777777777777786</v>
       </c>
     </row>
     <row r="1226" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1226" s="11" t="s">
+      <c r="A1226" t="s">
         <v>35</v>
       </c>
-      <c r="B1226" s="13">
+      <c r="B1226" s="10">
         <v>45436</v>
       </c>
-      <c r="Y1226" s="10">
+      <c r="Y1226">
         <v>11.444444444444445</v>
       </c>
     </row>
     <row r="1227" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1227" s="11" t="s">
+      <c r="A1227" t="s">
         <v>35</v>
       </c>
-      <c r="B1227" s="13">
+      <c r="B1227" s="10">
         <v>45440</v>
       </c>
-      <c r="Y1227" s="10">
+      <c r="Y1227">
         <v>13</v>
       </c>
     </row>
     <row r="1228" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1228" s="11" t="s">
+      <c r="A1228" t="s">
         <v>35</v>
       </c>
-      <c r="B1228" s="13">
+      <c r="B1228" s="10">
         <v>45443</v>
       </c>
-      <c r="Y1228" s="10">
+      <c r="Y1228">
         <v>13.777777777777779</v>
       </c>
     </row>
     <row r="1229" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1229" s="11" t="s">
+      <c r="A1229" t="s">
         <v>35</v>
       </c>
-      <c r="B1229" s="13">
+      <c r="B1229" s="10">
         <v>45446</v>
       </c>
-      <c r="Y1229" s="10">
+      <c r="Y1229">
         <v>15.222222222222221</v>
       </c>
     </row>
     <row r="1230" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1230" s="11" t="s">
+      <c r="A1230" t="s">
         <v>35</v>
       </c>
-      <c r="B1230" s="13">
+      <c r="B1230" s="10">
         <v>45449</v>
       </c>
-      <c r="Y1230" s="10">
+      <c r="Y1230">
         <v>15.777777777777779</v>
       </c>
     </row>
     <row r="1231" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1231" s="11" t="s">
+      <c r="A1231" t="s">
         <v>35</v>
       </c>
-      <c r="B1231" s="13">
+      <c r="B1231" s="10">
         <v>45453</v>
       </c>
-      <c r="Y1231" s="10">
+      <c r="Y1231">
         <v>17.444444444444443</v>
       </c>
     </row>
     <row r="1232" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1232" s="11" t="s">
+      <c r="A1232" t="s">
         <v>35</v>
       </c>
-      <c r="B1232" s="13">
+      <c r="B1232" s="10">
         <v>45456</v>
       </c>
-      <c r="Y1232" s="10">
+      <c r="Y1232">
         <v>18.555555555555557</v>
       </c>
     </row>
     <row r="1233" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1233" s="11" t="s">
+      <c r="A1233" t="s">
         <v>35</v>
       </c>
-      <c r="B1233" s="13">
+      <c r="B1233" s="10">
         <v>45460</v>
       </c>
-      <c r="Y1233" s="10">
+      <c r="Y1233">
         <v>19.444444444444443</v>
       </c>
     </row>
     <row r="1234" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1234" s="11" t="s">
+      <c r="A1234" t="s">
         <v>35</v>
       </c>
-      <c r="B1234" s="13">
+      <c r="B1234" s="10">
         <v>45465</v>
       </c>
-      <c r="Y1234" s="10">
+      <c r="Y1234">
         <v>20.444444444444443</v>
       </c>
     </row>
     <row r="1235" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1235" s="11" t="s">
+      <c r="A1235" t="s">
         <v>35</v>
       </c>
-      <c r="B1235" s="13">
+      <c r="B1235" s="10">
         <v>45468</v>
       </c>
-      <c r="Y1235" s="10">
+      <c r="Y1235">
         <v>20.888888888888889</v>
       </c>
     </row>
     <row r="1236" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1236" s="11" t="s">
+      <c r="A1236" t="s">
         <v>35</v>
       </c>
-      <c r="B1236" s="13">
+      <c r="B1236" s="10">
         <v>45471</v>
       </c>
-      <c r="Y1236" s="10">
+      <c r="Y1236">
         <v>21.444444444444443</v>
       </c>
     </row>
     <row r="1237" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1237" s="11" t="s">
+      <c r="A1237" t="s">
         <v>35</v>
       </c>
-      <c r="B1237" s="13">
+      <c r="B1237" s="10">
         <v>45475</v>
       </c>
-      <c r="Y1237" s="10">
+      <c r="Y1237">
         <v>21.777777777777779</v>
       </c>
     </row>
     <row r="1238" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1238" s="11" t="s">
+      <c r="A1238" t="s">
         <v>35</v>
       </c>
-      <c r="B1238" s="13">
+      <c r="B1238" s="10">
         <v>45478</v>
       </c>
-      <c r="Y1238" s="10">
+      <c r="Y1238">
         <v>22</v>
       </c>
     </row>
     <row r="1239" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1239" s="11" t="s">
+      <c r="A1239" t="s">
         <v>35</v>
       </c>
-      <c r="B1239" s="13">
+      <c r="B1239" s="10">
         <v>45483</v>
       </c>
-      <c r="Y1239" s="10">
+      <c r="Y1239">
         <v>22</v>
       </c>
     </row>
     <row r="1240" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1240" s="11" t="s">
+      <c r="A1240" t="s">
         <v>35</v>
       </c>
-      <c r="B1240" s="13">
+      <c r="B1240" s="10">
         <v>45489</v>
       </c>
-      <c r="Y1240" s="10">
+      <c r="Y1240">
         <v>22</v>
       </c>
     </row>
     <row r="1241" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1241" s="11" t="s">
+      <c r="A1241" t="s">
         <v>35</v>
       </c>
-      <c r="B1241" s="13">
+      <c r="B1241" s="10">
         <v>45492</v>
       </c>
-      <c r="Y1241" s="10">
+      <c r="Y1241">
         <v>22.111111111111111</v>
       </c>
     </row>
     <row r="1242" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1242" s="11" t="s">
+      <c r="A1242" t="s">
         <v>35</v>
       </c>
-      <c r="B1242" s="13">
+      <c r="B1242" s="10">
         <v>45495</v>
       </c>
-      <c r="Y1242" s="10">
+      <c r="Y1242">
         <v>22.444444444444443</v>
       </c>
     </row>
     <row r="1243" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1243" s="11" t="s">
+      <c r="A1243" t="s">
         <v>35</v>
       </c>
-      <c r="B1243" s="13">
+      <c r="B1243" s="10">
         <v>45502</v>
       </c>
-      <c r="Y1243" s="10">
+      <c r="Y1243">
         <v>22.444444444444443</v>
       </c>
     </row>
     <row r="1244" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1244" s="11" t="s">
+      <c r="A1244" t="s">
         <v>35</v>
       </c>
-      <c r="B1244" s="13">
+      <c r="B1244" s="10">
         <v>45509</v>
       </c>
-      <c r="Y1244" s="10">
+      <c r="Y1244">
         <v>22.444444444444443</v>
       </c>
     </row>
     <row r="1245" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1245" s="11" t="s">
+      <c r="A1245" t="s">
         <v>35</v>
       </c>
-      <c r="B1245" s="13">
+      <c r="B1245" s="10">
         <v>45513</v>
       </c>
-      <c r="Y1245" s="10">
+      <c r="Y1245">
         <v>22.444444444444443</v>
       </c>
     </row>
     <row r="1246" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1246" s="11" t="s">
+      <c r="A1246" t="s">
         <v>35</v>
       </c>
-      <c r="B1246" s="13">
+      <c r="B1246" s="10">
         <v>45523</v>
       </c>
-      <c r="Y1246" s="10">
+      <c r="Y1246">
         <v>21</v>
       </c>
     </row>
     <row r="1247" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1247" s="11" t="s">
+      <c r="A1247" t="s">
         <v>35</v>
       </c>
-      <c r="B1247" s="13">
+      <c r="B1247" s="10">
         <v>45530</v>
       </c>
-      <c r="Y1247" s="10">
+      <c r="Y1247">
         <v>19.555555555555557</v>
       </c>
     </row>
     <row r="1248" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1248" s="11" t="s">
+      <c r="A1248" t="s">
         <v>35</v>
       </c>
-      <c r="B1248" s="13">
+      <c r="B1248" s="10">
         <v>45537</v>
       </c>
-      <c r="Y1248" s="10">
+      <c r="Y1248">
         <v>16.888888888888889</v>
       </c>
     </row>
     <row r="1249" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1249" s="11" t="s">
+      <c r="A1249" t="s">
         <v>35</v>
       </c>
-      <c r="B1249" s="13">
+      <c r="B1249" s="10">
         <v>45541</v>
       </c>
-      <c r="Y1249" s="10">
+      <c r="Y1249">
         <v>14.666666666666666</v>
       </c>
     </row>
     <row r="1250" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1250" s="11" t="s">
+      <c r="A1250" t="s">
         <v>35</v>
       </c>
-      <c r="B1250" s="13">
+      <c r="B1250" s="10">
         <v>45544</v>
       </c>
-      <c r="Y1250" s="10">
+      <c r="Y1250">
         <v>13.555555555555555</v>
       </c>
     </row>
     <row r="1251" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1251" s="11" t="s">
+      <c r="A1251" t="s">
         <v>35</v>
       </c>
-      <c r="B1251" s="13">
+      <c r="B1251" s="10">
         <v>45547</v>
       </c>
-      <c r="Y1251" s="10">
+      <c r="Y1251">
         <v>12.777777777777779</v>
       </c>
     </row>
     <row r="1252" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1252" s="11" t="s">
+      <c r="A1252" t="s">
         <v>35</v>
       </c>
-      <c r="B1252" s="13">
+      <c r="B1252" s="10">
         <v>45551</v>
       </c>
-      <c r="Y1252" s="10">
+      <c r="Y1252">
         <v>11.777777777777779</v>
       </c>
     </row>
     <row r="1253" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1253" s="11" t="s">
+      <c r="A1253" t="s">
         <v>35</v>
       </c>
-      <c r="B1253" s="13">
+      <c r="B1253" s="10">
         <v>45555</v>
       </c>
-      <c r="Y1253" s="10">
+      <c r="Y1253">
         <v>10.888888888888889</v>
       </c>
     </row>
     <row r="1254" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1254" s="11" t="s">
+      <c r="A1254" t="s">
         <v>35</v>
       </c>
-      <c r="B1254" s="13">
+      <c r="B1254" s="10">
         <v>45558</v>
       </c>
-      <c r="Y1254" s="10">
+      <c r="Y1254">
         <v>9.8888888888888893</v>
       </c>
     </row>
     <row r="1255" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1255" s="11" t="s">
+      <c r="A1255" t="s">
         <v>35</v>
       </c>
-      <c r="B1255" s="13">
+      <c r="B1255" s="10">
         <v>45561</v>
       </c>
-      <c r="Y1255" s="10">
+      <c r="Y1255">
         <v>9.3333333333333339</v>
       </c>
     </row>
     <row r="1256" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1256" s="11" t="s">
+      <c r="A1256" t="s">
         <v>35</v>
       </c>
-      <c r="B1256" s="13">
+      <c r="B1256" s="10">
         <v>45565</v>
       </c>
-      <c r="Y1256" s="10">
+      <c r="Y1256">
         <v>8.7777777777777786</v>
       </c>
     </row>
     <row r="1257" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1257" s="11" t="s">
+      <c r="A1257" t="s">
         <v>35</v>
       </c>
-      <c r="B1257" s="13">
+      <c r="B1257" s="10">
         <v>45569</v>
       </c>
-      <c r="Y1257" s="10">
+      <c r="Y1257">
         <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="1258" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1258" s="11" t="s">
+      <c r="A1258" t="s">
         <v>35</v>
       </c>
-      <c r="B1258" s="13">
+      <c r="B1258" s="10">
         <v>45572</v>
       </c>
-      <c r="Y1258" s="10">
+      <c r="Y1258">
         <v>7.7777777777777777</v>
       </c>
     </row>
     <row r="1259" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1259" s="11" t="s">
+      <c r="A1259" t="s">
         <v>35</v>
       </c>
-      <c r="B1259" s="13">
+      <c r="B1259" s="10">
         <v>45576</v>
       </c>
-      <c r="Y1259" s="10">
+      <c r="Y1259">
         <v>7</v>
       </c>
     </row>
     <row r="1260" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1260" s="11" t="s">
+      <c r="A1260" t="s">
         <v>35</v>
       </c>
-      <c r="B1260" s="13">
+      <c r="B1260" s="10">
         <v>45579</v>
       </c>
-      <c r="Y1260" s="10">
+      <c r="Y1260">
         <v>6.666666666666667</v>
       </c>
     </row>
     <row r="1261" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1261" s="11" t="s">
+      <c r="A1261" t="s">
         <v>35</v>
       </c>
-      <c r="B1261" s="13">
+      <c r="B1261" s="10">
         <v>45582</v>
       </c>
-      <c r="Y1261" s="10">
+      <c r="Y1261">
         <v>6.5555555555555554</v>
       </c>
     </row>
     <row r="1262" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1262" s="11" t="s">
+      <c r="A1262" t="s">
         <v>35</v>
       </c>
-      <c r="B1262" s="13">
+      <c r="B1262" s="10">
         <v>45586</v>
       </c>
-      <c r="Y1262" s="10">
+      <c r="Y1262">
         <v>6.4444444444444446</v>
       </c>
     </row>
     <row r="1263" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1263" s="11" t="s">
+      <c r="A1263" t="s">
         <v>35</v>
       </c>
-      <c r="B1263" s="13">
+      <c r="B1263" s="10">
         <v>45590</v>
       </c>
-      <c r="Y1263" s="10">
+      <c r="Y1263">
         <v>6.333333333333333</v>
       </c>
     </row>
     <row r="1264" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1264" s="11" t="s">
+      <c r="A1264" t="s">
         <v>35</v>
       </c>
-      <c r="B1264" s="13">
+      <c r="B1264" s="10">
         <v>45593</v>
       </c>
-      <c r="Y1264" s="10">
+      <c r="Y1264">
         <v>6.333333333333333</v>
       </c>
     </row>
     <row r="1265" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1265" s="11" t="s">
+      <c r="A1265" t="s">
         <v>35</v>
       </c>
-      <c r="B1265" s="13">
+      <c r="B1265" s="10">
         <v>45597</v>
       </c>
-      <c r="Y1265" s="10">
+      <c r="Y1265">
         <v>6.2222222222222223</v>
       </c>
     </row>
     <row r="1266" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1266" s="11" t="s">
+      <c r="A1266" t="s">
         <v>35</v>
       </c>
-      <c r="B1266" s="13">
+      <c r="B1266" s="10">
         <v>45599</v>
       </c>
-      <c r="Y1266" s="10">
+      <c r="Y1266">
         <v>6.2222222222222223</v>
       </c>
     </row>
     <row r="1267" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1267" s="11" t="s">
+      <c r="A1267" t="s">
         <v>35</v>
       </c>
-      <c r="B1267" s="13">
+      <c r="B1267" s="10">
         <v>45603</v>
       </c>
-      <c r="Y1267" s="10">
+      <c r="Y1267">
         <v>6.2222222222222223</v>
       </c>
     </row>
     <row r="1268" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1268" s="11" t="s">
+      <c r="A1268" t="s">
         <v>35</v>
       </c>
-      <c r="B1268" s="13">
+      <c r="B1268" s="10">
         <v>45607</v>
       </c>
-      <c r="Y1268" s="10">
+      <c r="Y1268">
         <v>6.2222222222222223</v>
       </c>
     </row>
     <row r="1269" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1269" s="11" t="s">
+      <c r="A1269" t="s">
         <v>35</v>
       </c>
-      <c r="B1269" s="13">
+      <c r="B1269" s="10">
         <v>45610</v>
       </c>
-      <c r="Y1269" s="10">
+      <c r="Y1269">
         <v>6.1111111111111107</v>
       </c>
     </row>
     <row r="1270" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1270" s="11" t="s">
+      <c r="A1270" t="s">
         <v>35</v>
       </c>
-      <c r="B1270" s="13">
+      <c r="B1270" s="10">
         <v>45614</v>
       </c>
-      <c r="Y1270" s="10">
+      <c r="Y1270">
         <v>5.8888888888888893</v>
       </c>
     </row>
     <row r="1271" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1271" s="11" t="s">
+      <c r="A1271" t="s">
         <v>35</v>
       </c>
-      <c r="B1271" s="13">
+      <c r="B1271" s="10">
         <v>45618</v>
       </c>
-      <c r="Y1271" s="10">
+      <c r="Y1271">
         <v>5.8888888888888893</v>
       </c>
     </row>
     <row r="1272" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1272" s="11" t="s">
+      <c r="A1272" t="s">
         <v>35</v>
       </c>
-      <c r="B1272" s="13">
+      <c r="B1272" s="10">
         <v>45621</v>
       </c>
-      <c r="Y1272" s="10">
+      <c r="Y1272">
         <v>5.8888888888888893</v>
       </c>
     </row>
     <row r="1273" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1273" s="11" t="s">
+      <c r="A1273" t="s">
         <v>35</v>
       </c>
-      <c r="B1273" s="13">
+      <c r="B1273" s="10">
         <v>45625</v>
       </c>
-      <c r="Y1273" s="10">
+      <c r="Y1273">
         <v>5.7777777777777777</v>
       </c>
     </row>
     <row r="1274" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1274" s="11" t="s">
+      <c r="A1274" t="s">
         <v>35</v>
       </c>
-      <c r="B1274" s="13">
+      <c r="B1274" s="10">
         <v>45628</v>
       </c>
-      <c r="Y1274" s="10">
+      <c r="Y1274">
         <v>5.7777777777777777</v>
       </c>
     </row>
     <row r="1275" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1275" s="11" t="s">
+      <c r="A1275" t="s">
         <v>35</v>
       </c>
-      <c r="B1275" s="13">
+      <c r="B1275" s="10">
         <v>45632</v>
       </c>
-      <c r="Y1275" s="10">
+      <c r="Y1275">
         <v>5.7777777777777777</v>
       </c>
     </row>
     <row r="1276" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1276" s="11" t="s">
+      <c r="A1276" t="s">
         <v>35</v>
       </c>
-      <c r="B1276" s="13">
+      <c r="B1276" s="10">
         <v>45635</v>
       </c>
-      <c r="Y1276" s="10">
+      <c r="Y1276">
         <v>5.7777777777777777</v>
       </c>
     </row>
     <row r="1277" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1277" s="11" t="s">
+      <c r="A1277" t="s">
         <v>35</v>
       </c>
-      <c r="B1277" s="13">
+      <c r="B1277" s="10">
         <v>45639</v>
       </c>
-      <c r="Y1277" s="10">
+      <c r="Y1277">
         <v>5.666666666666667</v>
       </c>
     </row>
     <row r="1278" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1278" s="11" t="s">
+      <c r="A1278" t="s">
         <v>35</v>
       </c>
-      <c r="B1278" s="13">
+      <c r="B1278" s="10">
         <v>45642</v>
       </c>
-      <c r="Y1278" s="10">
+      <c r="Y1278">
         <v>5.666666666666667</v>
       </c>
     </row>
     <row r="1279" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1279" s="11" t="s">
+      <c r="A1279" t="s">
         <v>35</v>
       </c>
-      <c r="B1279" s="13">
+      <c r="B1279" s="10">
         <v>45646</v>
       </c>
-      <c r="Y1279" s="10">
+      <c r="Y1279">
         <v>5.5555555555555554</v>
       </c>
     </row>
     <row r="1280" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1280" s="11" t="s">
+      <c r="A1280" t="s">
         <v>35</v>
       </c>
-      <c r="B1280" s="13">
+      <c r="B1280" s="10">
         <v>45649</v>
       </c>
-      <c r="Y1280" s="10">
+      <c r="Y1280">
         <v>5.5555555555555554</v>
       </c>
     </row>
     <row r="1281" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1281" s="11" t="s">
+      <c r="A1281" t="s">
         <v>35</v>
       </c>
-      <c r="B1281" s="13">
+      <c r="B1281" s="10">
         <v>45653</v>
       </c>
-      <c r="Y1281" s="10">
+      <c r="Y1281">
         <v>5.5555555555555554</v>
       </c>
     </row>
     <row r="1282" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1282" s="11" t="s">
+      <c r="A1282" t="s">
         <v>35</v>
       </c>
-      <c r="B1282" s="13">
+      <c r="B1282" s="10">
         <v>45656</v>
       </c>
-      <c r="Y1282" s="10">
+      <c r="Y1282">
         <v>5.5555555555555554</v>
       </c>
     </row>
     <row r="1283" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1283" s="11" t="s">
+      <c r="A1283" t="s">
         <v>35</v>
       </c>
-      <c r="B1283" s="13">
+      <c r="B1283" s="10">
         <v>45659</v>
       </c>
-      <c r="Y1283" s="10">
+      <c r="Y1283">
         <v>5.5555555555555554</v>
       </c>
     </row>
     <row r="1284" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1284" s="11" t="s">
+      <c r="A1284" t="s">
         <v>35</v>
       </c>
-      <c r="B1284" s="13">
+      <c r="B1284" s="10">
         <v>45663</v>
       </c>
-      <c r="Y1284" s="10">
+      <c r="Y1284">
         <v>5.5555555555555554</v>
       </c>
     </row>
     <row r="1285" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1285" s="11" t="s">
+      <c r="A1285" t="s">
         <v>35</v>
       </c>
-      <c r="B1285" s="13">
+      <c r="B1285" s="10">
         <v>45666</v>
       </c>
-      <c r="Y1285" s="10">
+      <c r="Y1285">
         <v>4.5</v>
       </c>
     </row>
     <row r="1286" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1286" s="11" t="s">
+      <c r="A1286" t="s">
         <v>30</v>
       </c>
-      <c r="B1286" s="13">
+      <c r="B1286" s="10">
         <v>45435</v>
       </c>
-      <c r="Y1286" s="10">
+      <c r="Y1286">
         <v>1</v>
       </c>
     </row>
     <row r="1287" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1287" s="11" t="s">
+      <c r="A1287" t="s">
         <v>30</v>
       </c>
-      <c r="B1287" s="13">
+      <c r="B1287" s="10">
         <v>45442</v>
       </c>
-      <c r="Y1287" s="10">
+      <c r="Y1287">
         <v>1</v>
       </c>
     </row>
     <row r="1288" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1288" s="11" t="s">
+      <c r="A1288" t="s">
         <v>30</v>
       </c>
-      <c r="B1288" s="13">
+      <c r="B1288" s="10">
         <v>45447</v>
       </c>
-      <c r="Y1288" s="10">
+      <c r="Y1288">
         <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="1289" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1289" s="11" t="s">
+      <c r="A1289" t="s">
         <v>30</v>
       </c>
-      <c r="B1289" s="13">
+      <c r="B1289" s="10">
         <v>45450</v>
       </c>
-      <c r="Y1289" s="10">
+      <c r="Y1289">
         <v>1.5</v>
       </c>
     </row>
     <row r="1290" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1290" s="11" t="s">
+      <c r="A1290" t="s">
         <v>30</v>
       </c>
-      <c r="B1290" s="13">
+      <c r="B1290" s="10">
         <v>45454</v>
       </c>
-      <c r="Y1290" s="10">
+      <c r="Y1290">
         <v>2</v>
       </c>
     </row>
     <row r="1291" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1291" s="11" t="s">
+      <c r="A1291" t="s">
         <v>30</v>
       </c>
-      <c r="B1291" s="13">
+      <c r="B1291" s="10">
         <v>45457</v>
       </c>
-      <c r="Y1291" s="10">
+      <c r="Y1291">
         <v>2.1666666666666665</v>
       </c>
     </row>
     <row r="1292" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1292" s="11" t="s">
+      <c r="A1292" t="s">
         <v>30</v>
       </c>
-      <c r="B1292" s="13">
+      <c r="B1292" s="10">
         <v>45463</v>
       </c>
-      <c r="Y1292" s="10">
+      <c r="Y1292">
         <v>2.75</v>
       </c>
     </row>
     <row r="1293" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1293" s="11" t="s">
+      <c r="A1293" t="s">
         <v>30</v>
       </c>
-      <c r="B1293" s="13">
+      <c r="B1293" s="10">
         <v>45467</v>
       </c>
-      <c r="Y1293" s="10">
+      <c r="Y1293">
         <v>3</v>
       </c>
     </row>
     <row r="1294" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1294" s="11" t="s">
+      <c r="A1294" t="s">
         <v>30</v>
       </c>
-      <c r="B1294" s="13">
+      <c r="B1294" s="10">
         <v>45470</v>
       </c>
-      <c r="Y1294" s="10">
+      <c r="Y1294">
         <v>3.8333333333333335</v>
       </c>
     </row>
     <row r="1295" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1295" s="11" t="s">
+      <c r="A1295" t="s">
         <v>30</v>
       </c>
-      <c r="B1295" s="13">
+      <c r="B1295" s="10">
         <v>45474</v>
       </c>
-      <c r="Y1295" s="10">
+      <c r="Y1295">
         <v>4.416666666666667</v>
       </c>
     </row>
     <row r="1296" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1296" s="11" t="s">
+      <c r="A1296" t="s">
         <v>30</v>
       </c>
-      <c r="B1296" s="13">
+      <c r="B1296" s="10">
         <v>45477</v>
       </c>
-      <c r="Y1296" s="10">
+      <c r="Y1296">
         <v>5</v>
       </c>
     </row>
     <row r="1297" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1297" s="11" t="s">
+      <c r="A1297" t="s">
         <v>30</v>
       </c>
-      <c r="B1297" s="13">
+      <c r="B1297" s="10">
         <v>45481</v>
       </c>
-      <c r="Y1297" s="10">
+      <c r="Y1297">
         <v>5.166666666666667</v>
       </c>
     </row>
     <row r="1298" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1298" s="11" t="s">
+      <c r="A1298" t="s">
         <v>30</v>
       </c>
-      <c r="B1298" s="13">
+      <c r="B1298" s="10">
         <v>45488</v>
       </c>
-      <c r="Y1298" s="10">
+      <c r="Y1298">
         <v>6</v>
       </c>
     </row>
     <row r="1299" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1299" s="11" t="s">
+      <c r="A1299" t="s">
         <v>30</v>
       </c>
-      <c r="B1299" s="13">
+      <c r="B1299" s="10">
         <v>45492</v>
       </c>
-      <c r="Y1299" s="10">
+      <c r="Y1299">
         <v>7.083333333333333</v>
       </c>
     </row>
     <row r="1300" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1300" s="11" t="s">
+      <c r="A1300" t="s">
         <v>30</v>
       </c>
-      <c r="B1300" s="13">
+      <c r="B1300" s="10">
         <v>45495</v>
       </c>
-      <c r="Y1300" s="10">
+      <c r="Y1300">
         <v>7.583333333333333</v>
       </c>
     </row>
     <row r="1301" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1301" s="11" t="s">
+      <c r="A1301" t="s">
         <v>30</v>
       </c>
-      <c r="B1301" s="13">
+      <c r="B1301" s="10">
         <v>45498</v>
       </c>
-      <c r="Y1301" s="10">
+      <c r="Y1301">
         <v>7.916666666666667</v>
       </c>
     </row>
     <row r="1302" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1302" s="11" t="s">
+      <c r="A1302" t="s">
         <v>30</v>
       </c>
-      <c r="B1302" s="13">
+      <c r="B1302" s="10">
         <v>45502</v>
       </c>
-      <c r="Y1302" s="10">
+      <c r="Y1302">
         <v>9.25</v>
       </c>
     </row>
     <row r="1303" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1303" s="11" t="s">
+      <c r="A1303" t="s">
         <v>30</v>
       </c>
-      <c r="B1303" s="13">
+      <c r="B1303" s="10">
         <v>45506</v>
       </c>
-      <c r="Y1303" s="10">
+      <c r="Y1303">
         <v>9.9166666666666661</v>
       </c>
     </row>
     <row r="1304" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1304" s="11" t="s">
+      <c r="A1304" t="s">
         <v>30</v>
       </c>
-      <c r="B1304" s="13">
+      <c r="B1304" s="10">
         <v>45509</v>
       </c>
-      <c r="Y1304" s="10">
+      <c r="Y1304">
         <v>10.25</v>
       </c>
     </row>
     <row r="1305" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1305" s="11" t="s">
+      <c r="A1305" t="s">
         <v>30</v>
       </c>
-      <c r="B1305" s="13">
+      <c r="B1305" s="10">
         <v>45513</v>
       </c>
-      <c r="Y1305" s="10">
+      <c r="Y1305">
         <v>11</v>
       </c>
     </row>
     <row r="1306" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1306" s="11" t="s">
+      <c r="A1306" t="s">
         <v>30</v>
       </c>
-      <c r="B1306" s="13">
+      <c r="B1306" s="10">
         <v>45516</v>
       </c>
-      <c r="Y1306" s="10">
+      <c r="Y1306">
         <v>11.916666666666666</v>
       </c>
     </row>
     <row r="1307" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1307" s="11" t="s">
+      <c r="A1307" t="s">
         <v>30</v>
       </c>
-      <c r="B1307" s="13">
+      <c r="B1307" s="10">
         <v>45520</v>
       </c>
-      <c r="Y1307" s="10">
+      <c r="Y1307">
         <v>12.833333333333334</v>
       </c>
     </row>
     <row r="1308" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1308" s="11" t="s">
+      <c r="A1308" t="s">
         <v>30</v>
       </c>
-      <c r="B1308" s="13">
+      <c r="B1308" s="10">
         <v>45523</v>
       </c>
-      <c r="Y1308" s="10">
+      <c r="Y1308">
         <v>13.583333333333334</v>
       </c>
     </row>
     <row r="1309" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1309" s="11" t="s">
+      <c r="A1309" t="s">
         <v>30</v>
       </c>
-      <c r="B1309" s="13">
+      <c r="B1309" s="10">
         <v>45527</v>
       </c>
-      <c r="Y1309" s="10">
+      <c r="Y1309">
         <v>14.083333333333334</v>
       </c>
     </row>
     <row r="1310" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1310" s="11" t="s">
+      <c r="A1310" t="s">
         <v>30</v>
       </c>
-      <c r="B1310" s="13">
+      <c r="B1310" s="10">
         <v>45530</v>
       </c>
-      <c r="Y1310" s="10">
+      <c r="Y1310">
         <v>14.333333333333334</v>
       </c>
     </row>
     <row r="1311" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1311" s="11" t="s">
+      <c r="A1311" t="s">
         <v>30</v>
       </c>
-      <c r="B1311" s="13">
+      <c r="B1311" s="10">
         <v>45534</v>
       </c>
-      <c r="Y1311" s="10">
+      <c r="Y1311">
         <v>14.333333333333334</v>
       </c>
     </row>
     <row r="1312" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1312" s="11" t="s">
+      <c r="A1312" t="s">
         <v>30</v>
       </c>
-      <c r="B1312" s="13">
+      <c r="B1312" s="10">
         <v>45537</v>
       </c>
-      <c r="Y1312" s="10">
+      <c r="Y1312">
         <v>14.416666666666666</v>
       </c>
     </row>
     <row r="1313" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1313" s="11" t="s">
+      <c r="A1313" t="s">
         <v>30</v>
       </c>
-      <c r="B1313" s="13">
+      <c r="B1313" s="10">
         <v>45541</v>
       </c>
-      <c r="Y1313" s="10">
+      <c r="Y1313">
         <v>14.416666666666666</v>
       </c>
     </row>
     <row r="1314" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1314" s="11" t="s">
+      <c r="A1314" t="s">
         <v>30</v>
       </c>
-      <c r="B1314" s="13">
+      <c r="B1314" s="10">
         <v>45544</v>
       </c>
-      <c r="Y1314" s="10">
+      <c r="Y1314">
         <v>14.416666666666666</v>
       </c>
     </row>
     <row r="1315" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1315" s="11" t="s">
+      <c r="A1315" t="s">
         <v>30</v>
       </c>
-      <c r="B1315" s="13">
+      <c r="B1315" s="10">
         <v>45547</v>
       </c>
-      <c r="Y1315" s="10">
+      <c r="Y1315">
         <v>14.333333333333334</v>
       </c>
     </row>
     <row r="1316" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1316" s="11" t="s">
+      <c r="A1316" t="s">
         <v>30</v>
       </c>
-      <c r="B1316" s="13">
+      <c r="B1316" s="10">
         <v>45551</v>
       </c>
-      <c r="Y1316" s="10">
+      <c r="Y1316">
         <v>14.333333333333334</v>
       </c>
     </row>
     <row r="1317" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1317" s="11" t="s">
+      <c r="A1317" t="s">
         <v>30</v>
       </c>
-      <c r="B1317" s="13">
+      <c r="B1317" s="10">
         <v>45555</v>
       </c>
-      <c r="Y1317" s="10">
+      <c r="Y1317">
         <v>14.25</v>
       </c>
     </row>
     <row r="1318" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1318" s="11" t="s">
+      <c r="A1318" t="s">
         <v>30</v>
       </c>
-      <c r="B1318" s="13">
+      <c r="B1318" s="10">
         <v>45558</v>
       </c>
-      <c r="Y1318" s="10">
+      <c r="Y1318">
         <v>14.083333333333334</v>
       </c>
     </row>
     <row r="1319" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1319" s="11" t="s">
+      <c r="A1319" t="s">
         <v>30</v>
       </c>
-      <c r="B1319" s="13">
+      <c r="B1319" s="10">
         <v>45561</v>
       </c>
-      <c r="Y1319" s="10">
+      <c r="Y1319">
         <v>13.833333333333334</v>
       </c>
     </row>
     <row r="1320" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1320" s="11" t="s">
+      <c r="A1320" t="s">
         <v>30</v>
       </c>
-      <c r="B1320" s="13">
+      <c r="B1320" s="10">
         <v>45565</v>
       </c>
-      <c r="Y1320" s="10">
+      <c r="Y1320">
         <v>13.833333333333334</v>
       </c>
     </row>
     <row r="1321" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1321" s="11" t="s">
+      <c r="A1321" t="s">
         <v>30</v>
       </c>
-      <c r="B1321" s="13">
+      <c r="B1321" s="10">
         <v>45569</v>
       </c>
-      <c r="Y1321" s="10">
+      <c r="Y1321">
         <v>13.5</v>
       </c>
     </row>
     <row r="1322" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1322" s="11" t="s">
+      <c r="A1322" t="s">
         <v>30</v>
       </c>
-      <c r="B1322" s="13">
+      <c r="B1322" s="10">
         <v>45572</v>
       </c>
-      <c r="Y1322" s="10">
+      <c r="Y1322">
         <v>13.166666666666666</v>
       </c>
     </row>
     <row r="1323" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1323" s="11" t="s">
+      <c r="A1323" t="s">
         <v>30</v>
       </c>
-      <c r="B1323" s="13">
+      <c r="B1323" s="10">
         <v>45576</v>
       </c>
-      <c r="Y1323" s="10">
+      <c r="Y1323">
         <v>13</v>
       </c>
     </row>
     <row r="1324" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1324" s="11" t="s">
+      <c r="A1324" t="s">
         <v>30</v>
       </c>
-      <c r="B1324" s="13">
+      <c r="B1324" s="10">
         <v>45579</v>
       </c>
-      <c r="Y1324" s="10">
+      <c r="Y1324">
         <v>12.5</v>
       </c>
     </row>
     <row r="1325" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1325" s="11" t="s">
+      <c r="A1325" t="s">
         <v>30</v>
       </c>
-      <c r="B1325" s="13">
+      <c r="B1325" s="10">
         <v>45582</v>
       </c>
-      <c r="Y1325" s="10">
+      <c r="Y1325">
         <v>12.333333333333334</v>
       </c>
     </row>
     <row r="1326" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1326" s="11" t="s">
+      <c r="A1326" t="s">
         <v>30</v>
       </c>
-      <c r="B1326" s="13">
+      <c r="B1326" s="10">
         <v>45586</v>
       </c>
-      <c r="Y1326" s="10">
+      <c r="Y1326">
         <v>11.416666666666666</v>
       </c>
     </row>
     <row r="1327" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1327" s="11" t="s">
+      <c r="A1327" t="s">
         <v>30</v>
       </c>
-      <c r="B1327" s="13">
+      <c r="B1327" s="10">
         <v>45590</v>
       </c>
-      <c r="Y1327" s="10">
+      <c r="Y1327">
         <v>10.083333333333334</v>
       </c>
     </row>
     <row r="1328" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1328" s="11" t="s">
+      <c r="A1328" t="s">
         <v>30</v>
       </c>
-      <c r="B1328" s="13">
+      <c r="B1328" s="10">
         <v>45593</v>
       </c>
-      <c r="Y1328" s="10">
+      <c r="Y1328">
         <v>9.5</v>
       </c>
     </row>
     <row r="1329" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1329" s="11" t="s">
+      <c r="A1329" t="s">
         <v>30</v>
       </c>
-      <c r="B1329" s="13">
+      <c r="B1329" s="10">
         <v>45597</v>
       </c>
-      <c r="Y1329" s="10">
+      <c r="Y1329">
         <v>8.0833333333333339</v>
       </c>
     </row>
     <row r="1330" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1330" s="11" t="s">
+      <c r="A1330" t="s">
         <v>30</v>
       </c>
-      <c r="B1330" s="13">
+      <c r="B1330" s="10">
         <v>45599</v>
       </c>
-      <c r="Y1330" s="10">
+      <c r="Y1330">
         <v>7.833333333333333</v>
       </c>
     </row>
     <row r="1331" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1331" s="11" t="s">
+      <c r="A1331" t="s">
         <v>30</v>
       </c>
-      <c r="B1331" s="13">
+      <c r="B1331" s="10">
         <v>45603</v>
       </c>
-      <c r="Y1331" s="10">
+      <c r="Y1331">
         <v>7.583333333333333</v>
       </c>
     </row>
     <row r="1332" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1332" s="11" t="s">
+      <c r="A1332" t="s">
         <v>30</v>
       </c>
-      <c r="B1332" s="13">
+      <c r="B1332" s="10">
         <v>45607</v>
       </c>
-      <c r="Y1332" s="10">
+      <c r="Y1332">
         <v>7.166666666666667</v>
       </c>
     </row>
     <row r="1333" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1333" s="11" t="s">
+      <c r="A1333" t="s">
         <v>30</v>
       </c>
-      <c r="B1333" s="13">
+      <c r="B1333" s="10">
         <v>45610</v>
       </c>
-      <c r="Y1333" s="10">
+      <c r="Y1333">
         <v>6.916666666666667</v>
       </c>
     </row>
     <row r="1334" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1334" s="11" t="s">
+      <c r="A1334" t="s">
         <v>30</v>
       </c>
-      <c r="B1334" s="13">
+      <c r="B1334" s="10">
         <v>45614</v>
       </c>
-      <c r="Y1334" s="10">
+      <c r="Y1334">
         <v>6.916666666666667</v>
       </c>
     </row>
     <row r="1335" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1335" s="11" t="s">
+      <c r="A1335" t="s">
         <v>30</v>
       </c>
-      <c r="B1335" s="13">
+      <c r="B1335" s="10">
         <v>45618</v>
       </c>
-      <c r="Y1335" s="10">
+      <c r="Y1335">
         <v>6.916666666666667</v>
       </c>
     </row>
     <row r="1336" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1336" s="11" t="s">
+      <c r="A1336" t="s">
         <v>30</v>
       </c>
-      <c r="B1336" s="13">
+      <c r="B1336" s="10">
         <v>45621</v>
       </c>
-      <c r="Y1336" s="10">
+      <c r="Y1336">
         <v>6.916666666666667</v>
       </c>
     </row>
     <row r="1337" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1337" s="11" t="s">
+      <c r="A1337" t="s">
         <v>30</v>
       </c>
-      <c r="B1337" s="13">
+      <c r="B1337" s="10">
         <v>45625</v>
       </c>
-      <c r="Y1337" s="10">
+      <c r="Y1337">
         <v>6.833333333333333</v>
       </c>
     </row>
     <row r="1338" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1338" s="11" t="s">
+      <c r="A1338" t="s">
         <v>30</v>
       </c>
-      <c r="B1338" s="13">
+      <c r="B1338" s="10">
         <v>45628</v>
       </c>
-      <c r="Y1338" s="10">
+      <c r="Y1338">
         <v>6.833333333333333</v>
       </c>
     </row>
     <row r="1339" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1339" s="11" t="s">
+      <c r="A1339" t="s">
         <v>30</v>
       </c>
-      <c r="B1339" s="13">
+      <c r="B1339" s="10">
         <v>45632</v>
       </c>
-      <c r="Y1339" s="10">
+      <c r="Y1339">
         <v>6.75</v>
       </c>
     </row>
     <row r="1340" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1340" s="11" t="s">
+      <c r="A1340" t="s">
         <v>30</v>
       </c>
-      <c r="B1340" s="13">
+      <c r="B1340" s="10">
         <v>45635</v>
       </c>
-      <c r="Y1340" s="10">
+      <c r="Y1340">
         <v>6.75</v>
       </c>
     </row>
     <row r="1341" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1341" s="11" t="s">
+      <c r="A1341" t="s">
         <v>30</v>
       </c>
-      <c r="B1341" s="13">
+      <c r="B1341" s="10">
         <v>45639</v>
       </c>
-      <c r="Y1341" s="10">
+      <c r="Y1341">
         <v>6.5</v>
       </c>
     </row>
     <row r="1342" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1342" s="11" t="s">
+      <c r="A1342" t="s">
         <v>30</v>
       </c>
-      <c r="B1342" s="13">
+      <c r="B1342" s="10">
         <v>45642</v>
       </c>
-      <c r="Y1342" s="10">
+      <c r="Y1342">
         <v>6.416666666666667</v>
       </c>
     </row>
     <row r="1343" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1343" s="11" t="s">
+      <c r="A1343" t="s">
         <v>30</v>
       </c>
-      <c r="B1343" s="13">
+      <c r="B1343" s="10">
         <v>45646</v>
       </c>
-      <c r="Y1343" s="10">
+      <c r="Y1343">
         <v>6.333333333333333</v>
       </c>
     </row>
     <row r="1344" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1344" s="11" t="s">
+      <c r="A1344" t="s">
         <v>30</v>
       </c>
-      <c r="B1344" s="13">
+      <c r="B1344" s="10">
         <v>45649</v>
       </c>
-      <c r="Y1344" s="10">
+      <c r="Y1344">
         <v>6.333333333333333</v>
       </c>
     </row>
     <row r="1345" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1345" s="11" t="s">
+      <c r="A1345" t="s">
         <v>30</v>
       </c>
-      <c r="B1345" s="13">
+      <c r="B1345" s="10">
         <v>45653</v>
       </c>
-      <c r="Y1345" s="10">
+      <c r="Y1345">
         <v>6.25</v>
       </c>
     </row>
     <row r="1346" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1346" s="11" t="s">
+      <c r="A1346" t="s">
         <v>30</v>
       </c>
-      <c r="B1346" s="13">
+      <c r="B1346" s="10">
         <v>45656</v>
       </c>
-      <c r="Y1346" s="10">
+      <c r="Y1346">
         <v>6.25</v>
       </c>
     </row>
     <row r="1347" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1347" s="11" t="s">
+      <c r="A1347" t="s">
         <v>30</v>
       </c>
-      <c r="B1347" s="13">
+      <c r="B1347" s="10">
         <v>45659</v>
       </c>
-      <c r="Y1347" s="10">
+      <c r="Y1347">
         <v>6.25</v>
       </c>
     </row>
     <row r="1348" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1348" s="11" t="s">
+      <c r="A1348" t="s">
         <v>30</v>
       </c>
-      <c r="B1348" s="13">
+      <c r="B1348" s="10">
         <v>45663</v>
       </c>
-      <c r="Y1348" s="10">
+      <c r="Y1348">
         <v>6.25</v>
       </c>
     </row>
     <row r="1349" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1349" s="11" t="s">
+      <c r="A1349" t="s">
         <v>30</v>
       </c>
-      <c r="B1349" s="13">
+      <c r="B1349" s="10">
         <v>45670</v>
       </c>
-      <c r="Y1349" s="10">
+      <c r="Y1349">
         <v>6.25</v>
       </c>
     </row>
     <row r="1350" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1350" s="11" t="s">
+      <c r="A1350" t="s">
         <v>30</v>
       </c>
-      <c r="B1350" s="13">
+      <c r="B1350" s="10">
         <v>45674</v>
       </c>
-      <c r="Y1350" s="10">
+      <c r="Y1350">
         <v>6.25</v>
       </c>
     </row>
     <row r="1351" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1351" s="11" t="s">
+      <c r="A1351" t="s">
         <v>30</v>
       </c>
-      <c r="B1351" s="13">
+      <c r="B1351" s="10">
         <v>45677</v>
       </c>
-      <c r="Y1351" s="10">
+      <c r="Y1351">
         <v>6</v>
       </c>
     </row>
     <row r="1352" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1352" s="11" t="s">
+      <c r="A1352" t="s">
         <v>32</v>
       </c>
-      <c r="B1352" s="13">
+      <c r="B1352" s="10">
         <v>45435</v>
       </c>
-      <c r="Y1352" s="10">
+      <c r="Y1352">
         <v>1.0833333333333333</v>
       </c>
     </row>
     <row r="1353" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1353" s="11" t="s">
+      <c r="A1353" t="s">
         <v>32</v>
       </c>
-      <c r="B1353" s="13">
+      <c r="B1353" s="10">
         <v>45442</v>
       </c>
-      <c r="Y1353" s="10">
+      <c r="Y1353">
         <v>1.0833333333333333</v>
       </c>
     </row>
     <row r="1354" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1354" s="11" t="s">
+      <c r="A1354" t="s">
         <v>32</v>
       </c>
-      <c r="B1354" s="13">
+      <c r="B1354" s="10">
         <v>45447</v>
       </c>
-      <c r="Y1354" s="10">
+      <c r="Y1354">
         <v>1.5833333333333333</v>
       </c>
     </row>
     <row r="1355" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1355" s="11" t="s">
+      <c r="A1355" t="s">
         <v>32</v>
       </c>
-      <c r="B1355" s="13">
+      <c r="B1355" s="10">
         <v>45450</v>
       </c>
-      <c r="Y1355" s="10">
+      <c r="Y1355">
         <v>1.75</v>
       </c>
     </row>
     <row r="1356" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1356" s="11" t="s">
+      <c r="A1356" t="s">
         <v>32</v>
       </c>
-      <c r="B1356" s="13">
+      <c r="B1356" s="10">
         <v>45454</v>
       </c>
-      <c r="Y1356" s="10">
+      <c r="Y1356">
         <v>2.1666666666666665</v>
       </c>
     </row>
     <row r="1357" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1357" s="11" t="s">
+      <c r="A1357" t="s">
         <v>32</v>
       </c>
-      <c r="B1357" s="13">
+      <c r="B1357" s="10">
         <v>45457</v>
       </c>
-      <c r="Y1357" s="10">
+      <c r="Y1357">
         <v>2.25</v>
       </c>
     </row>
     <row r="1358" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1358" s="11" t="s">
+      <c r="A1358" t="s">
         <v>32</v>
       </c>
-      <c r="B1358" s="13">
+      <c r="B1358" s="10">
         <v>45463</v>
       </c>
-      <c r="Y1358" s="10">
+      <c r="Y1358">
         <v>2.8333333333333335</v>
       </c>
     </row>
     <row r="1359" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1359" s="11" t="s">
+      <c r="A1359" t="s">
         <v>32</v>
       </c>
-      <c r="B1359" s="13">
+      <c r="B1359" s="10">
         <v>45467</v>
       </c>
-      <c r="Y1359" s="10">
+      <c r="Y1359">
         <v>3.25</v>
       </c>
     </row>
     <row r="1360" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1360" s="11" t="s">
+      <c r="A1360" t="s">
         <v>32</v>
       </c>
-      <c r="B1360" s="13">
+      <c r="B1360" s="10">
         <v>45470</v>
       </c>
-      <c r="Y1360" s="10">
+      <c r="Y1360">
         <v>4.166666666666667</v>
       </c>
     </row>
     <row r="1361" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1361" s="11" t="s">
+      <c r="A1361" t="s">
         <v>32</v>
       </c>
-      <c r="B1361" s="13">
+      <c r="B1361" s="10">
         <v>45474</v>
       </c>
-      <c r="Y1361" s="10">
+      <c r="Y1361">
         <v>4.666666666666667</v>
       </c>
     </row>
     <row r="1362" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1362" s="11" t="s">
+      <c r="A1362" t="s">
         <v>32</v>
       </c>
-      <c r="B1362" s="13">
+      <c r="B1362" s="10">
         <v>45477</v>
       </c>
-      <c r="Y1362" s="10">
+      <c r="Y1362">
         <v>5.166666666666667</v>
       </c>
     </row>
     <row r="1363" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1363" s="11" t="s">
+      <c r="A1363" t="s">
         <v>32</v>
       </c>
-      <c r="B1363" s="13">
+      <c r="B1363" s="10">
         <v>45481</v>
       </c>
-      <c r="Y1363" s="10">
+      <c r="Y1363">
         <v>5.833333333333333</v>
       </c>
     </row>
     <row r="1364" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1364" s="11" t="s">
+      <c r="A1364" t="s">
         <v>32</v>
       </c>
-      <c r="B1364" s="13">
+      <c r="B1364" s="10">
         <v>45488</v>
       </c>
-      <c r="Y1364" s="10">
+      <c r="Y1364">
         <v>6.833333333333333</v>
       </c>
     </row>
     <row r="1365" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1365" s="11" t="s">
+      <c r="A1365" t="s">
         <v>32</v>
       </c>
-      <c r="B1365" s="13">
+      <c r="B1365" s="10">
         <v>45492</v>
       </c>
-      <c r="Y1365" s="10">
+      <c r="Y1365">
         <v>7.583333333333333</v>
       </c>
     </row>
     <row r="1366" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1366" s="11" t="s">
+      <c r="A1366" t="s">
         <v>32</v>
       </c>
-      <c r="B1366" s="13">
+      <c r="B1366" s="10">
         <v>45495</v>
       </c>
-      <c r="Y1366" s="10">
+      <c r="Y1366">
         <v>8.5833333333333339</v>
       </c>
     </row>
     <row r="1367" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1367" s="11" t="s">
+      <c r="A1367" t="s">
         <v>32</v>
       </c>
-      <c r="B1367" s="13">
+      <c r="B1367" s="10">
         <v>45498</v>
       </c>
-      <c r="Y1367" s="10">
+      <c r="Y1367">
         <v>9.25</v>
       </c>
     </row>
     <row r="1368" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1368" s="11" t="s">
+      <c r="A1368" t="s">
         <v>32</v>
       </c>
-      <c r="B1368" s="13">
+      <c r="B1368" s="10">
         <v>45502</v>
       </c>
-      <c r="Y1368" s="10">
+      <c r="Y1368">
         <v>10.25</v>
       </c>
     </row>
     <row r="1369" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1369" s="11" t="s">
+      <c r="A1369" t="s">
         <v>32</v>
       </c>
-      <c r="B1369" s="13">
+      <c r="B1369" s="10">
         <v>45506</v>
       </c>
-      <c r="Y1369" s="10">
+      <c r="Y1369">
         <v>11</v>
       </c>
     </row>
     <row r="1370" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1370" s="11" t="s">
+      <c r="A1370" t="s">
         <v>32</v>
       </c>
-      <c r="B1370" s="13">
+      <c r="B1370" s="10">
         <v>45509</v>
       </c>
-      <c r="Y1370" s="10">
+      <c r="Y1370">
         <v>11.916666666666666</v>
       </c>
     </row>
     <row r="1371" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1371" s="11" t="s">
+      <c r="A1371" t="s">
         <v>32</v>
       </c>
-      <c r="B1371" s="13">
+      <c r="B1371" s="10">
         <v>45513</v>
       </c>
-      <c r="Y1371" s="10">
+      <c r="Y1371">
         <v>12.833333333333334</v>
       </c>
     </row>
     <row r="1372" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1372" s="11" t="s">
+      <c r="A1372" t="s">
         <v>32</v>
       </c>
-      <c r="B1372" s="13">
+      <c r="B1372" s="10">
         <v>45516</v>
       </c>
-      <c r="Y1372" s="10">
+      <c r="Y1372">
         <v>13.833333333333334</v>
       </c>
     </row>
     <row r="1373" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1373" s="11" t="s">
+      <c r="A1373" t="s">
         <v>32</v>
       </c>
-      <c r="B1373" s="13">
+      <c r="B1373" s="10">
         <v>45520</v>
       </c>
-      <c r="Y1373" s="10">
+      <c r="Y1373">
         <v>14.75</v>
       </c>
     </row>
     <row r="1374" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1374" s="11" t="s">
+      <c r="A1374" t="s">
         <v>32</v>
       </c>
-      <c r="B1374" s="13">
+      <c r="B1374" s="10">
         <v>45523</v>
       </c>
-      <c r="Y1374" s="10">
+      <c r="Y1374">
         <v>15.25</v>
       </c>
     </row>
     <row r="1375" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1375" s="11" t="s">
+      <c r="A1375" t="s">
         <v>32</v>
       </c>
-      <c r="B1375" s="13">
+      <c r="B1375" s="10">
         <v>45527</v>
       </c>
-      <c r="Y1375" s="10">
+      <c r="Y1375">
         <v>15.916666666666666</v>
       </c>
     </row>
     <row r="1376" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1376" s="11" t="s">
+      <c r="A1376" t="s">
         <v>32</v>
       </c>
-      <c r="B1376" s="13">
+      <c r="B1376" s="10">
         <v>45530</v>
       </c>
-      <c r="Y1376" s="10">
+      <c r="Y1376">
         <v>16.75</v>
       </c>
     </row>
     <row r="1377" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1377" s="11" t="s">
+      <c r="A1377" t="s">
         <v>32</v>
       </c>
-      <c r="B1377" s="13">
+      <c r="B1377" s="10">
         <v>45534</v>
       </c>
-      <c r="Y1377" s="10">
+      <c r="Y1377">
         <v>16.916666666666668</v>
       </c>
     </row>
     <row r="1378" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1378" s="11" t="s">
+      <c r="A1378" t="s">
         <v>32</v>
       </c>
-      <c r="B1378" s="13">
+      <c r="B1378" s="10">
         <v>45537</v>
       </c>
-      <c r="Y1378" s="10">
+      <c r="Y1378">
         <v>17.083333333333332</v>
       </c>
     </row>
     <row r="1379" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1379" s="11" t="s">
+      <c r="A1379" t="s">
         <v>32</v>
       </c>
-      <c r="B1379" s="13">
+      <c r="B1379" s="10">
         <v>45541</v>
       </c>
-      <c r="Y1379" s="10">
+      <c r="Y1379">
         <v>17.083333333333332</v>
       </c>
     </row>
     <row r="1380" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1380" s="11" t="s">
+      <c r="A1380" t="s">
         <v>32</v>
       </c>
-      <c r="B1380" s="13">
+      <c r="B1380" s="10">
         <v>45544</v>
       </c>
-      <c r="Y1380" s="10">
+      <c r="Y1380">
         <v>17.083333333333332</v>
       </c>
     </row>
     <row r="1381" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1381" s="11" t="s">
+      <c r="A1381" t="s">
         <v>32</v>
       </c>
-      <c r="B1381" s="13">
+      <c r="B1381" s="10">
         <v>45547</v>
       </c>
-      <c r="Y1381" s="10">
+      <c r="Y1381">
         <v>17.083333333333332</v>
       </c>
     </row>
     <row r="1382" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1382" s="11" t="s">
+      <c r="A1382" t="s">
         <v>32</v>
       </c>
-      <c r="B1382" s="13">
+      <c r="B1382" s="10">
         <v>45551</v>
       </c>
-      <c r="Y1382" s="10">
+      <c r="Y1382">
         <v>17</v>
       </c>
     </row>
     <row r="1383" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1383" s="11" t="s">
+      <c r="A1383" t="s">
         <v>32</v>
       </c>
-      <c r="B1383" s="13">
+      <c r="B1383" s="10">
         <v>45555</v>
       </c>
-      <c r="Y1383" s="10">
+      <c r="Y1383">
         <v>16.666666666666668</v>
       </c>
     </row>
     <row r="1384" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1384" s="11" t="s">
+      <c r="A1384" t="s">
         <v>32</v>
       </c>
-      <c r="B1384" s="13">
+      <c r="B1384" s="10">
         <v>45558</v>
       </c>
-      <c r="Y1384" s="10">
+      <c r="Y1384">
         <v>16.583333333333332</v>
       </c>
     </row>
     <row r="1385" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1385" s="11" t="s">
+      <c r="A1385" t="s">
         <v>32</v>
       </c>
-      <c r="B1385" s="13">
+      <c r="B1385" s="10">
         <v>45561</v>
       </c>
-      <c r="Y1385" s="10">
+      <c r="Y1385">
         <v>16.333333333333332</v>
       </c>
     </row>
     <row r="1386" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1386" s="11" t="s">
+      <c r="A1386" t="s">
         <v>32</v>
       </c>
-      <c r="B1386" s="13">
+      <c r="B1386" s="10">
         <v>45565</v>
       </c>
-      <c r="Y1386" s="10">
+      <c r="Y1386">
         <v>16</v>
       </c>
     </row>
     <row r="1387" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1387" s="11" t="s">
+      <c r="A1387" t="s">
         <v>32</v>
       </c>
-      <c r="B1387" s="13">
+      <c r="B1387" s="10">
         <v>45569</v>
       </c>
-      <c r="Y1387" s="10">
+      <c r="Y1387">
         <v>15.583333333333334</v>
       </c>
     </row>
     <row r="1388" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1388" s="11" t="s">
+      <c r="A1388" t="s">
         <v>32</v>
       </c>
-      <c r="B1388" s="13">
+      <c r="B1388" s="10">
         <v>45572</v>
       </c>
-      <c r="Y1388" s="10">
+      <c r="Y1388">
         <v>15.25</v>
       </c>
     </row>
     <row r="1389" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1389" s="11" t="s">
+      <c r="A1389" t="s">
         <v>32</v>
       </c>
-      <c r="B1389" s="13">
+      <c r="B1389" s="10">
         <v>45576</v>
       </c>
-      <c r="Y1389" s="10">
+      <c r="Y1389">
         <v>14.083333333333334</v>
       </c>
     </row>
     <row r="1390" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1390" s="11" t="s">
+      <c r="A1390" t="s">
         <v>32</v>
       </c>
-      <c r="B1390" s="13">
+      <c r="B1390" s="10">
         <v>45579</v>
       </c>
-      <c r="Y1390" s="10">
+      <c r="Y1390">
         <v>12.833333333333334</v>
       </c>
     </row>
     <row r="1391" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1391" s="11" t="s">
+      <c r="A1391" t="s">
         <v>32</v>
       </c>
-      <c r="B1391" s="13">
+      <c r="B1391" s="10">
         <v>45582</v>
       </c>
-      <c r="Y1391" s="10">
+      <c r="Y1391">
         <v>12.416666666666666</v>
       </c>
     </row>
     <row r="1392" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1392" s="11" t="s">
+      <c r="A1392" t="s">
         <v>32</v>
       </c>
-      <c r="B1392" s="13">
+      <c r="B1392" s="10">
         <v>45586</v>
       </c>
-      <c r="Y1392" s="10">
+      <c r="Y1392">
         <v>11</v>
       </c>
     </row>
     <row r="1393" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1393" s="11" t="s">
+      <c r="A1393" t="s">
         <v>32</v>
       </c>
-      <c r="B1393" s="13">
+      <c r="B1393" s="10">
         <v>45590</v>
       </c>
-      <c r="Y1393" s="10">
+      <c r="Y1393">
         <v>10.25</v>
       </c>
     </row>
     <row r="1394" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1394" s="11" t="s">
+      <c r="A1394" t="s">
         <v>32</v>
       </c>
-      <c r="B1394" s="13">
+      <c r="B1394" s="10">
         <v>45593</v>
       </c>
-      <c r="Y1394" s="10">
+      <c r="Y1394">
         <v>9.75</v>
       </c>
     </row>
     <row r="1395" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1395" s="11" t="s">
+      <c r="A1395" t="s">
         <v>32</v>
       </c>
-      <c r="B1395" s="13">
+      <c r="B1395" s="10">
         <v>45597</v>
       </c>
-      <c r="Y1395" s="10">
+      <c r="Y1395">
         <v>8.6666666666666661</v>
       </c>
     </row>
     <row r="1396" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1396" s="11" t="s">
+      <c r="A1396" t="s">
         <v>32</v>
       </c>
-      <c r="B1396" s="13">
+      <c r="B1396" s="10">
         <v>45599</v>
       </c>
-      <c r="Y1396" s="10">
+      <c r="Y1396">
         <v>8.4166666666666661</v>
       </c>
     </row>
     <row r="1397" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1397" s="11" t="s">
+      <c r="A1397" t="s">
         <v>32</v>
       </c>
-      <c r="B1397" s="13">
+      <c r="B1397" s="10">
         <v>45603</v>
       </c>
-      <c r="Y1397" s="10">
+      <c r="Y1397">
         <v>8.25</v>
       </c>
     </row>
     <row r="1398" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1398" s="11" t="s">
+      <c r="A1398" t="s">
         <v>32</v>
       </c>
-      <c r="B1398" s="13">
+      <c r="B1398" s="10">
         <v>45607</v>
       </c>
-      <c r="Y1398" s="10">
+      <c r="Y1398">
         <v>7.833333333333333</v>
       </c>
     </row>
     <row r="1399" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1399" s="11" t="s">
+      <c r="A1399" t="s">
         <v>32</v>
       </c>
-      <c r="B1399" s="13">
+      <c r="B1399" s="10">
         <v>45610</v>
       </c>
-      <c r="Y1399" s="10">
+      <c r="Y1399">
         <v>7.75</v>
       </c>
     </row>
     <row r="1400" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1400" s="11" t="s">
+      <c r="A1400" t="s">
         <v>32</v>
       </c>
-      <c r="B1400" s="13">
+      <c r="B1400" s="10">
         <v>45614</v>
       </c>
-      <c r="Y1400" s="10">
+      <c r="Y1400">
         <v>7.666666666666667</v>
       </c>
     </row>
     <row r="1401" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1401" s="11" t="s">
+      <c r="A1401" t="s">
         <v>32</v>
       </c>
-      <c r="B1401" s="13">
+      <c r="B1401" s="10">
         <v>45618</v>
       </c>
-      <c r="Y1401" s="10">
+      <c r="Y1401">
         <v>7.416666666666667</v>
       </c>
     </row>
     <row r="1402" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1402" s="11" t="s">
+      <c r="A1402" t="s">
         <v>32</v>
       </c>
-      <c r="B1402" s="13">
+      <c r="B1402" s="10">
         <v>45621</v>
       </c>
-      <c r="Y1402" s="10">
+      <c r="Y1402">
         <v>7.25</v>
       </c>
     </row>
     <row r="1403" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1403" s="11" t="s">
+      <c r="A1403" t="s">
         <v>32</v>
       </c>
-      <c r="B1403" s="13">
+      <c r="B1403" s="10">
         <v>45625</v>
       </c>
-      <c r="Y1403" s="10">
+      <c r="Y1403">
         <v>7.083333333333333</v>
       </c>
     </row>
     <row r="1404" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1404" s="11" t="s">
+      <c r="A1404" t="s">
         <v>32</v>
       </c>
-      <c r="B1404" s="13">
+      <c r="B1404" s="10">
         <v>45628</v>
       </c>
-      <c r="Y1404" s="10">
+      <c r="Y1404">
         <v>6.916666666666667</v>
       </c>
     </row>
     <row r="1405" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1405" s="11" t="s">
+      <c r="A1405" t="s">
         <v>32</v>
       </c>
-      <c r="B1405" s="13">
+      <c r="B1405" s="10">
         <v>45632</v>
       </c>
-      <c r="Y1405" s="10">
+      <c r="Y1405">
         <v>6.833333333333333</v>
       </c>
     </row>
     <row r="1406" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1406" s="11" t="s">
+      <c r="A1406" t="s">
         <v>32</v>
       </c>
-      <c r="B1406" s="13">
+      <c r="B1406" s="10">
         <v>45635</v>
       </c>
-      <c r="Y1406" s="10">
+      <c r="Y1406">
         <v>6.833333333333333</v>
       </c>
     </row>
     <row r="1407" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1407" s="11" t="s">
+      <c r="A1407" t="s">
         <v>32</v>
       </c>
-      <c r="B1407" s="13">
+      <c r="B1407" s="10">
         <v>45639</v>
       </c>
-      <c r="Y1407" s="10">
+      <c r="Y1407">
         <v>6.75</v>
       </c>
     </row>
     <row r="1408" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1408" s="11" t="s">
+      <c r="A1408" t="s">
         <v>32</v>
       </c>
-      <c r="B1408" s="13">
+      <c r="B1408" s="10">
         <v>45642</v>
       </c>
-      <c r="Y1408" s="10">
+      <c r="Y1408">
         <v>6.666666666666667</v>
       </c>
     </row>
     <row r="1409" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1409" s="11" t="s">
+      <c r="A1409" t="s">
         <v>32</v>
       </c>
-      <c r="B1409" s="13">
+      <c r="B1409" s="10">
         <v>45646</v>
       </c>
-      <c r="Y1409" s="10">
+      <c r="Y1409">
         <v>6.666666666666667</v>
       </c>
     </row>
     <row r="1410" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1410" s="11" t="s">
+      <c r="A1410" t="s">
         <v>32</v>
       </c>
-      <c r="B1410" s="13">
+      <c r="B1410" s="10">
         <v>45649</v>
       </c>
-      <c r="Y1410" s="10">
+      <c r="Y1410">
         <v>6.666666666666667</v>
       </c>
     </row>
     <row r="1411" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1411" s="11" t="s">
+      <c r="A1411" t="s">
         <v>32</v>
       </c>
-      <c r="B1411" s="13">
+      <c r="B1411" s="10">
         <v>45653</v>
       </c>
-      <c r="Y1411" s="10">
+      <c r="Y1411">
         <v>6.5</v>
       </c>
     </row>
     <row r="1412" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1412" s="11" t="s">
+      <c r="A1412" t="s">
         <v>32</v>
       </c>
-      <c r="B1412" s="13">
+      <c r="B1412" s="10">
         <v>45656</v>
       </c>
-      <c r="Y1412" s="10">
+      <c r="Y1412">
         <v>6.5</v>
       </c>
     </row>
     <row r="1413" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1413" s="11" t="s">
+      <c r="A1413" t="s">
         <v>32</v>
       </c>
-      <c r="B1413" s="13">
+      <c r="B1413" s="10">
         <v>45659</v>
       </c>
-      <c r="Y1413" s="10">
+      <c r="Y1413">
         <v>6.5</v>
       </c>
     </row>
     <row r="1414" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1414" s="11" t="s">
+      <c r="A1414" t="s">
         <v>32</v>
       </c>
-      <c r="B1414" s="13">
+      <c r="B1414" s="10">
         <v>45663</v>
       </c>
-      <c r="Y1414" s="10">
+      <c r="Y1414">
         <v>6.5</v>
       </c>
     </row>
     <row r="1415" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1415" s="11" t="s">
+      <c r="A1415" t="s">
         <v>32</v>
       </c>
-      <c r="B1415" s="13">
+      <c r="B1415" s="10">
         <v>45670</v>
       </c>
-      <c r="Y1415" s="10">
+      <c r="Y1415">
         <v>6.5</v>
       </c>
     </row>
     <row r="1416" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1416" s="11" t="s">
+      <c r="A1416" t="s">
         <v>32</v>
       </c>
-      <c r="B1416" s="13">
+      <c r="B1416" s="10">
         <v>45674</v>
       </c>
-      <c r="Y1416" s="10">
+      <c r="Y1416">
         <v>6.5</v>
       </c>
     </row>
     <row r="1417" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1417" s="11" t="s">
+      <c r="A1417" t="s">
         <v>32</v>
       </c>
-      <c r="B1417" s="13">
+      <c r="B1417" s="10">
         <v>45677</v>
       </c>
-      <c r="Y1417" s="10">
+      <c r="Y1417">
         <v>6.083333333333333</v>
       </c>
     </row>
     <row r="1418" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1418" s="11" t="s">
+      <c r="A1418" t="s">
         <v>29</v>
       </c>
-      <c r="B1418" s="13">
+      <c r="B1418" s="10">
         <v>45435</v>
       </c>
-      <c r="Y1418" s="10">
+      <c r="Y1418">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="1419" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1419" s="11" t="s">
+      <c r="A1419" t="s">
         <v>29</v>
       </c>
-      <c r="B1419" s="13">
+      <c r="B1419" s="10">
         <v>45442</v>
       </c>
-      <c r="Y1419" s="10">
+      <c r="Y1419">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="1420" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1420" s="11" t="s">
+      <c r="A1420" t="s">
         <v>29</v>
       </c>
-      <c r="B1420" s="13">
+      <c r="B1420" s="10">
         <v>45447</v>
       </c>
-      <c r="Y1420" s="10">
+      <c r="Y1420">
         <v>1.4</v>
       </c>
     </row>
     <row r="1421" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1421" s="11" t="s">
+      <c r="A1421" t="s">
         <v>29</v>
       </c>
-      <c r="B1421" s="13">
+      <c r="B1421" s="10">
         <v>45450</v>
       </c>
-      <c r="Y1421" s="10">
+      <c r="Y1421">
         <v>1.5</v>
       </c>
     </row>
     <row r="1422" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1422" s="11" t="s">
+      <c r="A1422" t="s">
         <v>29</v>
       </c>
-      <c r="B1422" s="13">
+      <c r="B1422" s="10">
         <v>45454</v>
       </c>
-      <c r="Y1422" s="10">
+      <c r="Y1422">
         <v>2.1</v>
       </c>
     </row>
     <row r="1423" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1423" s="11" t="s">
+      <c r="A1423" t="s">
         <v>29</v>
       </c>
-      <c r="B1423" s="13">
+      <c r="B1423" s="10">
         <v>45457</v>
       </c>
-      <c r="Y1423" s="10">
+      <c r="Y1423">
         <v>2.4</v>
       </c>
     </row>
     <row r="1424" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1424" s="11" t="s">
+      <c r="A1424" t="s">
         <v>29</v>
       </c>
-      <c r="B1424" s="13">
+      <c r="B1424" s="10">
         <v>45463</v>
       </c>
-      <c r="Y1424" s="10">
+      <c r="Y1424">
         <v>3.2</v>
       </c>
     </row>
     <row r="1425" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1425" s="11" t="s">
+      <c r="A1425" t="s">
         <v>29</v>
       </c>
-      <c r="B1425" s="13">
+      <c r="B1425" s="10">
         <v>45467</v>
       </c>
-      <c r="Y1425" s="10">
+      <c r="Y1425">
         <v>3.6</v>
       </c>
     </row>
     <row r="1426" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1426" s="11" t="s">
+      <c r="A1426" t="s">
         <v>29</v>
       </c>
-      <c r="B1426" s="13">
+      <c r="B1426" s="10">
         <v>45470</v>
       </c>
-      <c r="Y1426" s="10">
+      <c r="Y1426">
         <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="1427" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1427" s="11" t="s">
+      <c r="A1427" t="s">
         <v>29</v>
       </c>
-      <c r="B1427" s="13">
+      <c r="B1427" s="10">
         <v>45474</v>
       </c>
-      <c r="Y1427" s="10">
+      <c r="Y1427">
         <v>5.2</v>
       </c>
     </row>
     <row r="1428" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1428" s="11" t="s">
+      <c r="A1428" t="s">
         <v>29</v>
       </c>
-      <c r="B1428" s="13">
+      <c r="B1428" s="10">
         <v>45477</v>
       </c>
-      <c r="Y1428" s="10">
+      <c r="Y1428">
         <v>5.8</v>
       </c>
     </row>
     <row r="1429" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1429" s="11" t="s">
+      <c r="A1429" t="s">
         <v>29</v>
       </c>
-      <c r="B1429" s="13">
+      <c r="B1429" s="10">
         <v>45481</v>
       </c>
-      <c r="Y1429" s="10">
+      <c r="Y1429">
         <v>6.1</v>
       </c>
     </row>
     <row r="1430" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1430" s="11" t="s">
+      <c r="A1430" t="s">
         <v>29</v>
       </c>
-      <c r="B1430" s="13">
+      <c r="B1430" s="10">
         <v>45488</v>
       </c>
-      <c r="Y1430" s="10">
+      <c r="Y1430">
         <v>6.8</v>
       </c>
     </row>
     <row r="1431" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1431" s="11" t="s">
+      <c r="A1431" t="s">
         <v>29</v>
       </c>
-      <c r="B1431" s="13">
+      <c r="B1431" s="10">
         <v>45492</v>
       </c>
-      <c r="Y1431" s="10">
+      <c r="Y1431">
         <v>7.8</v>
       </c>
     </row>
     <row r="1432" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1432" s="11" t="s">
+      <c r="A1432" t="s">
         <v>29</v>
       </c>
-      <c r="B1432" s="13">
+      <c r="B1432" s="10">
         <v>45495</v>
       </c>
-      <c r="Y1432" s="10">
+      <c r="Y1432">
         <v>8.9</v>
       </c>
     </row>
     <row r="1433" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1433" s="11" t="s">
+      <c r="A1433" t="s">
         <v>29</v>
       </c>
-      <c r="B1433" s="13">
+      <c r="B1433" s="10">
         <v>45498</v>
       </c>
-      <c r="Y1433" s="10">
+      <c r="Y1433">
         <v>9.4</v>
       </c>
     </row>
     <row r="1434" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1434" s="11" t="s">
+      <c r="A1434" t="s">
         <v>29</v>
       </c>
-      <c r="B1434" s="13">
+      <c r="B1434" s="10">
         <v>45502</v>
       </c>
-      <c r="Y1434" s="10">
+      <c r="Y1434">
         <v>10.4</v>
       </c>
     </row>
     <row r="1435" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1435" s="11" t="s">
+      <c r="A1435" t="s">
         <v>29</v>
       </c>
-      <c r="B1435" s="13">
+      <c r="B1435" s="10">
         <v>45506</v>
       </c>
-      <c r="Y1435" s="10">
+      <c r="Y1435">
         <v>10.9</v>
       </c>
     </row>
     <row r="1436" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1436" s="11" t="s">
+      <c r="A1436" t="s">
         <v>29</v>
       </c>
-      <c r="B1436" s="13">
+      <c r="B1436" s="10">
         <v>45509</v>
       </c>
-      <c r="Y1436" s="10">
+      <c r="Y1436">
         <v>11.9</v>
       </c>
     </row>
     <row r="1437" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1437" s="11" t="s">
+      <c r="A1437" t="s">
         <v>29</v>
       </c>
-      <c r="B1437" s="13">
+      <c r="B1437" s="10">
         <v>45513</v>
       </c>
-      <c r="Y1437" s="10">
+      <c r="Y1437">
         <v>12.8</v>
       </c>
     </row>
     <row r="1438" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1438" s="11" t="s">
+      <c r="A1438" t="s">
         <v>29</v>
       </c>
-      <c r="B1438" s="13">
+      <c r="B1438" s="10">
         <v>45516</v>
       </c>
-      <c r="Y1438" s="10">
+      <c r="Y1438">
         <v>13.7</v>
       </c>
     </row>
     <row r="1439" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1439" s="11" t="s">
+      <c r="A1439" t="s">
         <v>29</v>
       </c>
-      <c r="B1439" s="13">
+      <c r="B1439" s="10">
         <v>45520</v>
       </c>
-      <c r="Y1439" s="10">
+      <c r="Y1439">
         <v>14.9</v>
       </c>
     </row>
     <row r="1440" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1440" s="11" t="s">
+      <c r="A1440" t="s">
         <v>29</v>
       </c>
-      <c r="B1440" s="13">
+      <c r="B1440" s="10">
         <v>45523</v>
       </c>
-      <c r="Y1440" s="10">
+      <c r="Y1440">
         <v>15.4</v>
       </c>
     </row>
     <row r="1441" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1441" s="11" t="s">
+      <c r="A1441" t="s">
         <v>29</v>
       </c>
-      <c r="B1441" s="13">
+      <c r="B1441" s="10">
         <v>45527</v>
       </c>
-      <c r="Y1441" s="10">
+      <c r="Y1441">
         <v>15.8</v>
       </c>
     </row>
     <row r="1442" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1442" s="11" t="s">
+      <c r="A1442" t="s">
         <v>29</v>
       </c>
-      <c r="B1442" s="13">
+      <c r="B1442" s="10">
         <v>45530</v>
       </c>
-      <c r="Y1442" s="10">
+      <c r="Y1442">
         <v>16.399999999999999</v>
       </c>
     </row>
     <row r="1443" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1443" s="11" t="s">
+      <c r="A1443" t="s">
         <v>29</v>
       </c>
-      <c r="B1443" s="13">
+      <c r="B1443" s="10">
         <v>45534</v>
       </c>
-      <c r="Y1443" s="10">
+      <c r="Y1443">
         <v>16.399999999999999</v>
       </c>
     </row>
     <row r="1444" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1444" s="11" t="s">
+      <c r="A1444" t="s">
         <v>29</v>
       </c>
-      <c r="B1444" s="13">
+      <c r="B1444" s="10">
         <v>45537</v>
       </c>
-      <c r="Y1444" s="10">
+      <c r="Y1444">
         <v>16.5</v>
       </c>
     </row>
     <row r="1445" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1445" s="11" t="s">
+      <c r="A1445" t="s">
         <v>29</v>
       </c>
-      <c r="B1445" s="13">
+      <c r="B1445" s="10">
         <v>45541</v>
       </c>
-      <c r="Y1445" s="10">
+      <c r="Y1445">
         <v>16.5</v>
       </c>
     </row>
     <row r="1446" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1446" s="11" t="s">
+      <c r="A1446" t="s">
         <v>29</v>
       </c>
-      <c r="B1446" s="13">
+      <c r="B1446" s="10">
         <v>45544</v>
       </c>
-      <c r="Y1446" s="10">
+      <c r="Y1446">
         <v>16.5</v>
       </c>
     </row>
     <row r="1447" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1447" s="11" t="s">
+      <c r="A1447" t="s">
         <v>29</v>
       </c>
-      <c r="B1447" s="13">
+      <c r="B1447" s="10">
         <v>45547</v>
       </c>
-      <c r="Y1447" s="10">
+      <c r="Y1447">
         <v>16.100000000000001</v>
       </c>
     </row>
     <row r="1448" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1448" s="11" t="s">
+      <c r="A1448" t="s">
         <v>29</v>
       </c>
-      <c r="B1448" s="13">
+      <c r="B1448" s="10">
         <v>45551</v>
       </c>
-      <c r="Y1448" s="10">
+      <c r="Y1448">
         <v>16</v>
       </c>
     </row>
     <row r="1449" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1449" s="11" t="s">
+      <c r="A1449" t="s">
         <v>29</v>
       </c>
-      <c r="B1449" s="13">
+      <c r="B1449" s="10">
         <v>45555</v>
       </c>
-      <c r="Y1449" s="10">
+      <c r="Y1449">
         <v>15.9</v>
       </c>
     </row>
     <row r="1450" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1450" s="11" t="s">
+      <c r="A1450" t="s">
         <v>29</v>
       </c>
-      <c r="B1450" s="13">
+      <c r="B1450" s="10">
         <v>45558</v>
       </c>
-      <c r="Y1450" s="10">
+      <c r="Y1450">
         <v>15.5</v>
       </c>
     </row>
     <row r="1451" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1451" s="11" t="s">
+      <c r="A1451" t="s">
         <v>29</v>
       </c>
-      <c r="B1451" s="13">
+      <c r="B1451" s="10">
         <v>45561</v>
       </c>
-      <c r="Y1451" s="10">
+      <c r="Y1451">
         <v>15.3</v>
       </c>
     </row>
     <row r="1452" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1452" s="11" t="s">
+      <c r="A1452" t="s">
         <v>29</v>
       </c>
-      <c r="B1452" s="13">
+      <c r="B1452" s="10">
         <v>45565</v>
       </c>
-      <c r="Y1452" s="10">
+      <c r="Y1452">
         <v>15.1</v>
       </c>
     </row>
     <row r="1453" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1453" s="11" t="s">
+      <c r="A1453" t="s">
         <v>29</v>
       </c>
-      <c r="B1453" s="13">
+      <c r="B1453" s="10">
         <v>45569</v>
       </c>
-      <c r="Y1453" s="10">
+      <c r="Y1453">
         <v>15</v>
       </c>
     </row>
     <row r="1454" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1454" s="11" t="s">
+      <c r="A1454" t="s">
         <v>29</v>
       </c>
-      <c r="B1454" s="13">
+      <c r="B1454" s="10">
         <v>45572</v>
       </c>
-      <c r="Y1454" s="10">
+      <c r="Y1454">
         <v>14.3</v>
       </c>
     </row>
     <row r="1455" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1455" s="11" t="s">
+      <c r="A1455" t="s">
         <v>29</v>
       </c>
-      <c r="B1455" s="13">
+      <c r="B1455" s="10">
         <v>45576</v>
       </c>
-      <c r="Y1455" s="10">
+      <c r="Y1455">
         <v>13.6</v>
       </c>
     </row>
     <row r="1456" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1456" s="11" t="s">
+      <c r="A1456" t="s">
         <v>29</v>
       </c>
-      <c r="B1456" s="13">
+      <c r="B1456" s="10">
         <v>45579</v>
       </c>
-      <c r="Y1456" s="10">
+      <c r="Y1456">
         <v>13.1</v>
       </c>
     </row>
     <row r="1457" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1457" s="11" t="s">
+      <c r="A1457" t="s">
         <v>29</v>
       </c>
-      <c r="B1457" s="13">
+      <c r="B1457" s="10">
         <v>45582</v>
       </c>
-      <c r="Y1457" s="10">
+      <c r="Y1457">
         <v>12.6</v>
       </c>
     </row>
     <row r="1458" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1458" s="11" t="s">
+      <c r="A1458" t="s">
         <v>29</v>
       </c>
-      <c r="B1458" s="13">
+      <c r="B1458" s="10">
         <v>45586</v>
       </c>
-      <c r="Y1458" s="10">
+      <c r="Y1458">
         <v>12.1</v>
       </c>
     </row>
     <row r="1459" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1459" s="11" t="s">
+      <c r="A1459" t="s">
         <v>29</v>
       </c>
-      <c r="B1459" s="13">
+      <c r="B1459" s="10">
         <v>45590</v>
       </c>
-      <c r="Y1459" s="10">
+      <c r="Y1459">
         <v>9.9</v>
       </c>
     </row>
     <row r="1460" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1460" s="11" t="s">
+      <c r="A1460" t="s">
         <v>29</v>
       </c>
-      <c r="B1460" s="13">
+      <c r="B1460" s="10">
         <v>45593</v>
       </c>
-      <c r="Y1460" s="10">
+      <c r="Y1460">
         <v>9.4</v>
       </c>
     </row>
     <row r="1461" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1461" s="11" t="s">
+      <c r="A1461" t="s">
         <v>29</v>
       </c>
-      <c r="B1461" s="13">
+      <c r="B1461" s="10">
         <v>45597</v>
       </c>
-      <c r="Y1461" s="10">
+      <c r="Y1461">
         <v>8.5</v>
       </c>
     </row>
     <row r="1462" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1462" s="11" t="s">
+      <c r="A1462" t="s">
         <v>29</v>
       </c>
-      <c r="B1462" s="13">
+      <c r="B1462" s="10">
         <v>45599</v>
       </c>
-      <c r="Y1462" s="10">
+      <c r="Y1462">
         <v>8.4</v>
       </c>
     </row>
     <row r="1463" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1463" s="11" t="s">
+      <c r="A1463" t="s">
         <v>29</v>
       </c>
-      <c r="B1463" s="13">
+      <c r="B1463" s="10">
         <v>45603</v>
       </c>
-      <c r="Y1463" s="10">
+      <c r="Y1463">
         <v>8.4</v>
       </c>
     </row>
     <row r="1464" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1464" s="11" t="s">
+      <c r="A1464" t="s">
         <v>29</v>
       </c>
-      <c r="B1464" s="13">
+      <c r="B1464" s="10">
         <v>45607</v>
       </c>
-      <c r="Y1464" s="10">
+      <c r="Y1464">
         <v>8</v>
       </c>
     </row>
     <row r="1465" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1465" s="11" t="s">
+      <c r="A1465" t="s">
         <v>29</v>
       </c>
-      <c r="B1465" s="13">
+      <c r="B1465" s="10">
         <v>45610</v>
       </c>
-      <c r="Y1465" s="10">
+      <c r="Y1465">
         <v>8</v>
       </c>
     </row>
     <row r="1466" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1466" s="11" t="s">
+      <c r="A1466" t="s">
         <v>29</v>
       </c>
-      <c r="B1466" s="13">
+      <c r="B1466" s="10">
         <v>45614</v>
       </c>
-      <c r="Y1466" s="10">
+      <c r="Y1466">
         <v>7.9</v>
       </c>
     </row>
     <row r="1467" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1467" s="11" t="s">
+      <c r="A1467" t="s">
         <v>29</v>
       </c>
-      <c r="B1467" s="13">
+      <c r="B1467" s="10">
         <v>45618</v>
       </c>
-      <c r="Y1467" s="10">
+      <c r="Y1467">
         <v>7.9</v>
       </c>
     </row>
     <row r="1468" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1468" s="11" t="s">
+      <c r="A1468" t="s">
         <v>29</v>
       </c>
-      <c r="B1468" s="13">
+      <c r="B1468" s="10">
         <v>45621</v>
       </c>
-      <c r="Y1468" s="10">
+      <c r="Y1468">
         <v>7.9</v>
       </c>
     </row>
     <row r="1469" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1469" s="11" t="s">
+      <c r="A1469" t="s">
         <v>29</v>
       </c>
-      <c r="B1469" s="13">
+      <c r="B1469" s="10">
         <v>45625</v>
       </c>
-      <c r="Y1469" s="10">
+      <c r="Y1469">
         <v>7.6</v>
       </c>
     </row>
     <row r="1470" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1470" s="11" t="s">
+      <c r="A1470" t="s">
         <v>29</v>
       </c>
-      <c r="B1470" s="13">
+      <c r="B1470" s="10">
         <v>45628</v>
       </c>
-      <c r="Y1470" s="10">
+      <c r="Y1470">
         <v>7.4</v>
       </c>
     </row>
     <row r="1471" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1471" s="11" t="s">
+      <c r="A1471" t="s">
         <v>29</v>
       </c>
-      <c r="B1471" s="13">
+      <c r="B1471" s="10">
         <v>45632</v>
       </c>
-      <c r="Y1471" s="10">
+      <c r="Y1471">
         <v>7.4</v>
       </c>
     </row>
     <row r="1472" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1472" s="11" t="s">
+      <c r="A1472" t="s">
         <v>29</v>
       </c>
-      <c r="B1472" s="13">
+      <c r="B1472" s="10">
         <v>45635</v>
       </c>
-      <c r="Y1472" s="10">
+      <c r="Y1472">
         <v>7.3</v>
       </c>
     </row>
     <row r="1473" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1473" s="11" t="s">
+      <c r="A1473" t="s">
         <v>29</v>
       </c>
-      <c r="B1473" s="13">
+      <c r="B1473" s="10">
         <v>45639</v>
       </c>
-      <c r="Y1473" s="10">
+      <c r="Y1473">
         <v>7.2</v>
       </c>
     </row>
     <row r="1474" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1474" s="11" t="s">
+      <c r="A1474" t="s">
         <v>29</v>
       </c>
-      <c r="B1474" s="13">
+      <c r="B1474" s="10">
         <v>45642</v>
       </c>
-      <c r="Y1474" s="10">
+      <c r="Y1474">
         <v>7.2</v>
       </c>
     </row>
     <row r="1475" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1475" s="11" t="s">
+      <c r="A1475" t="s">
         <v>29</v>
       </c>
-      <c r="B1475" s="13">
+      <c r="B1475" s="10">
         <v>45646</v>
       </c>
-      <c r="Y1475" s="10">
+      <c r="Y1475">
         <v>7.2</v>
       </c>
     </row>
     <row r="1476" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1476" s="11" t="s">
+      <c r="A1476" t="s">
         <v>29</v>
       </c>
-      <c r="B1476" s="13">
+      <c r="B1476" s="10">
         <v>45649</v>
       </c>
-      <c r="Y1476" s="10">
+      <c r="Y1476">
         <v>7.2</v>
       </c>
     </row>
     <row r="1477" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1477" s="11" t="s">
+      <c r="A1477" t="s">
         <v>29</v>
       </c>
-      <c r="B1477" s="13">
+      <c r="B1477" s="10">
         <v>45653</v>
       </c>
-      <c r="Y1477" s="10">
+      <c r="Y1477">
         <v>7.2</v>
       </c>
     </row>
     <row r="1478" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1478" s="11" t="s">
+      <c r="A1478" t="s">
         <v>29</v>
       </c>
-      <c r="B1478" s="13">
+      <c r="B1478" s="10">
         <v>45656</v>
       </c>
-      <c r="Y1478" s="10">
+      <c r="Y1478">
         <v>7.2</v>
       </c>
     </row>
     <row r="1479" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1479" s="11" t="s">
+      <c r="A1479" t="s">
         <v>29</v>
       </c>
-      <c r="B1479" s="13">
+      <c r="B1479" s="10">
         <v>45659</v>
       </c>
-      <c r="Y1479" s="10">
+      <c r="Y1479">
         <v>7.2</v>
       </c>
     </row>
     <row r="1480" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1480" s="11" t="s">
+      <c r="A1480" t="s">
         <v>29</v>
       </c>
-      <c r="B1480" s="13">
+      <c r="B1480" s="10">
         <v>45663</v>
       </c>
-      <c r="Y1480" s="10">
+      <c r="Y1480">
         <v>7.2</v>
       </c>
     </row>
     <row r="1481" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1481" s="11" t="s">
+      <c r="A1481" t="s">
         <v>29</v>
       </c>
-      <c r="B1481" s="13">
+      <c r="B1481" s="10">
         <v>45670</v>
       </c>
-      <c r="Y1481" s="10">
+      <c r="Y1481">
         <v>7.2</v>
       </c>
     </row>
     <row r="1482" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1482" s="11" t="s">
+      <c r="A1482" t="s">
         <v>29</v>
       </c>
-      <c r="B1482" s="13">
+      <c r="B1482" s="10">
         <v>45674</v>
       </c>
-      <c r="Y1482" s="10">
+      <c r="Y1482">
         <v>7.2</v>
       </c>
     </row>
     <row r="1483" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1483" s="11" t="s">
+      <c r="A1483" t="s">
         <v>29</v>
       </c>
-      <c r="B1483" s="13">
+      <c r="B1483" s="10">
         <v>45677</v>
       </c>
-      <c r="Y1483" s="10">
+      <c r="Y1483">
         <v>7</v>
       </c>
     </row>
     <row r="1484" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1484" s="11" t="s">
+      <c r="A1484" t="s">
         <v>31</v>
       </c>
-      <c r="B1484" s="13">
+      <c r="B1484" s="10">
         <v>45435</v>
       </c>
-      <c r="Y1484" s="10">
+      <c r="Y1484">
         <v>1</v>
       </c>
     </row>
     <row r="1485" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1485" s="11" t="s">
+      <c r="A1485" t="s">
         <v>31</v>
       </c>
-      <c r="B1485" s="13">
+      <c r="B1485" s="10">
         <v>45442</v>
       </c>
-      <c r="Y1485" s="10">
+      <c r="Y1485">
         <v>1.0833333333333333</v>
       </c>
     </row>
     <row r="1486" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1486" s="11" t="s">
+      <c r="A1486" t="s">
         <v>31</v>
       </c>
-      <c r="B1486" s="13">
+      <c r="B1486" s="10">
         <v>45447</v>
       </c>
-      <c r="Y1486" s="10">
+      <c r="Y1486">
         <v>1.4166666666666667</v>
       </c>
     </row>
     <row r="1487" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1487" s="11" t="s">
+      <c r="A1487" t="s">
         <v>31</v>
       </c>
-      <c r="B1487" s="13">
+      <c r="B1487" s="10">
         <v>45450</v>
       </c>
-      <c r="Y1487" s="10">
+      <c r="Y1487">
         <v>1.5</v>
       </c>
     </row>
     <row r="1488" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1488" s="11" t="s">
+      <c r="A1488" t="s">
         <v>31</v>
       </c>
-      <c r="B1488" s="13">
+      <c r="B1488" s="10">
         <v>45454</v>
       </c>
-      <c r="Y1488" s="10">
+      <c r="Y1488">
         <v>2.1666666666666665</v>
       </c>
     </row>
     <row r="1489" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1489" s="11" t="s">
+      <c r="A1489" t="s">
         <v>31</v>
       </c>
-      <c r="B1489" s="13">
+      <c r="B1489" s="10">
         <v>45457</v>
       </c>
-      <c r="Y1489" s="10">
+      <c r="Y1489">
         <v>2.4166666666666665</v>
       </c>
     </row>
     <row r="1490" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1490" s="11" t="s">
+      <c r="A1490" t="s">
         <v>31</v>
       </c>
-      <c r="B1490" s="13">
+      <c r="B1490" s="10">
         <v>45463</v>
       </c>
-      <c r="Y1490" s="10">
+      <c r="Y1490">
         <v>3.25</v>
       </c>
     </row>
     <row r="1491" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1491" s="11" t="s">
+      <c r="A1491" t="s">
         <v>31</v>
       </c>
-      <c r="B1491" s="13">
+      <c r="B1491" s="10">
         <v>45467</v>
       </c>
-      <c r="Y1491" s="10">
+      <c r="Y1491">
         <v>3.75</v>
       </c>
     </row>
     <row r="1492" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1492" s="11" t="s">
+      <c r="A1492" t="s">
         <v>31</v>
       </c>
-      <c r="B1492" s="13">
+      <c r="B1492" s="10">
         <v>45470</v>
       </c>
-      <c r="Y1492" s="10">
+      <c r="Y1492">
         <v>4.25</v>
       </c>
     </row>
     <row r="1493" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1493" s="11" t="s">
+      <c r="A1493" t="s">
         <v>31</v>
       </c>
-      <c r="B1493" s="13">
+      <c r="B1493" s="10">
         <v>45474</v>
       </c>
-      <c r="Y1493" s="10">
+      <c r="Y1493">
         <v>4.5</v>
       </c>
     </row>
     <row r="1494" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1494" s="11" t="s">
+      <c r="A1494" t="s">
         <v>31</v>
       </c>
-      <c r="B1494" s="13">
+      <c r="B1494" s="10">
         <v>45477</v>
       </c>
-      <c r="Y1494" s="10">
+      <c r="Y1494">
         <v>5.333333333333333</v>
       </c>
     </row>
     <row r="1495" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1495" s="11" t="s">
+      <c r="A1495" t="s">
         <v>31</v>
       </c>
-      <c r="B1495" s="13">
+      <c r="B1495" s="10">
         <v>45481</v>
       </c>
-      <c r="Y1495" s="10">
+      <c r="Y1495">
         <v>5.833333333333333</v>
       </c>
     </row>
     <row r="1496" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1496" s="11" t="s">
+      <c r="A1496" t="s">
         <v>31</v>
       </c>
-      <c r="B1496" s="13">
+      <c r="B1496" s="10">
         <v>45488</v>
       </c>
-      <c r="Y1496" s="10">
+      <c r="Y1496">
         <v>7</v>
       </c>
     </row>
     <row r="1497" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1497" s="11" t="s">
+      <c r="A1497" t="s">
         <v>31</v>
       </c>
-      <c r="B1497" s="13">
+      <c r="B1497" s="10">
         <v>45492</v>
       </c>
-      <c r="Y1497" s="10">
+      <c r="Y1497">
         <v>7.833333333333333</v>
       </c>
     </row>
     <row r="1498" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1498" s="11" t="s">
+      <c r="A1498" t="s">
         <v>31</v>
       </c>
-      <c r="B1498" s="13">
+      <c r="B1498" s="10">
         <v>45495</v>
       </c>
-      <c r="Y1498" s="10">
+      <c r="Y1498">
         <v>8.75</v>
       </c>
     </row>
     <row r="1499" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1499" s="11" t="s">
+      <c r="A1499" t="s">
         <v>31</v>
       </c>
-      <c r="B1499" s="13">
+      <c r="B1499" s="10">
         <v>45498</v>
       </c>
-      <c r="Y1499" s="10">
+      <c r="Y1499">
         <v>9.25</v>
       </c>
     </row>
     <row r="1500" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1500" s="11" t="s">
+      <c r="A1500" t="s">
         <v>31</v>
       </c>
-      <c r="B1500" s="13">
+      <c r="B1500" s="10">
         <v>45502</v>
       </c>
-      <c r="Y1500" s="10">
+      <c r="Y1500">
         <v>10.583333333333334</v>
       </c>
     </row>
     <row r="1501" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1501" s="11" t="s">
+      <c r="A1501" t="s">
         <v>31</v>
       </c>
-      <c r="B1501" s="13">
+      <c r="B1501" s="10">
         <v>45506</v>
       </c>
-      <c r="Y1501" s="10">
+      <c r="Y1501">
         <v>11.333333333333334</v>
       </c>
     </row>
     <row r="1502" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1502" s="11" t="s">
+      <c r="A1502" t="s">
         <v>31</v>
       </c>
-      <c r="B1502" s="13">
+      <c r="B1502" s="10">
         <v>45509</v>
       </c>
-      <c r="Y1502" s="10">
+      <c r="Y1502">
         <v>12.25</v>
       </c>
     </row>
     <row r="1503" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1503" s="11" t="s">
+      <c r="A1503" t="s">
         <v>31</v>
       </c>
-      <c r="B1503" s="13">
+      <c r="B1503" s="10">
         <v>45513</v>
       </c>
-      <c r="Y1503" s="10">
+      <c r="Y1503">
         <v>13.25</v>
       </c>
     </row>
     <row r="1504" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1504" s="11" t="s">
+      <c r="A1504" t="s">
         <v>31</v>
       </c>
-      <c r="B1504" s="13">
+      <c r="B1504" s="10">
         <v>45516</v>
       </c>
-      <c r="Y1504" s="10">
+      <c r="Y1504">
         <v>14.333333333333334</v>
       </c>
     </row>
     <row r="1505" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1505" s="11" t="s">
+      <c r="A1505" t="s">
         <v>31</v>
       </c>
-      <c r="B1505" s="13">
+      <c r="B1505" s="10">
         <v>45520</v>
       </c>
-      <c r="Y1505" s="10">
+      <c r="Y1505">
         <v>15.416666666666666</v>
       </c>
     </row>
     <row r="1506" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1506" s="11" t="s">
+      <c r="A1506" t="s">
         <v>31</v>
       </c>
-      <c r="B1506" s="13">
+      <c r="B1506" s="10">
         <v>45523</v>
       </c>
-      <c r="Y1506" s="10">
+      <c r="Y1506">
         <v>15.916666666666666</v>
       </c>
     </row>
     <row r="1507" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1507" s="11" t="s">
+      <c r="A1507" t="s">
         <v>31</v>
       </c>
-      <c r="B1507" s="13">
+      <c r="B1507" s="10">
         <v>45527</v>
       </c>
-      <c r="Y1507" s="10">
+      <c r="Y1507">
         <v>16.75</v>
       </c>
     </row>
     <row r="1508" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1508" s="11" t="s">
+      <c r="A1508" t="s">
         <v>31</v>
       </c>
-      <c r="B1508" s="13">
+      <c r="B1508" s="10">
         <v>45530</v>
       </c>
-      <c r="Y1508" s="10">
+      <c r="Y1508">
         <v>17.166666666666668</v>
       </c>
     </row>
     <row r="1509" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1509" s="11" t="s">
+      <c r="A1509" t="s">
         <v>31</v>
       </c>
-      <c r="B1509" s="13">
+      <c r="B1509" s="10">
         <v>45534</v>
       </c>
-      <c r="Y1509" s="10">
+      <c r="Y1509">
         <v>17.5</v>
       </c>
     </row>
     <row r="1510" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1510" s="11" t="s">
+      <c r="A1510" t="s">
         <v>31</v>
       </c>
-      <c r="B1510" s="13">
+      <c r="B1510" s="10">
         <v>45537</v>
       </c>
-      <c r="Y1510" s="10">
+      <c r="Y1510">
         <v>17.583333333333332</v>
       </c>
     </row>
     <row r="1511" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1511" s="11" t="s">
+      <c r="A1511" t="s">
         <v>31</v>
       </c>
-      <c r="B1511" s="13">
+      <c r="B1511" s="10">
         <v>45541</v>
       </c>
-      <c r="Y1511" s="10">
+      <c r="Y1511">
         <v>17.666666666666668</v>
       </c>
     </row>
     <row r="1512" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1512" s="11" t="s">
+      <c r="A1512" t="s">
         <v>31</v>
       </c>
-      <c r="B1512" s="13">
+      <c r="B1512" s="10">
         <v>45544</v>
       </c>
-      <c r="Y1512" s="10">
+      <c r="Y1512">
         <v>17.583333333333332</v>
       </c>
     </row>
     <row r="1513" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1513" s="11" t="s">
+      <c r="A1513" t="s">
         <v>31</v>
       </c>
-      <c r="B1513" s="13">
+      <c r="B1513" s="10">
         <v>45547</v>
       </c>
-      <c r="Y1513" s="10">
+      <c r="Y1513">
         <v>17.583333333333332</v>
       </c>
     </row>
     <row r="1514" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1514" s="11" t="s">
+      <c r="A1514" t="s">
         <v>31</v>
       </c>
-      <c r="B1514" s="13">
+      <c r="B1514" s="10">
         <v>45551</v>
       </c>
-      <c r="Y1514" s="10">
+      <c r="Y1514">
         <v>17.583333333333332</v>
       </c>
     </row>
     <row r="1515" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1515" s="11" t="s">
+      <c r="A1515" t="s">
         <v>31</v>
       </c>
-      <c r="B1515" s="13">
+      <c r="B1515" s="10">
         <v>45555</v>
       </c>
-      <c r="Y1515" s="10">
+      <c r="Y1515">
         <v>17.416666666666668</v>
       </c>
     </row>
     <row r="1516" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1516" s="11" t="s">
+      <c r="A1516" t="s">
         <v>31</v>
       </c>
-      <c r="B1516" s="13">
+      <c r="B1516" s="10">
         <v>45558</v>
       </c>
-      <c r="Y1516" s="10">
+      <c r="Y1516">
         <v>17.333333333333332</v>
       </c>
     </row>
     <row r="1517" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1517" s="11" t="s">
+      <c r="A1517" t="s">
         <v>31</v>
       </c>
-      <c r="B1517" s="13">
+      <c r="B1517" s="10">
         <v>45561</v>
       </c>
-      <c r="Y1517" s="10">
+      <c r="Y1517">
         <v>16.833333333333332</v>
       </c>
     </row>
     <row r="1518" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1518" s="11" t="s">
+      <c r="A1518" t="s">
         <v>31</v>
       </c>
-      <c r="B1518" s="13">
+      <c r="B1518" s="10">
         <v>45565</v>
       </c>
-      <c r="Y1518" s="10">
+      <c r="Y1518">
         <v>16.583333333333332</v>
       </c>
     </row>
     <row r="1519" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1519" s="11" t="s">
+      <c r="A1519" t="s">
         <v>31</v>
       </c>
-      <c r="B1519" s="13">
+      <c r="B1519" s="10">
         <v>45569</v>
       </c>
-      <c r="Y1519" s="10">
+      <c r="Y1519">
         <v>16.166666666666668</v>
       </c>
     </row>
     <row r="1520" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1520" s="11" t="s">
+      <c r="A1520" t="s">
         <v>31</v>
       </c>
-      <c r="B1520" s="13">
+      <c r="B1520" s="10">
         <v>45572</v>
       </c>
-      <c r="Y1520" s="10">
+      <c r="Y1520">
         <v>16</v>
       </c>
     </row>
     <row r="1521" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1521" s="11" t="s">
+      <c r="A1521" t="s">
         <v>31</v>
       </c>
-      <c r="B1521" s="13">
+      <c r="B1521" s="10">
         <v>45576</v>
       </c>
-      <c r="Y1521" s="10">
+      <c r="Y1521">
         <v>15.5</v>
       </c>
     </row>
     <row r="1522" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1522" s="11" t="s">
+      <c r="A1522" t="s">
         <v>31</v>
       </c>
-      <c r="B1522" s="13">
+      <c r="B1522" s="10">
         <v>45579</v>
       </c>
-      <c r="Y1522" s="10">
+      <c r="Y1522">
         <v>14.916666666666666</v>
       </c>
     </row>
     <row r="1523" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1523" s="11" t="s">
+      <c r="A1523" t="s">
         <v>31</v>
       </c>
-      <c r="B1523" s="13">
+      <c r="B1523" s="10">
         <v>45582</v>
       </c>
-      <c r="Y1523" s="10">
+      <c r="Y1523">
         <v>14.416666666666666</v>
       </c>
     </row>
     <row r="1524" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1524" s="11" t="s">
+      <c r="A1524" t="s">
         <v>31</v>
       </c>
-      <c r="B1524" s="13">
+      <c r="B1524" s="10">
         <v>45586</v>
       </c>
-      <c r="Y1524" s="10">
+      <c r="Y1524">
         <v>13.25</v>
       </c>
     </row>
     <row r="1525" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1525" s="11" t="s">
+      <c r="A1525" t="s">
         <v>31</v>
       </c>
-      <c r="B1525" s="13">
+      <c r="B1525" s="10">
         <v>45590</v>
       </c>
-      <c r="Y1525" s="10">
+      <c r="Y1525">
         <v>11.083333333333334</v>
       </c>
     </row>
     <row r="1526" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1526" s="11" t="s">
+      <c r="A1526" t="s">
         <v>31</v>
       </c>
-      <c r="B1526" s="13">
+      <c r="B1526" s="10">
         <v>45593</v>
       </c>
-      <c r="Y1526" s="10">
+      <c r="Y1526">
         <v>10.166666666666666</v>
       </c>
     </row>
     <row r="1527" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1527" s="11" t="s">
+      <c r="A1527" t="s">
         <v>31</v>
       </c>
-      <c r="B1527" s="13">
+      <c r="B1527" s="10">
         <v>45597</v>
       </c>
-      <c r="Y1527" s="10">
+      <c r="Y1527">
         <v>9.5833333333333339</v>
       </c>
     </row>
     <row r="1528" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1528" s="11" t="s">
+      <c r="A1528" t="s">
         <v>31</v>
       </c>
-      <c r="B1528" s="13">
+      <c r="B1528" s="10">
         <v>45599</v>
       </c>
-      <c r="Y1528" s="10">
+      <c r="Y1528">
         <v>9.1666666666666661</v>
       </c>
     </row>
     <row r="1529" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1529" s="11" t="s">
+      <c r="A1529" t="s">
         <v>31</v>
       </c>
-      <c r="B1529" s="13">
+      <c r="B1529" s="10">
         <v>45603</v>
       </c>
-      <c r="Y1529" s="10">
+      <c r="Y1529">
         <v>9.0833333333333339</v>
       </c>
     </row>
     <row r="1530" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1530" s="11" t="s">
+      <c r="A1530" t="s">
         <v>31</v>
       </c>
-      <c r="B1530" s="13">
+      <c r="B1530" s="10">
         <v>45607</v>
       </c>
-      <c r="Y1530" s="10">
+      <c r="Y1530">
         <v>8.75</v>
       </c>
     </row>
     <row r="1531" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1531" s="11" t="s">
+      <c r="A1531" t="s">
         <v>31</v>
       </c>
-      <c r="B1531" s="13">
+      <c r="B1531" s="10">
         <v>45610</v>
       </c>
-      <c r="Y1531" s="10">
+      <c r="Y1531">
         <v>8.5833333333333339</v>
       </c>
     </row>
     <row r="1532" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1532" s="11" t="s">
+      <c r="A1532" t="s">
         <v>31</v>
       </c>
-      <c r="B1532" s="13">
+      <c r="B1532" s="10">
         <v>45614</v>
       </c>
-      <c r="Y1532" s="10">
+      <c r="Y1532">
         <v>8.4166666666666661</v>
       </c>
     </row>
     <row r="1533" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1533" s="11" t="s">
+      <c r="A1533" t="s">
         <v>31</v>
       </c>
-      <c r="B1533" s="13">
+      <c r="B1533" s="10">
         <v>45618</v>
       </c>
-      <c r="Y1533" s="10">
+      <c r="Y1533">
         <v>8.3333333333333339</v>
       </c>
     </row>
     <row r="1534" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1534" s="11" t="s">
+      <c r="A1534" t="s">
         <v>31</v>
       </c>
-      <c r="B1534" s="13">
+      <c r="B1534" s="10">
         <v>45621</v>
       </c>
-      <c r="Y1534" s="10">
+      <c r="Y1534">
         <v>8.1666666666666661</v>
       </c>
     </row>
     <row r="1535" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1535" s="11" t="s">
+      <c r="A1535" t="s">
         <v>31</v>
       </c>
-      <c r="B1535" s="13">
+      <c r="B1535" s="10">
         <v>45625</v>
       </c>
-      <c r="Y1535" s="10">
+      <c r="Y1535">
         <v>8</v>
       </c>
     </row>
     <row r="1536" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1536" s="11" t="s">
+      <c r="A1536" t="s">
         <v>31</v>
       </c>
-      <c r="B1536" s="13">
+      <c r="B1536" s="10">
         <v>45628</v>
       </c>
-      <c r="Y1536" s="10">
+      <c r="Y1536">
         <v>8</v>
       </c>
     </row>
     <row r="1537" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1537" s="11" t="s">
+      <c r="A1537" t="s">
         <v>31</v>
       </c>
-      <c r="B1537" s="13">
+      <c r="B1537" s="10">
         <v>45632</v>
       </c>
-      <c r="Y1537" s="10">
+      <c r="Y1537">
         <v>7.666666666666667</v>
       </c>
     </row>
     <row r="1538" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1538" s="11" t="s">
+      <c r="A1538" t="s">
         <v>31</v>
       </c>
-      <c r="B1538" s="13">
+      <c r="B1538" s="10">
         <v>45635</v>
       </c>
-      <c r="Y1538" s="10">
+      <c r="Y1538">
         <v>7.583333333333333</v>
       </c>
     </row>
     <row r="1539" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1539" s="11" t="s">
+      <c r="A1539" t="s">
         <v>31</v>
       </c>
-      <c r="B1539" s="13">
+      <c r="B1539" s="10">
         <v>45639</v>
       </c>
-      <c r="Y1539" s="10">
+      <c r="Y1539">
         <v>7.166666666666667</v>
       </c>
     </row>
     <row r="1540" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1540" s="11" t="s">
+      <c r="A1540" t="s">
         <v>31</v>
       </c>
-      <c r="B1540" s="13">
+      <c r="B1540" s="10">
         <v>45642</v>
       </c>
-      <c r="Y1540" s="10">
+      <c r="Y1540">
         <v>7.166666666666667</v>
       </c>
     </row>
     <row r="1541" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1541" s="11" t="s">
+      <c r="A1541" t="s">
         <v>31</v>
       </c>
-      <c r="B1541" s="13">
+      <c r="B1541" s="10">
         <v>45646</v>
       </c>
-      <c r="Y1541" s="10">
+      <c r="Y1541">
         <v>7.083333333333333</v>
       </c>
     </row>
     <row r="1542" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1542" s="11" t="s">
+      <c r="A1542" t="s">
         <v>31</v>
       </c>
-      <c r="B1542" s="13">
+      <c r="B1542" s="10">
         <v>45649</v>
       </c>
-      <c r="Y1542" s="10">
+      <c r="Y1542">
         <v>7.083333333333333</v>
       </c>
     </row>
     <row r="1543" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1543" s="11" t="s">
+      <c r="A1543" t="s">
         <v>31</v>
       </c>
-      <c r="B1543" s="13">
+      <c r="B1543" s="10">
         <v>45653</v>
       </c>
-      <c r="Y1543" s="10">
+      <c r="Y1543">
         <v>7</v>
       </c>
     </row>
     <row r="1544" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1544" s="11" t="s">
+      <c r="A1544" t="s">
         <v>31</v>
       </c>
-      <c r="B1544" s="13">
+      <c r="B1544" s="10">
         <v>45656</v>
       </c>
-      <c r="Y1544" s="10">
+      <c r="Y1544">
         <v>6.833333333333333</v>
       </c>
     </row>
     <row r="1545" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1545" s="11" t="s">
+      <c r="A1545" t="s">
         <v>31</v>
       </c>
-      <c r="B1545" s="13">
+      <c r="B1545" s="10">
         <v>45659</v>
       </c>
-      <c r="Y1545" s="10">
+      <c r="Y1545">
         <v>6.833333333333333</v>
       </c>
     </row>
     <row r="1546" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1546" s="11" t="s">
+      <c r="A1546" t="s">
         <v>31</v>
       </c>
-      <c r="B1546" s="13">
+      <c r="B1546" s="10">
         <v>45663</v>
       </c>
-      <c r="Y1546" s="10">
+      <c r="Y1546">
         <v>6.833333333333333</v>
       </c>
     </row>
     <row r="1547" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1547" s="11" t="s">
+      <c r="A1547" t="s">
         <v>31</v>
       </c>
-      <c r="B1547" s="13">
+      <c r="B1547" s="10">
         <v>45670</v>
       </c>
-      <c r="Y1547" s="10">
+      <c r="Y1547">
         <v>6.833333333333333</v>
       </c>
     </row>
     <row r="1548" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1548" s="11" t="s">
+      <c r="A1548" t="s">
         <v>31</v>
       </c>
-      <c r="B1548" s="13">
+      <c r="B1548" s="10">
         <v>45674</v>
       </c>
-      <c r="Y1548" s="10">
+      <c r="Y1548">
         <v>6.583333333333333</v>
       </c>
     </row>
     <row r="1549" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1549" s="11" t="s">
+      <c r="A1549" t="s">
         <v>31</v>
       </c>
-      <c r="B1549" s="13">
+      <c r="B1549" s="10">
         <v>45677</v>
       </c>
-      <c r="Y1549" s="10">
+      <c r="Y1549">
         <v>6.416666666666667</v>
       </c>
     </row>
@@ -23873,6 +23846,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002CA9C2C83C87A7408E0099D61CB2C224" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3ce516e8a7524994cf4149f9aaa4cac7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="322cff4d-e128-4275-8c17-01ea60ce9850" xmlns:ns4="7391035e-a561-4b14-b643-167d3e77bc43" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="449e7fc92384ad82c475872e96556466" ns3:_="" ns4:_="">
     <xsd:import namespace="322cff4d-e128-4275-8c17-01ea60ce9850"/>
@@ -24125,15 +24107,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -24143,6 +24116,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{565FE936-45C1-4267-BB01-0C6ECA531FFF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1EA98CE-4368-4F90-9C57-5CE2133AA34B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24157,14 +24138,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{565FE936-45C1-4267-BB01-0C6ECA531FFF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Tests/Validation/Wheat/data/Lincoln2024.xlsx
+++ b/Tests/Validation/Wheat/data/Lincoln2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\ApsimX\Tests\Validation\Wheat\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0EF73D-E86A-4346-82AB-877875FC482E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C414218D-CF13-438C-9A2C-7D5427A1FDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" autoFilterDateGrouping="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="74">
   <si>
     <t>SimulationName</t>
   </si>
@@ -321,7 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -339,6 +339,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -675,13 +678,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y1549"/>
+  <dimension ref="A1:Y1593"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="R826" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G1583" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R834" sqref="R834:R837"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -694,7 +697,8 @@
     <col min="6" max="6" width="24" customWidth="1"/>
     <col min="7" max="7" width="25.33203125" customWidth="1"/>
     <col min="8" max="16" width="23.6640625" customWidth="1"/>
-    <col min="17" max="19" width="36.33203125" customWidth="1"/>
+    <col min="17" max="18" width="36.33203125" customWidth="1"/>
+    <col min="19" max="19" width="21.21875" customWidth="1"/>
     <col min="20" max="20" width="22.5546875" customWidth="1"/>
     <col min="21" max="21" width="19.6640625" customWidth="1"/>
     <col min="22" max="22" width="17.6640625" customWidth="1"/>
@@ -22309,6 +22313,886 @@
       </c>
       <c r="Y1549">
         <v>6.416666666666667</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1550" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1550" s="12">
+        <v>45597</v>
+      </c>
+      <c r="D1550">
+        <v>278.87147971955255</v>
+      </c>
+      <c r="E1550">
+        <v>1602.0306076560514</v>
+      </c>
+      <c r="F1550">
+        <v>125.43580675659413</v>
+      </c>
+      <c r="I1550">
+        <v>286.34333848191739</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1551" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1551" s="1">
+        <v>45604</v>
+      </c>
+      <c r="D1551">
+        <v>282.86709376756733</v>
+      </c>
+      <c r="E1551">
+        <v>1842.6067734508706</v>
+      </c>
+      <c r="F1551">
+        <v>135.72798551076588</v>
+      </c>
+      <c r="I1551">
+        <v>372.39088572637337</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1552" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1552" s="1">
+        <v>45610</v>
+      </c>
+      <c r="D1552">
+        <v>208.95687521286453</v>
+      </c>
+      <c r="E1552">
+        <v>1776.6500658526024</v>
+      </c>
+      <c r="F1552">
+        <v>155.42244509321344</v>
+      </c>
+      <c r="I1552">
+        <v>433.2691712777081</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1553" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1553" s="1">
+        <v>45618</v>
+      </c>
+      <c r="D1553">
+        <v>204.1123438524767</v>
+      </c>
+      <c r="E1553">
+        <v>1817.9819728730499</v>
+      </c>
+      <c r="F1553">
+        <v>153.6704579186657</v>
+      </c>
+      <c r="I1553">
+        <v>668.97705054486369</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1554" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1554" s="1">
+        <v>45625</v>
+      </c>
+      <c r="D1554">
+        <v>243.62531043507965</v>
+      </c>
+      <c r="E1554">
+        <v>2035.5619663141672</v>
+      </c>
+      <c r="F1554">
+        <v>180.83901074198857</v>
+      </c>
+      <c r="I1554">
+        <v>1016.9246704628633</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1555" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1555" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1555">
+        <v>136.99459356932547</v>
+      </c>
+      <c r="E1555">
+        <v>1630.3612142051293</v>
+      </c>
+      <c r="F1555">
+        <v>251.64752591679314</v>
+      </c>
+      <c r="I1555">
+        <v>1358.9315943449826</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1556" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1556" s="1">
+        <v>45637</v>
+      </c>
+      <c r="D1556">
+        <v>108.39265189252511</v>
+      </c>
+      <c r="E1556">
+        <v>1501.8429227893459</v>
+      </c>
+      <c r="F1556">
+        <v>268.45482460901212</v>
+      </c>
+      <c r="I1556">
+        <v>1767.7930397256848</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1557" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1557" s="1">
+        <v>45644</v>
+      </c>
+      <c r="D1557">
+        <v>85.444857315520778</v>
+      </c>
+      <c r="E1557">
+        <v>1335.0393608785985</v>
+      </c>
+      <c r="F1557">
+        <v>258.13673000364884</v>
+      </c>
+      <c r="I1557">
+        <v>2148.2317297268428</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1558" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1558" s="1">
+        <v>45650</v>
+      </c>
+      <c r="D1558">
+        <v>13.123665047468437</v>
+      </c>
+      <c r="E1558">
+        <v>1260.9441667998744</v>
+      </c>
+      <c r="F1558">
+        <v>341.68168626063994</v>
+      </c>
+      <c r="I1558">
+        <v>2417.6854251560671</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1559" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1559" s="1">
+        <v>45656</v>
+      </c>
+      <c r="D1559">
+        <v>0</v>
+      </c>
+      <c r="E1559">
+        <v>1100.7334204888077</v>
+      </c>
+      <c r="F1559">
+        <v>370.37609199170265</v>
+      </c>
+      <c r="I1559">
+        <v>2360.9013202179913</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1560" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1560" s="1">
+        <v>45663</v>
+      </c>
+      <c r="D1560">
+        <v>0</v>
+      </c>
+      <c r="E1560">
+        <v>1015.7814467292733</v>
+      </c>
+      <c r="F1560">
+        <v>294.70490602526115</v>
+      </c>
+      <c r="I1560">
+        <v>2086.1607786148975</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1561" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1561" s="1">
+        <v>45597</v>
+      </c>
+      <c r="D1561">
+        <v>449.06310448489069</v>
+      </c>
+      <c r="E1561">
+        <v>1863.8409604973463</v>
+      </c>
+      <c r="F1561">
+        <v>112.89645620236203</v>
+      </c>
+      <c r="I1561">
+        <v>329.69429380908326</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1562" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1562" s="1">
+        <v>45604</v>
+      </c>
+      <c r="D1562">
+        <v>408.88193953844853</v>
+      </c>
+      <c r="E1562">
+        <v>1776.710706619858</v>
+      </c>
+      <c r="F1562">
+        <v>102.95759727412306</v>
+      </c>
+      <c r="I1562">
+        <v>374.82335583862925</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1563" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1563" s="1">
+        <v>45610</v>
+      </c>
+      <c r="D1563">
+        <v>338.10726437090386</v>
+      </c>
+      <c r="E1563">
+        <v>2056.7109163546615</v>
+      </c>
+      <c r="F1563">
+        <v>127.76178655901568</v>
+      </c>
+      <c r="I1563">
+        <v>474.46898821776767</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1564" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1564" s="1">
+        <v>45618</v>
+      </c>
+      <c r="D1564">
+        <v>373.13635477443734</v>
+      </c>
+      <c r="E1564">
+        <v>2082.3687585393864</v>
+      </c>
+      <c r="F1564">
+        <v>104.71738647306412</v>
+      </c>
+      <c r="I1564">
+        <v>691.00767781564412</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1565" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1565" s="1">
+        <v>45625</v>
+      </c>
+      <c r="D1565">
+        <v>316.75768574125851</v>
+      </c>
+      <c r="E1565">
+        <v>2145.4009574182942</v>
+      </c>
+      <c r="F1565">
+        <v>189.98158021266462</v>
+      </c>
+      <c r="I1565">
+        <v>1130.1191945026715</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1566" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1566" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1566">
+        <v>294.11281369955356</v>
+      </c>
+      <c r="E1566">
+        <v>2041.2841052921665</v>
+      </c>
+      <c r="F1566">
+        <v>181.23353208103296</v>
+      </c>
+      <c r="I1566">
+        <v>1514.4728834719642</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1567" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1567" s="1">
+        <v>45637</v>
+      </c>
+      <c r="D1567">
+        <v>258.28823302104024</v>
+      </c>
+      <c r="E1567">
+        <v>1827.4344542916051</v>
+      </c>
+      <c r="F1567">
+        <v>227.7889565165284</v>
+      </c>
+      <c r="I1567">
+        <v>1895.3564896875487</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1568" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1568" s="1">
+        <v>45644</v>
+      </c>
+      <c r="D1568">
+        <v>220.72429200967147</v>
+      </c>
+      <c r="E1568">
+        <v>1549.7556732010034</v>
+      </c>
+      <c r="F1568">
+        <v>201.22701023133186</v>
+      </c>
+      <c r="I1568">
+        <v>2451.277432217395</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1569" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1569" s="1">
+        <v>45650</v>
+      </c>
+      <c r="D1569">
+        <v>91.043943931492464</v>
+      </c>
+      <c r="E1569">
+        <v>1390.3038194136948</v>
+      </c>
+      <c r="F1569">
+        <v>300.67488131047168</v>
+      </c>
+      <c r="I1569">
+        <v>2675.9253562720319</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1570" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1570" s="1">
+        <v>45656</v>
+      </c>
+      <c r="D1570">
+        <v>61.988216464843276</v>
+      </c>
+      <c r="E1570">
+        <v>1288.0779880136479</v>
+      </c>
+      <c r="F1570">
+        <v>327.61268603122437</v>
+      </c>
+      <c r="I1570">
+        <v>2909.0410933907701</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1571" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1571" s="1">
+        <v>45663</v>
+      </c>
+      <c r="D1571">
+        <v>16.678329944359628</v>
+      </c>
+      <c r="E1571">
+        <v>1193.6529923653559</v>
+      </c>
+      <c r="F1571">
+        <v>317.04178865183826</v>
+      </c>
+      <c r="I1571">
+        <v>2486.9908485024071</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1572" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1572" s="1">
+        <v>45597</v>
+      </c>
+      <c r="D1572">
+        <v>415.22016874701114</v>
+      </c>
+      <c r="E1572">
+        <v>1600.385730890262</v>
+      </c>
+      <c r="F1572">
+        <v>132.98844733685718</v>
+      </c>
+      <c r="I1572">
+        <v>277.42532970992147</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1573" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1573" s="1">
+        <v>45604</v>
+      </c>
+      <c r="D1573">
+        <v>446.67035476974218</v>
+      </c>
+      <c r="E1573">
+        <v>1769.1736306968644</v>
+      </c>
+      <c r="F1573">
+        <v>152.22275917420157</v>
+      </c>
+      <c r="I1573">
+        <v>397.820234643189</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1574" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1574" s="1">
+        <v>45610</v>
+      </c>
+      <c r="D1574">
+        <v>426.3562140813932</v>
+      </c>
+      <c r="E1574">
+        <v>1695.1513781097215</v>
+      </c>
+      <c r="F1574">
+        <v>102.50855144462201</v>
+      </c>
+      <c r="I1574">
+        <v>439.69822603225236</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1575" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1575" s="1">
+        <v>45618</v>
+      </c>
+      <c r="D1575">
+        <v>393.47926553917034</v>
+      </c>
+      <c r="E1575">
+        <v>1979.801940795033</v>
+      </c>
+      <c r="F1575">
+        <v>157.69280794493309</v>
+      </c>
+      <c r="I1575">
+        <v>733.76253763854754</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1576" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1576" s="1">
+        <v>45625</v>
+      </c>
+      <c r="D1576">
+        <v>438.17891064379398</v>
+      </c>
+      <c r="E1576">
+        <v>2215.361621881571</v>
+      </c>
+      <c r="F1576">
+        <v>150.57108174240977</v>
+      </c>
+      <c r="I1576">
+        <v>1189.4543229336527</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1577" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1577" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1577">
+        <v>446.11715325474518</v>
+      </c>
+      <c r="E1577">
+        <v>2246.572820744213</v>
+      </c>
+      <c r="F1577">
+        <v>171.02298734068302</v>
+      </c>
+      <c r="I1577">
+        <v>1639.9361318887552</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1578" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1578" s="1">
+        <v>45637</v>
+      </c>
+      <c r="D1578">
+        <v>309.45394979689769</v>
+      </c>
+      <c r="E1578">
+        <v>1889.405858311271</v>
+      </c>
+      <c r="F1578">
+        <v>210.89403009268602</v>
+      </c>
+      <c r="I1578">
+        <v>1954.0972950304247</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1579" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1579" s="1">
+        <v>45644</v>
+      </c>
+      <c r="D1579">
+        <v>266.07289423895742</v>
+      </c>
+      <c r="E1579">
+        <v>1554.5976625938974</v>
+      </c>
+      <c r="F1579">
+        <v>247.24567850519992</v>
+      </c>
+      <c r="I1579">
+        <v>2333.9275296536803</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1580" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1580" s="1">
+        <v>45650</v>
+      </c>
+      <c r="D1580">
+        <v>102.73555771562553</v>
+      </c>
+      <c r="E1580">
+        <v>1577.883375463912</v>
+      </c>
+      <c r="F1580">
+        <v>345.74726369035983</v>
+      </c>
+      <c r="I1580">
+        <v>3035.3261120304801</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1581" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1581" s="1">
+        <v>45656</v>
+      </c>
+      <c r="D1581">
+        <v>88.431849729217817</v>
+      </c>
+      <c r="E1581">
+        <v>1445.8538223815892</v>
+      </c>
+      <c r="F1581">
+        <v>339.20551859734059</v>
+      </c>
+      <c r="I1581">
+        <v>3255.4777084854377</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1582" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1582" s="1">
+        <v>45663</v>
+      </c>
+      <c r="D1582">
+        <v>0</v>
+      </c>
+      <c r="E1582">
+        <v>1398.3231445323981</v>
+      </c>
+      <c r="F1582">
+        <v>354.499341548953</v>
+      </c>
+      <c r="I1582">
+        <v>2798.0237715363896</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1583" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1583" s="1">
+        <v>45597</v>
+      </c>
+      <c r="D1583">
+        <v>494.40043935304925</v>
+      </c>
+      <c r="E1583">
+        <v>1693.6091392008793</v>
+      </c>
+      <c r="F1583">
+        <v>86.864936950205049</v>
+      </c>
+      <c r="I1583">
+        <v>356.6092829408928</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1584" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1584" s="1">
+        <v>45604</v>
+      </c>
+      <c r="D1584">
+        <v>503.62896006171928</v>
+      </c>
+      <c r="E1584">
+        <v>1910.8711873026075</v>
+      </c>
+      <c r="F1584">
+        <v>111.64829048218641</v>
+      </c>
+      <c r="I1584">
+        <v>450.13517961230821</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1585" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1585" s="1">
+        <v>45610</v>
+      </c>
+      <c r="D1585">
+        <v>500.85046265495754</v>
+      </c>
+      <c r="E1585">
+        <v>2107.6276434466245</v>
+      </c>
+      <c r="F1585">
+        <v>117.2187949004025</v>
+      </c>
+      <c r="I1585">
+        <v>552.17583026562102</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1586" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1586" s="1">
+        <v>45618</v>
+      </c>
+      <c r="D1586">
+        <v>426.65396343069091</v>
+      </c>
+      <c r="E1586">
+        <v>2092.8185613616679</v>
+      </c>
+      <c r="F1586">
+        <v>140.95655355875937</v>
+      </c>
+      <c r="I1586">
+        <v>788.24226538281823</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1587" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1587" s="1">
+        <v>45625</v>
+      </c>
+      <c r="D1587">
+        <v>450.21651520831301</v>
+      </c>
+      <c r="E1587">
+        <v>2210.4525326468183</v>
+      </c>
+      <c r="F1587">
+        <v>179.8960162650242</v>
+      </c>
+      <c r="I1587">
+        <v>1202.80589909276</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1588" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1588" s="1">
+        <v>45631</v>
+      </c>
+      <c r="D1588">
+        <v>409.95245869881114</v>
+      </c>
+      <c r="E1588">
+        <v>2181.5429988675255</v>
+      </c>
+      <c r="F1588">
+        <v>191.18178753622394</v>
+      </c>
+      <c r="I1588">
+        <v>1704.7244335422038</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1589" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1589" s="1">
+        <v>45637</v>
+      </c>
+      <c r="D1589">
+        <v>314.65142427886246</v>
+      </c>
+      <c r="E1589">
+        <v>1787.5591050714811</v>
+      </c>
+      <c r="F1589">
+        <v>227.06282818460437</v>
+      </c>
+      <c r="I1589">
+        <v>1995.0810911222779</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1590" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1590" s="1">
+        <v>45644</v>
+      </c>
+      <c r="D1590">
+        <v>261.38595695602095</v>
+      </c>
+      <c r="E1590">
+        <v>1560.2297313442755</v>
+      </c>
+      <c r="F1590">
+        <v>243.68975700023415</v>
+      </c>
+      <c r="I1590">
+        <v>2517.440328998674</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1591" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1591" s="1">
+        <v>45650</v>
+      </c>
+      <c r="D1591">
+        <v>264.71586785552631</v>
+      </c>
+      <c r="E1591">
+        <v>1567.7022895058094</v>
+      </c>
+      <c r="F1591">
+        <v>241.70789629313876</v>
+      </c>
+      <c r="I1591">
+        <v>3000.1469757147506</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1592" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1592" s="1">
+        <v>45656</v>
+      </c>
+      <c r="D1592">
+        <v>67.252714674168999</v>
+      </c>
+      <c r="E1592">
+        <v>1494.7710088968145</v>
+      </c>
+      <c r="F1592">
+        <v>377.82888366675627</v>
+      </c>
+      <c r="I1592">
+        <v>3198.991507884336</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1593" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1593" s="1">
+        <v>45663</v>
+      </c>
+      <c r="D1593">
+        <v>20.807004426980797</v>
+      </c>
+      <c r="E1593">
+        <v>1355.9054761598836</v>
+      </c>
+      <c r="F1593">
+        <v>370.5811826661656</v>
+      </c>
+      <c r="I1593">
+        <v>2785.8836981060431</v>
       </c>
     </row>
   </sheetData>

--- a/Tests/Validation/Wheat/data/Lincoln2024.xlsx
+++ b/Tests/Validation/Wheat/data/Lincoln2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\ApsimX\Tests\Validation\Wheat\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C414218D-CF13-438C-9A2C-7D5427A1FDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBED1540-ED72-4C5F-B083-F756F67104E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" autoFilterDateGrouping="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="75">
   <si>
     <t>SimulationName</t>
   </si>
@@ -262,6 +262,9 @@
   <si>
     <t>HarvestRipe</t>
   </si>
+  <si>
+    <t>DoubleRidge</t>
+  </si>
 </sst>
 </file>
 
@@ -294,7 +297,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,6 +307,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,7 +330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -340,9 +349,8 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,13 +686,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y1593"/>
+  <dimension ref="A1:Y1821"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G1583" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C1558" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="A1558" sqref="A1558:XFD1649"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -705,7 +713,7 @@
     <col min="23" max="23" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -22315,884 +22323,3020 @@
         <v>6.416666666666667</v>
       </c>
     </row>
-    <row r="1550" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1550" s="4" t="s">
+    <row r="1550" spans="1:25" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1550" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B1550" s="12">
-        <v>45597</v>
-      </c>
-      <c r="D1550">
-        <v>278.87147971955255</v>
-      </c>
-      <c r="E1550">
-        <v>1602.0306076560514</v>
-      </c>
-      <c r="F1550">
-        <v>125.43580675659413</v>
-      </c>
-      <c r="I1550">
-        <v>286.34333848191739</v>
-      </c>
-    </row>
-    <row r="1551" spans="1:25" x14ac:dyDescent="0.3">
+        <v>45483</v>
+      </c>
+      <c r="R1550" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1550" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1551" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1551" s="1">
-        <v>45604</v>
-      </c>
-      <c r="D1551">
-        <v>282.86709376756733</v>
-      </c>
-      <c r="E1551">
-        <v>1842.6067734508706</v>
-      </c>
-      <c r="F1551">
-        <v>135.72798551076588</v>
-      </c>
-      <c r="I1551">
-        <v>372.39088572637337</v>
-      </c>
-    </row>
-    <row r="1552" spans="1:25" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="B1551" s="9">
+        <v>45483</v>
+      </c>
+      <c r="R1551" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1551">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1552" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1552" s="1">
-        <v>45610</v>
-      </c>
-      <c r="D1552">
-        <v>208.95687521286453</v>
-      </c>
-      <c r="E1552">
-        <v>1776.6500658526024</v>
-      </c>
-      <c r="F1552">
-        <v>155.42244509321344</v>
-      </c>
-      <c r="I1552">
-        <v>433.2691712777081</v>
-      </c>
-    </row>
-    <row r="1553" spans="1:9" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="B1552" s="9">
+        <v>45483</v>
+      </c>
+      <c r="R1552" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1552">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1553" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1553" s="1">
-        <v>45618</v>
-      </c>
-      <c r="D1553">
-        <v>204.1123438524767</v>
-      </c>
-      <c r="E1553">
-        <v>1817.9819728730499</v>
-      </c>
-      <c r="F1553">
-        <v>153.6704579186657</v>
-      </c>
-      <c r="I1553">
-        <v>668.97705054486369</v>
-      </c>
-    </row>
-    <row r="1554" spans="1:9" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="B1553" s="9">
+        <v>45483</v>
+      </c>
+      <c r="R1553" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1553">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1554" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1554" s="1">
-        <v>45625</v>
-      </c>
-      <c r="D1554">
-        <v>243.62531043507965</v>
-      </c>
-      <c r="E1554">
-        <v>2035.5619663141672</v>
-      </c>
-      <c r="F1554">
-        <v>180.83901074198857</v>
-      </c>
-      <c r="I1554">
-        <v>1016.9246704628633</v>
-      </c>
-    </row>
-    <row r="1555" spans="1:9" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="B1554" s="9">
+        <v>45527</v>
+      </c>
+      <c r="R1554" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1554">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1555" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1555" s="1">
-        <v>45631</v>
-      </c>
-      <c r="D1555">
-        <v>136.99459356932547</v>
-      </c>
-      <c r="E1555">
-        <v>1630.3612142051293</v>
-      </c>
-      <c r="F1555">
-        <v>251.64752591679314</v>
-      </c>
-      <c r="I1555">
-        <v>1358.9315943449826</v>
-      </c>
-    </row>
-    <row r="1556" spans="1:9" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="B1555" s="9">
+        <v>45527</v>
+      </c>
+      <c r="R1555" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1555">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1556" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1556" s="1">
-        <v>45637</v>
-      </c>
-      <c r="D1556">
-        <v>108.39265189252511</v>
-      </c>
-      <c r="E1556">
-        <v>1501.8429227893459</v>
-      </c>
-      <c r="F1556">
-        <v>268.45482460901212</v>
-      </c>
-      <c r="I1556">
-        <v>1767.7930397256848</v>
-      </c>
-    </row>
-    <row r="1557" spans="1:9" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="B1556" s="9">
+        <v>45527</v>
+      </c>
+      <c r="R1556" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1556">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1557" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1557" s="1">
-        <v>45644</v>
-      </c>
-      <c r="D1557">
-        <v>85.444857315520778</v>
-      </c>
-      <c r="E1557">
-        <v>1335.0393608785985</v>
-      </c>
-      <c r="F1557">
-        <v>258.13673000364884</v>
-      </c>
-      <c r="I1557">
-        <v>2148.2317297268428</v>
-      </c>
-    </row>
-    <row r="1558" spans="1:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="B1557" s="9">
+        <v>45527</v>
+      </c>
+      <c r="R1557" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1557">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1558" t="s">
         <v>33</v>
       </c>
       <c r="B1558" s="1">
-        <v>45650</v>
-      </c>
-      <c r="D1558">
-        <v>13.123665047468437</v>
-      </c>
-      <c r="E1558">
-        <v>1260.9441667998744</v>
-      </c>
-      <c r="F1558">
-        <v>341.68168626063994</v>
-      </c>
-      <c r="I1558">
-        <v>2417.6854251560671</v>
-      </c>
-    </row>
-    <row r="1559" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45443</v>
+      </c>
+      <c r="Y1558">
+        <v>9.8333333333333321</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1559" t="s">
         <v>33</v>
       </c>
       <c r="B1559" s="1">
-        <v>45656</v>
-      </c>
-      <c r="D1559">
-        <v>0</v>
-      </c>
-      <c r="E1559">
-        <v>1100.7334204888077</v>
-      </c>
-      <c r="F1559">
-        <v>370.37609199170265</v>
-      </c>
-      <c r="I1559">
-        <v>2360.9013202179913</v>
-      </c>
-    </row>
-    <row r="1560" spans="1:9" x14ac:dyDescent="0.3">
+        <v>45449</v>
+      </c>
+      <c r="Y1559">
+        <v>10.333333333333334</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1560" t="s">
         <v>33</v>
       </c>
       <c r="B1560" s="1">
+        <v>45456</v>
+      </c>
+      <c r="Y1560">
+        <v>15.666666666666666</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1561" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1561" s="1">
+        <v>45462</v>
+      </c>
+      <c r="Y1561">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1562" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1562" s="1">
+        <v>45469</v>
+      </c>
+      <c r="Y1562">
+        <v>19.833333333333336</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1563" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1563" s="1">
+        <v>45477</v>
+      </c>
+      <c r="Y1563">
+        <v>15.166666666666668</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1564" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1564" s="1">
+        <v>45483</v>
+      </c>
+      <c r="Y1564">
+        <v>20.166666666666668</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1565" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1565" s="1">
+        <v>45492</v>
+      </c>
+      <c r="Y1565">
+        <v>14.166666666666666</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1566" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1566" s="1">
+        <v>45500</v>
+      </c>
+      <c r="Y1566">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1567" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1567" s="1">
+        <v>45505</v>
+      </c>
+      <c r="Y1567">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1568" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1568" s="1">
+        <v>45512</v>
+      </c>
+      <c r="Y1568">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1569" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1569" s="1">
+        <v>45520</v>
+      </c>
+      <c r="Y1569">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1570" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1570" s="1">
+        <v>45527</v>
+      </c>
+      <c r="Y1570">
+        <v>16.166666666666668</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1571" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1571" s="1">
+        <v>45533</v>
+      </c>
+      <c r="Y1571">
+        <v>11.666666666666666</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1572" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1572" s="1">
+        <v>45539</v>
+      </c>
+      <c r="Y1572">
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1573" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1573" s="1">
+        <v>45545</v>
+      </c>
+      <c r="Y1573">
+        <v>9.3333333333333321</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1574" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1574" s="1">
+        <v>45555</v>
+      </c>
+      <c r="Y1574">
+        <v>9.1666666666666661</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1575" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1575" s="1">
+        <v>45562</v>
+      </c>
+      <c r="Y1575">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1576" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1576" s="1">
+        <v>45569</v>
+      </c>
+      <c r="Y1576">
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1577" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1577" s="1">
+        <v>45575</v>
+      </c>
+      <c r="Y1577">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1578" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1578" s="1">
+        <v>45581</v>
+      </c>
+      <c r="Y1578">
+        <v>8.1666666666666661</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1579" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1579" s="1">
+        <v>45590</v>
+      </c>
+      <c r="Y1579">
+        <v>8.1666666666666679</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1580" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1580" s="1">
+        <v>45597</v>
+      </c>
+      <c r="Y1580">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1581" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1581" s="1">
+        <v>45604</v>
+      </c>
+      <c r="Y1581">
+        <v>5.6666666666666661</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1582" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1582" s="1">
+        <v>45610</v>
+      </c>
+      <c r="Y1582">
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1583" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1583" s="1">
+        <v>45618</v>
+      </c>
+      <c r="Y1583">
+        <v>5.4791666666666661</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1584" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1584" s="1">
+        <v>45625</v>
+      </c>
+      <c r="Y1584">
+        <v>5.3333333333333339</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1585" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1585" s="1">
+        <v>45631</v>
+      </c>
+      <c r="Y1585">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1586" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1586" s="1">
+        <v>45637</v>
+      </c>
+      <c r="Y1586">
+        <v>5.083333333333333</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1587" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1587" s="1">
+        <v>45644</v>
+      </c>
+      <c r="Y1587">
+        <v>4.916666666666667</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1588" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1588" s="1">
+        <v>45650</v>
+      </c>
+      <c r="Y1588">
+        <v>4.4166666666666661</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1589" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1589" s="1">
+        <v>45656</v>
+      </c>
+      <c r="Y1589">
+        <v>4.3333333333333339</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1590" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1590" s="1">
         <v>45663</v>
       </c>
-      <c r="D1560">
-        <v>0</v>
-      </c>
-      <c r="E1560">
-        <v>1015.7814467292733</v>
-      </c>
-      <c r="F1560">
-        <v>294.70490602526115</v>
-      </c>
-      <c r="I1560">
-        <v>2086.1607786148975</v>
-      </c>
-    </row>
-    <row r="1561" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1561" t="s">
+      <c r="Y1590">
+        <v>4.333333333333333</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1591" t="s">
         <v>36</v>
       </c>
-      <c r="B1561" s="1">
+      <c r="B1591" s="1">
+        <v>45443</v>
+      </c>
+      <c r="Y1591">
+        <v>10.666666666666668</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1592" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1592" s="1">
+        <v>45449</v>
+      </c>
+      <c r="Y1592">
+        <v>12.833333333333332</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1593" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1593" s="1">
+        <v>45456</v>
+      </c>
+      <c r="Y1593">
+        <v>13.666666666666666</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1594" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1594" s="1">
+        <v>45462</v>
+      </c>
+      <c r="Y1594">
+        <v>15.833333333333332</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1595" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1595" s="1">
+        <v>45469</v>
+      </c>
+      <c r="Y1595">
+        <v>17.833333333333336</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1596" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1596" s="1">
+        <v>45477</v>
+      </c>
+      <c r="Y1596">
+        <v>15.833333333333332</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1597" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1597" s="1">
+        <v>45483</v>
+      </c>
+      <c r="Y1597">
+        <v>16.333333333333332</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1598" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1598" s="1">
+        <v>45492</v>
+      </c>
+      <c r="Y1598">
+        <v>14.166666666666666</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1599" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1599" s="1">
+        <v>45500</v>
+      </c>
+      <c r="Y1599">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1600" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1600" s="1">
+        <v>45505</v>
+      </c>
+      <c r="Y1600">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1601" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1601" s="1">
+        <v>45512</v>
+      </c>
+      <c r="Y1601">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1602" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1602" s="1">
+        <v>45520</v>
+      </c>
+      <c r="Y1602">
+        <v>17.166666666666664</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1603" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1603" s="1">
+        <v>45527</v>
+      </c>
+      <c r="Y1603">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1604" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1604" s="1">
+        <v>45533</v>
+      </c>
+      <c r="Y1604">
+        <v>16.666666666666664</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1605" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1605" s="1">
+        <v>45539</v>
+      </c>
+      <c r="Y1605">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1606" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1606" s="1">
+        <v>45545</v>
+      </c>
+      <c r="Y1606">
+        <v>12.833333333333334</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1607" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1607" s="1">
+        <v>45555</v>
+      </c>
+      <c r="Y1607">
+        <v>8.8333333333333339</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1608" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1608" s="1">
+        <v>45562</v>
+      </c>
+      <c r="Y1608">
+        <v>7.4583333333333339</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1609" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1609" s="1">
+        <v>45569</v>
+      </c>
+      <c r="Y1609">
+        <v>9.4166666666666679</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1610" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1610" s="1">
+        <v>45575</v>
+      </c>
+      <c r="Y1610">
+        <v>10.666666666666668</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1611" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1611" s="1">
+        <v>45581</v>
+      </c>
+      <c r="Y1611">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1612" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1612" s="1">
+        <v>45590</v>
+      </c>
+      <c r="Y1612">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1613" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1613" s="1">
         <v>45597</v>
       </c>
-      <c r="D1561">
-        <v>449.06310448489069</v>
-      </c>
-      <c r="E1561">
-        <v>1863.8409604973463</v>
-      </c>
-      <c r="F1561">
-        <v>112.89645620236203</v>
-      </c>
-      <c r="I1561">
-        <v>329.69429380908326</v>
-      </c>
-    </row>
-    <row r="1562" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1562" t="s">
+      <c r="Y1613">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1614" t="s">
         <v>36</v>
       </c>
-      <c r="B1562" s="1">
+      <c r="B1614" s="1">
         <v>45604</v>
       </c>
-      <c r="D1562">
-        <v>408.88193953844853</v>
-      </c>
-      <c r="E1562">
-        <v>1776.710706619858</v>
-      </c>
-      <c r="F1562">
-        <v>102.95759727412306</v>
-      </c>
-      <c r="I1562">
-        <v>374.82335583862925</v>
-      </c>
-    </row>
-    <row r="1563" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1563" t="s">
+      <c r="Y1614">
+        <v>5.958333333333333</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1615" t="s">
         <v>36</v>
       </c>
-      <c r="B1563" s="1">
+      <c r="B1615" s="1">
         <v>45610</v>
       </c>
-      <c r="D1563">
-        <v>338.10726437090386</v>
-      </c>
-      <c r="E1563">
-        <v>2056.7109163546615</v>
-      </c>
-      <c r="F1563">
-        <v>127.76178655901568</v>
-      </c>
-      <c r="I1563">
-        <v>474.46898821776767</v>
-      </c>
-    </row>
-    <row r="1564" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1564" t="s">
+      <c r="Y1615">
+        <v>6.2291666666666661</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1616" t="s">
         <v>36</v>
       </c>
-      <c r="B1564" s="1">
+      <c r="B1616" s="1">
         <v>45618</v>
       </c>
-      <c r="D1564">
-        <v>373.13635477443734</v>
-      </c>
-      <c r="E1564">
-        <v>2082.3687585393864</v>
-      </c>
-      <c r="F1564">
-        <v>104.71738647306412</v>
-      </c>
-      <c r="I1564">
-        <v>691.00767781564412</v>
-      </c>
-    </row>
-    <row r="1565" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1565" t="s">
+      <c r="Y1616">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1617" t="s">
         <v>36</v>
       </c>
-      <c r="B1565" s="1">
+      <c r="B1617" s="1">
         <v>45625</v>
       </c>
-      <c r="D1565">
-        <v>316.75768574125851</v>
-      </c>
-      <c r="E1565">
-        <v>2145.4009574182942</v>
-      </c>
-      <c r="F1565">
-        <v>189.98158021266462</v>
-      </c>
-      <c r="I1565">
-        <v>1130.1191945026715</v>
-      </c>
-    </row>
-    <row r="1566" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1566" t="s">
+      <c r="Y1617">
+        <v>5.833333333333333</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1618" t="s">
         <v>36</v>
       </c>
-      <c r="B1566" s="1">
+      <c r="B1618" s="1">
         <v>45631</v>
       </c>
-      <c r="D1566">
-        <v>294.11281369955356</v>
-      </c>
-      <c r="E1566">
-        <v>2041.2841052921665</v>
-      </c>
-      <c r="F1566">
-        <v>181.23353208103296</v>
-      </c>
-      <c r="I1566">
-        <v>1514.4728834719642</v>
-      </c>
-    </row>
-    <row r="1567" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1567" t="s">
+      <c r="Y1618">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1619" t="s">
         <v>36</v>
       </c>
-      <c r="B1567" s="1">
+      <c r="B1619" s="1">
         <v>45637</v>
       </c>
-      <c r="D1567">
-        <v>258.28823302104024</v>
-      </c>
-      <c r="E1567">
-        <v>1827.4344542916051</v>
-      </c>
-      <c r="F1567">
-        <v>227.7889565165284</v>
-      </c>
-      <c r="I1567">
-        <v>1895.3564896875487</v>
-      </c>
-    </row>
-    <row r="1568" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1568" t="s">
+      <c r="Y1619">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1620" t="s">
         <v>36</v>
       </c>
-      <c r="B1568" s="1">
+      <c r="B1620" s="1">
         <v>45644</v>
       </c>
-      <c r="D1568">
-        <v>220.72429200967147</v>
-      </c>
-      <c r="E1568">
-        <v>1549.7556732010034</v>
-      </c>
-      <c r="F1568">
-        <v>201.22701023133186</v>
-      </c>
-      <c r="I1568">
-        <v>2451.277432217395</v>
-      </c>
-    </row>
-    <row r="1569" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1569" t="s">
+      <c r="Y1620">
+        <v>4.6666666666666661</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1621" t="s">
         <v>36</v>
       </c>
-      <c r="B1569" s="1">
+      <c r="B1621" s="1">
         <v>45650</v>
       </c>
-      <c r="D1569">
-        <v>91.043943931492464</v>
-      </c>
-      <c r="E1569">
-        <v>1390.3038194136948</v>
-      </c>
-      <c r="F1569">
-        <v>300.67488131047168</v>
-      </c>
-      <c r="I1569">
-        <v>2675.9253562720319</v>
-      </c>
-    </row>
-    <row r="1570" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1570" t="s">
+      <c r="Y1621">
+        <v>4.916666666666667</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1622" t="s">
         <v>36</v>
       </c>
-      <c r="B1570" s="1">
+      <c r="B1622" s="1">
         <v>45656</v>
       </c>
-      <c r="D1570">
-        <v>61.988216464843276</v>
-      </c>
-      <c r="E1570">
-        <v>1288.0779880136479</v>
-      </c>
-      <c r="F1570">
-        <v>327.61268603122437</v>
-      </c>
-      <c r="I1570">
-        <v>2909.0410933907701</v>
-      </c>
-    </row>
-    <row r="1571" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1571" t="s">
+      <c r="Y1622">
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1623" t="s">
         <v>36</v>
       </c>
-      <c r="B1571" s="1">
+      <c r="B1623" s="1">
         <v>45663</v>
       </c>
-      <c r="D1571">
-        <v>16.678329944359628</v>
-      </c>
-      <c r="E1571">
-        <v>1193.6529923653559</v>
-      </c>
-      <c r="F1571">
-        <v>317.04178865183826</v>
-      </c>
-      <c r="I1571">
-        <v>2486.9908485024071</v>
-      </c>
-    </row>
-    <row r="1572" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1572" t="s">
+      <c r="Y1623">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1624" t="s">
         <v>34</v>
       </c>
-      <c r="B1572" s="1">
+      <c r="B1624" s="1">
+        <v>45443</v>
+      </c>
+      <c r="Y1624">
+        <v>8.8333333333333321</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1625" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1625" s="1">
+        <v>45449</v>
+      </c>
+      <c r="Y1625">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1626" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1626" s="1">
+        <v>45456</v>
+      </c>
+      <c r="Y1626">
+        <v>14.666666666666668</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1627" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1627" s="1">
+        <v>45462</v>
+      </c>
+      <c r="Y1627">
+        <v>19.833333333333336</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1628" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1628" s="1">
+        <v>45469</v>
+      </c>
+      <c r="Y1628">
+        <v>12.666666666666668</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1629" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1629" s="1">
+        <v>45477</v>
+      </c>
+      <c r="Y1629">
+        <v>17.833333333333336</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1630" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1630" s="1">
+        <v>45483</v>
+      </c>
+      <c r="Y1630">
+        <v>14.333333333333334</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1631" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1631" s="1">
+        <v>45492</v>
+      </c>
+      <c r="Y1631">
+        <v>15.666666666666668</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1632" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1632" s="1">
+        <v>45500</v>
+      </c>
+      <c r="Y1632">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1633" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1633" s="1">
+        <v>45505</v>
+      </c>
+      <c r="Y1633">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1634" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1634" s="1">
+        <v>45512</v>
+      </c>
+      <c r="Y1634">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1635" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1635" s="1">
+        <v>45520</v>
+      </c>
+      <c r="Y1635">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1636" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1636" s="1">
+        <v>45527</v>
+      </c>
+      <c r="Y1636">
+        <v>16.166666666666668</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1637" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1637" s="1">
+        <v>45533</v>
+      </c>
+      <c r="Y1637">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1638" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1638" s="1">
+        <v>45539</v>
+      </c>
+      <c r="Y1638">
+        <v>12.333333333333334</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1639" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1639" s="1">
+        <v>45545</v>
+      </c>
+      <c r="Y1639">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1640" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1640" s="1">
+        <v>45555</v>
+      </c>
+      <c r="Y1640">
+        <v>9.6666666666666661</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1641" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1641" s="1">
+        <v>45562</v>
+      </c>
+      <c r="Y1641">
+        <v>10.833333333333332</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1642" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1642" s="1">
+        <v>45569</v>
+      </c>
+      <c r="Y1642">
+        <v>8.3333333333333321</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1643" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1643" s="1">
+        <v>45575</v>
+      </c>
+      <c r="Y1643">
+        <v>10.333333333333332</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1644" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1644" s="1">
+        <v>45581</v>
+      </c>
+      <c r="Y1644">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1645" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1645" s="1">
+        <v>45590</v>
+      </c>
+      <c r="Y1645">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1646" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1646" s="1">
         <v>45597</v>
       </c>
-      <c r="D1572">
-        <v>415.22016874701114</v>
-      </c>
-      <c r="E1572">
-        <v>1600.385730890262</v>
-      </c>
-      <c r="F1572">
-        <v>132.98844733685718</v>
-      </c>
-      <c r="I1572">
-        <v>277.42532970992147</v>
-      </c>
-    </row>
-    <row r="1573" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1573" t="s">
+      <c r="Y1646">
+        <v>7.604166666666667</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1647" t="s">
         <v>34</v>
       </c>
-      <c r="B1573" s="1">
+      <c r="B1647" s="1">
         <v>45604</v>
       </c>
-      <c r="D1573">
-        <v>446.67035476974218</v>
-      </c>
-      <c r="E1573">
-        <v>1769.1736306968644</v>
-      </c>
-      <c r="F1573">
-        <v>152.22275917420157</v>
-      </c>
-      <c r="I1573">
-        <v>397.820234643189</v>
-      </c>
-    </row>
-    <row r="1574" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1574" t="s">
+      <c r="Y1647">
+        <v>6.833333333333333</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1648" t="s">
         <v>34</v>
       </c>
-      <c r="B1574" s="1">
+      <c r="B1648" s="1">
         <v>45610</v>
       </c>
-      <c r="D1574">
-        <v>426.3562140813932</v>
-      </c>
-      <c r="E1574">
-        <v>1695.1513781097215</v>
-      </c>
-      <c r="F1574">
-        <v>102.50855144462201</v>
-      </c>
-      <c r="I1574">
-        <v>439.69822603225236</v>
-      </c>
-    </row>
-    <row r="1575" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1575" t="s">
+      <c r="Y1648">
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1649" t="s">
         <v>34</v>
       </c>
-      <c r="B1575" s="1">
+      <c r="B1649" s="1">
         <v>45618</v>
       </c>
-      <c r="D1575">
-        <v>393.47926553917034</v>
-      </c>
-      <c r="E1575">
-        <v>1979.801940795033</v>
-      </c>
-      <c r="F1575">
-        <v>157.69280794493309</v>
-      </c>
-      <c r="I1575">
-        <v>733.76253763854754</v>
-      </c>
-    </row>
-    <row r="1576" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1576" t="s">
+      <c r="Y1649">
+        <v>5.5833333333333339</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1650" t="s">
         <v>34</v>
       </c>
-      <c r="B1576" s="1">
+      <c r="B1650" s="1">
         <v>45625</v>
       </c>
-      <c r="D1576">
-        <v>438.17891064379398</v>
-      </c>
-      <c r="E1576">
-        <v>2215.361621881571</v>
-      </c>
-      <c r="F1576">
-        <v>150.57108174240977</v>
-      </c>
-      <c r="I1576">
-        <v>1189.4543229336527</v>
-      </c>
-    </row>
-    <row r="1577" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1577" t="s">
+      <c r="Y1650">
+        <v>6.333333333333333</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1651" t="s">
         <v>34</v>
       </c>
-      <c r="B1577" s="1">
+      <c r="B1651" s="1">
         <v>45631</v>
       </c>
-      <c r="D1577">
-        <v>446.11715325474518</v>
-      </c>
-      <c r="E1577">
-        <v>2246.572820744213</v>
-      </c>
-      <c r="F1577">
-        <v>171.02298734068302</v>
-      </c>
-      <c r="I1577">
-        <v>1639.9361318887552</v>
-      </c>
-    </row>
-    <row r="1578" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1578" t="s">
+      <c r="Y1651">
+        <v>5.8749999999999991</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1652" t="s">
         <v>34</v>
       </c>
-      <c r="B1578" s="1">
+      <c r="B1652" s="1">
         <v>45637</v>
       </c>
-      <c r="D1578">
-        <v>309.45394979689769</v>
-      </c>
-      <c r="E1578">
-        <v>1889.405858311271</v>
-      </c>
-      <c r="F1578">
-        <v>210.89403009268602</v>
-      </c>
-      <c r="I1578">
-        <v>1954.0972950304247</v>
-      </c>
-    </row>
-    <row r="1579" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1579" t="s">
+      <c r="Y1652">
+        <v>5.833333333333333</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1653" t="s">
         <v>34</v>
       </c>
-      <c r="B1579" s="1">
+      <c r="B1653" s="1">
         <v>45644</v>
       </c>
-      <c r="D1579">
-        <v>266.07289423895742</v>
-      </c>
-      <c r="E1579">
-        <v>1554.5976625938974</v>
-      </c>
-      <c r="F1579">
-        <v>247.24567850519992</v>
-      </c>
-      <c r="I1579">
-        <v>2333.9275296536803</v>
-      </c>
-    </row>
-    <row r="1580" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1580" t="s">
+      <c r="Y1653">
+        <v>5.833333333333333</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1654" t="s">
         <v>34</v>
       </c>
-      <c r="B1580" s="1">
+      <c r="B1654" s="1">
         <v>45650</v>
       </c>
-      <c r="D1580">
-        <v>102.73555771562553</v>
-      </c>
-      <c r="E1580">
-        <v>1577.883375463912</v>
-      </c>
-      <c r="F1580">
-        <v>345.74726369035983</v>
-      </c>
-      <c r="I1580">
-        <v>3035.3261120304801</v>
-      </c>
-    </row>
-    <row r="1581" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1581" t="s">
+      <c r="Y1654">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1655" t="s">
         <v>34</v>
       </c>
-      <c r="B1581" s="1">
+      <c r="B1655" s="1">
         <v>45656</v>
       </c>
-      <c r="D1581">
-        <v>88.431849729217817</v>
-      </c>
-      <c r="E1581">
-        <v>1445.8538223815892</v>
-      </c>
-      <c r="F1581">
-        <v>339.20551859734059</v>
-      </c>
-      <c r="I1581">
-        <v>3255.4777084854377</v>
-      </c>
-    </row>
-    <row r="1582" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1582" t="s">
+      <c r="Y1655">
+        <v>5.416666666666667</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1656" t="s">
         <v>34</v>
       </c>
-      <c r="B1582" s="1">
+      <c r="B1656" s="1">
         <v>45663</v>
       </c>
-      <c r="D1582">
-        <v>0</v>
-      </c>
-      <c r="E1582">
-        <v>1398.3231445323981</v>
-      </c>
-      <c r="F1582">
-        <v>354.499341548953</v>
-      </c>
-      <c r="I1582">
-        <v>2798.0237715363896</v>
-      </c>
-    </row>
-    <row r="1583" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1583" t="s">
+      <c r="Y1656">
+        <v>5.4166666666666661</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1657" t="s">
         <v>35</v>
       </c>
-      <c r="B1583" s="1">
+      <c r="B1657" s="1">
+        <v>45443</v>
+      </c>
+      <c r="Y1657">
+        <v>13.666666666666668</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1658" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1658" s="1">
+        <v>45449</v>
+      </c>
+      <c r="Y1658">
+        <v>14.833333333333334</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1659" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1659" s="1">
+        <v>45456</v>
+      </c>
+      <c r="Y1659">
+        <v>12.833333333333334</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1660" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1660" s="1">
+        <v>45462</v>
+      </c>
+      <c r="Y1660">
+        <v>15.333333333333332</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1661" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1661" s="1">
+        <v>45469</v>
+      </c>
+      <c r="Y1661">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1662" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1662" s="1">
+        <v>45477</v>
+      </c>
+      <c r="Y1662">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1663" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1663" s="1">
+        <v>45483</v>
+      </c>
+      <c r="Y1663">
+        <v>13.333333333333332</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1664" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1664" s="1">
+        <v>45492</v>
+      </c>
+      <c r="Y1664">
+        <v>16.333333333333332</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1665" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1665" s="1">
+        <v>45500</v>
+      </c>
+      <c r="Y1665">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1666" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1666" s="1">
+        <v>45505</v>
+      </c>
+      <c r="Y1666">
+        <v>15.166666666666666</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1667" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1667" s="1">
+        <v>45512</v>
+      </c>
+      <c r="Y1667">
+        <v>12.833333333333332</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1668" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1668" s="1">
+        <v>45520</v>
+      </c>
+      <c r="Y1668">
+        <v>16.333333333333336</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1669" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1669" s="1">
+        <v>45527</v>
+      </c>
+      <c r="Y1669">
+        <v>15.666666666666666</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1670" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1670" s="1">
+        <v>45533</v>
+      </c>
+      <c r="Y1670">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1671" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1671" s="1">
+        <v>45539</v>
+      </c>
+      <c r="Y1671">
+        <v>14.666666666666668</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1672" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1672" s="1">
+        <v>45545</v>
+      </c>
+      <c r="Y1672">
+        <v>14.083333333333332</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1673" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1673" s="1">
+        <v>45555</v>
+      </c>
+      <c r="Y1673">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1674" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1674" s="1">
+        <v>45562</v>
+      </c>
+      <c r="Y1674">
+        <v>12.416666666666668</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1675" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1675" s="1">
+        <v>45569</v>
+      </c>
+      <c r="Y1675">
+        <v>12.333333333333332</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1676" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1676" s="1">
+        <v>45575</v>
+      </c>
+      <c r="Y1676">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1677" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1677" s="1">
+        <v>45581</v>
+      </c>
+      <c r="Y1677">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1678" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1678" s="1">
+        <v>45590</v>
+      </c>
+      <c r="Y1678">
+        <v>7.666666666666667</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1679" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1679" s="1">
         <v>45597</v>
       </c>
-      <c r="D1583">
-        <v>494.40043935304925</v>
-      </c>
-      <c r="E1583">
-        <v>1693.6091392008793</v>
-      </c>
-      <c r="F1583">
-        <v>86.864936950205049</v>
-      </c>
-      <c r="I1583">
-        <v>356.6092829408928</v>
-      </c>
-    </row>
-    <row r="1584" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1584" t="s">
+      <c r="Y1679">
+        <v>6.4999999999999991</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1680" t="s">
         <v>35</v>
       </c>
-      <c r="B1584" s="1">
+      <c r="B1680" s="1">
         <v>45604</v>
       </c>
-      <c r="D1584">
-        <v>503.62896006171928</v>
-      </c>
-      <c r="E1584">
-        <v>1910.8711873026075</v>
-      </c>
-      <c r="F1584">
-        <v>111.64829048218641</v>
-      </c>
-      <c r="I1584">
-        <v>450.13517961230821</v>
-      </c>
-    </row>
-    <row r="1585" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1585" t="s">
+      <c r="Y1680">
+        <v>7.4166666666666679</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1681" t="s">
         <v>35</v>
       </c>
-      <c r="B1585" s="1">
+      <c r="B1681" s="1">
         <v>45610</v>
       </c>
-      <c r="D1585">
-        <v>500.85046265495754</v>
-      </c>
-      <c r="E1585">
-        <v>2107.6276434466245</v>
-      </c>
-      <c r="F1585">
-        <v>117.2187949004025</v>
-      </c>
-      <c r="I1585">
-        <v>552.17583026562102</v>
-      </c>
-    </row>
-    <row r="1586" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1586" t="s">
+      <c r="Y1681">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1682" t="s">
         <v>35</v>
       </c>
-      <c r="B1586" s="1">
+      <c r="B1682" s="1">
         <v>45618</v>
       </c>
-      <c r="D1586">
-        <v>426.65396343069091</v>
-      </c>
-      <c r="E1586">
-        <v>2092.8185613616679</v>
-      </c>
-      <c r="F1586">
-        <v>140.95655355875937</v>
-      </c>
-      <c r="I1586">
-        <v>788.24226538281823</v>
-      </c>
-    </row>
-    <row r="1587" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1587" t="s">
+      <c r="Y1682">
+        <v>6.9999999999999991</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1683" t="s">
         <v>35</v>
       </c>
-      <c r="B1587" s="1">
+      <c r="B1683" s="1">
         <v>45625</v>
       </c>
-      <c r="D1587">
-        <v>450.21651520831301</v>
-      </c>
-      <c r="E1587">
-        <v>2210.4525326468183</v>
-      </c>
-      <c r="F1587">
-        <v>179.8960162650242</v>
-      </c>
-      <c r="I1587">
-        <v>1202.80589909276</v>
-      </c>
-    </row>
-    <row r="1588" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1588" t="s">
+      <c r="Y1683">
+        <v>7.1666666666666679</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1684" t="s">
         <v>35</v>
       </c>
-      <c r="B1588" s="1">
+      <c r="B1684" s="1">
         <v>45631</v>
       </c>
-      <c r="D1588">
-        <v>409.95245869881114</v>
-      </c>
-      <c r="E1588">
-        <v>2181.5429988675255</v>
-      </c>
-      <c r="F1588">
-        <v>191.18178753622394</v>
-      </c>
-      <c r="I1588">
-        <v>1704.7244335422038</v>
-      </c>
-    </row>
-    <row r="1589" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1589" t="s">
+      <c r="Y1684">
+        <v>6.4166666666666661</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1685" t="s">
         <v>35</v>
       </c>
-      <c r="B1589" s="1">
+      <c r="B1685" s="1">
         <v>45637</v>
       </c>
-      <c r="D1589">
-        <v>314.65142427886246</v>
-      </c>
-      <c r="E1589">
-        <v>1787.5591050714811</v>
-      </c>
-      <c r="F1589">
-        <v>227.06282818460437</v>
-      </c>
-      <c r="I1589">
-        <v>1995.0810911222779</v>
-      </c>
-    </row>
-    <row r="1590" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1590" t="s">
+      <c r="Y1685">
+        <v>6.166666666666667</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1686" t="s">
         <v>35</v>
       </c>
-      <c r="B1590" s="1">
+      <c r="B1686" s="1">
         <v>45644</v>
       </c>
-      <c r="D1590">
-        <v>261.38595695602095</v>
-      </c>
-      <c r="E1590">
-        <v>1560.2297313442755</v>
-      </c>
-      <c r="F1590">
-        <v>243.68975700023415</v>
-      </c>
-      <c r="I1590">
-        <v>2517.440328998674</v>
-      </c>
-    </row>
-    <row r="1591" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1591" t="s">
+      <c r="Y1686">
+        <v>6.416666666666667</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1687" t="s">
         <v>35</v>
       </c>
-      <c r="B1591" s="1">
+      <c r="B1687" s="1">
         <v>45650</v>
       </c>
-      <c r="D1591">
-        <v>264.71586785552631</v>
-      </c>
-      <c r="E1591">
-        <v>1567.7022895058094</v>
-      </c>
-      <c r="F1591">
-        <v>241.70789629313876</v>
-      </c>
-      <c r="I1591">
-        <v>3000.1469757147506</v>
-      </c>
-    </row>
-    <row r="1592" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1592" t="s">
+      <c r="Y1687">
+        <v>5.583333333333333</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1688" t="s">
         <v>35</v>
       </c>
-      <c r="B1592" s="1">
+      <c r="B1688" s="1">
         <v>45656</v>
       </c>
-      <c r="D1592">
-        <v>67.252714674168999</v>
-      </c>
-      <c r="E1592">
-        <v>1494.7710088968145</v>
-      </c>
-      <c r="F1592">
-        <v>377.82888366675627</v>
-      </c>
-      <c r="I1592">
-        <v>3198.991507884336</v>
-      </c>
-    </row>
-    <row r="1593" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1593" t="s">
+      <c r="Y1688">
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1689" t="s">
         <v>35</v>
       </c>
-      <c r="B1593" s="1">
+      <c r="B1689" s="1">
         <v>45663</v>
       </c>
-      <c r="D1593">
-        <v>20.807004426980797</v>
-      </c>
-      <c r="E1593">
-        <v>1355.9054761598836</v>
-      </c>
-      <c r="F1593">
-        <v>370.5811826661656</v>
-      </c>
-      <c r="I1593">
-        <v>2785.8836981060431</v>
+      <c r="Y1689">
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1690" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1690" s="1">
+        <v>45456</v>
+      </c>
+      <c r="Y1690">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1691" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1691" s="1">
+        <v>45462</v>
+      </c>
+      <c r="Y1691">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1692" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1692" s="1">
+        <v>45469</v>
+      </c>
+      <c r="Y1692">
+        <v>3.1111111111111107</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1693" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1693" s="1">
+        <v>45477</v>
+      </c>
+      <c r="Y1693">
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1694" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1694" s="1">
+        <v>45483</v>
+      </c>
+      <c r="Y1694">
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1695" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1695" s="1">
+        <v>45492</v>
+      </c>
+      <c r="Y1695">
+        <v>6.8333333333333339</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1696" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1696" s="1">
+        <v>45500</v>
+      </c>
+      <c r="Y1696">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1697" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1697" s="1">
+        <v>45505</v>
+      </c>
+      <c r="Y1697">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1698" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1698" s="1">
+        <v>45512</v>
+      </c>
+      <c r="Y1698">
+        <v>10.833333333333332</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1699" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1699" s="1">
+        <v>45520</v>
+      </c>
+      <c r="Y1699">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1700" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1700" s="1">
+        <v>45527</v>
+      </c>
+      <c r="Y1700">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1701" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1701" s="1">
+        <v>45533</v>
+      </c>
+      <c r="Y1701">
+        <v>14.833333333333332</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1702" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1702" s="1">
+        <v>45539</v>
+      </c>
+      <c r="Y1702">
+        <v>12.666666666666668</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1703" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1703" s="1">
+        <v>45546</v>
+      </c>
+      <c r="Y1703">
+        <v>9.1666666666666661</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1704" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1704" s="1">
+        <v>45555</v>
+      </c>
+      <c r="Y1704">
+        <v>9.8333333333333321</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1705" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1705" s="1">
+        <v>45562</v>
+      </c>
+      <c r="Y1705">
+        <v>8.8333333333333321</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1706" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1706" s="1">
+        <v>45569</v>
+      </c>
+      <c r="Y1706">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1707" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1707" s="1">
+        <v>45575</v>
+      </c>
+      <c r="Y1707">
+        <v>8.6666666666666661</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1708" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1708" s="1">
+        <v>45581</v>
+      </c>
+      <c r="Y1708">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1709" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1709" s="1">
+        <v>45590</v>
+      </c>
+      <c r="Y1709">
+        <v>7.6666666666666661</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1710" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1710" s="1">
+        <v>45597</v>
+      </c>
+      <c r="Y1710">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1711" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1711" s="1">
+        <v>45604</v>
+      </c>
+      <c r="Y1711">
+        <v>6.854166666666667</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1712" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1712" s="1">
+        <v>45610</v>
+      </c>
+      <c r="Y1712">
+        <v>6.0833333333333339</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1713" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1713" s="1">
+        <v>45618</v>
+      </c>
+      <c r="Y1713">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1714" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1714" s="1">
+        <v>45625</v>
+      </c>
+      <c r="Y1714">
+        <v>6.4999999999999991</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1715" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1715" s="1">
+        <v>45631</v>
+      </c>
+      <c r="Y1715">
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1716" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1716" s="1">
+        <v>45637</v>
+      </c>
+      <c r="Y1716">
+        <v>4.833333333333333</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1717" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1717" s="1">
+        <v>45644</v>
+      </c>
+      <c r="Y1717">
+        <v>4.583333333333333</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1718" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1718" s="1">
+        <v>45650</v>
+      </c>
+      <c r="Y1718">
+        <v>4.916666666666667</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1719" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1719" s="1">
+        <v>45656</v>
+      </c>
+      <c r="Y1719">
+        <v>5.5833333333333339</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1720" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1720" s="1">
+        <v>45663</v>
+      </c>
+      <c r="Y1720">
+        <v>4.833333333333333</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1721" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1721" s="1">
+        <v>45669</v>
+      </c>
+      <c r="Y1721">
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1722" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1722" s="1">
+        <v>45674</v>
+      </c>
+      <c r="Y1722">
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1723" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1723" s="1">
+        <v>45456</v>
+      </c>
+      <c r="Y1723">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1724" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1724" s="1">
+        <v>45462</v>
+      </c>
+      <c r="Y1724">
+        <v>3.2222222222222228</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1725" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1725" s="1">
+        <v>45469</v>
+      </c>
+      <c r="Y1725">
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1726" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1726" s="1">
+        <v>45477</v>
+      </c>
+      <c r="Y1726">
+        <v>4.1111111111111116</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1727" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1727" s="1">
+        <v>45483</v>
+      </c>
+      <c r="Y1727">
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1728" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1728" s="1">
+        <v>45492</v>
+      </c>
+      <c r="Y1728">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1729" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1729" s="1">
+        <v>45500</v>
+      </c>
+      <c r="Y1729">
+        <v>5.166666666666667</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1730" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1730" s="1">
+        <v>45505</v>
+      </c>
+      <c r="Y1730">
+        <v>9.8333333333333321</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1731" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1731" s="1">
+        <v>45512</v>
+      </c>
+      <c r="Y1731">
+        <v>7.8333333333333339</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1732" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1732" s="1">
+        <v>45520</v>
+      </c>
+      <c r="Y1732">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1733" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1733" s="1">
+        <v>45527</v>
+      </c>
+      <c r="Y1733">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1734" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1734" s="1">
+        <v>45533</v>
+      </c>
+      <c r="Y1734">
+        <v>9.1666666666666661</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1735" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1735" s="1">
+        <v>45539</v>
+      </c>
+      <c r="Y1735">
+        <v>14.166666666666668</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1736" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1736" s="1">
+        <v>45546</v>
+      </c>
+      <c r="Y1736">
+        <v>10.166666666666666</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1737" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1737" s="1">
+        <v>45555</v>
+      </c>
+      <c r="Y1737">
+        <v>9.3333333333333339</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1738" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1738" s="1">
+        <v>45562</v>
+      </c>
+      <c r="Y1738">
+        <v>11.583333333333332</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1739" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1739" s="1">
+        <v>45569</v>
+      </c>
+      <c r="Y1739">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1740" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1740" s="1">
+        <v>45575</v>
+      </c>
+      <c r="Y1740">
+        <v>10.666666666666666</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1741" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1741" s="1">
+        <v>45581</v>
+      </c>
+      <c r="Y1741">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1742" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1742" s="1">
+        <v>45590</v>
+      </c>
+      <c r="Y1742">
+        <v>7.8333333333333339</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1743" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1743" s="1">
+        <v>45597</v>
+      </c>
+      <c r="Y1743">
+        <v>7.166666666666667</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1744" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1744" s="1">
+        <v>45604</v>
+      </c>
+      <c r="Y1744">
+        <v>7.6875</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1745" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1745" s="1">
+        <v>45610</v>
+      </c>
+      <c r="Y1745">
+        <v>7.083333333333333</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1746" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1746" s="1">
+        <v>45618</v>
+      </c>
+      <c r="Y1746">
+        <v>6.4166666666666661</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1747" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1747" s="1">
+        <v>45625</v>
+      </c>
+      <c r="Y1747">
+        <v>6.5000000000000009</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1748" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1748" s="1">
+        <v>45631</v>
+      </c>
+      <c r="Y1748">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1749" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1749" s="1">
+        <v>45637</v>
+      </c>
+      <c r="Y1749">
+        <v>5.583333333333333</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1750" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1750" s="1">
+        <v>45644</v>
+      </c>
+      <c r="Y1750">
+        <v>5.4166666666666661</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1751" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1751" s="1">
+        <v>45650</v>
+      </c>
+      <c r="Y1751">
+        <v>5.2222222222222223</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1752" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1752" s="1">
+        <v>45656</v>
+      </c>
+      <c r="Y1752">
+        <v>5.583333333333333</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1753" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1753" s="1">
+        <v>45663</v>
+      </c>
+      <c r="Y1753">
+        <v>5.5833333333333339</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1754" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1754" s="1">
+        <v>45669</v>
+      </c>
+      <c r="Y1754">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1755" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1755" s="1">
+        <v>45674</v>
+      </c>
+      <c r="Y1755">
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1756" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1756" s="1">
+        <v>45456</v>
+      </c>
+      <c r="Y1756">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1757" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1757" s="1">
+        <v>45462</v>
+      </c>
+      <c r="Y1757">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1758" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1758" s="1">
+        <v>45469</v>
+      </c>
+      <c r="Y1758">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1759" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1759" s="1">
+        <v>45477</v>
+      </c>
+      <c r="Y1759">
+        <v>5.8333333333333339</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1760" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1760" s="1">
+        <v>45483</v>
+      </c>
+      <c r="Y1760">
+        <v>5.6666666666666661</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1761" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1761" s="1">
+        <v>45492</v>
+      </c>
+      <c r="Y1761">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1762" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1762" s="1">
+        <v>45500</v>
+      </c>
+      <c r="Y1762">
+        <v>6.3333333333333339</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1763" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1763" s="1">
+        <v>45505</v>
+      </c>
+      <c r="Y1763">
+        <v>7.6666666666666661</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1764" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1764" s="1">
+        <v>45512</v>
+      </c>
+      <c r="Y1764">
+        <v>12.166666666666666</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1765" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1765" s="1">
+        <v>45520</v>
+      </c>
+      <c r="Y1765">
+        <v>10.166666666666668</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1766" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1766" s="1">
+        <v>45527</v>
+      </c>
+      <c r="Y1766">
+        <v>11.666666666666668</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1767" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1767" s="1">
+        <v>45533</v>
+      </c>
+      <c r="Y1767">
+        <v>12.166666666666666</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1768" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1768" s="1">
+        <v>45539</v>
+      </c>
+      <c r="Y1768">
+        <v>12.666666666666668</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1769" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1769" s="1">
+        <v>45546</v>
+      </c>
+      <c r="Y1769">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1770" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1770" s="1">
+        <v>45555</v>
+      </c>
+      <c r="Y1770">
+        <v>10.166666666666668</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1771" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1771" s="1">
+        <v>45562</v>
+      </c>
+      <c r="Y1771">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1772" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1772" s="1">
+        <v>45569</v>
+      </c>
+      <c r="Y1772">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1773" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1773" s="1">
+        <v>45575</v>
+      </c>
+      <c r="Y1773">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1774" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1774" s="1">
+        <v>45581</v>
+      </c>
+      <c r="Y1774">
+        <v>8.6666666666666661</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1775" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1775" s="1">
+        <v>45590</v>
+      </c>
+      <c r="Y1775">
+        <v>7.1666666666666661</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1776" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1776" s="1">
+        <v>45597</v>
+      </c>
+      <c r="Y1776">
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1777" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1777" s="1">
+        <v>45604</v>
+      </c>
+      <c r="Y1777">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1778" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1778" s="1">
+        <v>45610</v>
+      </c>
+      <c r="Y1778">
+        <v>6.3333333333333339</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1779" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1779" s="1">
+        <v>45618</v>
+      </c>
+      <c r="Y1779">
+        <v>6.416666666666667</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1780" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1780" s="1">
+        <v>45625</v>
+      </c>
+      <c r="Y1780">
+        <v>7.104166666666667</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1781" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1781" s="1">
+        <v>45631</v>
+      </c>
+      <c r="Y1781">
+        <v>6.8333333333333339</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1782" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1782" s="1">
+        <v>45637</v>
+      </c>
+      <c r="Y1782">
+        <v>5.916666666666667</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1783" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1783" s="1">
+        <v>45644</v>
+      </c>
+      <c r="Y1783">
+        <v>5.583333333333333</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1784" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1784" s="1">
+        <v>45650</v>
+      </c>
+      <c r="Y1784">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1785" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1785" s="1">
+        <v>45656</v>
+      </c>
+      <c r="Y1785">
+        <v>5.416666666666667</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1786" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1786" s="1">
+        <v>45663</v>
+      </c>
+      <c r="Y1786">
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1787" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1787" s="1">
+        <v>45669</v>
+      </c>
+      <c r="Y1787">
+        <v>5.4166666666666661</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1788" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1788" s="1">
+        <v>45674</v>
+      </c>
+      <c r="Y1788">
+        <v>6.166666666666667</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1789" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1789" s="1">
+        <v>45456</v>
+      </c>
+      <c r="Y1789">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1790" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1790" s="1">
+        <v>45462</v>
+      </c>
+      <c r="Y1790">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1791" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1791" s="1">
+        <v>45469</v>
+      </c>
+      <c r="Y1791">
+        <v>2.8333333333333335</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1792" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1792" s="1">
+        <v>45477</v>
+      </c>
+      <c r="Y1792">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1793" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1793" s="1">
+        <v>45483</v>
+      </c>
+      <c r="Y1793">
+        <v>3.8333333333333335</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1794" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1794" s="1">
+        <v>45492</v>
+      </c>
+      <c r="Y1794">
+        <v>5.833333333333333</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1795" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1795" s="1">
+        <v>45500</v>
+      </c>
+      <c r="Y1795">
+        <v>6.3333333333333339</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1796" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1796" s="1">
+        <v>45505</v>
+      </c>
+      <c r="Y1796">
+        <v>8.1666666666666661</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1797" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1797" s="1">
+        <v>45512</v>
+      </c>
+      <c r="Y1797">
+        <v>7.3333333333333339</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1798" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1798" s="1">
+        <v>45520</v>
+      </c>
+      <c r="Y1798">
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1799" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1799" s="1">
+        <v>45527</v>
+      </c>
+      <c r="Y1799">
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1800" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1800" s="1">
+        <v>45533</v>
+      </c>
+      <c r="Y1800">
+        <v>12.166666666666666</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1801" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1801" s="1">
+        <v>45539</v>
+      </c>
+      <c r="Y1801">
+        <v>10.833333333333332</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1802" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1802" s="1">
+        <v>45546</v>
+      </c>
+      <c r="Y1802">
+        <v>10.333333333333332</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1803" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1803" s="1">
+        <v>45555</v>
+      </c>
+      <c r="Y1803">
+        <v>9.6666666666666661</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1804" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1804" s="1">
+        <v>45562</v>
+      </c>
+      <c r="Y1804">
+        <v>9.3333333333333321</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1805" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1805" s="1">
+        <v>45569</v>
+      </c>
+      <c r="Y1805">
+        <v>8.6666666666666661</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1806" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1806" s="1">
+        <v>45575</v>
+      </c>
+      <c r="Y1806">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1807" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1807" s="1">
+        <v>45581</v>
+      </c>
+      <c r="Y1807">
+        <v>9.3333333333333321</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1808" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1808" s="1">
+        <v>45590</v>
+      </c>
+      <c r="Y1808">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1809" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1809" s="1">
+        <v>45597</v>
+      </c>
+      <c r="Y1809">
+        <v>7.666666666666667</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1810" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1810" s="1">
+        <v>45604</v>
+      </c>
+      <c r="Y1810">
+        <v>7.729166666666667</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1811" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1811" s="1">
+        <v>45610</v>
+      </c>
+      <c r="Y1811">
+        <v>7.583333333333333</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1812" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1812" s="1">
+        <v>45618</v>
+      </c>
+      <c r="Y1812">
+        <v>6.4166666666666661</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1813" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1813" s="1">
+        <v>45625</v>
+      </c>
+      <c r="Y1813">
+        <v>6.958333333333333</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1814" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1814" s="1">
+        <v>45631</v>
+      </c>
+      <c r="Y1814">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1815" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1815" s="1">
+        <v>45637</v>
+      </c>
+      <c r="Y1815">
+        <v>6.3333333333333339</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1816" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1816" s="1">
+        <v>45644</v>
+      </c>
+      <c r="Y1816">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1817" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1817" s="1">
+        <v>45650</v>
+      </c>
+      <c r="Y1817">
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1818" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1818" s="1">
+        <v>45656</v>
+      </c>
+      <c r="Y1818">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1819" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1819" s="1">
+        <v>45663</v>
+      </c>
+      <c r="Y1819">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1820" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1820" s="1">
+        <v>45669</v>
+      </c>
+      <c r="Y1820">
+        <v>6.333333333333333</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1821" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1821" s="1">
+        <v>45674</v>
+      </c>
+      <c r="Y1821">
+        <v>5.3333333333333339</v>
       </c>
     </row>
   </sheetData>

--- a/Tests/Validation/Wheat/data/Lincoln2024.xlsx
+++ b/Tests/Validation/Wheat/data/Lincoln2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\ApsimX\Tests\Validation\Wheat\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0769A878-1ED2-41B7-9235-152A1992F610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B963DF2-7715-4FDA-8B24-5E3D3CB9423A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" autoFilterDateGrouping="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -310,7 +310,7 @@
     <t>Wheat.Grain.Nconc</t>
   </si>
   <si>
-    <t>Wheat.Spike.Nconc</t>
+    <t>Wheat.Ear.Nconc</t>
   </si>
 </sst>
 </file>
@@ -394,7 +394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -413,7 +413,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -753,10 +752,10 @@
   <dimension ref="A1:AH1841"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AA1833" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD1786" sqref="AD1786:AH1841"/>
+      <selection pane="bottomRight" activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26439,10 +26438,10 @@
       </c>
     </row>
     <row r="1786" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1786" s="14" t="s">
+      <c r="A1786" t="s">
         <v>33</v>
       </c>
-      <c r="B1786" s="15">
+      <c r="B1786" s="14">
         <v>45420</v>
       </c>
       <c r="C1786" s="2"/>
@@ -26457,10 +26456,10 @@
       <c r="AH1786" s="8"/>
     </row>
     <row r="1787" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1787" s="14" t="s">
+      <c r="A1787" t="s">
         <v>33</v>
       </c>
-      <c r="B1787" s="15">
+      <c r="B1787" s="14">
         <v>45509</v>
       </c>
       <c r="C1787" s="2"/>
@@ -26477,10 +26476,10 @@
       <c r="AH1787" s="8"/>
     </row>
     <row r="1788" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1788" s="14" t="s">
+      <c r="A1788" t="s">
         <v>33</v>
       </c>
-      <c r="B1788" s="15">
+      <c r="B1788" s="14">
         <v>45530</v>
       </c>
       <c r="C1788" s="2"/>
@@ -26497,10 +26496,10 @@
       <c r="AH1788" s="8"/>
     </row>
     <row r="1789" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1789" s="14" t="s">
+      <c r="A1789" t="s">
         <v>33</v>
       </c>
-      <c r="B1789" s="15">
+      <c r="B1789" s="14">
         <v>45589</v>
       </c>
       <c r="C1789" s="2"/>
@@ -26517,10 +26516,10 @@
       <c r="AH1789" s="8"/>
     </row>
     <row r="1790" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1790" s="14" t="s">
+      <c r="A1790" t="s">
         <v>33</v>
       </c>
-      <c r="B1790" s="15">
+      <c r="B1790" s="14">
         <v>45607</v>
       </c>
       <c r="C1790" s="2"/>
@@ -26539,10 +26538,10 @@
       <c r="AH1790" s="8"/>
     </row>
     <row r="1791" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1791" s="14" t="s">
+      <c r="A1791" t="s">
         <v>33</v>
       </c>
-      <c r="B1791" s="15">
+      <c r="B1791" s="14">
         <v>45631</v>
       </c>
       <c r="C1791" s="2"/>
@@ -26561,10 +26560,10 @@
       <c r="AH1791" s="8"/>
     </row>
     <row r="1792" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1792" s="14" t="s">
+      <c r="A1792" t="s">
         <v>33</v>
       </c>
-      <c r="B1792" s="15">
+      <c r="B1792" s="14">
         <v>45667</v>
       </c>
       <c r="C1792" s="2"/>
@@ -26583,10 +26582,10 @@
       </c>
     </row>
     <row r="1793" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1793" s="14" t="s">
+      <c r="A1793" t="s">
         <v>36</v>
       </c>
-      <c r="B1793" s="15">
+      <c r="B1793" s="14">
         <v>45420</v>
       </c>
       <c r="C1793" s="2"/>
@@ -26601,10 +26600,10 @@
       <c r="AH1793" s="8"/>
     </row>
     <row r="1794" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1794" s="14" t="s">
+      <c r="A1794" t="s">
         <v>36</v>
       </c>
-      <c r="B1794" s="15">
+      <c r="B1794" s="14">
         <v>45509</v>
       </c>
       <c r="C1794" s="2"/>
@@ -26621,10 +26620,10 @@
       <c r="AH1794" s="8"/>
     </row>
     <row r="1795" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1795" s="14" t="s">
+      <c r="A1795" t="s">
         <v>36</v>
       </c>
-      <c r="B1795" s="15">
+      <c r="B1795" s="14">
         <v>45530</v>
       </c>
       <c r="C1795" s="2"/>
@@ -26641,10 +26640,10 @@
       <c r="AH1795" s="8"/>
     </row>
     <row r="1796" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1796" s="14" t="s">
+      <c r="A1796" t="s">
         <v>36</v>
       </c>
-      <c r="B1796" s="15">
+      <c r="B1796" s="14">
         <v>45589</v>
       </c>
       <c r="C1796" s="2"/>
@@ -26661,10 +26660,10 @@
       <c r="AH1796" s="8"/>
     </row>
     <row r="1797" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1797" s="14" t="s">
+      <c r="A1797" t="s">
         <v>36</v>
       </c>
-      <c r="B1797" s="15">
+      <c r="B1797" s="14">
         <v>45607</v>
       </c>
       <c r="C1797" s="2"/>
@@ -26683,10 +26682,10 @@
       <c r="AH1797" s="8"/>
     </row>
     <row r="1798" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1798" s="14" t="s">
+      <c r="A1798" t="s">
         <v>36</v>
       </c>
-      <c r="B1798" s="15">
+      <c r="B1798" s="14">
         <v>45631</v>
       </c>
       <c r="C1798" s="2"/>
@@ -26705,10 +26704,10 @@
       <c r="AH1798" s="8"/>
     </row>
     <row r="1799" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1799" s="14" t="s">
+      <c r="A1799" t="s">
         <v>36</v>
       </c>
-      <c r="B1799" s="15">
+      <c r="B1799" s="14">
         <v>45667</v>
       </c>
       <c r="C1799" s="2"/>
@@ -26727,10 +26726,10 @@
       </c>
     </row>
     <row r="1800" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1800" s="14" t="s">
+      <c r="A1800" t="s">
         <v>34</v>
       </c>
-      <c r="B1800" s="15">
+      <c r="B1800" s="14">
         <v>45420</v>
       </c>
       <c r="C1800" s="2"/>
@@ -26745,10 +26744,10 @@
       <c r="AH1800" s="8"/>
     </row>
     <row r="1801" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1801" s="14" t="s">
+      <c r="A1801" t="s">
         <v>34</v>
       </c>
-      <c r="B1801" s="15">
+      <c r="B1801" s="14">
         <v>45509</v>
       </c>
       <c r="C1801" s="2"/>
@@ -26765,10 +26764,10 @@
       <c r="AH1801" s="8"/>
     </row>
     <row r="1802" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1802" s="14" t="s">
+      <c r="A1802" t="s">
         <v>34</v>
       </c>
-      <c r="B1802" s="15">
+      <c r="B1802" s="14">
         <v>45530</v>
       </c>
       <c r="C1802" s="2"/>
@@ -26785,10 +26784,10 @@
       <c r="AH1802" s="8"/>
     </row>
     <row r="1803" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1803" s="14" t="s">
+      <c r="A1803" t="s">
         <v>34</v>
       </c>
-      <c r="B1803" s="15">
+      <c r="B1803" s="14">
         <v>45589</v>
       </c>
       <c r="C1803" s="2"/>
@@ -26805,10 +26804,10 @@
       <c r="AH1803" s="8"/>
     </row>
     <row r="1804" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1804" s="14" t="s">
+      <c r="A1804" t="s">
         <v>34</v>
       </c>
-      <c r="B1804" s="15">
+      <c r="B1804" s="14">
         <v>45607</v>
       </c>
       <c r="C1804" s="2"/>
@@ -26827,10 +26826,10 @@
       <c r="AH1804" s="8"/>
     </row>
     <row r="1805" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1805" s="14" t="s">
+      <c r="A1805" t="s">
         <v>34</v>
       </c>
-      <c r="B1805" s="15">
+      <c r="B1805" s="14">
         <v>45631</v>
       </c>
       <c r="C1805" s="2"/>
@@ -26849,10 +26848,10 @@
       <c r="AH1805" s="8"/>
     </row>
     <row r="1806" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1806" s="14" t="s">
+      <c r="A1806" t="s">
         <v>34</v>
       </c>
-      <c r="B1806" s="15">
+      <c r="B1806" s="14">
         <v>45667</v>
       </c>
       <c r="C1806" s="2"/>
@@ -26871,10 +26870,10 @@
       </c>
     </row>
     <row r="1807" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1807" s="14" t="s">
+      <c r="A1807" t="s">
         <v>35</v>
       </c>
-      <c r="B1807" s="15">
+      <c r="B1807" s="14">
         <v>45420</v>
       </c>
       <c r="C1807" s="2"/>
@@ -26889,10 +26888,10 @@
       <c r="AH1807" s="8"/>
     </row>
     <row r="1808" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1808" s="14" t="s">
+      <c r="A1808" t="s">
         <v>35</v>
       </c>
-      <c r="B1808" s="15">
+      <c r="B1808" s="14">
         <v>45509</v>
       </c>
       <c r="C1808" s="2"/>
@@ -26909,10 +26908,10 @@
       <c r="AH1808" s="8"/>
     </row>
     <row r="1809" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1809" s="14" t="s">
+      <c r="A1809" t="s">
         <v>35</v>
       </c>
-      <c r="B1809" s="15">
+      <c r="B1809" s="14">
         <v>45530</v>
       </c>
       <c r="C1809" s="2"/>
@@ -26929,10 +26928,10 @@
       <c r="AH1809" s="8"/>
     </row>
     <row r="1810" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1810" s="14" t="s">
+      <c r="A1810" t="s">
         <v>35</v>
       </c>
-      <c r="B1810" s="15">
+      <c r="B1810" s="14">
         <v>45589</v>
       </c>
       <c r="AD1810" s="8">
@@ -26948,10 +26947,10 @@
       <c r="AH1810" s="8"/>
     </row>
     <row r="1811" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1811" s="14" t="s">
+      <c r="A1811" t="s">
         <v>35</v>
       </c>
-      <c r="B1811" s="15">
+      <c r="B1811" s="14">
         <v>45607</v>
       </c>
       <c r="AD1811" s="8">
@@ -26969,10 +26968,10 @@
       <c r="AH1811" s="8"/>
     </row>
     <row r="1812" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1812" s="14" t="s">
+      <c r="A1812" t="s">
         <v>35</v>
       </c>
-      <c r="B1812" s="15">
+      <c r="B1812" s="14">
         <v>45631</v>
       </c>
       <c r="AD1812" s="8">
@@ -26990,10 +26989,10 @@
       <c r="AH1812" s="8"/>
     </row>
     <row r="1813" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1813" s="14" t="s">
+      <c r="A1813" t="s">
         <v>35</v>
       </c>
-      <c r="B1813" s="15">
+      <c r="B1813" s="14">
         <v>45667</v>
       </c>
       <c r="AD1813" s="8">
@@ -27011,10 +27010,10 @@
       </c>
     </row>
     <row r="1814" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1814" s="14" t="s">
+      <c r="A1814" t="s">
         <v>30</v>
       </c>
-      <c r="B1814" s="15">
+      <c r="B1814" s="14">
         <v>45467</v>
       </c>
       <c r="AD1814" s="8">
@@ -27026,10 +27025,10 @@
       <c r="AH1814" s="8"/>
     </row>
     <row r="1815" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1815" s="14" t="s">
+      <c r="A1815" t="s">
         <v>30</v>
       </c>
-      <c r="B1815" s="15">
+      <c r="B1815" s="14">
         <v>45538</v>
       </c>
       <c r="AD1815" s="8">
@@ -27045,10 +27044,10 @@
       <c r="AH1815" s="8"/>
     </row>
     <row r="1816" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1816" s="14" t="s">
+      <c r="A1816" t="s">
         <v>30</v>
       </c>
-      <c r="B1816" s="15">
+      <c r="B1816" s="14">
         <v>45551</v>
       </c>
       <c r="AD1816" s="8">
@@ -27064,10 +27063,10 @@
       <c r="AH1816" s="8"/>
     </row>
     <row r="1817" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1817" s="14" t="s">
+      <c r="A1817" t="s">
         <v>30</v>
       </c>
-      <c r="B1817" s="15">
+      <c r="B1817" s="14">
         <v>45597</v>
       </c>
       <c r="AD1817" s="8">
@@ -27083,10 +27082,10 @@
       <c r="AH1817" s="8"/>
     </row>
     <row r="1818" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1818" s="14" t="s">
+      <c r="A1818" t="s">
         <v>30</v>
       </c>
-      <c r="B1818" s="15">
+      <c r="B1818" s="14">
         <v>45621</v>
       </c>
       <c r="AD1818" s="8">
@@ -27104,10 +27103,10 @@
       <c r="AH1818" s="8"/>
     </row>
     <row r="1819" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1819" s="14" t="s">
+      <c r="A1819" t="s">
         <v>30</v>
       </c>
-      <c r="B1819" s="15">
+      <c r="B1819" s="14">
         <v>45642</v>
       </c>
       <c r="AD1819" s="8">
@@ -27125,10 +27124,10 @@
       <c r="AH1819" s="8"/>
     </row>
     <row r="1820" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1820" s="14" t="s">
+      <c r="A1820" t="s">
         <v>30</v>
       </c>
-      <c r="B1820" s="15">
+      <c r="B1820" s="14">
         <v>45677</v>
       </c>
       <c r="AD1820" s="8">
@@ -27146,10 +27145,10 @@
       </c>
     </row>
     <row r="1821" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1821" s="14" t="s">
+      <c r="A1821" t="s">
         <v>32</v>
       </c>
-      <c r="B1821" s="15">
+      <c r="B1821" s="14">
         <v>45467</v>
       </c>
       <c r="AD1821" s="8">
@@ -27161,10 +27160,10 @@
       <c r="AH1821" s="8"/>
     </row>
     <row r="1822" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1822" s="14" t="s">
+      <c r="A1822" t="s">
         <v>32</v>
       </c>
-      <c r="B1822" s="15">
+      <c r="B1822" s="14">
         <v>45538</v>
       </c>
       <c r="AD1822" s="8">
@@ -27180,10 +27179,10 @@
       <c r="AH1822" s="8"/>
     </row>
     <row r="1823" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1823" s="14" t="s">
+      <c r="A1823" t="s">
         <v>32</v>
       </c>
-      <c r="B1823" s="15">
+      <c r="B1823" s="14">
         <v>45551</v>
       </c>
       <c r="AD1823" s="8">
@@ -27199,10 +27198,10 @@
       <c r="AH1823" s="8"/>
     </row>
     <row r="1824" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1824" s="14" t="s">
+      <c r="A1824" t="s">
         <v>32</v>
       </c>
-      <c r="B1824" s="15">
+      <c r="B1824" s="14">
         <v>45597</v>
       </c>
       <c r="AD1824" s="8">
@@ -27218,10 +27217,10 @@
       <c r="AH1824" s="8"/>
     </row>
     <row r="1825" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1825" s="14" t="s">
+      <c r="A1825" t="s">
         <v>32</v>
       </c>
-      <c r="B1825" s="15">
+      <c r="B1825" s="14">
         <v>45621</v>
       </c>
       <c r="AD1825" s="8">
@@ -27239,10 +27238,10 @@
       <c r="AH1825" s="8"/>
     </row>
     <row r="1826" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1826" s="14" t="s">
+      <c r="A1826" t="s">
         <v>32</v>
       </c>
-      <c r="B1826" s="15">
+      <c r="B1826" s="14">
         <v>45642</v>
       </c>
       <c r="AD1826" s="8">
@@ -27260,10 +27259,10 @@
       <c r="AH1826" s="8"/>
     </row>
     <row r="1827" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1827" s="14" t="s">
+      <c r="A1827" t="s">
         <v>32</v>
       </c>
-      <c r="B1827" s="15">
+      <c r="B1827" s="14">
         <v>45677</v>
       </c>
       <c r="AD1827" s="8">
@@ -27281,10 +27280,10 @@
       </c>
     </row>
     <row r="1828" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1828" s="14" t="s">
+      <c r="A1828" t="s">
         <v>29</v>
       </c>
-      <c r="B1828" s="15">
+      <c r="B1828" s="14">
         <v>45467</v>
       </c>
       <c r="AD1828" s="8">
@@ -27296,10 +27295,10 @@
       <c r="AH1828" s="8"/>
     </row>
     <row r="1829" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1829" s="14" t="s">
+      <c r="A1829" t="s">
         <v>29</v>
       </c>
-      <c r="B1829" s="15">
+      <c r="B1829" s="14">
         <v>45538</v>
       </c>
       <c r="AD1829" s="8">
@@ -27315,10 +27314,10 @@
       <c r="AH1829" s="8"/>
     </row>
     <row r="1830" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1830" s="14" t="s">
+      <c r="A1830" t="s">
         <v>29</v>
       </c>
-      <c r="B1830" s="15">
+      <c r="B1830" s="14">
         <v>45551</v>
       </c>
       <c r="AD1830" s="8">
@@ -27334,10 +27333,10 @@
       <c r="AH1830" s="8"/>
     </row>
     <row r="1831" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1831" s="14" t="s">
+      <c r="A1831" t="s">
         <v>29</v>
       </c>
-      <c r="B1831" s="15">
+      <c r="B1831" s="14">
         <v>45597</v>
       </c>
       <c r="AD1831" s="8">
@@ -27353,10 +27352,10 @@
       <c r="AH1831" s="8"/>
     </row>
     <row r="1832" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1832" s="14" t="s">
+      <c r="A1832" t="s">
         <v>29</v>
       </c>
-      <c r="B1832" s="15">
+      <c r="B1832" s="14">
         <v>45621</v>
       </c>
       <c r="AD1832" s="8">
@@ -27374,10 +27373,10 @@
       <c r="AH1832" s="8"/>
     </row>
     <row r="1833" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1833" s="14" t="s">
+      <c r="A1833" t="s">
         <v>29</v>
       </c>
-      <c r="B1833" s="15">
+      <c r="B1833" s="14">
         <v>45642</v>
       </c>
       <c r="AD1833" s="8">
@@ -27395,10 +27394,10 @@
       <c r="AH1833" s="8"/>
     </row>
     <row r="1834" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1834" s="14" t="s">
+      <c r="A1834" t="s">
         <v>29</v>
       </c>
-      <c r="B1834" s="15">
+      <c r="B1834" s="14">
         <v>45677</v>
       </c>
       <c r="AD1834" s="8">
@@ -27416,10 +27415,10 @@
       </c>
     </row>
     <row r="1835" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1835" s="14" t="s">
+      <c r="A1835" t="s">
         <v>31</v>
       </c>
-      <c r="B1835" s="15">
+      <c r="B1835" s="14">
         <v>45467</v>
       </c>
       <c r="AD1835" s="8">
@@ -27431,10 +27430,10 @@
       <c r="AH1835" s="8"/>
     </row>
     <row r="1836" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1836" s="14" t="s">
+      <c r="A1836" t="s">
         <v>31</v>
       </c>
-      <c r="B1836" s="15">
+      <c r="B1836" s="14">
         <v>45538</v>
       </c>
       <c r="AD1836" s="8">
@@ -27450,10 +27449,10 @@
       <c r="AH1836" s="8"/>
     </row>
     <row r="1837" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1837" s="14" t="s">
+      <c r="A1837" t="s">
         <v>31</v>
       </c>
-      <c r="B1837" s="15">
+      <c r="B1837" s="14">
         <v>45551</v>
       </c>
       <c r="AD1837" s="8">
@@ -27469,10 +27468,10 @@
       <c r="AH1837" s="8"/>
     </row>
     <row r="1838" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1838" s="14" t="s">
+      <c r="A1838" t="s">
         <v>31</v>
       </c>
-      <c r="B1838" s="15">
+      <c r="B1838" s="14">
         <v>45597</v>
       </c>
       <c r="AD1838" s="8">
@@ -27488,10 +27487,10 @@
       <c r="AH1838" s="8"/>
     </row>
     <row r="1839" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1839" s="14" t="s">
+      <c r="A1839" t="s">
         <v>31</v>
       </c>
-      <c r="B1839" s="15">
+      <c r="B1839" s="14">
         <v>45621</v>
       </c>
       <c r="AD1839" s="8">
@@ -27509,10 +27508,10 @@
       <c r="AH1839" s="8"/>
     </row>
     <row r="1840" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1840" s="14" t="s">
+      <c r="A1840" t="s">
         <v>31</v>
       </c>
-      <c r="B1840" s="15">
+      <c r="B1840" s="14">
         <v>45642</v>
       </c>
       <c r="AD1840" s="8">
@@ -27530,10 +27529,10 @@
       <c r="AH1840" s="8"/>
     </row>
     <row r="1841" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1841" s="14" t="s">
+      <c r="A1841" t="s">
         <v>31</v>
       </c>
-      <c r="B1841" s="15">
+      <c r="B1841" s="14">
         <v>45677</v>
       </c>
       <c r="AD1841" s="8">
@@ -39935,20 +39934,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="322cff4d-e128-4275-8c17-01ea60ce9850" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="322cff4d-e128-4275-8c17-01ea60ce9850" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40205,6 +40204,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{565FE936-45C1-4267-BB01-0C6ECA531FFF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3709C4F5-F4CD-4825-B22E-AD384DC6F7E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -40217,14 +40224,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{565FE936-45C1-4267-BB01-0C6ECA531FFF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Tests/Validation/Wheat/data/Lincoln2024.xlsx
+++ b/Tests/Validation/Wheat/data/Lincoln2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\ApsimX\Tests\Validation\Wheat\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373EAA0E-CC26-4D10-BA45-0DE5978A3A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B278122F-04C6-4A62-84FB-ED4C114102FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" autoFilterDateGrouping="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -411,7 +411,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,6 +442,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -465,7 +471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -487,6 +493,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -839,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BBE95E-A304-486E-A4C6-DD8F3EEFA3AF}">
   <dimension ref="A1:AP833"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AQ1" sqref="AQ1:AQ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -989,19 +996,19 @@
       <c r="AJ1" t="s">
         <v>55</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="17" t="s">
         <v>94</v>
       </c>
       <c r="AP1" t="s">
@@ -1954,9 +1961,6 @@
       <c r="AA42">
         <v>3.02</v>
       </c>
-      <c r="AP42">
-        <v>38.316083334218796</v>
-      </c>
     </row>
     <row r="43" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
@@ -1974,9 +1978,6 @@
       <c r="S43">
         <v>161.66999999999999</v>
       </c>
-      <c r="AP43">
-        <v>45.2712966401442</v>
-      </c>
     </row>
     <row r="44" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
@@ -1991,9 +1992,6 @@
       <c r="AA44">
         <v>9.84</v>
       </c>
-      <c r="AP44">
-        <v>27.139494464791003</v>
-      </c>
     </row>
     <row r="45" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
@@ -2005,9 +2003,6 @@
       <c r="AA45">
         <v>12.16</v>
       </c>
-      <c r="AP45">
-        <v>48.733033103760398</v>
-      </c>
     </row>
     <row r="46" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
@@ -2019,9 +2014,6 @@
       <c r="AA46">
         <v>5.39</v>
       </c>
-      <c r="AP46">
-        <v>36.730810287681187</v>
-      </c>
     </row>
     <row r="47" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
@@ -2054,9 +2046,6 @@
       <c r="AJ47" t="s">
         <v>60</v>
       </c>
-      <c r="AP47">
-        <v>49.272403957003306</v>
-      </c>
     </row>
     <row r="48" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
@@ -2079,9 +2068,6 @@
       </c>
       <c r="AA48">
         <v>1.07</v>
-      </c>
-      <c r="AP48">
-        <v>25.943120715846089</v>
       </c>
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.3">
@@ -57074,20 +57060,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="322cff4d-e128-4275-8c17-01ea60ce9850" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="322cff4d-e128-4275-8c17-01ea60ce9850" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -57344,14 +57330,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{565FE936-45C1-4267-BB01-0C6ECA531FFF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3709C4F5-F4CD-4825-B22E-AD384DC6F7E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -57364,6 +57342,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{565FE936-45C1-4267-BB01-0C6ECA531FFF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Tests/Validation/Wheat/data/Lincoln2024.xlsx
+++ b/Tests/Validation/Wheat/data/Lincoln2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\ApsimX\Tests\Validation\Wheat\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B278122F-04C6-4A62-84FB-ED4C114102FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A46E69-6A87-425E-A0E9-7EDE5DA034F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" autoFilterDateGrouping="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <sheet name="Notes for changes" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$A$1:$AP$833</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Observed!$AA$1:$AA$833</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Observed_NotMeregedYet!$A$1:$AH$1841</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -846,8 +846,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BBE95E-A304-486E-A4C6-DD8F3EEFA3AF}">
   <dimension ref="A1:AP833"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AQ1" sqref="AQ1:AQ1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1037,7 +1040,7 @@
         <v>45474</v>
       </c>
       <c r="AA3">
-        <v>3.99</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.3">
@@ -1050,6 +1053,9 @@
       <c r="Y4">
         <v>8.1666666669999994</v>
       </c>
+      <c r="AA4">
+        <v>14.23</v>
+      </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1089,7 +1095,7 @@
         <v>7.6666666670000003</v>
       </c>
       <c r="AA5">
-        <v>13.23</v>
+        <v>3.33</v>
       </c>
       <c r="AG5">
         <v>2.1999999999999999E-2</v>
@@ -1123,6 +1129,9 @@
       <c r="Y6">
         <v>3.8333333330000001</v>
       </c>
+      <c r="AA6">
+        <v>12.33</v>
+      </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1140,6 +1149,9 @@
       <c r="S7">
         <v>346.67</v>
       </c>
+      <c r="AA7">
+        <v>14.46</v>
+      </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1160,6 +1172,9 @@
       <c r="Y8">
         <v>9.5</v>
       </c>
+      <c r="AA8">
+        <v>7.82</v>
+      </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1169,7 +1184,7 @@
         <v>45454</v>
       </c>
       <c r="AA9">
-        <v>2.33</v>
+        <v>10.31</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.3">
@@ -1182,6 +1197,9 @@
       <c r="Y10">
         <v>10.33333333</v>
       </c>
+      <c r="AA10">
+        <v>3.51</v>
+      </c>
       <c r="AB10">
         <v>5</v>
       </c>
@@ -1218,7 +1236,7 @@
         <v>1.9E-2</v>
       </c>
       <c r="AA11">
-        <v>11.33</v>
+        <v>12.62</v>
       </c>
       <c r="AH11">
         <v>389.49035400000002</v>
@@ -1235,7 +1253,7 @@
         <v>45607</v>
       </c>
       <c r="AA12">
-        <v>13.46</v>
+        <v>14.46</v>
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.3">
@@ -1263,6 +1281,9 @@
       <c r="Y13">
         <v>6.3333333329999997</v>
       </c>
+      <c r="AA13">
+        <v>5.73</v>
+      </c>
       <c r="AI13">
         <v>0.494030988</v>
       </c>
@@ -1286,6 +1307,9 @@
       <c r="Y14">
         <v>6.3333333329999997</v>
       </c>
+      <c r="AA14">
+        <v>8.0300000000000011</v>
+      </c>
       <c r="AI14">
         <v>0.29451813599999999</v>
       </c>
@@ -1306,6 +1330,9 @@
       <c r="S15">
         <v>90.83</v>
       </c>
+      <c r="AA15">
+        <v>10.62</v>
+      </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1315,7 +1342,7 @@
         <v>45516</v>
       </c>
       <c r="AA16">
-        <v>6.82</v>
+        <v>12.87</v>
       </c>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.3">
@@ -1326,7 +1353,7 @@
         <v>45547</v>
       </c>
       <c r="AA17">
-        <v>9.31</v>
+        <v>14.46</v>
       </c>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.3">
@@ -1339,6 +1366,9 @@
       <c r="Y18">
         <v>2.6666666669999999</v>
       </c>
+      <c r="AA18">
+        <v>6.13</v>
+      </c>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -1377,6 +1407,9 @@
       <c r="X19">
         <v>1.8100000000000002E-2</v>
       </c>
+      <c r="AA19">
+        <v>8.34</v>
+      </c>
       <c r="AH19">
         <v>14.56</v>
       </c>
@@ -1392,7 +1425,7 @@
         <v>45457</v>
       </c>
       <c r="AA20">
-        <v>2.5099999999999998</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.3">
@@ -1403,7 +1436,7 @@
         <v>45579</v>
       </c>
       <c r="AA21">
-        <v>11.62</v>
+        <v>9.4499999999999993</v>
       </c>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.3">
@@ -1435,7 +1468,7 @@
         <v>7.5833333329999997</v>
       </c>
       <c r="AA22">
-        <v>13.46</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="AI22">
         <v>0.60685714300000004</v>
@@ -1449,7 +1482,7 @@
         <v>45488</v>
       </c>
       <c r="AA23">
-        <v>4.7300000000000004</v>
+        <v>10.84</v>
       </c>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.3">
@@ -1465,6 +1498,9 @@
       <c r="O24">
         <v>0.94</v>
       </c>
+      <c r="AA24">
+        <v>13.16</v>
+      </c>
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -1482,6 +1518,9 @@
       <c r="S25">
         <v>87</v>
       </c>
+      <c r="AA25">
+        <v>6.39</v>
+      </c>
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -1494,7 +1533,7 @@
         <v>13.33333333</v>
       </c>
       <c r="AA26">
-        <v>7.03</v>
+        <v>2.0700000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.3">
@@ -1532,7 +1571,7 @@
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="AA27">
-        <v>9.6199999999999992</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="AC27">
         <v>32</v>
@@ -1581,6 +1620,9 @@
       <c r="Y28">
         <v>9.3333333330000006</v>
       </c>
+      <c r="AA28">
+        <v>10.96</v>
+      </c>
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -1625,6 +1667,9 @@
       <c r="X29">
         <v>1.8499999999999999E-2</v>
       </c>
+      <c r="AA29">
+        <v>4.3599999999999994</v>
+      </c>
       <c r="AG29">
         <v>1.2200000000000001E-2</v>
       </c>
@@ -1669,6 +1714,9 @@
       <c r="Y30">
         <v>5.3333333329999997</v>
       </c>
+      <c r="AA30">
+        <v>6.6</v>
+      </c>
       <c r="AI30">
         <v>0.284548036</v>
       </c>
@@ -1689,6 +1737,9 @@
       <c r="S31">
         <v>405.83</v>
       </c>
+      <c r="AA31">
+        <v>13.62</v>
+      </c>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -1698,7 +1749,7 @@
         <v>45582</v>
       </c>
       <c r="AA32">
-        <v>11.87</v>
+        <v>8.9499999999999993</v>
       </c>
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.3">
@@ -1709,7 +1760,7 @@
         <v>45614</v>
       </c>
       <c r="AA33">
-        <v>13.46</v>
+        <v>11.18</v>
       </c>
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.3">
@@ -1737,6 +1788,9 @@
       <c r="Y34">
         <v>5.75</v>
       </c>
+      <c r="AA34">
+        <v>2.35</v>
+      </c>
       <c r="AI34">
         <v>0.43564109000000001</v>
       </c>
@@ -1751,6 +1805,9 @@
       <c r="Y35">
         <v>3</v>
       </c>
+      <c r="AA35">
+        <v>4.68</v>
+      </c>
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
@@ -1772,7 +1829,7 @@
         <v>5.8333333329999997</v>
       </c>
       <c r="AA36">
-        <v>5.13</v>
+        <v>13.82</v>
       </c>
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.3">
@@ -1783,7 +1840,7 @@
         <v>45523</v>
       </c>
       <c r="AA37">
-        <v>7.34</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="38" spans="1:42" x14ac:dyDescent="0.3">
@@ -1802,6 +1859,9 @@
       <c r="S38">
         <v>1000</v>
       </c>
+      <c r="AA38">
+        <v>14.3</v>
+      </c>
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -1820,7 +1880,7 @@
         <v>115</v>
       </c>
       <c r="AA39">
-        <v>6.16</v>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:42" x14ac:dyDescent="0.3">
@@ -1831,7 +1891,7 @@
         <v>45537</v>
       </c>
       <c r="AA40">
-        <v>8.4499999999999993</v>
+        <v>9.24</v>
       </c>
       <c r="AC40">
         <v>30</v>
@@ -1895,6 +1955,9 @@
       <c r="Z41">
         <v>611.4</v>
       </c>
+      <c r="AA41">
+        <v>11.37</v>
+      </c>
       <c r="AB41">
         <v>10</v>
       </c>
@@ -1959,7 +2022,7 @@
         <v>91.25</v>
       </c>
       <c r="AA42">
-        <v>3.02</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="43" spans="1:42" x14ac:dyDescent="0.3">
@@ -1978,6 +2041,9 @@
       <c r="S43">
         <v>161.66999999999999</v>
       </c>
+      <c r="AA43">
+        <v>5.17</v>
+      </c>
     </row>
     <row r="44" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
@@ -1990,7 +2056,7 @@
         <v>9.6666666669999994</v>
       </c>
       <c r="AA44">
-        <v>9.84</v>
+        <v>11.73</v>
       </c>
     </row>
     <row r="45" spans="1:42" x14ac:dyDescent="0.3">
@@ -2001,7 +2067,7 @@
         <v>45586</v>
       </c>
       <c r="AA45">
-        <v>12.16</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="46" spans="1:42" x14ac:dyDescent="0.3">
@@ -2012,7 +2078,7 @@
         <v>45495</v>
       </c>
       <c r="AA46">
-        <v>5.39</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="47" spans="1:42" x14ac:dyDescent="0.3">
@@ -2034,6 +2100,9 @@
       <c r="Y47">
         <v>6.4166666670000003</v>
       </c>
+      <c r="AA47">
+        <v>3.05</v>
+      </c>
       <c r="AB47">
         <v>8</v>
       </c>
@@ -2067,7 +2136,7 @@
         <v>1</v>
       </c>
       <c r="AA48">
-        <v>1.07</v>
+        <v>11.97</v>
       </c>
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.3">
@@ -2092,6 +2161,9 @@
       <c r="X49">
         <v>2.0400000000000001E-2</v>
       </c>
+      <c r="AA49">
+        <v>14.41</v>
+      </c>
       <c r="AH49">
         <v>1.75</v>
       </c>
@@ -2110,7 +2182,7 @@
         <v>13.33333333</v>
       </c>
       <c r="AA50">
-        <v>7.54</v>
+        <v>5.32</v>
       </c>
       <c r="AB50">
         <v>4</v>
@@ -2127,7 +2199,7 @@
         <v>45558</v>
       </c>
       <c r="AA51">
-        <v>9.9600000000000009</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.3">
@@ -2143,6 +2215,9 @@
       <c r="O52">
         <v>0.98</v>
       </c>
+      <c r="AA52">
+        <v>10.08</v>
+      </c>
     </row>
     <row r="53" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
@@ -2176,10 +2251,7 @@
         <v>1.49E-2</v>
       </c>
       <c r="AA53">
-        <v>3.36</v>
-      </c>
-      <c r="AB53">
-        <v>4</v>
+        <v>4.93</v>
       </c>
       <c r="AC53">
         <v>20</v>
@@ -2219,6 +2291,9 @@
       <c r="Y54">
         <v>5.6666666670000003</v>
       </c>
+      <c r="AA54">
+        <v>14.05</v>
+      </c>
       <c r="AI54">
         <v>0.373309687</v>
       </c>
@@ -2240,7 +2315,7 @@
         <v>105.42</v>
       </c>
       <c r="AA55">
-        <v>5.6</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="56" spans="1:42" x14ac:dyDescent="0.3">
@@ -2263,7 +2338,7 @@
         <v>9</v>
       </c>
       <c r="AA56">
-        <v>12.62</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="57" spans="1:42" x14ac:dyDescent="0.3">
@@ -2309,6 +2384,9 @@
       <c r="X57">
         <v>1.78E-2</v>
       </c>
+      <c r="AA57">
+        <v>14.33</v>
+      </c>
       <c r="AG57">
         <v>1.54E-2</v>
       </c>
@@ -2344,6 +2422,9 @@
       <c r="Y58">
         <v>2.8333333330000001</v>
       </c>
+      <c r="AA58">
+        <v>7.66</v>
+      </c>
     </row>
     <row r="59" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
@@ -2353,7 +2434,7 @@
         <v>45530</v>
       </c>
       <c r="AA59">
-        <v>7.95</v>
+        <v>10.130000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:42" x14ac:dyDescent="0.3">
@@ -2373,7 +2454,7 @@
         <v>497.5</v>
       </c>
       <c r="AA60">
-        <v>10.18</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="61" spans="1:42" x14ac:dyDescent="0.3">
@@ -2384,7 +2465,7 @@
         <v>45439</v>
       </c>
       <c r="AA61">
-        <v>1.35</v>
+        <v>12.45</v>
       </c>
     </row>
     <row r="62" spans="1:42" x14ac:dyDescent="0.3">
@@ -2404,7 +2485,7 @@
         <v>95</v>
       </c>
       <c r="AA62">
-        <v>3.68</v>
+        <v>14.34</v>
       </c>
     </row>
     <row r="63" spans="1:42" x14ac:dyDescent="0.3">
@@ -2417,6 +2498,9 @@
       <c r="Y63">
         <v>6.3333333329999997</v>
       </c>
+      <c r="AA63">
+        <v>5.63</v>
+      </c>
     </row>
     <row r="64" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
@@ -2428,6 +2512,9 @@
       <c r="Y64">
         <v>9.3333333330000006</v>
       </c>
+      <c r="AA64">
+        <v>7.85</v>
+      </c>
     </row>
     <row r="65" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
@@ -2445,6 +2532,9 @@
       <c r="S65">
         <v>98.33</v>
       </c>
+      <c r="AA65">
+        <v>10.42</v>
+      </c>
     </row>
     <row r="66" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
@@ -2462,6 +2552,9 @@
       <c r="S66">
         <v>218.33</v>
       </c>
+      <c r="AA66">
+        <v>12.68</v>
+      </c>
     </row>
     <row r="67" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
@@ -2471,7 +2564,7 @@
         <v>45593</v>
       </c>
       <c r="AA67">
-        <v>12.82</v>
+        <v>14.34</v>
       </c>
     </row>
     <row r="68" spans="1:42" x14ac:dyDescent="0.3">
@@ -2495,6 +2588,9 @@
       <c r="Y69">
         <v>12.16666667</v>
       </c>
+      <c r="AA69">
+        <v>8.129999999999999</v>
+      </c>
     </row>
     <row r="70" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
@@ -2521,6 +2617,9 @@
       <c r="Y70">
         <v>6.9583333329999997</v>
       </c>
+      <c r="AA70">
+        <v>7.02</v>
+      </c>
       <c r="AI70">
         <v>0.59775840599999996</v>
       </c>
@@ -2559,6 +2658,9 @@
       <c r="X71">
         <v>1.8499999999999999E-2</v>
       </c>
+      <c r="AA71">
+        <v>9.35</v>
+      </c>
       <c r="AG71">
         <v>4.2999999999999997E-2</v>
       </c>
@@ -2589,7 +2691,7 @@
         <v>45599</v>
       </c>
       <c r="AA72">
-        <v>13.3</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="73" spans="1:42" x14ac:dyDescent="0.3">
@@ -2599,6 +2701,9 @@
       <c r="B73" s="2">
         <v>45412</v>
       </c>
+      <c r="AA73">
+        <v>10.58</v>
+      </c>
       <c r="AB73">
         <v>3</v>
       </c>
@@ -2620,7 +2725,7 @@
         <v>1.0833333329999999</v>
       </c>
       <c r="AA74">
-        <v>1.45</v>
+        <v>13.09</v>
       </c>
     </row>
     <row r="75" spans="1:42" x14ac:dyDescent="0.3">
@@ -2631,7 +2736,7 @@
         <v>45534</v>
       </c>
       <c r="AA75">
-        <v>8.24</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="76" spans="1:42" x14ac:dyDescent="0.3">
@@ -2642,7 +2747,7 @@
         <v>45565</v>
       </c>
       <c r="AA76">
-        <v>10.37</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="77" spans="1:42" x14ac:dyDescent="0.3">
@@ -2661,6 +2766,9 @@
       <c r="S77">
         <v>840.83</v>
       </c>
+      <c r="AA77">
+        <v>8.42</v>
+      </c>
     </row>
     <row r="78" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
@@ -2681,6 +2789,9 @@
       <c r="Y78">
         <v>6.25</v>
       </c>
+      <c r="AA78">
+        <v>10.81</v>
+      </c>
       <c r="AI78">
         <v>0.32987715499999998</v>
       </c>
@@ -2692,6 +2803,9 @@
       <c r="B79" s="2">
         <v>45596</v>
       </c>
+      <c r="AA79">
+        <v>4.2799999999999994</v>
+      </c>
       <c r="AB79">
         <v>6</v>
       </c>
@@ -2713,7 +2827,7 @@
         <v>1.4166666670000001</v>
       </c>
       <c r="AA80">
-        <v>1.75</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="81" spans="1:35" x14ac:dyDescent="0.3">
@@ -2736,7 +2850,7 @@
         <v>5.5</v>
       </c>
       <c r="AA81">
-        <v>4.17</v>
+        <v>13.54</v>
       </c>
     </row>
     <row r="82" spans="1:35" x14ac:dyDescent="0.3">
@@ -2749,6 +2863,9 @@
       <c r="Y82">
         <v>10.83333333</v>
       </c>
+      <c r="AA82">
+        <v>8.75</v>
+      </c>
     </row>
     <row r="83" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
@@ -2770,7 +2887,7 @@
         <v>8.6666666669999994</v>
       </c>
       <c r="AA83">
-        <v>10.73</v>
+        <v>11.02</v>
       </c>
     </row>
     <row r="84" spans="1:35" x14ac:dyDescent="0.3">
@@ -2781,7 +2898,7 @@
         <v>45509</v>
       </c>
       <c r="AA84">
-        <v>6.34</v>
+        <v>2.1799999999999997</v>
       </c>
     </row>
     <row r="85" spans="1:35" x14ac:dyDescent="0.3">
@@ -2812,6 +2929,9 @@
       <c r="Y85">
         <v>6.75</v>
       </c>
+      <c r="AA85">
+        <v>4.63</v>
+      </c>
       <c r="AI85">
         <v>0.56870767499999997</v>
       </c>
@@ -2835,6 +2955,9 @@
       <c r="Y86">
         <v>6</v>
       </c>
+      <c r="AA86">
+        <v>13.75</v>
+      </c>
       <c r="AI86">
         <v>0.28447024700000001</v>
       </c>
@@ -2855,6 +2978,9 @@
       <c r="S87">
         <v>95</v>
       </c>
+      <c r="AA87">
+        <v>6.77</v>
+      </c>
     </row>
     <row r="88" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
@@ -2873,7 +2999,7 @@
         <v>303.33</v>
       </c>
       <c r="AA88">
-        <v>8.82</v>
+        <v>14.23</v>
       </c>
     </row>
     <row r="89" spans="1:35" x14ac:dyDescent="0.3">
@@ -2889,6 +3015,9 @@
       <c r="O89">
         <v>0.98</v>
       </c>
+      <c r="AA89">
+        <v>2.38</v>
+      </c>
     </row>
     <row r="90" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
@@ -2898,7 +3027,7 @@
         <v>45450</v>
       </c>
       <c r="AA90">
-        <v>2.0499999999999998</v>
+        <v>9.0399999999999991</v>
       </c>
     </row>
     <row r="91" spans="1:35" x14ac:dyDescent="0.3">
@@ -2917,6 +3046,9 @@
       <c r="S91">
         <v>102.08</v>
       </c>
+      <c r="AA91">
+        <v>11.22</v>
+      </c>
     </row>
     <row r="92" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
@@ -2926,7 +3058,7 @@
         <v>45572</v>
       </c>
       <c r="AA92">
-        <v>10.97</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="93" spans="1:35" x14ac:dyDescent="0.3">
@@ -2937,7 +3069,7 @@
         <v>45603</v>
       </c>
       <c r="AA93">
-        <v>13.41</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="94" spans="1:35" x14ac:dyDescent="0.3">
@@ -2948,7 +3080,7 @@
         <v>45481</v>
       </c>
       <c r="AA94">
-        <v>4.32</v>
+        <v>11.58</v>
       </c>
     </row>
     <row r="95" spans="1:35" x14ac:dyDescent="0.3">
@@ -2961,6 +3093,9 @@
       <c r="Y95">
         <v>7.3333333329999997</v>
       </c>
+      <c r="AA95">
+        <v>7.16</v>
+      </c>
     </row>
     <row r="96" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
@@ -2990,6 +3125,9 @@
       <c r="Y96">
         <v>7.7291666670000003</v>
       </c>
+      <c r="AA96">
+        <v>9.68</v>
+      </c>
       <c r="AI96">
         <v>0.62109135500000001</v>
       </c>
@@ -3010,6 +3148,9 @@
       <c r="S97">
         <v>95.83</v>
       </c>
+      <c r="AA97">
+        <v>2.9299999999999997</v>
+      </c>
     </row>
     <row r="98" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
@@ -3019,7 +3160,7 @@
         <v>45513</v>
       </c>
       <c r="AA98">
-        <v>6.58</v>
+        <v>11.87</v>
       </c>
     </row>
     <row r="99" spans="1:42" x14ac:dyDescent="0.3">
@@ -3030,7 +3171,7 @@
         <v>45544</v>
       </c>
       <c r="AA99">
-        <v>9.08</v>
+        <v>14.33</v>
       </c>
     </row>
     <row r="100" spans="1:42" x14ac:dyDescent="0.3">
@@ -3046,6 +3187,9 @@
       <c r="O100">
         <v>0.95</v>
       </c>
+      <c r="AA100">
+        <v>5.28</v>
+      </c>
     </row>
     <row r="101" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
@@ -3055,7 +3199,7 @@
         <v>45474</v>
       </c>
       <c r="AA101">
-        <v>3.93</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="102" spans="1:42" x14ac:dyDescent="0.3">
@@ -3068,6 +3212,9 @@
       <c r="Y102">
         <v>9.8333333330000006</v>
       </c>
+      <c r="AA102">
+        <v>9.94</v>
+      </c>
     </row>
     <row r="103" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
@@ -3107,7 +3254,7 @@
         <v>7.1666666670000003</v>
       </c>
       <c r="AA103">
-        <v>13.05</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="AG103">
         <v>1.38E-2</v>
@@ -3141,6 +3288,9 @@
       <c r="Y104">
         <v>5.3333333329999997</v>
       </c>
+      <c r="AA104">
+        <v>13.49</v>
+      </c>
     </row>
     <row r="105" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
@@ -3158,6 +3308,9 @@
       <c r="S105">
         <v>296.67</v>
       </c>
+      <c r="AA105">
+        <v>3</v>
+      </c>
     </row>
     <row r="106" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
@@ -3178,6 +3331,9 @@
       <c r="Y106">
         <v>10.66666667</v>
       </c>
+      <c r="AA106">
+        <v>11.72</v>
+      </c>
     </row>
     <row r="107" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
@@ -3187,7 +3343,7 @@
         <v>45454</v>
       </c>
       <c r="AA107">
-        <v>2.31</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="108" spans="1:42" x14ac:dyDescent="0.3">
@@ -3200,6 +3356,9 @@
       <c r="Y108">
         <v>10.16666667</v>
       </c>
+      <c r="AA108">
+        <v>7.28</v>
+      </c>
       <c r="AB108">
         <v>5</v>
       </c>
@@ -3236,7 +3395,7 @@
         <v>1.78E-2</v>
       </c>
       <c r="AA109">
-        <v>11.2</v>
+        <v>9.66</v>
       </c>
       <c r="AH109">
         <v>360.56053880000002</v>
@@ -3253,7 +3412,7 @@
         <v>45607</v>
       </c>
       <c r="AA110">
-        <v>13.33</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="111" spans="1:42" x14ac:dyDescent="0.3">
@@ -3281,6 +3440,9 @@
       <c r="Y111">
         <v>5.5833333329999997</v>
       </c>
+      <c r="AA111">
+        <v>11.95</v>
+      </c>
       <c r="AI111">
         <v>0.50421743200000002</v>
       </c>
@@ -3304,6 +3466,9 @@
       <c r="Y112">
         <v>5.25</v>
       </c>
+      <c r="AA112">
+        <v>13.7</v>
+      </c>
       <c r="AI112">
         <v>0.277852023</v>
       </c>
@@ -3324,6 +3489,9 @@
       <c r="S113">
         <v>92.08</v>
       </c>
+      <c r="AA113">
+        <v>5.28</v>
+      </c>
     </row>
     <row r="114" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
@@ -3333,7 +3501,7 @@
         <v>45516</v>
       </c>
       <c r="AA114">
-        <v>6.66</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="115" spans="1:42" x14ac:dyDescent="0.3">
@@ -3344,7 +3512,7 @@
         <v>45547</v>
       </c>
       <c r="AA115">
-        <v>9.1300000000000008</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="116" spans="1:42" x14ac:dyDescent="0.3">
@@ -3357,6 +3525,9 @@
       <c r="Y116">
         <v>2.6666666669999999</v>
       </c>
+      <c r="AA116">
+        <v>12.2</v>
+      </c>
     </row>
     <row r="117" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
@@ -3395,6 +3566,9 @@
       <c r="X117">
         <v>1.8200000000000001E-2</v>
       </c>
+      <c r="AA117">
+        <v>13.7</v>
+      </c>
       <c r="AH117">
         <v>10.59</v>
       </c>
@@ -3410,7 +3584,7 @@
         <v>45457</v>
       </c>
       <c r="AA118">
-        <v>2.48</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="119" spans="1:42" x14ac:dyDescent="0.3">
@@ -3421,7 +3595,7 @@
         <v>45579</v>
       </c>
       <c r="AA119">
-        <v>11.45</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="120" spans="1:42" x14ac:dyDescent="0.3">
@@ -3453,7 +3627,7 @@
         <v>7.0833333329999997</v>
       </c>
       <c r="AA120">
-        <v>13.34</v>
+        <v>6.61</v>
       </c>
       <c r="AI120">
         <v>0.63743027500000005</v>
@@ -3467,7 +3641,7 @@
         <v>45488</v>
       </c>
       <c r="AA121">
-        <v>4.63</v>
+        <v>8.8099999999999987</v>
       </c>
     </row>
     <row r="122" spans="1:42" x14ac:dyDescent="0.3">
@@ -3483,6 +3657,9 @@
       <c r="O122">
         <v>0.87</v>
       </c>
+      <c r="AA122">
+        <v>3.68</v>
+      </c>
     </row>
     <row r="123" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
@@ -3500,6 +3677,9 @@
       <c r="S123">
         <v>89</v>
       </c>
+      <c r="AA123">
+        <v>10.06</v>
+      </c>
     </row>
     <row r="124" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
@@ -3512,7 +3692,7 @@
         <v>11</v>
       </c>
       <c r="AA124">
-        <v>6.85</v>
+        <v>12.53</v>
       </c>
     </row>
     <row r="125" spans="1:42" x14ac:dyDescent="0.3">
@@ -3550,7 +3730,7 @@
         <v>1.83E-2</v>
       </c>
       <c r="AA125">
-        <v>9.42</v>
+        <v>5.86</v>
       </c>
       <c r="AC125">
         <v>32</v>
@@ -3599,6 +3779,9 @@
       <c r="Y126">
         <v>8</v>
       </c>
+      <c r="AA126">
+        <v>2.02</v>
+      </c>
     </row>
     <row r="127" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
@@ -3643,6 +3826,9 @@
       <c r="X127">
         <v>1.95E-2</v>
       </c>
+      <c r="AA127">
+        <v>7.93</v>
+      </c>
       <c r="AG127">
         <v>8.6E-3</v>
       </c>
@@ -3687,6 +3873,9 @@
       <c r="Y128">
         <v>5.3333333329999997</v>
       </c>
+      <c r="AA128">
+        <v>10.26</v>
+      </c>
       <c r="AI128">
         <v>0.29106054999999997</v>
       </c>
@@ -3707,6 +3896,9 @@
       <c r="S129">
         <v>380.83</v>
       </c>
+      <c r="AA129">
+        <v>3.89</v>
+      </c>
     </row>
     <row r="130" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
@@ -3716,7 +3908,7 @@
         <v>45582</v>
       </c>
       <c r="AA130">
-        <v>11.68</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="131" spans="1:42" x14ac:dyDescent="0.3">
@@ -3727,7 +3919,7 @@
         <v>45614</v>
       </c>
       <c r="AA131">
-        <v>13.34</v>
+        <v>12.95</v>
       </c>
     </row>
     <row r="132" spans="1:42" x14ac:dyDescent="0.3">
@@ -3755,6 +3947,9 @@
       <c r="Y132">
         <v>5.4166666670000003</v>
       </c>
+      <c r="AA132">
+        <v>8.26</v>
+      </c>
       <c r="AI132">
         <v>0.42286042499999998</v>
       </c>
@@ -3769,6 +3964,9 @@
       <c r="Y133">
         <v>3.2222222220000001</v>
       </c>
+      <c r="AA133">
+        <v>10.51</v>
+      </c>
     </row>
     <row r="134" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
@@ -3790,7 +3988,7 @@
         <v>7</v>
       </c>
       <c r="AA134">
-        <v>4.9800000000000004</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="135" spans="1:42" x14ac:dyDescent="0.3">
@@ -3801,7 +3999,7 @@
         <v>45523</v>
       </c>
       <c r="AA135">
-        <v>7.13</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="136" spans="1:42" x14ac:dyDescent="0.3">
@@ -3820,6 +4018,9 @@
       <c r="S136">
         <v>945</v>
       </c>
+      <c r="AA136">
+        <v>13.19</v>
+      </c>
     </row>
     <row r="137" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
@@ -3838,7 +4039,7 @@
         <v>107.92</v>
       </c>
       <c r="AA137">
-        <v>6.02</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="138" spans="1:42" x14ac:dyDescent="0.3">
@@ -3849,7 +4050,7 @@
         <v>45537</v>
       </c>
       <c r="AA138">
-        <v>8.35</v>
+        <v>13.64</v>
       </c>
       <c r="AC138">
         <v>30</v>
@@ -3913,6 +4114,9 @@
       <c r="Z139">
         <v>559.70000000000005</v>
       </c>
+      <c r="AA139">
+        <v>2.37</v>
+      </c>
       <c r="AB139">
         <v>10</v>
       </c>
@@ -3977,7 +4181,7 @@
         <v>89.58</v>
       </c>
       <c r="AA140">
-        <v>3.04</v>
+        <v>8.5500000000000007</v>
       </c>
     </row>
     <row r="141" spans="1:42" x14ac:dyDescent="0.3">
@@ -3996,6 +4200,9 @@
       <c r="S141">
         <v>149.16999999999999</v>
       </c>
+      <c r="AA141">
+        <v>10.74</v>
+      </c>
     </row>
     <row r="142" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
@@ -4008,7 +4215,7 @@
         <v>9.3333333330000006</v>
       </c>
       <c r="AA142">
-        <v>9.58</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="143" spans="1:42" x14ac:dyDescent="0.3">
@@ -4019,7 +4226,7 @@
         <v>45586</v>
       </c>
       <c r="AA143">
-        <v>12.09</v>
+        <v>4.7699999999999996</v>
       </c>
     </row>
     <row r="144" spans="1:42" x14ac:dyDescent="0.3">
@@ -4030,7 +4237,7 @@
         <v>45495</v>
       </c>
       <c r="AA144">
-        <v>5.33</v>
+        <v>11.08</v>
       </c>
     </row>
     <row r="145" spans="1:42" x14ac:dyDescent="0.3">
@@ -4052,6 +4259,9 @@
       <c r="Y145">
         <v>6.4166666670000003</v>
       </c>
+      <c r="AA145">
+        <v>6.73</v>
+      </c>
       <c r="AB145">
         <v>8</v>
       </c>
@@ -4085,7 +4295,7 @@
         <v>1.0833333329999999</v>
       </c>
       <c r="AA146">
-        <v>0.97</v>
+        <v>9.2100000000000009</v>
       </c>
     </row>
     <row r="147" spans="1:42" x14ac:dyDescent="0.3">
@@ -4110,6 +4320,9 @@
       <c r="X147">
         <v>2.07E-2</v>
       </c>
+      <c r="AA147">
+        <v>2.77</v>
+      </c>
       <c r="AH147">
         <v>1.48</v>
       </c>
@@ -4128,7 +4341,7 @@
         <v>13.5</v>
       </c>
       <c r="AA148">
-        <v>7.42</v>
+        <v>11.42</v>
       </c>
       <c r="AB148">
         <v>4</v>
@@ -4145,7 +4358,7 @@
         <v>45558</v>
       </c>
       <c r="AA149">
-        <v>9.81</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="150" spans="1:42" x14ac:dyDescent="0.3">
@@ -4161,6 +4374,9 @@
       <c r="O150">
         <v>0.97</v>
       </c>
+      <c r="AA150">
+        <v>4.8900000000000006</v>
+      </c>
     </row>
     <row r="151" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
@@ -4188,10 +4404,7 @@
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="AA151">
-        <v>3.28</v>
-      </c>
-      <c r="AB151">
-        <v>4</v>
+        <v>6.94</v>
       </c>
       <c r="AC151">
         <v>20</v>
@@ -4231,6 +4444,9 @@
       <c r="Y152">
         <v>5.2222222220000001</v>
       </c>
+      <c r="AA152">
+        <v>9.44</v>
+      </c>
       <c r="AI152">
         <v>0.37952790199999997</v>
       </c>
@@ -4252,7 +4468,7 @@
         <v>105.42</v>
       </c>
       <c r="AA153">
-        <v>5.48</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="154" spans="1:42" x14ac:dyDescent="0.3">
@@ -4275,7 +4491,7 @@
         <v>7.8333333329999997</v>
       </c>
       <c r="AA154">
-        <v>12.54</v>
+        <v>13.48</v>
       </c>
     </row>
     <row r="155" spans="1:42" x14ac:dyDescent="0.3">
@@ -4321,6 +4537,9 @@
       <c r="X155">
         <v>1.66E-2</v>
       </c>
+      <c r="AA155">
+        <v>3.13</v>
+      </c>
       <c r="AG155">
         <v>8.8999999999999999E-3</v>
       </c>
@@ -4356,6 +4575,9 @@
       <c r="Y156">
         <v>3.3333333330000001</v>
       </c>
+      <c r="AA156">
+        <v>11.6</v>
+      </c>
     </row>
     <row r="157" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
@@ -4365,7 +4587,7 @@
         <v>45530</v>
       </c>
       <c r="AA157">
-        <v>7.75</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="158" spans="1:42" x14ac:dyDescent="0.3">
@@ -4376,7 +4598,7 @@
         <v>45561</v>
       </c>
       <c r="AA158">
-        <v>10.02</v>
+        <v>7.18</v>
       </c>
     </row>
     <row r="159" spans="1:42" x14ac:dyDescent="0.3">
@@ -4387,7 +4609,7 @@
         <v>45439</v>
       </c>
       <c r="AA159">
-        <v>1.18</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="160" spans="1:42" x14ac:dyDescent="0.3">
@@ -4407,7 +4629,7 @@
         <v>92.5</v>
       </c>
       <c r="AA160">
-        <v>3.63</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="161" spans="1:42" x14ac:dyDescent="0.3">
@@ -4420,6 +4642,9 @@
       <c r="Y161">
         <v>5.1666666670000003</v>
       </c>
+      <c r="AA161">
+        <v>11.88</v>
+      </c>
     </row>
     <row r="162" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
@@ -4440,6 +4665,9 @@
       <c r="Y162">
         <v>11.58333333</v>
       </c>
+      <c r="AA162">
+        <v>13.75</v>
+      </c>
     </row>
     <row r="163" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
@@ -4457,6 +4685,9 @@
       <c r="S163">
         <v>96.67</v>
       </c>
+      <c r="AA163">
+        <v>5.33</v>
+      </c>
     </row>
     <row r="164" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
@@ -4474,6 +4705,9 @@
       <c r="S164">
         <v>210</v>
       </c>
+      <c r="AA164">
+        <v>7.38</v>
+      </c>
     </row>
     <row r="165" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
@@ -4483,7 +4717,7 @@
         <v>45593</v>
       </c>
       <c r="AA165">
-        <v>12.75</v>
+        <v>9.8699999999999992</v>
       </c>
     </row>
     <row r="166" spans="1:42" x14ac:dyDescent="0.3">
@@ -4494,7 +4728,7 @@
         <v>45502</v>
       </c>
       <c r="AA166">
-        <v>5.77</v>
+        <v>12.13</v>
       </c>
     </row>
     <row r="167" spans="1:42" x14ac:dyDescent="0.3">
@@ -4507,6 +4741,9 @@
       <c r="Y167">
         <v>9.1666666669999994</v>
       </c>
+      <c r="AA167">
+        <v>13.75</v>
+      </c>
     </row>
     <row r="168" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
@@ -4533,6 +4770,9 @@
       <c r="Y168">
         <v>6.5</v>
       </c>
+      <c r="AA168">
+        <v>5.68</v>
+      </c>
       <c r="AI168">
         <v>0.62908930200000002</v>
       </c>
@@ -4571,6 +4811,9 @@
       <c r="X169">
         <v>1.7500000000000002E-2</v>
       </c>
+      <c r="AA169">
+        <v>7.59</v>
+      </c>
       <c r="AG169">
         <v>3.44E-2</v>
       </c>
@@ -4601,7 +4844,7 @@
         <v>45599</v>
       </c>
       <c r="AA170">
-        <v>13.23</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="171" spans="1:42" x14ac:dyDescent="0.3">
@@ -4611,6 +4854,9 @@
       <c r="B171" s="2">
         <v>45412</v>
       </c>
+      <c r="AA171">
+        <v>8.83</v>
+      </c>
       <c r="AB171">
         <v>3</v>
       </c>
@@ -4632,7 +4878,7 @@
         <v>1.0833333329999999</v>
       </c>
       <c r="AA172">
-        <v>1.38</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="173" spans="1:42" x14ac:dyDescent="0.3">
@@ -4643,7 +4889,7 @@
         <v>45534</v>
       </c>
       <c r="AA173">
-        <v>8.0399999999999991</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="174" spans="1:42" x14ac:dyDescent="0.3">
@@ -4654,7 +4900,7 @@
         <v>45565</v>
       </c>
       <c r="AA174">
-        <v>10.220000000000001</v>
+        <v>12.47</v>
       </c>
     </row>
     <row r="175" spans="1:42" x14ac:dyDescent="0.3">
@@ -4673,6 +4919,9 @@
       <c r="S175">
         <v>790</v>
       </c>
+      <c r="AA175">
+        <v>5.92</v>
+      </c>
     </row>
     <row r="176" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
@@ -4693,6 +4942,9 @@
       <c r="Y176">
         <v>5.5833333329999997</v>
       </c>
+      <c r="AA176">
+        <v>1.9300000000000002</v>
+      </c>
       <c r="AI176">
         <v>0.29312928100000002</v>
       </c>
@@ -4704,6 +4956,9 @@
       <c r="B177" s="2">
         <v>45596</v>
       </c>
+      <c r="AA177">
+        <v>7.91</v>
+      </c>
       <c r="AB177">
         <v>6</v>
       </c>
@@ -4725,7 +4980,7 @@
         <v>1.5833333329999999</v>
       </c>
       <c r="AA178">
-        <v>1.66</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="179" spans="1:36" x14ac:dyDescent="0.3">
@@ -4748,7 +5003,7 @@
         <v>4.1111111109999996</v>
       </c>
       <c r="AA179">
-        <v>4.13</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="180" spans="1:36" x14ac:dyDescent="0.3">
@@ -4761,6 +5016,9 @@
       <c r="Y180">
         <v>14.16666667</v>
       </c>
+      <c r="AA180">
+        <v>6.08</v>
+      </c>
     </row>
     <row r="181" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
@@ -4782,7 +5040,7 @@
         <v>9.5</v>
       </c>
       <c r="AA181">
-        <v>10.58</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:36" x14ac:dyDescent="0.3">
@@ -4793,7 +5051,7 @@
         <v>45509</v>
       </c>
       <c r="AA182">
-        <v>6.16</v>
+        <v>8.2199999999999989</v>
       </c>
     </row>
     <row r="183" spans="1:36" x14ac:dyDescent="0.3">
@@ -4824,6 +5082,9 @@
       <c r="Y183">
         <v>6</v>
       </c>
+      <c r="AA183">
+        <v>10.39</v>
+      </c>
       <c r="AI183">
         <v>0.57523044899999998</v>
       </c>
@@ -4847,6 +5108,9 @@
       <c r="Y184">
         <v>5.5833333329999997</v>
       </c>
+      <c r="AA184">
+        <v>2.1799999999999997</v>
+      </c>
       <c r="AI184">
         <v>0.28519445100000002</v>
       </c>
@@ -4867,6 +5131,9 @@
       <c r="S185">
         <v>99.17</v>
       </c>
+      <c r="AA185">
+        <v>4.38</v>
+      </c>
     </row>
     <row r="186" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
@@ -4885,7 +5152,7 @@
         <v>270</v>
       </c>
       <c r="AA186">
-        <v>8.68</v>
+        <v>13.23</v>
       </c>
     </row>
     <row r="187" spans="1:36" x14ac:dyDescent="0.3">
@@ -4901,6 +5168,9 @@
       <c r="O187">
         <v>0.95</v>
       </c>
+      <c r="AA187">
+        <v>6.38</v>
+      </c>
     </row>
     <row r="188" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
@@ -4910,7 +5180,7 @@
         <v>45450</v>
       </c>
       <c r="AA188">
-        <v>1.93</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="189" spans="1:36" x14ac:dyDescent="0.3">
@@ -4929,6 +5199,9 @@
       <c r="S189">
         <v>102.5</v>
       </c>
+      <c r="AA189">
+        <v>2.33</v>
+      </c>
     </row>
     <row r="190" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
@@ -4938,7 +5211,7 @@
         <v>45572</v>
       </c>
       <c r="AA190">
-        <v>10.87</v>
+        <v>8.4600000000000009</v>
       </c>
     </row>
     <row r="191" spans="1:36" x14ac:dyDescent="0.3">
@@ -4949,7 +5222,7 @@
         <v>45603</v>
       </c>
       <c r="AA191">
-        <v>13.33</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="192" spans="1:36" x14ac:dyDescent="0.3">
@@ -4960,7 +5233,7 @@
         <v>45481</v>
       </c>
       <c r="AA192">
-        <v>4.28</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="193" spans="1:42" x14ac:dyDescent="0.3">
@@ -4973,6 +5246,9 @@
       <c r="Y193">
         <v>7.8333333329999997</v>
       </c>
+      <c r="AA193">
+        <v>4.83</v>
+      </c>
     </row>
     <row r="194" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
@@ -5002,6 +5278,9 @@
       <c r="Y194">
         <v>7.6875</v>
       </c>
+      <c r="AA194">
+        <v>10.98</v>
+      </c>
       <c r="AI194">
         <v>0.64752907000000004</v>
       </c>
@@ -5022,6 +5301,9 @@
       <c r="S195">
         <v>97.92</v>
       </c>
+      <c r="AA195">
+        <v>6.73</v>
+      </c>
     </row>
     <row r="196" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
@@ -5031,7 +5313,7 @@
         <v>45513</v>
       </c>
       <c r="AA196">
-        <v>6.45</v>
+        <v>9.1300000000000008</v>
       </c>
     </row>
     <row r="197" spans="1:42" x14ac:dyDescent="0.3">
@@ -5042,7 +5324,7 @@
         <v>45544</v>
       </c>
       <c r="AA197">
-        <v>8.94</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="198" spans="1:42" x14ac:dyDescent="0.3">
@@ -5058,6 +5340,9 @@
       <c r="O198">
         <v>0.97</v>
       </c>
+      <c r="AA198">
+        <v>11.26</v>
+      </c>
     </row>
     <row r="199" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
@@ -5067,7 +5352,7 @@
         <v>45474</v>
       </c>
       <c r="AA199">
-        <v>3.65</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="200" spans="1:42" x14ac:dyDescent="0.3">
@@ -5080,6 +5365,9 @@
       <c r="Y200">
         <v>7.6666666670000003</v>
       </c>
+      <c r="AA200">
+        <v>4.9800000000000004</v>
+      </c>
     </row>
     <row r="201" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
@@ -5119,7 +5407,7 @@
         <v>8.3333333330000006</v>
       </c>
       <c r="AA201">
-        <v>12.49</v>
+        <v>6.97</v>
       </c>
       <c r="AG201">
         <v>2.01E-2</v>
@@ -5153,6 +5441,9 @@
       <c r="Y202">
         <v>5.6666666670000003</v>
       </c>
+      <c r="AA202">
+        <v>9.39</v>
+      </c>
     </row>
     <row r="203" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
@@ -5170,6 +5461,9 @@
       <c r="S203">
         <v>337.5</v>
       </c>
+      <c r="AA203">
+        <v>15.17</v>
+      </c>
     </row>
     <row r="204" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
@@ -5190,6 +5484,9 @@
       <c r="Y204">
         <v>10</v>
       </c>
+      <c r="AA204">
+        <v>7.23</v>
+      </c>
     </row>
     <row r="205" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
@@ -5199,7 +5496,7 @@
         <v>45454</v>
       </c>
       <c r="AA205">
-        <v>2</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="206" spans="1:42" x14ac:dyDescent="0.3">
@@ -5212,6 +5509,9 @@
       <c r="Y206">
         <v>11</v>
       </c>
+      <c r="AA206">
+        <v>14.46</v>
+      </c>
       <c r="AB206">
         <v>5</v>
       </c>
@@ -5248,7 +5548,7 @@
         <v>1.9400000000000001E-2</v>
       </c>
       <c r="AA207">
-        <v>10.72</v>
+        <v>15.18</v>
       </c>
       <c r="AH207">
         <v>371.72814449999998</v>
@@ -5265,7 +5565,7 @@
         <v>45607</v>
       </c>
       <c r="AA208">
-        <v>12.7</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="209" spans="1:42" x14ac:dyDescent="0.3">
@@ -5293,6 +5593,9 @@
       <c r="Y209">
         <v>5.9166666670000003</v>
       </c>
+      <c r="AA209">
+        <v>5.5</v>
+      </c>
       <c r="AI209">
         <v>0.49497487400000001</v>
       </c>
@@ -5316,6 +5619,9 @@
       <c r="Y210">
         <v>5.4166666670000003</v>
       </c>
+      <c r="AA210">
+        <v>12.85</v>
+      </c>
       <c r="AI210">
         <v>0.27314054799999998</v>
       </c>
@@ -5336,6 +5642,9 @@
       <c r="S211">
         <v>91.67</v>
       </c>
+      <c r="AA211">
+        <v>7.36</v>
+      </c>
     </row>
     <row r="212" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
@@ -5345,7 +5654,7 @@
         <v>45516</v>
       </c>
       <c r="AA212">
-        <v>6.28</v>
+        <v>10.73</v>
       </c>
     </row>
     <row r="213" spans="1:42" x14ac:dyDescent="0.3">
@@ -5356,7 +5665,7 @@
         <v>45547</v>
       </c>
       <c r="AA213">
-        <v>8.66</v>
+        <v>14.62</v>
       </c>
     </row>
     <row r="214" spans="1:42" x14ac:dyDescent="0.3">
@@ -5369,6 +5678,9 @@
       <c r="Y214">
         <v>2.5</v>
       </c>
+      <c r="AA214">
+        <v>15.18</v>
+      </c>
     </row>
     <row r="215" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
@@ -5407,6 +5719,9 @@
       <c r="X215">
         <v>1.9599999999999999E-2</v>
       </c>
+      <c r="AA215">
+        <v>9.15</v>
+      </c>
       <c r="AH215">
         <v>12.1</v>
       </c>
@@ -5422,7 +5737,7 @@
         <v>45457</v>
       </c>
       <c r="AA216">
-        <v>2.2599999999999998</v>
+        <v>10.85</v>
       </c>
     </row>
     <row r="217" spans="1:42" x14ac:dyDescent="0.3">
@@ -5433,7 +5748,7 @@
         <v>45579</v>
       </c>
       <c r="AA217">
-        <v>10.95</v>
+        <v>13.07</v>
       </c>
     </row>
     <row r="218" spans="1:42" x14ac:dyDescent="0.3">
@@ -5465,7 +5780,7 @@
         <v>6.3333333329999997</v>
       </c>
       <c r="AA218">
-        <v>12.7</v>
+        <v>2.9</v>
       </c>
       <c r="AI218">
         <v>0.62921960099999996</v>
@@ -5479,7 +5794,7 @@
         <v>45488</v>
       </c>
       <c r="AA219">
-        <v>4.28</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="220" spans="1:42" x14ac:dyDescent="0.3">
@@ -5495,6 +5810,9 @@
       <c r="O220">
         <v>0.92</v>
       </c>
+      <c r="AA220">
+        <v>7.79</v>
+      </c>
     </row>
     <row r="221" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
@@ -5512,6 +5830,9 @@
       <c r="S221">
         <v>86.92</v>
       </c>
+      <c r="AA221">
+        <v>14.82</v>
+      </c>
     </row>
     <row r="222" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
@@ -5524,7 +5845,7 @@
         <v>10.16666667</v>
       </c>
       <c r="AA222">
-        <v>6.46</v>
+        <v>15.18</v>
       </c>
     </row>
     <row r="223" spans="1:42" x14ac:dyDescent="0.3">
@@ -5562,7 +5883,7 @@
         <v>1.83E-2</v>
       </c>
       <c r="AA223">
-        <v>8.85</v>
+        <v>3.15</v>
       </c>
       <c r="AC223">
         <v>32</v>
@@ -5611,6 +5932,9 @@
       <c r="Y224">
         <v>8.6666666669999994</v>
       </c>
+      <c r="AA224">
+        <v>9.31</v>
+      </c>
     </row>
     <row r="225" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
@@ -5655,6 +5979,9 @@
       <c r="X225">
         <v>1.9900000000000001E-2</v>
       </c>
+      <c r="AA225">
+        <v>11.05</v>
+      </c>
       <c r="AG225">
         <v>1.0699999999999999E-2</v>
       </c>
@@ -5699,6 +6026,9 @@
       <c r="Y226">
         <v>6.1666666670000003</v>
       </c>
+      <c r="AA226">
+        <v>8.49</v>
+      </c>
       <c r="AI226">
         <v>0.29027593699999998</v>
       </c>
@@ -5719,6 +6049,9 @@
       <c r="S227">
         <v>399.17</v>
       </c>
+      <c r="AA227">
+        <v>10.15</v>
+      </c>
     </row>
     <row r="228" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
@@ -5728,7 +6061,7 @@
         <v>45582</v>
       </c>
       <c r="AA228">
-        <v>11.2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="229" spans="1:42" x14ac:dyDescent="0.3">
@@ -5739,7 +6072,7 @@
         <v>45614</v>
       </c>
       <c r="AA229">
-        <v>12.7</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="230" spans="1:42" x14ac:dyDescent="0.3">
@@ -5767,6 +6100,9 @@
       <c r="Y230">
         <v>5.5833333329999997</v>
       </c>
+      <c r="AA230">
+        <v>13.21</v>
+      </c>
       <c r="AI230">
         <v>0.41148831200000002</v>
       </c>
@@ -5781,6 +6117,9 @@
       <c r="Y231">
         <v>2.6666666669999999</v>
       </c>
+      <c r="AA231">
+        <v>15.09</v>
+      </c>
     </row>
     <row r="232" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
@@ -5802,7 +6141,7 @@
         <v>7.5</v>
       </c>
       <c r="AA232">
-        <v>4.6399999999999997</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="233" spans="1:42" x14ac:dyDescent="0.3">
@@ -5813,7 +6152,7 @@
         <v>45523</v>
       </c>
       <c r="AA233">
-        <v>6.63</v>
+        <v>8.0300000000000011</v>
       </c>
     </row>
     <row r="234" spans="1:42" x14ac:dyDescent="0.3">
@@ -5832,6 +6171,9 @@
       <c r="S234">
         <v>973.33</v>
       </c>
+      <c r="AA234">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="235" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
@@ -5850,7 +6192,7 @@
         <v>115.42</v>
       </c>
       <c r="AA235">
-        <v>5.61</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="236" spans="1:42" x14ac:dyDescent="0.3">
@@ -5861,7 +6203,7 @@
         <v>45537</v>
       </c>
       <c r="AA236">
-        <v>7.81</v>
+        <v>13.37</v>
       </c>
       <c r="AC236">
         <v>30</v>
@@ -5925,6 +6267,9 @@
       <c r="Z237">
         <v>598.79999999999995</v>
       </c>
+      <c r="AA237">
+        <v>3.8</v>
+      </c>
       <c r="AB237">
         <v>10</v>
       </c>
@@ -5989,7 +6334,7 @@
         <v>94.58</v>
       </c>
       <c r="AA238">
-        <v>2.68</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="239" spans="1:42" x14ac:dyDescent="0.3">
@@ -6008,6 +6353,9 @@
       <c r="S239">
         <v>165.83</v>
       </c>
+      <c r="AA239">
+        <v>8.2100000000000009</v>
+      </c>
     </row>
     <row r="240" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
@@ -6020,7 +6368,7 @@
         <v>10.16666667</v>
       </c>
       <c r="AA240">
-        <v>9.06</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="241" spans="1:42" x14ac:dyDescent="0.3">
@@ -6031,7 +6379,7 @@
         <v>45586</v>
       </c>
       <c r="AA241">
-        <v>11.53</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="242" spans="1:42" x14ac:dyDescent="0.3">
@@ -6042,7 +6390,7 @@
         <v>45495</v>
       </c>
       <c r="AA242">
-        <v>4.8600000000000003</v>
+        <v>11.45</v>
       </c>
     </row>
     <row r="243" spans="1:42" x14ac:dyDescent="0.3">
@@ -6064,6 +6412,9 @@
       <c r="Y243">
         <v>6.4166666670000003</v>
       </c>
+      <c r="AA243">
+        <v>13.6</v>
+      </c>
       <c r="AB243">
         <v>8</v>
       </c>
@@ -6097,7 +6448,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AA244">
-        <v>1.02</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="245" spans="1:42" x14ac:dyDescent="0.3">
@@ -6128,6 +6479,9 @@
       <c r="X245">
         <v>2.01E-2</v>
       </c>
+      <c r="AA245">
+        <v>8.34</v>
+      </c>
       <c r="AH245">
         <v>1.34</v>
       </c>
@@ -6146,7 +6500,7 @@
         <v>11.66666667</v>
       </c>
       <c r="AA246">
-        <v>6.93</v>
+        <v>15.15</v>
       </c>
       <c r="AB246">
         <v>4</v>
@@ -6163,7 +6517,7 @@
         <v>45558</v>
       </c>
       <c r="AA247">
-        <v>9.26</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="248" spans="1:42" x14ac:dyDescent="0.3">
@@ -6179,6 +6533,9 @@
       <c r="O248">
         <v>0.98</v>
       </c>
+      <c r="AA248">
+        <v>4.8499999999999996</v>
+      </c>
     </row>
     <row r="249" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
@@ -6206,10 +6563,7 @@
         <v>1.67E-2</v>
       </c>
       <c r="AA249">
-        <v>2.89</v>
-      </c>
-      <c r="AB249">
-        <v>4</v>
+        <v>6.88</v>
       </c>
       <c r="AC249">
         <v>20</v>
@@ -6249,6 +6603,9 @@
       <c r="Y250">
         <v>5.25</v>
       </c>
+      <c r="AA250">
+        <v>15.18</v>
+      </c>
       <c r="AI250">
         <v>0.37324506299999999</v>
       </c>
@@ -6270,7 +6627,7 @@
         <v>106.67</v>
       </c>
       <c r="AA251">
-        <v>5.07</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="252" spans="1:42" x14ac:dyDescent="0.3">
@@ -6293,7 +6650,7 @@
         <v>7.1666666670000003</v>
       </c>
       <c r="AA252">
-        <v>11.95</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="253" spans="1:42" x14ac:dyDescent="0.3">
@@ -6339,6 +6696,9 @@
       <c r="X253">
         <v>1.7999999999999999E-2</v>
       </c>
+      <c r="AA253">
+        <v>13.84</v>
+      </c>
       <c r="AG253">
         <v>1.41E-2</v>
       </c>
@@ -6374,6 +6734,9 @@
       <c r="Y254">
         <v>4</v>
       </c>
+      <c r="AA254">
+        <v>6.62</v>
+      </c>
     </row>
     <row r="255" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
@@ -6383,7 +6746,7 @@
         <v>45530</v>
       </c>
       <c r="AA255">
-        <v>7.26</v>
+        <v>14.02</v>
       </c>
     </row>
     <row r="256" spans="1:42" x14ac:dyDescent="0.3">
@@ -6394,7 +6757,7 @@
         <v>45561</v>
       </c>
       <c r="AA256">
-        <v>9.51</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="257" spans="1:42" x14ac:dyDescent="0.3">
@@ -6405,7 +6768,7 @@
         <v>45439</v>
       </c>
       <c r="AA257">
-        <v>1.29</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="258" spans="1:42" x14ac:dyDescent="0.3">
@@ -6425,7 +6788,7 @@
         <v>95</v>
       </c>
       <c r="AA258">
-        <v>3.37</v>
+        <v>5.0599999999999996</v>
       </c>
     </row>
     <row r="259" spans="1:42" x14ac:dyDescent="0.3">
@@ -6438,6 +6801,9 @@
       <c r="Y259">
         <v>6.3333333329999997</v>
       </c>
+      <c r="AA259">
+        <v>7.01</v>
+      </c>
     </row>
     <row r="260" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
@@ -6458,6 +6824,9 @@
       <c r="Y260">
         <v>12</v>
       </c>
+      <c r="AA260">
+        <v>12.32</v>
+      </c>
     </row>
     <row r="261" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
@@ -6475,6 +6844,9 @@
       <c r="S261">
         <v>95.83</v>
       </c>
+      <c r="AA261">
+        <v>14.2</v>
+      </c>
     </row>
     <row r="262" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
@@ -6492,6 +6864,9 @@
       <c r="S262">
         <v>224.17</v>
       </c>
+      <c r="AA262">
+        <v>15.18</v>
+      </c>
     </row>
     <row r="263" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
@@ -6501,7 +6876,7 @@
         <v>45593</v>
       </c>
       <c r="AA263">
-        <v>12.19</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="264" spans="1:42" x14ac:dyDescent="0.3">
@@ -6512,7 +6887,7 @@
         <v>45502</v>
       </c>
       <c r="AA264">
-        <v>5.45</v>
+        <v>10.44</v>
       </c>
     </row>
     <row r="265" spans="1:42" x14ac:dyDescent="0.3">
@@ -6525,6 +6900,9 @@
       <c r="Y265">
         <v>12.16666667</v>
       </c>
+      <c r="AA265">
+        <v>12.64</v>
+      </c>
     </row>
     <row r="266" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
@@ -6551,6 +6929,9 @@
       <c r="Y266">
         <v>7.1041666670000003</v>
       </c>
+      <c r="AA266">
+        <v>15.68</v>
+      </c>
       <c r="AI266">
         <v>0.61267501800000002</v>
       </c>
@@ -6589,6 +6970,9 @@
       <c r="X267">
         <v>1.8100000000000002E-2</v>
       </c>
+      <c r="AA267">
+        <v>7.39</v>
+      </c>
       <c r="AG267">
         <v>4.1599999999999998E-2</v>
       </c>
@@ -6619,7 +7003,7 @@
         <v>45599</v>
       </c>
       <c r="AA268">
-        <v>12.64</v>
+        <v>9.0299999999999994</v>
       </c>
     </row>
     <row r="269" spans="1:42" x14ac:dyDescent="0.3">
@@ -6629,6 +7013,9 @@
       <c r="B269" s="2">
         <v>45412</v>
       </c>
+      <c r="AA269">
+        <v>14.67</v>
+      </c>
       <c r="AB269">
         <v>3</v>
       </c>
@@ -6650,7 +7037,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AA270">
-        <v>1.37</v>
+        <v>15.73</v>
       </c>
     </row>
     <row r="271" spans="1:42" x14ac:dyDescent="0.3">
@@ -6661,7 +7048,7 @@
         <v>45534</v>
       </c>
       <c r="AA271">
-        <v>7.55</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="272" spans="1:42" x14ac:dyDescent="0.3">
@@ -6672,7 +7059,7 @@
         <v>45565</v>
       </c>
       <c r="AA272">
-        <v>9.74</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="273" spans="1:36" x14ac:dyDescent="0.3">
@@ -6691,6 +7078,9 @@
       <c r="S273">
         <v>800</v>
       </c>
+      <c r="AA273">
+        <v>12.95</v>
+      </c>
     </row>
     <row r="274" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
@@ -6711,6 +7101,9 @@
       <c r="Y274">
         <v>5.4166666670000003</v>
       </c>
+      <c r="AA274">
+        <v>7.57</v>
+      </c>
       <c r="AI274">
         <v>0.29311669800000001</v>
       </c>
@@ -6722,6 +7115,9 @@
       <c r="B275" s="2">
         <v>45596</v>
       </c>
+      <c r="AA275">
+        <v>10.82</v>
+      </c>
       <c r="AB275">
         <v>6</v>
       </c>
@@ -6743,7 +7139,7 @@
         <v>1.4</v>
       </c>
       <c r="AA276">
-        <v>1.58</v>
+        <v>14.91</v>
       </c>
     </row>
     <row r="277" spans="1:36" x14ac:dyDescent="0.3">
@@ -6766,7 +7162,7 @@
         <v>5.8333333329999997</v>
       </c>
       <c r="AA277">
-        <v>3.77</v>
+        <v>15.73</v>
       </c>
     </row>
     <row r="278" spans="1:36" x14ac:dyDescent="0.3">
@@ -6779,6 +7175,9 @@
       <c r="Y278">
         <v>12.66666667</v>
       </c>
+      <c r="AA278">
+        <v>9.2899999999999991</v>
+      </c>
     </row>
     <row r="279" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
@@ -6800,7 +7199,7 @@
         <v>10.25</v>
       </c>
       <c r="AA279">
-        <v>10.08</v>
+        <v>11.02</v>
       </c>
     </row>
     <row r="280" spans="1:36" x14ac:dyDescent="0.3">
@@ -6811,7 +7210,7 @@
         <v>45509</v>
       </c>
       <c r="AA280">
-        <v>5.73</v>
+        <v>13.15</v>
       </c>
     </row>
     <row r="281" spans="1:36" x14ac:dyDescent="0.3">
@@ -6842,6 +7241,9 @@
       <c r="Y281">
         <v>6.8333333329999997</v>
       </c>
+      <c r="AA281">
+        <v>2.85</v>
+      </c>
       <c r="AI281">
         <v>0.557317073</v>
       </c>
@@ -6865,6 +7267,9 @@
       <c r="Y282">
         <v>5.3333333329999997</v>
       </c>
+      <c r="AA282">
+        <v>5.85</v>
+      </c>
       <c r="AI282">
         <v>0.28467490499999998</v>
       </c>
@@ -6885,6 +7290,9 @@
       <c r="S283">
         <v>95.17</v>
       </c>
+      <c r="AA283">
+        <v>7.87</v>
+      </c>
     </row>
     <row r="284" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
@@ -6903,7 +7311,7 @@
         <v>297.5</v>
       </c>
       <c r="AA284">
-        <v>8.2100000000000009</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="285" spans="1:36" x14ac:dyDescent="0.3">
@@ -6919,6 +7327,9 @@
       <c r="O285">
         <v>0.96</v>
       </c>
+      <c r="AA285">
+        <v>15.73</v>
+      </c>
     </row>
     <row r="286" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
@@ -6928,7 +7339,7 @@
         <v>45450</v>
       </c>
       <c r="AA286">
-        <v>1.77</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="287" spans="1:36" x14ac:dyDescent="0.3">
@@ -6947,6 +7358,9 @@
       <c r="S287">
         <v>105</v>
       </c>
+      <c r="AA287">
+        <v>9.4499999999999993</v>
+      </c>
     </row>
     <row r="288" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
@@ -6956,7 +7370,7 @@
         <v>45572</v>
       </c>
       <c r="AA288">
-        <v>10.42</v>
+        <v>11.14</v>
       </c>
     </row>
     <row r="289" spans="1:42" x14ac:dyDescent="0.3">
@@ -6967,7 +7381,7 @@
         <v>45603</v>
       </c>
       <c r="AA289">
-        <v>12.7</v>
+        <v>8.7899999999999991</v>
       </c>
     </row>
     <row r="290" spans="1:42" x14ac:dyDescent="0.3">
@@ -6978,7 +7392,7 @@
         <v>45481</v>
       </c>
       <c r="AA290">
-        <v>3.89</v>
+        <v>10.27</v>
       </c>
     </row>
     <row r="291" spans="1:42" x14ac:dyDescent="0.3">
@@ -6991,6 +7405,9 @@
       <c r="Y291">
         <v>12.16666667</v>
       </c>
+      <c r="AA291">
+        <v>12.15</v>
+      </c>
     </row>
     <row r="292" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
@@ -7020,6 +7437,9 @@
       <c r="Y292">
         <v>7.5</v>
       </c>
+      <c r="AA292">
+        <v>6.12</v>
+      </c>
       <c r="AI292">
         <v>0.64534674800000003</v>
       </c>
@@ -7040,6 +7460,9 @@
       <c r="S293">
         <v>96.67</v>
       </c>
+      <c r="AA293">
+        <v>13.34</v>
+      </c>
     </row>
     <row r="294" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
@@ -7049,7 +7472,7 @@
         <v>45513</v>
       </c>
       <c r="AA294">
-        <v>5.94</v>
+        <v>15.45</v>
       </c>
     </row>
     <row r="295" spans="1:42" x14ac:dyDescent="0.3">
@@ -7060,7 +7483,7 @@
         <v>45544</v>
       </c>
       <c r="AA295">
-        <v>8.44</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="296" spans="1:42" x14ac:dyDescent="0.3">
@@ -7076,6 +7499,9 @@
       <c r="O296">
         <v>0.9</v>
       </c>
+      <c r="AA296">
+        <v>8.08</v>
+      </c>
     </row>
     <row r="297" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
@@ -7085,7 +7511,7 @@
         <v>45474</v>
       </c>
       <c r="AA297">
-        <v>3.66</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="298" spans="1:42" x14ac:dyDescent="0.3">
@@ -7098,6 +7524,9 @@
       <c r="Y298">
         <v>5.5</v>
       </c>
+      <c r="AA298">
+        <v>11.37</v>
+      </c>
     </row>
     <row r="299" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
@@ -7137,7 +7566,7 @@
         <v>5.5</v>
       </c>
       <c r="AA299">
-        <v>12.48</v>
+        <v>13.54</v>
       </c>
       <c r="AG299">
         <v>1.01E-2</v>
@@ -7171,6 +7600,9 @@
       <c r="Y300">
         <v>5.6666666670000003</v>
       </c>
+      <c r="AA300">
+        <v>3.65</v>
+      </c>
     </row>
     <row r="301" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
@@ -7188,6 +7620,9 @@
       <c r="S301">
         <v>295</v>
       </c>
+      <c r="AA301">
+        <v>6.37</v>
+      </c>
     </row>
     <row r="302" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
@@ -7208,6 +7643,9 @@
       <c r="Y302">
         <v>8.6666666669999994</v>
       </c>
+      <c r="AA302">
+        <v>8.2800000000000011</v>
+      </c>
     </row>
     <row r="303" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
@@ -7217,7 +7655,7 @@
         <v>45454</v>
       </c>
       <c r="AA303">
-        <v>2.13</v>
+        <v>9.8699999999999992</v>
       </c>
     </row>
     <row r="304" spans="1:42" x14ac:dyDescent="0.3">
@@ -7230,6 +7668,9 @@
       <c r="Y304">
         <v>9.1666666669999994</v>
       </c>
+      <c r="AA304">
+        <v>15.63</v>
+      </c>
       <c r="AB304">
         <v>5</v>
       </c>
@@ -7266,7 +7707,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="AA305">
-        <v>10.6</v>
+        <v>11.62</v>
       </c>
       <c r="AH305">
         <v>364.03917949999999</v>
@@ -7283,7 +7724,7 @@
         <v>45607</v>
       </c>
       <c r="AA306">
-        <v>12.75</v>
+        <v>13.72</v>
       </c>
     </row>
     <row r="307" spans="1:35" x14ac:dyDescent="0.3">
@@ -7311,6 +7752,9 @@
       <c r="Y307">
         <v>4.8333333329999997</v>
       </c>
+      <c r="AA307">
+        <v>6.65</v>
+      </c>
       <c r="AI307">
         <v>0.51355484500000004</v>
       </c>
@@ -7331,6 +7775,9 @@
       <c r="Y308">
         <v>5.3333333329999997</v>
       </c>
+      <c r="AA308">
+        <v>8.5</v>
+      </c>
       <c r="AI308">
         <v>0.25711146400000001</v>
       </c>
@@ -7351,6 +7798,9 @@
       <c r="S309">
         <v>92.08</v>
       </c>
+      <c r="AA309">
+        <v>15.65</v>
+      </c>
     </row>
     <row r="310" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
@@ -7360,7 +7810,7 @@
         <v>45516</v>
       </c>
       <c r="AA310">
-        <v>6.18</v>
+        <v>10.050000000000001</v>
       </c>
     </row>
     <row r="311" spans="1:35" x14ac:dyDescent="0.3">
@@ -7371,7 +7821,7 @@
         <v>45547</v>
       </c>
       <c r="AA311">
-        <v>8.58</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="312" spans="1:35" x14ac:dyDescent="0.3">
@@ -7384,6 +7834,9 @@
       <c r="Y312">
         <v>3</v>
       </c>
+      <c r="AA312">
+        <v>6.98</v>
+      </c>
     </row>
     <row r="313" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
@@ -7422,6 +7875,9 @@
       <c r="X313">
         <v>1.67E-2</v>
       </c>
+      <c r="AA313">
+        <v>15.68</v>
+      </c>
       <c r="AH313">
         <v>9.92</v>
       </c>
@@ -7437,7 +7893,7 @@
         <v>45457</v>
       </c>
       <c r="AA314">
-        <v>2.39</v>
+        <v>4.4700000000000006</v>
       </c>
     </row>
     <row r="315" spans="1:35" x14ac:dyDescent="0.3">
@@ -7448,7 +7904,7 @@
         <v>45579</v>
       </c>
       <c r="AA315">
-        <v>10.88</v>
+        <v>11.92</v>
       </c>
     </row>
     <row r="316" spans="1:35" x14ac:dyDescent="0.3">
@@ -7480,7 +7936,7 @@
         <v>6.0833333329999997</v>
       </c>
       <c r="AA316">
-        <v>12.75</v>
+        <v>13.94</v>
       </c>
       <c r="AI316">
         <v>0.65602983800000003</v>
@@ -7494,7 +7950,7 @@
         <v>45488</v>
       </c>
       <c r="AA317">
-        <v>4.33</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="318" spans="1:35" x14ac:dyDescent="0.3">
@@ -7510,6 +7966,9 @@
       <c r="O318">
         <v>0.8</v>
       </c>
+      <c r="AA318">
+        <v>14.2</v>
+      </c>
     </row>
     <row r="319" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
@@ -7527,6 +7986,9 @@
       <c r="S319">
         <v>85.08</v>
       </c>
+      <c r="AA319">
+        <v>8.89</v>
+      </c>
     </row>
     <row r="320" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
@@ -7539,7 +8001,7 @@
         <v>10</v>
       </c>
       <c r="AA320">
-        <v>6.38</v>
+        <v>10.35</v>
       </c>
     </row>
     <row r="321" spans="1:42" x14ac:dyDescent="0.3">
@@ -7577,7 +8039,7 @@
         <v>1.7100000000000001E-2</v>
       </c>
       <c r="AA321">
-        <v>8.8699999999999992</v>
+        <v>5.14</v>
       </c>
       <c r="AC321">
         <v>32</v>
@@ -7626,6 +8088,9 @@
       <c r="Y322">
         <v>7.5</v>
       </c>
+      <c r="AA322">
+        <v>7.14</v>
+      </c>
     </row>
     <row r="323" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
@@ -7670,6 +8135,9 @@
       <c r="X323">
         <v>1.9099999999999999E-2</v>
       </c>
+      <c r="AA323">
+        <v>12.49</v>
+      </c>
       <c r="AG323">
         <v>4.8999999999999998E-3</v>
       </c>
@@ -7711,6 +8179,9 @@
       <c r="Y324">
         <v>5.6666666670000003</v>
       </c>
+      <c r="AA324">
+        <v>14.46</v>
+      </c>
       <c r="AI324">
         <v>0.28631284899999998</v>
       </c>
@@ -7731,6 +8202,9 @@
       <c r="S325">
         <v>334.17</v>
       </c>
+      <c r="AA325">
+        <v>15.7</v>
+      </c>
     </row>
     <row r="326" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
@@ -7740,7 +8214,7 @@
         <v>45582</v>
       </c>
       <c r="AA326">
-        <v>11.13</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="327" spans="1:42" x14ac:dyDescent="0.3">
@@ -7751,7 +8225,7 @@
         <v>45614</v>
       </c>
       <c r="AA327">
-        <v>12.75</v>
+        <v>10.57</v>
       </c>
     </row>
     <row r="328" spans="1:42" x14ac:dyDescent="0.3">
@@ -7779,6 +8253,9 @@
       <c r="Y328">
         <v>4.5833333329999997</v>
       </c>
+      <c r="AA328">
+        <v>12.75</v>
+      </c>
       <c r="AI328">
         <v>0.41160914999999998</v>
       </c>
@@ -7793,6 +8270,9 @@
       <c r="Y329">
         <v>2.6666666669999999</v>
       </c>
+      <c r="AA329">
+        <v>15.55</v>
+      </c>
     </row>
     <row r="330" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
@@ -7814,7 +8294,7 @@
         <v>6.8333333329999997</v>
       </c>
       <c r="AA330">
-        <v>4.68</v>
+        <v>7.15</v>
       </c>
     </row>
     <row r="331" spans="1:42" x14ac:dyDescent="0.3">
@@ -7825,7 +8305,7 @@
         <v>45523</v>
       </c>
       <c r="AA331">
-        <v>6.59</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="332" spans="1:42" x14ac:dyDescent="0.3">
@@ -7844,6 +8324,9 @@
       <c r="S332">
         <v>861.67</v>
       </c>
+      <c r="AA332">
+        <v>14.61</v>
+      </c>
     </row>
     <row r="333" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
@@ -7862,7 +8345,7 @@
         <v>115</v>
       </c>
       <c r="AA333">
-        <v>5.61</v>
+        <v>15.55</v>
       </c>
     </row>
     <row r="334" spans="1:42" x14ac:dyDescent="0.3">
@@ -7873,7 +8356,7 @@
         <v>45537</v>
       </c>
       <c r="AA334">
-        <v>7.83</v>
+        <v>2.17</v>
       </c>
       <c r="AC334">
         <v>30</v>
@@ -7937,6 +8420,9 @@
       <c r="Z335">
         <v>519.4</v>
       </c>
+      <c r="AA335">
+        <v>5.45</v>
+      </c>
       <c r="AB335">
         <v>10</v>
       </c>
@@ -8001,7 +8487,7 @@
         <v>93.75</v>
       </c>
       <c r="AA336">
-        <v>2.78</v>
+        <v>12.89</v>
       </c>
     </row>
     <row r="337" spans="1:42" x14ac:dyDescent="0.3">
@@ -8020,6 +8506,9 @@
       <c r="S337">
         <v>155</v>
       </c>
+      <c r="AA337">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="338" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
@@ -8032,7 +8521,7 @@
         <v>9.8333333330000006</v>
       </c>
       <c r="AA338">
-        <v>9.1</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="339" spans="1:42" x14ac:dyDescent="0.3">
@@ -8043,7 +8532,7 @@
         <v>45586</v>
       </c>
       <c r="AA339">
-        <v>11.47</v>
+        <v>14.83</v>
       </c>
     </row>
     <row r="340" spans="1:42" x14ac:dyDescent="0.3">
@@ -8054,7 +8543,7 @@
         <v>45495</v>
       </c>
       <c r="AA340">
-        <v>4.92</v>
+        <v>15.55</v>
       </c>
     </row>
     <row r="341" spans="1:42" x14ac:dyDescent="0.3">
@@ -8076,6 +8565,9 @@
       <c r="Y341">
         <v>5.75</v>
       </c>
+      <c r="AA341">
+        <v>9.1300000000000008</v>
+      </c>
       <c r="AB341">
         <v>8</v>
       </c>
@@ -8109,7 +8601,7 @@
         <v>1</v>
       </c>
       <c r="AA342">
-        <v>0.93</v>
+        <v>10.93</v>
       </c>
     </row>
     <row r="343" spans="1:42" x14ac:dyDescent="0.3">
@@ -8140,6 +8632,9 @@
       <c r="X343">
         <v>2.1000000000000001E-2</v>
       </c>
+      <c r="AA343">
+        <v>13.16</v>
+      </c>
       <c r="AH343">
         <v>1.42</v>
       </c>
@@ -8158,7 +8653,7 @@
         <v>11</v>
       </c>
       <c r="AA344">
-        <v>6.91</v>
+        <v>2.75</v>
       </c>
       <c r="AB344">
         <v>4</v>
@@ -8175,7 +8670,7 @@
         <v>45558</v>
       </c>
       <c r="AA345">
-        <v>9.25</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="346" spans="1:42" x14ac:dyDescent="0.3">
@@ -8191,6 +8686,9 @@
       <c r="O346">
         <v>0.92</v>
       </c>
+      <c r="AA346">
+        <v>7.73</v>
+      </c>
     </row>
     <row r="347" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
@@ -8218,10 +8716,7 @@
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="AA347">
-        <v>3.08</v>
-      </c>
-      <c r="AB347">
-        <v>4</v>
+        <v>15.04</v>
       </c>
       <c r="AC347">
         <v>20</v>
@@ -8261,6 +8756,9 @@
       <c r="Y348">
         <v>4.9166666670000003</v>
       </c>
+      <c r="AA348">
+        <v>15.55</v>
+      </c>
       <c r="AI348">
         <v>0.34819145000000001</v>
       </c>
@@ -8282,7 +8780,7 @@
         <v>107.92</v>
       </c>
       <c r="AA349">
-        <v>5.08</v>
+        <v>2.8600000000000003</v>
       </c>
     </row>
     <row r="350" spans="1:42" x14ac:dyDescent="0.3">
@@ -8305,7 +8803,7 @@
         <v>7.6666666670000003</v>
       </c>
       <c r="AA350">
-        <v>12</v>
+        <v>9.3800000000000008</v>
       </c>
     </row>
     <row r="351" spans="1:42" x14ac:dyDescent="0.3">
@@ -8351,6 +8849,9 @@
       <c r="X351">
         <v>1.5900000000000001E-2</v>
       </c>
+      <c r="AA351">
+        <v>11.11</v>
+      </c>
       <c r="AG351">
         <v>6.1000000000000004E-3</v>
       </c>
@@ -8386,6 +8887,9 @@
       <c r="Y352">
         <v>3.111111111</v>
       </c>
+      <c r="AA352">
+        <v>8.620000000000001</v>
+      </c>
     </row>
     <row r="353" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
@@ -8395,7 +8899,7 @@
         <v>45530</v>
       </c>
       <c r="AA353">
-        <v>7.22</v>
+        <v>10.17</v>
       </c>
     </row>
     <row r="354" spans="1:42" x14ac:dyDescent="0.3">
@@ -8406,7 +8910,7 @@
         <v>45561</v>
       </c>
       <c r="AA354">
-        <v>9.39</v>
+        <v>12.11</v>
       </c>
     </row>
     <row r="355" spans="1:42" x14ac:dyDescent="0.3">
@@ -8417,7 +8921,7 @@
         <v>45439</v>
       </c>
       <c r="AA355">
-        <v>1.18</v>
+        <v>5.89</v>
       </c>
     </row>
     <row r="356" spans="1:42" x14ac:dyDescent="0.3">
@@ -8437,7 +8941,7 @@
         <v>89.17</v>
       </c>
       <c r="AA356">
-        <v>3.38</v>
+        <v>13.29</v>
       </c>
     </row>
     <row r="357" spans="1:42" x14ac:dyDescent="0.3">
@@ -8450,6 +8954,9 @@
       <c r="Y357">
         <v>8.5</v>
       </c>
+      <c r="AA357">
+        <v>15.3</v>
+      </c>
     </row>
     <row r="358" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
@@ -8470,6 +8977,9 @@
       <c r="Y358">
         <v>8.8333333330000006</v>
       </c>
+      <c r="AA358">
+        <v>3.33</v>
+      </c>
     </row>
     <row r="359" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
@@ -8487,6 +8997,9 @@
       <c r="S359">
         <v>96.25</v>
       </c>
+      <c r="AA359">
+        <v>7.99</v>
+      </c>
     </row>
     <row r="360" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
@@ -8504,6 +9017,9 @@
       <c r="S360">
         <v>210</v>
       </c>
+      <c r="AA360">
+        <v>9.6</v>
+      </c>
     </row>
     <row r="361" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
@@ -8513,7 +9029,7 @@
         <v>45593</v>
       </c>
       <c r="AA361">
-        <v>12.23</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="362" spans="1:42" x14ac:dyDescent="0.3">
@@ -8524,7 +9040,7 @@
         <v>45502</v>
       </c>
       <c r="AA362">
-        <v>5.38</v>
+        <v>13.49</v>
       </c>
     </row>
     <row r="363" spans="1:42" x14ac:dyDescent="0.3">
@@ -8537,6 +9053,9 @@
       <c r="Y363">
         <v>14.83333333</v>
       </c>
+      <c r="AA363">
+        <v>3.55</v>
+      </c>
     </row>
     <row r="364" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
@@ -8563,6 +9082,9 @@
       <c r="Y364">
         <v>6.5</v>
       </c>
+      <c r="AA364">
+        <v>6.13</v>
+      </c>
       <c r="AI364">
         <v>0.64069327099999995</v>
       </c>
@@ -8601,6 +9123,9 @@
       <c r="X365">
         <v>1.7100000000000001E-2</v>
       </c>
+      <c r="AA365">
+        <v>8.15</v>
+      </c>
       <c r="AG365">
         <v>3.56E-2</v>
       </c>
@@ -8631,7 +9156,7 @@
         <v>45599</v>
       </c>
       <c r="AA366">
-        <v>12.67</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="367" spans="1:42" x14ac:dyDescent="0.3">
@@ -8641,6 +9166,9 @@
       <c r="B367" s="2">
         <v>45412</v>
       </c>
+      <c r="AA367">
+        <v>15.54</v>
+      </c>
       <c r="AB367">
         <v>3</v>
       </c>
@@ -8662,7 +9190,7 @@
         <v>1</v>
       </c>
       <c r="AA368">
-        <v>1.33</v>
+        <v>11.57</v>
       </c>
     </row>
     <row r="369" spans="1:36" x14ac:dyDescent="0.3">
@@ -8673,7 +9201,7 @@
         <v>45534</v>
       </c>
       <c r="AA369">
-        <v>7.46</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="370" spans="1:36" x14ac:dyDescent="0.3">
@@ -8684,7 +9212,7 @@
         <v>45565</v>
       </c>
       <c r="AA370">
-        <v>9.6300000000000008</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="371" spans="1:36" x14ac:dyDescent="0.3">
@@ -8703,6 +9231,9 @@
       <c r="S371">
         <v>689.17</v>
       </c>
+      <c r="AA371">
+        <v>8.41</v>
+      </c>
     </row>
     <row r="372" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
@@ -8723,6 +9254,9 @@
       <c r="Y372">
         <v>5.5833333329999997</v>
       </c>
+      <c r="AA372">
+        <v>15.55</v>
+      </c>
       <c r="AI372">
         <v>0.32403297399999997</v>
       </c>
@@ -8734,6 +9268,9 @@
       <c r="B373" s="2">
         <v>45596</v>
       </c>
+      <c r="AA373">
+        <v>10.02</v>
+      </c>
       <c r="AB373">
         <v>6</v>
       </c>
@@ -8755,7 +9292,7 @@
         <v>1.3333333329999999</v>
       </c>
       <c r="AA374">
-        <v>1.63</v>
+        <v>4.6500000000000004</v>
       </c>
     </row>
     <row r="375" spans="1:36" x14ac:dyDescent="0.3">
@@ -8778,7 +9315,7 @@
         <v>4.6666666670000003</v>
       </c>
       <c r="AA375">
-        <v>3.83</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="376" spans="1:36" x14ac:dyDescent="0.3">
@@ -8791,6 +9328,9 @@
       <c r="Y376">
         <v>12.66666667</v>
       </c>
+      <c r="AA376">
+        <v>15.55</v>
+      </c>
     </row>
     <row r="377" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
@@ -8812,7 +9352,7 @@
         <v>11</v>
       </c>
       <c r="AA377">
-        <v>9.98</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="378" spans="1:36" x14ac:dyDescent="0.3">
@@ -8823,7 +9363,7 @@
         <v>45509</v>
       </c>
       <c r="AA378">
-        <v>5.73</v>
+        <v>11.77</v>
       </c>
     </row>
     <row r="379" spans="1:36" x14ac:dyDescent="0.3">
@@ -8854,6 +9394,9 @@
       <c r="Y379">
         <v>5.6666666670000003</v>
       </c>
+      <c r="AA379">
+        <v>13.87</v>
+      </c>
       <c r="AI379">
         <v>0.57189014500000002</v>
       </c>
@@ -8874,6 +9417,9 @@
       <c r="Y380">
         <v>4.8333333329999997</v>
       </c>
+      <c r="AA380">
+        <v>6.62</v>
+      </c>
       <c r="AI380">
         <v>0.29251864300000002</v>
       </c>
@@ -8894,6 +9440,9 @@
       <c r="S381">
         <v>94.17</v>
       </c>
+      <c r="AA381">
+        <v>14.15</v>
+      </c>
     </row>
     <row r="382" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
@@ -8912,7 +9461,7 @@
         <v>279.17</v>
       </c>
       <c r="AA382">
-        <v>8.1300000000000008</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="383" spans="1:36" x14ac:dyDescent="0.3">
@@ -8928,6 +9477,9 @@
       <c r="O383">
         <v>0.9</v>
       </c>
+      <c r="AA383">
+        <v>10.220000000000001</v>
+      </c>
     </row>
     <row r="384" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
@@ -8937,7 +9489,7 @@
         <v>45450</v>
       </c>
       <c r="AA384">
-        <v>1.88</v>
+        <v>4.8499999999999996</v>
       </c>
     </row>
     <row r="385" spans="1:42" x14ac:dyDescent="0.3">
@@ -8956,6 +9508,9 @@
       <c r="S385">
         <v>106.67</v>
       </c>
+      <c r="AA385">
+        <v>6.96</v>
+      </c>
     </row>
     <row r="386" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
@@ -8965,7 +9520,7 @@
         <v>45572</v>
       </c>
       <c r="AA386">
-        <v>10.26</v>
+        <v>12.35</v>
       </c>
     </row>
     <row r="387" spans="1:42" x14ac:dyDescent="0.3">
@@ -8976,7 +9531,7 @@
         <v>45603</v>
       </c>
       <c r="AA387">
-        <v>12.75</v>
+        <v>14.41</v>
       </c>
     </row>
     <row r="388" spans="1:42" x14ac:dyDescent="0.3">
@@ -8987,7 +9542,7 @@
         <v>45481</v>
       </c>
       <c r="AA388">
-        <v>3.98</v>
+        <v>15.55</v>
       </c>
     </row>
     <row r="389" spans="1:42" x14ac:dyDescent="0.3">
@@ -9000,6 +9555,9 @@
       <c r="Y389">
         <v>10.83333333</v>
       </c>
+      <c r="AA389">
+        <v>5.13</v>
+      </c>
     </row>
     <row r="390" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
@@ -9029,6 +9587,9 @@
       <c r="Y390">
         <v>6.8541666670000003</v>
       </c>
+      <c r="AA390">
+        <v>10.48</v>
+      </c>
       <c r="AI390">
         <v>0.68038981700000001</v>
       </c>
@@ -9049,6 +9610,9 @@
       <c r="S391">
         <v>97.5</v>
       </c>
+      <c r="AA391">
+        <v>12.65</v>
+      </c>
     </row>
     <row r="392" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
@@ -9058,7 +9622,7 @@
         <v>45513</v>
       </c>
       <c r="AA392">
-        <v>5.97</v>
+        <v>14.93</v>
       </c>
     </row>
     <row r="393" spans="1:42" x14ac:dyDescent="0.3">
@@ -9069,7 +9633,7 @@
         <v>45544</v>
       </c>
       <c r="AA393">
-        <v>8.39</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="394" spans="1:42" x14ac:dyDescent="0.3">
@@ -9085,6 +9649,9 @@
       <c r="O394">
         <v>0.96</v>
       </c>
+      <c r="AA394">
+        <v>8.4600000000000009</v>
+      </c>
     </row>
     <row r="395" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
@@ -9096,6 +9663,9 @@
       <c r="Y395">
         <v>15.16666667</v>
       </c>
+      <c r="AA395">
+        <v>13.89</v>
+      </c>
     </row>
     <row r="396" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
@@ -9117,7 +9687,7 @@
         <v>6.5</v>
       </c>
       <c r="AA396">
-        <v>14.17</v>
+        <v>14.99</v>
       </c>
       <c r="AI396">
         <v>0.64345785300000002</v>
@@ -9181,6 +9751,9 @@
       <c r="Z397">
         <v>606.20000000000005</v>
       </c>
+      <c r="AA397">
+        <v>2.2199999999999998</v>
+      </c>
       <c r="AB397">
         <v>10</v>
       </c>
@@ -9236,7 +9809,7 @@
         <v>45453</v>
       </c>
       <c r="AA398">
-        <v>6.23</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="399" spans="1:42" x14ac:dyDescent="0.3">
@@ -9250,7 +9823,7 @@
         <v>13.33333333</v>
       </c>
       <c r="AA399">
-        <v>7.92</v>
+        <v>12.11</v>
       </c>
       <c r="AB399">
         <v>4</v>
@@ -9278,6 +9851,9 @@
       <c r="Y400">
         <v>14.08333333</v>
       </c>
+      <c r="AA400">
+        <v>6.93</v>
+      </c>
     </row>
     <row r="401" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
@@ -9298,6 +9874,9 @@
       <c r="Y401">
         <v>10</v>
       </c>
+      <c r="AA401">
+        <v>10.15</v>
+      </c>
     </row>
     <row r="402" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
@@ -9307,7 +9886,7 @@
         <v>45576</v>
       </c>
       <c r="AA402">
-        <v>13.46</v>
+        <v>14.08</v>
       </c>
     </row>
     <row r="403" spans="1:42" x14ac:dyDescent="0.3">
@@ -9354,7 +9933,7 @@
         <v>1.8700000000000001E-2</v>
       </c>
       <c r="AA403">
-        <v>14.18</v>
+        <v>15</v>
       </c>
       <c r="AB403">
         <v>8</v>
@@ -9415,6 +9994,9 @@
       <c r="Y404">
         <v>6.1666666670000003</v>
       </c>
+      <c r="AA404">
+        <v>8.66</v>
+      </c>
       <c r="AI404">
         <v>0.41329581399999998</v>
       </c>
@@ -9427,7 +10009,7 @@
         <v>45394</v>
       </c>
       <c r="AA405">
-        <v>1.25</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="406" spans="1:42" x14ac:dyDescent="0.3">
@@ -9441,7 +10023,7 @@
         <v>7.2222222220000001</v>
       </c>
       <c r="AA406">
-        <v>4.5</v>
+        <v>12.36</v>
       </c>
     </row>
     <row r="407" spans="1:42" x14ac:dyDescent="0.3">
@@ -9460,6 +10042,9 @@
       <c r="S407">
         <v>127.92</v>
       </c>
+      <c r="AA407">
+        <v>2.74</v>
+      </c>
     </row>
     <row r="408" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
@@ -9469,7 +10054,7 @@
         <v>45547</v>
       </c>
       <c r="AA408">
-        <v>11.85</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="409" spans="1:42" x14ac:dyDescent="0.3">
@@ -9483,7 +10068,7 @@
         <v>12.83333333</v>
       </c>
       <c r="AA409">
-        <v>6.36</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="410" spans="1:42" x14ac:dyDescent="0.3">
@@ -9503,7 +10088,7 @@
         <v>379.17</v>
       </c>
       <c r="AA410">
-        <v>9.73</v>
+        <v>14.27</v>
       </c>
     </row>
     <row r="411" spans="1:42" x14ac:dyDescent="0.3">
@@ -9514,7 +10099,7 @@
         <v>45579</v>
       </c>
       <c r="AA411">
-        <v>13.62</v>
+        <v>15</v>
       </c>
     </row>
     <row r="412" spans="1:42" x14ac:dyDescent="0.3">
@@ -9543,7 +10128,7 @@
         <v>6.75</v>
       </c>
       <c r="AA412">
-        <v>14.18</v>
+        <v>2.85</v>
       </c>
       <c r="AI412">
         <v>0.64313787099999997</v>
@@ -9565,6 +10150,9 @@
       <c r="S413">
         <v>97.92</v>
       </c>
+      <c r="AA413">
+        <v>8.85</v>
+      </c>
     </row>
     <row r="414" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
@@ -9574,7 +10162,7 @@
         <v>45489</v>
       </c>
       <c r="AA414">
-        <v>8.15</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="415" spans="1:42" x14ac:dyDescent="0.3">
@@ -9588,7 +10176,7 @@
         <v>16.333333329999999</v>
       </c>
       <c r="AA415">
-        <v>9.85</v>
+        <v>8.120000000000001</v>
       </c>
       <c r="AB415">
         <v>5</v>
@@ -9605,7 +10193,7 @@
         <v>45551</v>
       </c>
       <c r="AA416">
-        <v>12.07</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="417" spans="1:35" x14ac:dyDescent="0.3">
@@ -9627,6 +10215,9 @@
       <c r="Y417">
         <v>8</v>
       </c>
+      <c r="AA417">
+        <v>11.46</v>
+      </c>
     </row>
     <row r="418" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
@@ -9639,7 +10230,7 @@
         <v>1.7777777779999999</v>
       </c>
       <c r="AA418">
-        <v>1.9</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="419" spans="1:35" x14ac:dyDescent="0.3">
@@ -9653,7 +10244,7 @@
         <v>8.5555555559999998</v>
       </c>
       <c r="AA419">
-        <v>4.8499999999999996</v>
+        <v>12.55</v>
       </c>
     </row>
     <row r="420" spans="1:35" x14ac:dyDescent="0.3">
@@ -9664,7 +10255,7 @@
         <v>45460</v>
       </c>
       <c r="AA420">
-        <v>6.79</v>
+        <v>14.57</v>
       </c>
     </row>
     <row r="421" spans="1:35" x14ac:dyDescent="0.3">
@@ -9683,6 +10274,9 @@
       <c r="S421">
         <v>609.16999999999996</v>
       </c>
+      <c r="AA421">
+        <v>3.38</v>
+      </c>
     </row>
     <row r="422" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
@@ -9692,7 +10286,7 @@
         <v>45582</v>
       </c>
       <c r="AA422">
-        <v>13.82</v>
+        <v>7.59</v>
       </c>
     </row>
     <row r="423" spans="1:35" x14ac:dyDescent="0.3">
@@ -9705,6 +10299,9 @@
       <c r="C423">
         <v>0.17</v>
       </c>
+      <c r="AA423">
+        <v>9.1300000000000008</v>
+      </c>
     </row>
     <row r="424" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
@@ -9714,7 +10311,7 @@
         <v>45614</v>
       </c>
       <c r="AA424">
-        <v>14.18</v>
+        <v>10.71</v>
       </c>
     </row>
     <row r="425" spans="1:35" x14ac:dyDescent="0.3">
@@ -9742,6 +10339,9 @@
       <c r="Y425">
         <v>6.4166666670000003</v>
       </c>
+      <c r="AA425">
+        <v>12.77</v>
+      </c>
       <c r="AI425">
         <v>0.33977508499999998</v>
       </c>
@@ -9757,7 +10357,7 @@
         <v>1.888888889</v>
       </c>
       <c r="AA426">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="427" spans="1:35" x14ac:dyDescent="0.3">
@@ -9770,6 +10370,9 @@
       <c r="Y427">
         <v>15.33333333</v>
       </c>
+      <c r="AA427">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="428" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
@@ -9791,7 +10394,7 @@
         <v>16.333333329999999</v>
       </c>
       <c r="AA428">
-        <v>8.31</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="429" spans="1:35" x14ac:dyDescent="0.3">
@@ -9802,7 +10405,7 @@
         <v>45523</v>
       </c>
       <c r="AA429">
-        <v>10.050000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="430" spans="1:35" x14ac:dyDescent="0.3">
@@ -9818,6 +10421,9 @@
       <c r="O430">
         <v>0.99</v>
       </c>
+      <c r="AA430">
+        <v>14.87</v>
+      </c>
     </row>
     <row r="431" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
@@ -9827,7 +10433,7 @@
         <v>45475</v>
       </c>
       <c r="AA431">
-        <v>7.49</v>
+        <v>10.92</v>
       </c>
     </row>
     <row r="432" spans="1:35" x14ac:dyDescent="0.3">
@@ -9847,7 +10453,7 @@
         <v>306.67</v>
       </c>
       <c r="AA432">
-        <v>9.15</v>
+        <v>12.93</v>
       </c>
     </row>
     <row r="433" spans="1:36" x14ac:dyDescent="0.3">
@@ -9858,7 +10464,7 @@
         <v>45537</v>
       </c>
       <c r="AA433">
-        <v>11</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="434" spans="1:36" x14ac:dyDescent="0.3">
@@ -9872,7 +10478,7 @@
         <v>9.7777777780000008</v>
       </c>
       <c r="AA434">
-        <v>4.99</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="435" spans="1:36" x14ac:dyDescent="0.3">
@@ -9891,6 +10497,9 @@
       <c r="S435">
         <v>140.41999999999999</v>
       </c>
+      <c r="AA435">
+        <v>14.89</v>
+      </c>
     </row>
     <row r="436" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
@@ -9908,6 +10517,9 @@
       <c r="S436">
         <v>423.33</v>
       </c>
+      <c r="AA436">
+        <v>9.5500000000000007</v>
+      </c>
     </row>
     <row r="437" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
@@ -9920,7 +10532,7 @@
         <v>11.5</v>
       </c>
       <c r="AA437">
-        <v>12.21</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="438" spans="1:36" x14ac:dyDescent="0.3">
@@ -9930,6 +10542,9 @@
       <c r="B438" s="2">
         <v>45585</v>
       </c>
+      <c r="AA438">
+        <v>6.51</v>
+      </c>
       <c r="AB438">
         <v>6</v>
       </c>
@@ -9948,7 +10563,7 @@
         <v>45586</v>
       </c>
       <c r="AA439">
-        <v>14.09</v>
+        <v>14.93</v>
       </c>
     </row>
     <row r="440" spans="1:36" x14ac:dyDescent="0.3">
@@ -9962,7 +10577,7 @@
         <v>2.4444444440000002</v>
       </c>
       <c r="AA440">
-        <v>2.5299999999999998</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="441" spans="1:36" x14ac:dyDescent="0.3">
@@ -9973,7 +10588,7 @@
         <v>45465</v>
       </c>
       <c r="AA441">
-        <v>7.03</v>
+        <v>11.23</v>
       </c>
     </row>
     <row r="442" spans="1:36" x14ac:dyDescent="0.3">
@@ -9984,7 +10599,7 @@
         <v>45495</v>
       </c>
       <c r="AA442">
-        <v>8.5</v>
+        <v>13.17</v>
       </c>
     </row>
     <row r="443" spans="1:36" x14ac:dyDescent="0.3">
@@ -10006,6 +10621,9 @@
       <c r="Y443">
         <v>7</v>
       </c>
+      <c r="AA443">
+        <v>6.27</v>
+      </c>
       <c r="AI443">
         <v>0.607089663</v>
       </c>
@@ -10020,6 +10638,9 @@
       <c r="C444">
         <v>0.23</v>
       </c>
+      <c r="AA444">
+        <v>13.41</v>
+      </c>
     </row>
     <row r="445" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
@@ -10037,6 +10658,9 @@
       <c r="S445">
         <v>113.75</v>
       </c>
+      <c r="AA445">
+        <v>8.36</v>
+      </c>
     </row>
     <row r="446" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
@@ -10066,6 +10690,9 @@
       <c r="X446">
         <v>1.9699999999999999E-2</v>
       </c>
+      <c r="AA446">
+        <v>9.73</v>
+      </c>
       <c r="AH446">
         <v>40.450000000000003</v>
       </c>
@@ -10084,7 +10711,7 @@
         <v>15.66666667</v>
       </c>
       <c r="AA447">
-        <v>10.199999999999999</v>
+        <v>4.6899999999999995</v>
       </c>
       <c r="AC447">
         <v>32</v>
@@ -10101,7 +10728,7 @@
         <v>45558</v>
       </c>
       <c r="AA448">
-        <v>12.37</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="449" spans="1:42" x14ac:dyDescent="0.3">
@@ -10117,6 +10744,9 @@
       <c r="O449">
         <v>0.99</v>
       </c>
+      <c r="AA449">
+        <v>11.69</v>
+      </c>
     </row>
     <row r="450" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
@@ -10129,7 +10759,7 @@
         <v>2.5555555559999998</v>
       </c>
       <c r="AA450">
-        <v>2.8</v>
+        <v>13.66</v>
       </c>
     </row>
     <row r="451" spans="1:42" x14ac:dyDescent="0.3">
@@ -10143,7 +10773,7 @@
         <v>11.44444444</v>
       </c>
       <c r="AA451">
-        <v>5.25</v>
+        <v>14.95</v>
       </c>
     </row>
     <row r="452" spans="1:42" x14ac:dyDescent="0.3">
@@ -10174,6 +10804,9 @@
       <c r="X452">
         <v>1.5800000000000002E-2</v>
       </c>
+      <c r="AA452">
+        <v>4.75</v>
+      </c>
       <c r="AH452">
         <v>26.1</v>
       </c>
@@ -10209,6 +10842,9 @@
       <c r="X453">
         <v>1.9800000000000002E-2</v>
       </c>
+      <c r="AA453">
+        <v>9.91</v>
+      </c>
       <c r="AH453">
         <v>478.40548230000002</v>
       </c>
@@ -10250,6 +10886,9 @@
       <c r="X454">
         <v>2.12E-2</v>
       </c>
+      <c r="AA454">
+        <v>11.92</v>
+      </c>
       <c r="AG454">
         <v>1.9E-2</v>
       </c>
@@ -11152,9 +11791,6 @@
       <c r="Y497">
         <v>6.2222222220000001</v>
       </c>
-      <c r="AB497">
-        <v>4</v>
-      </c>
       <c r="AC497">
         <v>20</v>
       </c>
@@ -13353,9 +13989,6 @@
       <c r="Y607">
         <v>6.6363636359999996</v>
       </c>
-      <c r="AB607">
-        <v>4</v>
-      </c>
       <c r="AC607">
         <v>20</v>
       </c>
@@ -15545,9 +16178,6 @@
       <c r="Y717">
         <v>6.9090909089999997</v>
       </c>
-      <c r="AB717">
-        <v>4</v>
-      </c>
       <c r="AC717">
         <v>20</v>
       </c>
@@ -17745,9 +18375,6 @@
       </c>
       <c r="Y827">
         <v>6.3333333329999997</v>
-      </c>
-      <c r="AB827">
-        <v>4</v>
       </c>
       <c r="AC827">
         <v>20</v>
@@ -44686,7 +45313,7 @@
   <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -44712,7 +45339,7 @@
         <v>33</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>634.12500000000011</v>
@@ -44723,7 +45350,7 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>673.09090909090901</v>
@@ -44734,7 +45361,7 @@
         <v>34</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>706.8</v>
@@ -44745,7 +45372,7 @@
         <v>35</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>682.66666666666652</v>
@@ -44756,7 +45383,7 @@
         <v>33</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>738.4545454545455</v>
@@ -44767,7 +45394,7 @@
         <v>36</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>801.72727272727275</v>
@@ -44778,7 +45405,7 @@
         <v>34</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>793.63636363636363</v>
@@ -44789,7 +45416,7 @@
         <v>35</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>841.8</v>
@@ -44800,7 +45427,7 @@
         <v>33</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>850.18181818181824</v>
@@ -44811,7 +45438,7 @@
         <v>36</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>836.99999999999989</v>
@@ -44822,7 +45449,7 @@
         <v>34</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>858</v>
@@ -44833,7 +45460,7 @@
         <v>35</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>988.45454545454527</v>
@@ -44844,7 +45471,7 @@
         <v>33</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>925.09090909090901</v>
@@ -44855,7 +45482,7 @@
         <v>36</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>941.72727272727263</v>
@@ -44866,7 +45493,7 @@
         <v>34</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>941.81818181818164</v>
@@ -44877,7 +45504,7 @@
         <v>35</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>1102.3636363636363</v>
@@ -44888,7 +45515,7 @@
         <v>33</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>994.09090909090912</v>
@@ -44899,7 +45526,7 @@
         <v>36</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>1006.2727272727273</v>
@@ -44910,7 +45537,7 @@
         <v>34</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>960.09090909090912</v>
@@ -44921,7 +45548,7 @@
         <v>35</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>1157</v>
@@ -44932,7 +45559,7 @@
         <v>33</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22">
         <v>884.09090909090901</v>
@@ -44943,7 +45570,7 @@
         <v>36</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>981.63636363636363</v>
@@ -44954,7 +45581,7 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24">
         <v>963.63636363636351</v>
@@ -44965,7 +45592,7 @@
         <v>35</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <v>1108.6363636363637</v>
@@ -44976,7 +45603,7 @@
         <v>33</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26">
         <v>1045.8181818181815</v>
@@ -44987,7 +45614,7 @@
         <v>36</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27">
         <v>1174.8181818181818</v>
@@ -44998,7 +45625,7 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28">
         <v>1109.2727272727273</v>
@@ -45009,7 +45636,7 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29">
         <v>1258.8181818181822</v>
@@ -45020,7 +45647,7 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30">
         <v>1394.7272727272725</v>
@@ -45031,7 +45658,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31">
         <v>1605.7272727272727</v>
@@ -45042,7 +45669,7 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32">
         <v>1642.1818181818182</v>
@@ -45053,7 +45680,7 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33">
         <v>1588.7272727272727</v>
@@ -45064,7 +45691,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C34">
         <v>2092.9090909090914</v>
@@ -45075,7 +45702,7 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C35">
         <v>2283</v>
@@ -45086,7 +45713,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C36">
         <v>2330</v>
@@ -45097,7 +45724,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C37">
         <v>2295</v>
@@ -45108,7 +45735,7 @@
         <v>33</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C38">
         <v>2859.818181818182</v>
@@ -45119,7 +45746,7 @@
         <v>36</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C39">
         <v>3250.454545454545</v>
@@ -45130,7 +45757,7 @@
         <v>34</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C40">
         <v>3213.5999999999995</v>
@@ -45141,7 +45768,7 @@
         <v>35</v>
       </c>
       <c r="B41">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C41">
         <v>3195.818181818182</v>
@@ -45152,7 +45779,7 @@
         <v>33</v>
       </c>
       <c r="B42">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C42">
         <v>3485.181818181818</v>
@@ -45163,7 +45790,7 @@
         <v>36</v>
       </c>
       <c r="B43">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C43">
         <v>3966.4545454545455</v>
@@ -45174,7 +45801,7 @@
         <v>34</v>
       </c>
       <c r="B44">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C44">
         <v>4198.3636363636369</v>
@@ -45185,7 +45812,7 @@
         <v>35</v>
       </c>
       <c r="B45">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C45">
         <v>3861.3636363636365</v>
@@ -45196,7 +45823,7 @@
         <v>33</v>
       </c>
       <c r="B46">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C46">
         <v>3905.3636363636365</v>
@@ -45207,7 +45834,7 @@
         <v>36</v>
       </c>
       <c r="B47">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C47">
         <v>4400.8181818181811</v>
@@ -45218,7 +45845,7 @@
         <v>34</v>
       </c>
       <c r="B48">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C48">
         <v>4745.3999999999996</v>
@@ -45229,7 +45856,7 @@
         <v>35</v>
       </c>
       <c r="B49">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C49">
         <v>4418.909090909091</v>
@@ -45240,7 +45867,7 @@
         <v>33</v>
       </c>
       <c r="B50">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C50">
         <v>4042.2727272727279</v>
@@ -45251,7 +45878,7 @@
         <v>36</v>
       </c>
       <c r="B51">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C51">
         <v>4555</v>
@@ -45262,7 +45889,7 @@
         <v>34</v>
       </c>
       <c r="B52">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C52">
         <v>5405.9090909090901</v>
@@ -45273,7 +45900,7 @@
         <v>35</v>
       </c>
       <c r="B53">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C53">
         <v>5147.909090909091</v>
@@ -45284,7 +45911,7 @@
         <v>33</v>
       </c>
       <c r="B54">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C54">
         <v>2825.4545454545455</v>
@@ -45295,7 +45922,7 @@
         <v>36</v>
       </c>
       <c r="B55">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C55">
         <v>3648.909090909091</v>
@@ -45306,7 +45933,7 @@
         <v>34</v>
       </c>
       <c r="B56">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C56">
         <v>4347.5454545454559</v>
@@ -45317,7 +45944,7 @@
         <v>35</v>
       </c>
       <c r="B57">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C57">
         <v>4530.181818181818</v>
@@ -45328,7 +45955,7 @@
         <v>30</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58">
         <v>354.49999999999994</v>
@@ -45339,7 +45966,7 @@
         <v>32</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59">
         <v>399.7</v>
@@ -45350,7 +45977,7 @@
         <v>29</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60">
         <v>397.33333333333331</v>
@@ -45361,7 +45988,7 @@
         <v>31</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61">
         <v>323.63636363636363</v>
@@ -45372,7 +45999,7 @@
         <v>30</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C62">
         <v>456.36363636363637</v>
@@ -45383,7 +46010,7 @@
         <v>32</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C63">
         <v>384.75</v>
@@ -45394,7 +46021,7 @@
         <v>29</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C64">
         <v>522.5454545454545</v>
@@ -45405,7 +46032,7 @@
         <v>31</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C65">
         <v>390.54545454545456</v>
@@ -45416,7 +46043,7 @@
         <v>30</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C66">
         <v>484.91666666666663</v>
@@ -45427,7 +46054,7 @@
         <v>32</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C67">
         <v>395.36363636363643</v>
@@ -45438,7 +46065,7 @@
         <v>29</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C68">
         <v>529.27272727272725</v>
@@ -45449,7 +46076,7 @@
         <v>31</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C69">
         <v>399.72727272727269</v>
@@ -45460,7 +46087,7 @@
         <v>30</v>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C70">
         <v>578.08333333333337</v>
@@ -45471,7 +46098,7 @@
         <v>32</v>
       </c>
       <c r="B71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C71">
         <v>479.36363636363649</v>
@@ -45482,7 +46109,7 @@
         <v>29</v>
       </c>
       <c r="B72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C72">
         <v>586.29999999999995</v>
@@ -45493,7 +46120,7 @@
         <v>31</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C73">
         <v>454.4</v>
@@ -45504,7 +46131,7 @@
         <v>30</v>
       </c>
       <c r="B74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C74">
         <v>676.74999999999989</v>
@@ -45515,7 +46142,7 @@
         <v>32</v>
       </c>
       <c r="B75">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C75">
         <v>600.16666666666663</v>
@@ -45526,7 +46153,7 @@
         <v>29</v>
       </c>
       <c r="B76">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C76">
         <v>662.45454545454538</v>
@@ -45537,7 +46164,7 @@
         <v>31</v>
       </c>
       <c r="B77">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C77">
         <v>605</v>
@@ -45548,7 +46175,7 @@
         <v>30</v>
       </c>
       <c r="B78">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C78">
         <v>893.24999999999989</v>
@@ -45559,7 +46186,7 @@
         <v>32</v>
       </c>
       <c r="B79">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C79">
         <v>867.33333333333337</v>
@@ -45570,7 +46197,7 @@
         <v>29</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C80">
         <v>928.72727272727275</v>
@@ -45581,7 +46208,7 @@
         <v>31</v>
       </c>
       <c r="B81">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C81">
         <v>842.27272727272725</v>
@@ -45592,7 +46219,7 @@
         <v>30</v>
       </c>
       <c r="B82">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82">
         <v>1352.5833333333333</v>
@@ -45603,7 +46230,7 @@
         <v>32</v>
       </c>
       <c r="B83">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83">
         <v>1235.4166666666665</v>
@@ -45614,7 +46241,7 @@
         <v>29</v>
       </c>
       <c r="B84">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84">
         <v>1340.4999999999998</v>
@@ -45625,7 +46252,7 @@
         <v>31</v>
       </c>
       <c r="B85">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85">
         <v>1228</v>
@@ -45636,7 +46263,7 @@
         <v>30</v>
       </c>
       <c r="B86">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86">
         <v>1859.4166666666665</v>
@@ -45647,7 +46274,7 @@
         <v>32</v>
       </c>
       <c r="B87">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87">
         <v>1918.7499999999995</v>
@@ -45658,7 +46285,7 @@
         <v>29</v>
       </c>
       <c r="B88">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88">
         <v>2108.090909090909</v>
@@ -45669,7 +46296,7 @@
         <v>31</v>
       </c>
       <c r="B89">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89">
         <v>2017.1818181818182</v>
@@ -45680,7 +46307,7 @@
         <v>30</v>
       </c>
       <c r="B90">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C90">
         <v>2949.9166666666665</v>
@@ -45691,7 +46318,7 @@
         <v>32</v>
       </c>
       <c r="B91">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C91">
         <v>2871.6666666666665</v>
@@ -45702,7 +46329,7 @@
         <v>29</v>
       </c>
       <c r="B92">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C92">
         <v>2969.181818181818</v>
@@ -45713,7 +46340,7 @@
         <v>31</v>
       </c>
       <c r="B93">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C93">
         <v>3176.454545454545</v>
@@ -45724,7 +46351,7 @@
         <v>30</v>
       </c>
       <c r="B94">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C94">
         <v>3682.2500000000005</v>
@@ -45735,7 +46362,7 @@
         <v>32</v>
       </c>
       <c r="B95">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C95">
         <v>3689.75</v>
@@ -45746,7 +46373,7 @@
         <v>29</v>
       </c>
       <c r="B96">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C96">
         <v>3884.0909090909095</v>
@@ -45757,7 +46384,7 @@
         <v>31</v>
       </c>
       <c r="B97">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C97">
         <v>4125.181818181818</v>
@@ -45768,7 +46395,7 @@
         <v>30</v>
       </c>
       <c r="B98">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C98">
         <v>4076.7500000000005</v>
@@ -45779,7 +46406,7 @@
         <v>32</v>
       </c>
       <c r="B99">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C99">
         <v>4224.5</v>
@@ -45790,7 +46417,7 @@
         <v>29</v>
       </c>
       <c r="B100">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C100">
         <v>4677.545454545454</v>
@@ -45801,7 +46428,7 @@
         <v>31</v>
       </c>
       <c r="B101">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C101">
         <v>4765.9090909090901</v>
@@ -45812,7 +46439,7 @@
         <v>30</v>
       </c>
       <c r="B102">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C102">
         <v>4143.083333333333</v>
@@ -45823,7 +46450,7 @@
         <v>32</v>
       </c>
       <c r="B103">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C103">
         <v>4077.0833333333335</v>
@@ -45834,7 +46461,7 @@
         <v>29</v>
       </c>
       <c r="B104">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C104">
         <v>4523.6363636363631</v>
@@ -45845,7 +46472,7 @@
         <v>31</v>
       </c>
       <c r="B105">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C105">
         <v>4790.8181818181811</v>
@@ -45856,7 +46483,7 @@
         <v>30</v>
       </c>
       <c r="B106">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C106">
         <v>3072.833333333333</v>
@@ -45867,7 +46494,7 @@
         <v>32</v>
       </c>
       <c r="B107">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C107">
         <v>3044</v>
@@ -45878,7 +46505,7 @@
         <v>29</v>
       </c>
       <c r="B108">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C108">
         <v>3524.090909090909</v>
@@ -45889,7 +46516,7 @@
         <v>31</v>
       </c>
       <c r="B109">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C109">
         <v>3761.7272727272725</v>
@@ -54871,7 +55498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA7743A-48F6-4711-9904-E82A6ACE9CC4}">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>

--- a/Tests/Validation/Wheat/data/Lincoln2024.xlsx
+++ b/Tests/Validation/Wheat/data/Lincoln2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\ApsimX\Tests\Validation\Wheat\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A46E69-6A87-425E-A0E9-7EDE5DA034F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1133767-C7D7-4059-A59E-0139ADB7F70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" autoFilterDateGrouping="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -846,11 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BBE95E-A304-486E-A4C6-DD8F3EEFA3AF}">
   <dimension ref="A1:AP833"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA9" sqref="AA9"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1053,9 +1050,6 @@
       <c r="Y4">
         <v>8.1666666669999994</v>
       </c>
-      <c r="AA4">
-        <v>14.23</v>
-      </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1095,7 +1089,7 @@
         <v>7.6666666670000003</v>
       </c>
       <c r="AA5">
-        <v>3.33</v>
+        <v>14.23</v>
       </c>
       <c r="AG5">
         <v>2.1999999999999999E-2</v>
@@ -1129,9 +1123,6 @@
       <c r="Y6">
         <v>3.8333333330000001</v>
       </c>
-      <c r="AA6">
-        <v>12.33</v>
-      </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1149,9 +1140,6 @@
       <c r="S7">
         <v>346.67</v>
       </c>
-      <c r="AA7">
-        <v>14.46</v>
-      </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1172,9 +1160,6 @@
       <c r="Y8">
         <v>9.5</v>
       </c>
-      <c r="AA8">
-        <v>7.82</v>
-      </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1184,7 +1169,7 @@
         <v>45454</v>
       </c>
       <c r="AA9">
-        <v>10.31</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.3">
@@ -1197,9 +1182,6 @@
       <c r="Y10">
         <v>10.33333333</v>
       </c>
-      <c r="AA10">
-        <v>3.51</v>
-      </c>
       <c r="AB10">
         <v>5</v>
       </c>
@@ -1236,7 +1218,7 @@
         <v>1.9E-2</v>
       </c>
       <c r="AA11">
-        <v>12.62</v>
+        <v>12.33</v>
       </c>
       <c r="AH11">
         <v>389.49035400000002</v>
@@ -1281,9 +1263,6 @@
       <c r="Y13">
         <v>6.3333333329999997</v>
       </c>
-      <c r="AA13">
-        <v>5.73</v>
-      </c>
       <c r="AI13">
         <v>0.494030988</v>
       </c>
@@ -1307,9 +1286,6 @@
       <c r="Y14">
         <v>6.3333333329999997</v>
       </c>
-      <c r="AA14">
-        <v>8.0300000000000011</v>
-      </c>
       <c r="AI14">
         <v>0.29451813599999999</v>
       </c>
@@ -1330,9 +1306,6 @@
       <c r="S15">
         <v>90.83</v>
       </c>
-      <c r="AA15">
-        <v>10.62</v>
-      </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1342,7 +1315,7 @@
         <v>45516</v>
       </c>
       <c r="AA16">
-        <v>12.87</v>
+        <v>7.82</v>
       </c>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.3">
@@ -1353,7 +1326,7 @@
         <v>45547</v>
       </c>
       <c r="AA17">
-        <v>14.46</v>
+        <v>10.31</v>
       </c>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.3">
@@ -1366,9 +1339,6 @@
       <c r="Y18">
         <v>2.6666666669999999</v>
       </c>
-      <c r="AA18">
-        <v>6.13</v>
-      </c>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -1407,9 +1377,6 @@
       <c r="X19">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="AA19">
-        <v>8.34</v>
-      </c>
       <c r="AH19">
         <v>14.56</v>
       </c>
@@ -1425,7 +1392,7 @@
         <v>45457</v>
       </c>
       <c r="AA20">
-        <v>7.16</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.3">
@@ -1436,7 +1403,7 @@
         <v>45579</v>
       </c>
       <c r="AA21">
-        <v>9.4499999999999993</v>
+        <v>12.62</v>
       </c>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.3">
@@ -1468,7 +1435,7 @@
         <v>7.5833333329999997</v>
       </c>
       <c r="AA22">
-        <v>4.0199999999999996</v>
+        <v>14.46</v>
       </c>
       <c r="AI22">
         <v>0.60685714300000004</v>
@@ -1482,7 +1449,7 @@
         <v>45488</v>
       </c>
       <c r="AA23">
-        <v>10.84</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.3">
@@ -1498,9 +1465,6 @@
       <c r="O24">
         <v>0.94</v>
       </c>
-      <c r="AA24">
-        <v>13.16</v>
-      </c>
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -1518,9 +1482,6 @@
       <c r="S25">
         <v>87</v>
       </c>
-      <c r="AA25">
-        <v>6.39</v>
-      </c>
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -1533,7 +1494,7 @@
         <v>13.33333333</v>
       </c>
       <c r="AA26">
-        <v>2.0700000000000003</v>
+        <v>8.0300000000000011</v>
       </c>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.3">
@@ -1571,7 +1532,7 @@
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="AA27">
-        <v>8.5399999999999991</v>
+        <v>10.62</v>
       </c>
       <c r="AC27">
         <v>32</v>
@@ -1620,9 +1581,6 @@
       <c r="Y28">
         <v>9.3333333330000006</v>
       </c>
-      <c r="AA28">
-        <v>10.96</v>
-      </c>
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -1667,9 +1625,6 @@
       <c r="X29">
         <v>1.8499999999999999E-2</v>
       </c>
-      <c r="AA29">
-        <v>4.3599999999999994</v>
-      </c>
       <c r="AG29">
         <v>1.2200000000000001E-2</v>
       </c>
@@ -1714,9 +1669,6 @@
       <c r="Y30">
         <v>5.3333333329999997</v>
       </c>
-      <c r="AA30">
-        <v>6.6</v>
-      </c>
       <c r="AI30">
         <v>0.284548036</v>
       </c>
@@ -1737,9 +1689,6 @@
       <c r="S31">
         <v>405.83</v>
       </c>
-      <c r="AA31">
-        <v>13.62</v>
-      </c>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -1749,7 +1698,7 @@
         <v>45582</v>
       </c>
       <c r="AA32">
-        <v>8.9499999999999993</v>
+        <v>12.87</v>
       </c>
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.3">
@@ -1760,7 +1709,7 @@
         <v>45614</v>
       </c>
       <c r="AA33">
-        <v>11.18</v>
+        <v>14.46</v>
       </c>
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.3">
@@ -1788,9 +1737,6 @@
       <c r="Y34">
         <v>5.75</v>
       </c>
-      <c r="AA34">
-        <v>2.35</v>
-      </c>
       <c r="AI34">
         <v>0.43564109000000001</v>
       </c>
@@ -1805,9 +1751,6 @@
       <c r="Y35">
         <v>3</v>
       </c>
-      <c r="AA35">
-        <v>4.68</v>
-      </c>
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
@@ -1829,7 +1772,7 @@
         <v>5.8333333329999997</v>
       </c>
       <c r="AA36">
-        <v>13.82</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.3">
@@ -1840,7 +1783,7 @@
         <v>45523</v>
       </c>
       <c r="AA37">
-        <v>6.98</v>
+        <v>8.34</v>
       </c>
     </row>
     <row r="38" spans="1:42" x14ac:dyDescent="0.3">
@@ -1859,9 +1802,6 @@
       <c r="S38">
         <v>1000</v>
       </c>
-      <c r="AA38">
-        <v>14.3</v>
-      </c>
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -1880,7 +1820,7 @@
         <v>115</v>
       </c>
       <c r="AA39">
-        <v>2.4500000000000002</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="40" spans="1:42" x14ac:dyDescent="0.3">
@@ -1891,7 +1831,7 @@
         <v>45537</v>
       </c>
       <c r="AA40">
-        <v>9.24</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="AC40">
         <v>30</v>
@@ -1955,9 +1895,6 @@
       <c r="Z41">
         <v>611.4</v>
       </c>
-      <c r="AA41">
-        <v>11.37</v>
-      </c>
       <c r="AB41">
         <v>10</v>
       </c>
@@ -2022,7 +1959,7 @@
         <v>91.25</v>
       </c>
       <c r="AA42">
-        <v>2.75</v>
+        <v>4.0199999999999996</v>
       </c>
     </row>
     <row r="43" spans="1:42" x14ac:dyDescent="0.3">
@@ -2041,9 +1978,6 @@
       <c r="S43">
         <v>161.66999999999999</v>
       </c>
-      <c r="AA43">
-        <v>5.17</v>
-      </c>
     </row>
     <row r="44" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
@@ -2056,7 +1990,7 @@
         <v>9.6666666669999994</v>
       </c>
       <c r="AA44">
-        <v>11.73</v>
+        <v>10.84</v>
       </c>
     </row>
     <row r="45" spans="1:42" x14ac:dyDescent="0.3">
@@ -2067,7 +2001,7 @@
         <v>45586</v>
       </c>
       <c r="AA45">
-        <v>7.34</v>
+        <v>13.16</v>
       </c>
     </row>
     <row r="46" spans="1:42" x14ac:dyDescent="0.3">
@@ -2078,7 +2012,7 @@
         <v>45495</v>
       </c>
       <c r="AA46">
-        <v>9.82</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="47" spans="1:42" x14ac:dyDescent="0.3">
@@ -2100,9 +2034,6 @@
       <c r="Y47">
         <v>6.4166666670000003</v>
       </c>
-      <c r="AA47">
-        <v>3.05</v>
-      </c>
       <c r="AB47">
         <v>8</v>
       </c>
@@ -2136,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="AA48">
-        <v>11.97</v>
+        <v>2.0700000000000003</v>
       </c>
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.3">
@@ -2161,9 +2092,6 @@
       <c r="X49">
         <v>2.0400000000000001E-2</v>
       </c>
-      <c r="AA49">
-        <v>14.41</v>
-      </c>
       <c r="AH49">
         <v>1.75</v>
       </c>
@@ -2182,7 +2110,7 @@
         <v>13.33333333</v>
       </c>
       <c r="AA50">
-        <v>5.32</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="AB50">
         <v>4</v>
@@ -2199,7 +2127,7 @@
         <v>45558</v>
       </c>
       <c r="AA51">
-        <v>7.58</v>
+        <v>10.96</v>
       </c>
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.3">
@@ -2215,9 +2143,6 @@
       <c r="O52">
         <v>0.98</v>
       </c>
-      <c r="AA52">
-        <v>10.08</v>
-      </c>
     </row>
     <row r="53" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
@@ -2251,7 +2176,10 @@
         <v>1.49E-2</v>
       </c>
       <c r="AA53">
-        <v>4.93</v>
+        <v>4.3599999999999994</v>
+      </c>
+      <c r="AB53">
+        <v>4</v>
       </c>
       <c r="AC53">
         <v>20</v>
@@ -2291,9 +2219,6 @@
       <c r="Y54">
         <v>5.6666666670000003</v>
       </c>
-      <c r="AA54">
-        <v>14.05</v>
-      </c>
       <c r="AI54">
         <v>0.373309687</v>
       </c>
@@ -2315,7 +2240,7 @@
         <v>105.42</v>
       </c>
       <c r="AA55">
-        <v>3.31</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="56" spans="1:42" x14ac:dyDescent="0.3">
@@ -2338,7 +2263,7 @@
         <v>9</v>
       </c>
       <c r="AA56">
-        <v>12.2</v>
+        <v>13.62</v>
       </c>
     </row>
     <row r="57" spans="1:42" x14ac:dyDescent="0.3">
@@ -2384,9 +2309,6 @@
       <c r="X57">
         <v>1.78E-2</v>
       </c>
-      <c r="AA57">
-        <v>14.33</v>
-      </c>
       <c r="AG57">
         <v>1.54E-2</v>
       </c>
@@ -2422,9 +2344,6 @@
       <c r="Y58">
         <v>2.8333333330000001</v>
       </c>
-      <c r="AA58">
-        <v>7.66</v>
-      </c>
     </row>
     <row r="59" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
@@ -2434,7 +2353,7 @@
         <v>45530</v>
       </c>
       <c r="AA59">
-        <v>10.130000000000001</v>
+        <v>8.9499999999999993</v>
       </c>
     </row>
     <row r="60" spans="1:42" x14ac:dyDescent="0.3">
@@ -2454,7 +2373,7 @@
         <v>497.5</v>
       </c>
       <c r="AA60">
-        <v>3.48</v>
+        <v>11.18</v>
       </c>
     </row>
     <row r="61" spans="1:42" x14ac:dyDescent="0.3">
@@ -2465,7 +2384,7 @@
         <v>45439</v>
       </c>
       <c r="AA61">
-        <v>12.45</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="62" spans="1:42" x14ac:dyDescent="0.3">
@@ -2485,7 +2404,7 @@
         <v>95</v>
       </c>
       <c r="AA62">
-        <v>14.34</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="63" spans="1:42" x14ac:dyDescent="0.3">
@@ -2498,9 +2417,6 @@
       <c r="Y63">
         <v>6.3333333329999997</v>
       </c>
-      <c r="AA63">
-        <v>5.63</v>
-      </c>
     </row>
     <row r="64" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
@@ -2512,9 +2428,6 @@
       <c r="Y64">
         <v>9.3333333330000006</v>
       </c>
-      <c r="AA64">
-        <v>7.85</v>
-      </c>
     </row>
     <row r="65" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
@@ -2532,9 +2445,6 @@
       <c r="S65">
         <v>98.33</v>
       </c>
-      <c r="AA65">
-        <v>10.42</v>
-      </c>
     </row>
     <row r="66" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
@@ -2552,9 +2462,6 @@
       <c r="S66">
         <v>218.33</v>
       </c>
-      <c r="AA66">
-        <v>12.68</v>
-      </c>
     </row>
     <row r="67" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
@@ -2564,7 +2471,7 @@
         <v>45593</v>
       </c>
       <c r="AA67">
-        <v>14.34</v>
+        <v>13.82</v>
       </c>
     </row>
     <row r="68" spans="1:42" x14ac:dyDescent="0.3">
@@ -2575,7 +2482,7 @@
         <v>45502</v>
       </c>
       <c r="AA68">
-        <v>5.98</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="69" spans="1:42" x14ac:dyDescent="0.3">
@@ -2588,9 +2495,6 @@
       <c r="Y69">
         <v>12.16666667</v>
       </c>
-      <c r="AA69">
-        <v>8.129999999999999</v>
-      </c>
     </row>
     <row r="70" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
@@ -2617,9 +2521,6 @@
       <c r="Y70">
         <v>6.9583333329999997</v>
       </c>
-      <c r="AA70">
-        <v>7.02</v>
-      </c>
       <c r="AI70">
         <v>0.59775840599999996</v>
       </c>
@@ -2658,9 +2559,6 @@
       <c r="X71">
         <v>1.8499999999999999E-2</v>
       </c>
-      <c r="AA71">
-        <v>9.35</v>
-      </c>
       <c r="AG71">
         <v>4.2999999999999997E-2</v>
       </c>
@@ -2691,7 +2589,7 @@
         <v>45599</v>
       </c>
       <c r="AA72">
-        <v>4.04</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="73" spans="1:42" x14ac:dyDescent="0.3">
@@ -2701,9 +2599,6 @@
       <c r="B73" s="2">
         <v>45412</v>
       </c>
-      <c r="AA73">
-        <v>10.58</v>
-      </c>
       <c r="AB73">
         <v>3</v>
       </c>
@@ -2725,7 +2620,7 @@
         <v>1.0833333329999999</v>
       </c>
       <c r="AA74">
-        <v>13.09</v>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="75" spans="1:42" x14ac:dyDescent="0.3">
@@ -2736,7 +2631,7 @@
         <v>45534</v>
       </c>
       <c r="AA75">
-        <v>6.33</v>
+        <v>9.24</v>
       </c>
     </row>
     <row r="76" spans="1:42" x14ac:dyDescent="0.3">
@@ -2747,7 +2642,7 @@
         <v>45565</v>
       </c>
       <c r="AA76">
-        <v>1.97</v>
+        <v>11.37</v>
       </c>
     </row>
     <row r="77" spans="1:42" x14ac:dyDescent="0.3">
@@ -2766,9 +2661,6 @@
       <c r="S77">
         <v>840.83</v>
       </c>
-      <c r="AA77">
-        <v>8.42</v>
-      </c>
     </row>
     <row r="78" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
@@ -2789,9 +2681,6 @@
       <c r="Y78">
         <v>6.25</v>
       </c>
-      <c r="AA78">
-        <v>10.81</v>
-      </c>
       <c r="AI78">
         <v>0.32987715499999998</v>
       </c>
@@ -2803,9 +2692,6 @@
       <c r="B79" s="2">
         <v>45596</v>
       </c>
-      <c r="AA79">
-        <v>4.2799999999999994</v>
-      </c>
       <c r="AB79">
         <v>6</v>
       </c>
@@ -2827,7 +2713,7 @@
         <v>1.4166666670000001</v>
       </c>
       <c r="AA80">
-        <v>6.48</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="81" spans="1:35" x14ac:dyDescent="0.3">
@@ -2850,7 +2736,7 @@
         <v>5.5</v>
       </c>
       <c r="AA81">
-        <v>13.54</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="82" spans="1:35" x14ac:dyDescent="0.3">
@@ -2863,9 +2749,6 @@
       <c r="Y82">
         <v>10.83333333</v>
       </c>
-      <c r="AA82">
-        <v>8.75</v>
-      </c>
     </row>
     <row r="83" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
@@ -2887,7 +2770,7 @@
         <v>8.6666666669999994</v>
       </c>
       <c r="AA83">
-        <v>11.02</v>
+        <v>11.73</v>
       </c>
     </row>
     <row r="84" spans="1:35" x14ac:dyDescent="0.3">
@@ -2898,7 +2781,7 @@
         <v>45509</v>
       </c>
       <c r="AA84">
-        <v>2.1799999999999997</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="85" spans="1:35" x14ac:dyDescent="0.3">
@@ -2929,9 +2812,6 @@
       <c r="Y85">
         <v>6.75</v>
       </c>
-      <c r="AA85">
-        <v>4.63</v>
-      </c>
       <c r="AI85">
         <v>0.56870767499999997</v>
       </c>
@@ -2955,9 +2835,6 @@
       <c r="Y86">
         <v>6</v>
       </c>
-      <c r="AA86">
-        <v>13.75</v>
-      </c>
       <c r="AI86">
         <v>0.28447024700000001</v>
       </c>
@@ -2978,9 +2855,6 @@
       <c r="S87">
         <v>95</v>
       </c>
-      <c r="AA87">
-        <v>6.77</v>
-      </c>
     </row>
     <row r="88" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
@@ -2999,7 +2873,7 @@
         <v>303.33</v>
       </c>
       <c r="AA88">
-        <v>14.23</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="89" spans="1:35" x14ac:dyDescent="0.3">
@@ -3015,9 +2889,6 @@
       <c r="O89">
         <v>0.98</v>
       </c>
-      <c r="AA89">
-        <v>2.38</v>
-      </c>
     </row>
     <row r="90" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
@@ -3027,7 +2898,7 @@
         <v>45450</v>
       </c>
       <c r="AA90">
-        <v>9.0399999999999991</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="91" spans="1:35" x14ac:dyDescent="0.3">
@@ -3046,9 +2917,6 @@
       <c r="S91">
         <v>102.08</v>
       </c>
-      <c r="AA91">
-        <v>11.22</v>
-      </c>
     </row>
     <row r="92" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
@@ -3058,7 +2926,7 @@
         <v>45572</v>
       </c>
       <c r="AA92">
-        <v>2.66</v>
+        <v>11.97</v>
       </c>
     </row>
     <row r="93" spans="1:35" x14ac:dyDescent="0.3">
@@ -3069,7 +2937,7 @@
         <v>45603</v>
       </c>
       <c r="AA93">
-        <v>5.13</v>
+        <v>14.41</v>
       </c>
     </row>
     <row r="94" spans="1:35" x14ac:dyDescent="0.3">
@@ -3080,7 +2948,7 @@
         <v>45481</v>
       </c>
       <c r="AA94">
-        <v>11.58</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="95" spans="1:35" x14ac:dyDescent="0.3">
@@ -3093,9 +2961,6 @@
       <c r="Y95">
         <v>7.3333333329999997</v>
       </c>
-      <c r="AA95">
-        <v>7.16</v>
-      </c>
     </row>
     <row r="96" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
@@ -3125,9 +2990,6 @@
       <c r="Y96">
         <v>7.7291666670000003</v>
       </c>
-      <c r="AA96">
-        <v>9.68</v>
-      </c>
       <c r="AI96">
         <v>0.62109135500000001</v>
       </c>
@@ -3148,9 +3010,6 @@
       <c r="S97">
         <v>95.83</v>
       </c>
-      <c r="AA97">
-        <v>2.9299999999999997</v>
-      </c>
     </row>
     <row r="98" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
@@ -3160,7 +3019,7 @@
         <v>45513</v>
       </c>
       <c r="AA98">
-        <v>11.87</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="99" spans="1:42" x14ac:dyDescent="0.3">
@@ -3171,7 +3030,7 @@
         <v>45544</v>
       </c>
       <c r="AA99">
-        <v>14.33</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="100" spans="1:42" x14ac:dyDescent="0.3">
@@ -3187,9 +3046,6 @@
       <c r="O100">
         <v>0.95</v>
       </c>
-      <c r="AA100">
-        <v>5.28</v>
-      </c>
     </row>
     <row r="101" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
@@ -3199,7 +3055,7 @@
         <v>45474</v>
       </c>
       <c r="AA101">
-        <v>7.45</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="102" spans="1:42" x14ac:dyDescent="0.3">
@@ -3212,9 +3068,6 @@
       <c r="Y102">
         <v>9.8333333330000006</v>
       </c>
-      <c r="AA102">
-        <v>9.94</v>
-      </c>
     </row>
     <row r="103" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
@@ -3254,7 +3107,7 @@
         <v>7.1666666670000003</v>
       </c>
       <c r="AA103">
-        <v>4.6500000000000004</v>
+        <v>14.05</v>
       </c>
       <c r="AG103">
         <v>1.38E-2</v>
@@ -3288,9 +3141,6 @@
       <c r="Y104">
         <v>5.3333333329999997</v>
       </c>
-      <c r="AA104">
-        <v>13.49</v>
-      </c>
     </row>
     <row r="105" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
@@ -3308,9 +3158,6 @@
       <c r="S105">
         <v>296.67</v>
       </c>
-      <c r="AA105">
-        <v>3</v>
-      </c>
     </row>
     <row r="106" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
@@ -3331,9 +3178,6 @@
       <c r="Y106">
         <v>10.66666667</v>
       </c>
-      <c r="AA106">
-        <v>11.72</v>
-      </c>
     </row>
     <row r="107" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
@@ -3343,7 +3187,7 @@
         <v>45454</v>
       </c>
       <c r="AA107">
-        <v>13.7</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="108" spans="1:42" x14ac:dyDescent="0.3">
@@ -3356,9 +3200,6 @@
       <c r="Y108">
         <v>10.16666667</v>
       </c>
-      <c r="AA108">
-        <v>7.28</v>
-      </c>
       <c r="AB108">
         <v>5</v>
       </c>
@@ -3395,7 +3236,7 @@
         <v>1.78E-2</v>
       </c>
       <c r="AA109">
-        <v>9.66</v>
+        <v>12.2</v>
       </c>
       <c r="AH109">
         <v>360.56053880000002</v>
@@ -3412,7 +3253,7 @@
         <v>45607</v>
       </c>
       <c r="AA110">
-        <v>3.26</v>
+        <v>14.33</v>
       </c>
     </row>
     <row r="111" spans="1:42" x14ac:dyDescent="0.3">
@@ -3440,9 +3281,6 @@
       <c r="Y111">
         <v>5.5833333329999997</v>
       </c>
-      <c r="AA111">
-        <v>11.95</v>
-      </c>
       <c r="AI111">
         <v>0.50421743200000002</v>
       </c>
@@ -3466,9 +3304,6 @@
       <c r="Y112">
         <v>5.25</v>
       </c>
-      <c r="AA112">
-        <v>13.7</v>
-      </c>
       <c r="AI112">
         <v>0.277852023</v>
       </c>
@@ -3489,9 +3324,6 @@
       <c r="S113">
         <v>92.08</v>
       </c>
-      <c r="AA113">
-        <v>5.28</v>
-      </c>
     </row>
     <row r="114" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
@@ -3501,7 +3333,7 @@
         <v>45516</v>
       </c>
       <c r="AA114">
-        <v>7.46</v>
+        <v>7.66</v>
       </c>
     </row>
     <row r="115" spans="1:42" x14ac:dyDescent="0.3">
@@ -3512,7 +3344,7 @@
         <v>45547</v>
       </c>
       <c r="AA115">
-        <v>9.85</v>
+        <v>10.130000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:42" x14ac:dyDescent="0.3">
@@ -3525,9 +3357,6 @@
       <c r="Y116">
         <v>2.6666666669999999</v>
       </c>
-      <c r="AA116">
-        <v>12.2</v>
-      </c>
     </row>
     <row r="117" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
@@ -3566,9 +3395,6 @@
       <c r="X117">
         <v>1.8200000000000001E-2</v>
       </c>
-      <c r="AA117">
-        <v>13.7</v>
-      </c>
       <c r="AH117">
         <v>10.59</v>
       </c>
@@ -3584,7 +3410,7 @@
         <v>45457</v>
       </c>
       <c r="AA118">
-        <v>5.64</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="119" spans="1:42" x14ac:dyDescent="0.3">
@@ -3595,7 +3421,7 @@
         <v>45579</v>
       </c>
       <c r="AA119">
-        <v>7.63</v>
+        <v>12.45</v>
       </c>
     </row>
     <row r="120" spans="1:42" x14ac:dyDescent="0.3">
@@ -3627,7 +3453,7 @@
         <v>7.0833333329999997</v>
       </c>
       <c r="AA120">
-        <v>6.61</v>
+        <v>14.34</v>
       </c>
       <c r="AI120">
         <v>0.63743027500000005</v>
@@ -3641,7 +3467,7 @@
         <v>45488</v>
       </c>
       <c r="AA121">
-        <v>8.8099999999999987</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="122" spans="1:42" x14ac:dyDescent="0.3">
@@ -3657,9 +3483,6 @@
       <c r="O122">
         <v>0.87</v>
       </c>
-      <c r="AA122">
-        <v>3.68</v>
-      </c>
     </row>
     <row r="123" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
@@ -3677,9 +3500,6 @@
       <c r="S123">
         <v>89</v>
       </c>
-      <c r="AA123">
-        <v>10.06</v>
-      </c>
     </row>
     <row r="124" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
@@ -3692,7 +3512,7 @@
         <v>11</v>
       </c>
       <c r="AA124">
-        <v>12.53</v>
+        <v>7.85</v>
       </c>
     </row>
     <row r="125" spans="1:42" x14ac:dyDescent="0.3">
@@ -3730,7 +3550,7 @@
         <v>1.83E-2</v>
       </c>
       <c r="AA125">
-        <v>5.86</v>
+        <v>10.42</v>
       </c>
       <c r="AC125">
         <v>32</v>
@@ -3779,9 +3599,6 @@
       <c r="Y126">
         <v>8</v>
       </c>
-      <c r="AA126">
-        <v>2.02</v>
-      </c>
     </row>
     <row r="127" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
@@ -3826,9 +3643,6 @@
       <c r="X127">
         <v>1.95E-2</v>
       </c>
-      <c r="AA127">
-        <v>7.93</v>
-      </c>
       <c r="AG127">
         <v>8.6E-3</v>
       </c>
@@ -3873,9 +3687,6 @@
       <c r="Y128">
         <v>5.3333333329999997</v>
       </c>
-      <c r="AA128">
-        <v>10.26</v>
-      </c>
       <c r="AI128">
         <v>0.29106054999999997</v>
       </c>
@@ -3896,9 +3707,6 @@
       <c r="S129">
         <v>380.83</v>
       </c>
-      <c r="AA129">
-        <v>3.89</v>
-      </c>
     </row>
     <row r="130" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
@@ -3908,7 +3716,7 @@
         <v>45582</v>
       </c>
       <c r="AA130">
-        <v>6.07</v>
+        <v>12.68</v>
       </c>
     </row>
     <row r="131" spans="1:42" x14ac:dyDescent="0.3">
@@ -3919,7 +3727,7 @@
         <v>45614</v>
       </c>
       <c r="AA131">
-        <v>12.95</v>
+        <v>14.34</v>
       </c>
     </row>
     <row r="132" spans="1:42" x14ac:dyDescent="0.3">
@@ -3947,9 +3755,6 @@
       <c r="Y132">
         <v>5.4166666670000003</v>
       </c>
-      <c r="AA132">
-        <v>8.26</v>
-      </c>
       <c r="AI132">
         <v>0.42286042499999998</v>
       </c>
@@ -3964,9 +3769,6 @@
       <c r="Y133">
         <v>3.2222222220000001</v>
       </c>
-      <c r="AA133">
-        <v>10.51</v>
-      </c>
     </row>
     <row r="134" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
@@ -3988,7 +3790,7 @@
         <v>7</v>
       </c>
       <c r="AA134">
-        <v>2.29</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="135" spans="1:42" x14ac:dyDescent="0.3">
@@ -3999,7 +3801,7 @@
         <v>45523</v>
       </c>
       <c r="AA135">
-        <v>4.37</v>
+        <v>8.129999999999999</v>
       </c>
     </row>
     <row r="136" spans="1:42" x14ac:dyDescent="0.3">
@@ -4018,9 +3820,6 @@
       <c r="S136">
         <v>945</v>
       </c>
-      <c r="AA136">
-        <v>13.19</v>
-      </c>
     </row>
     <row r="137" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
@@ -4039,7 +3838,7 @@
         <v>107.92</v>
       </c>
       <c r="AA137">
-        <v>6.45</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="138" spans="1:42" x14ac:dyDescent="0.3">
@@ -4050,7 +3849,7 @@
         <v>45537</v>
       </c>
       <c r="AA138">
-        <v>13.64</v>
+        <v>9.35</v>
       </c>
       <c r="AC138">
         <v>30</v>
@@ -4114,9 +3913,6 @@
       <c r="Z139">
         <v>559.70000000000005</v>
       </c>
-      <c r="AA139">
-        <v>2.37</v>
-      </c>
       <c r="AB139">
         <v>10</v>
       </c>
@@ -4181,7 +3977,7 @@
         <v>89.58</v>
       </c>
       <c r="AA140">
-        <v>8.5500000000000007</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="141" spans="1:42" x14ac:dyDescent="0.3">
@@ -4200,9 +3996,6 @@
       <c r="S141">
         <v>149.16999999999999</v>
       </c>
-      <c r="AA141">
-        <v>10.74</v>
-      </c>
     </row>
     <row r="142" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
@@ -4215,7 +4008,7 @@
         <v>9.3333333330000006</v>
       </c>
       <c r="AA142">
-        <v>2.58</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="143" spans="1:42" x14ac:dyDescent="0.3">
@@ -4226,7 +4019,7 @@
         <v>45586</v>
       </c>
       <c r="AA143">
-        <v>4.7699999999999996</v>
+        <v>13.09</v>
       </c>
     </row>
     <row r="144" spans="1:42" x14ac:dyDescent="0.3">
@@ -4237,7 +4030,7 @@
         <v>45495</v>
       </c>
       <c r="AA144">
-        <v>11.08</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="145" spans="1:42" x14ac:dyDescent="0.3">
@@ -4259,9 +4052,6 @@
       <c r="Y145">
         <v>6.4166666670000003</v>
       </c>
-      <c r="AA145">
-        <v>6.73</v>
-      </c>
       <c r="AB145">
         <v>8</v>
       </c>
@@ -4295,7 +4085,7 @@
         <v>1.0833333329999999</v>
       </c>
       <c r="AA146">
-        <v>9.2100000000000009</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="147" spans="1:42" x14ac:dyDescent="0.3">
@@ -4320,9 +4110,6 @@
       <c r="X147">
         <v>2.07E-2</v>
       </c>
-      <c r="AA147">
-        <v>2.77</v>
-      </c>
       <c r="AH147">
         <v>1.48</v>
       </c>
@@ -4341,7 +4128,7 @@
         <v>13.5</v>
       </c>
       <c r="AA148">
-        <v>11.42</v>
+        <v>8.42</v>
       </c>
       <c r="AB148">
         <v>4</v>
@@ -4358,7 +4145,7 @@
         <v>45558</v>
       </c>
       <c r="AA149">
-        <v>13.7</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="150" spans="1:42" x14ac:dyDescent="0.3">
@@ -4374,9 +4161,6 @@
       <c r="O150">
         <v>0.97</v>
       </c>
-      <c r="AA150">
-        <v>4.8900000000000006</v>
-      </c>
     </row>
     <row r="151" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
@@ -4404,7 +4188,10 @@
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="AA151">
-        <v>6.94</v>
+        <v>4.2799999999999994</v>
+      </c>
+      <c r="AB151">
+        <v>4</v>
       </c>
       <c r="AC151">
         <v>20</v>
@@ -4444,9 +4231,6 @@
       <c r="Y152">
         <v>5.2222222220000001</v>
       </c>
-      <c r="AA152">
-        <v>9.44</v>
-      </c>
       <c r="AI152">
         <v>0.37952790199999997</v>
       </c>
@@ -4468,7 +4252,7 @@
         <v>105.42</v>
       </c>
       <c r="AA153">
-        <v>4.66</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="154" spans="1:42" x14ac:dyDescent="0.3">
@@ -4491,7 +4275,7 @@
         <v>7.8333333329999997</v>
       </c>
       <c r="AA154">
-        <v>13.48</v>
+        <v>13.54</v>
       </c>
     </row>
     <row r="155" spans="1:42" x14ac:dyDescent="0.3">
@@ -4537,9 +4321,6 @@
       <c r="X155">
         <v>1.66E-2</v>
       </c>
-      <c r="AA155">
-        <v>3.13</v>
-      </c>
       <c r="AG155">
         <v>8.8999999999999999E-3</v>
       </c>
@@ -4575,9 +4356,6 @@
       <c r="Y156">
         <v>3.3333333330000001</v>
       </c>
-      <c r="AA156">
-        <v>11.6</v>
-      </c>
     </row>
     <row r="157" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
@@ -4587,7 +4365,7 @@
         <v>45530</v>
       </c>
       <c r="AA157">
-        <v>13.75</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="158" spans="1:42" x14ac:dyDescent="0.3">
@@ -4598,7 +4376,7 @@
         <v>45561</v>
       </c>
       <c r="AA158">
-        <v>7.18</v>
+        <v>11.02</v>
       </c>
     </row>
     <row r="159" spans="1:42" x14ac:dyDescent="0.3">
@@ -4609,7 +4387,7 @@
         <v>45439</v>
       </c>
       <c r="AA159">
-        <v>9.58</v>
+        <v>2.1799999999999997</v>
       </c>
     </row>
     <row r="160" spans="1:42" x14ac:dyDescent="0.3">
@@ -4629,7 +4407,7 @@
         <v>92.5</v>
       </c>
       <c r="AA160">
-        <v>3.39</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="161" spans="1:42" x14ac:dyDescent="0.3">
@@ -4642,9 +4420,6 @@
       <c r="Y161">
         <v>5.1666666670000003</v>
       </c>
-      <c r="AA161">
-        <v>11.88</v>
-      </c>
     </row>
     <row r="162" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
@@ -4665,9 +4440,6 @@
       <c r="Y162">
         <v>11.58333333</v>
       </c>
-      <c r="AA162">
-        <v>13.75</v>
-      </c>
     </row>
     <row r="163" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
@@ -4685,9 +4457,6 @@
       <c r="S163">
         <v>96.67</v>
       </c>
-      <c r="AA163">
-        <v>5.33</v>
-      </c>
     </row>
     <row r="164" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
@@ -4705,9 +4474,6 @@
       <c r="S164">
         <v>210</v>
       </c>
-      <c r="AA164">
-        <v>7.38</v>
-      </c>
     </row>
     <row r="165" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
@@ -4717,7 +4483,7 @@
         <v>45593</v>
       </c>
       <c r="AA165">
-        <v>9.8699999999999992</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="166" spans="1:42" x14ac:dyDescent="0.3">
@@ -4728,7 +4494,7 @@
         <v>45502</v>
       </c>
       <c r="AA166">
-        <v>12.13</v>
+        <v>6.77</v>
       </c>
     </row>
     <row r="167" spans="1:42" x14ac:dyDescent="0.3">
@@ -4741,9 +4507,6 @@
       <c r="Y167">
         <v>9.1666666669999994</v>
       </c>
-      <c r="AA167">
-        <v>13.75</v>
-      </c>
     </row>
     <row r="168" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
@@ -4770,9 +4533,6 @@
       <c r="Y168">
         <v>6.5</v>
       </c>
-      <c r="AA168">
-        <v>5.68</v>
-      </c>
       <c r="AI168">
         <v>0.62908930200000002</v>
       </c>
@@ -4811,9 +4571,6 @@
       <c r="X169">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="AA169">
-        <v>7.59</v>
-      </c>
       <c r="AG169">
         <v>3.44E-2</v>
       </c>
@@ -4844,7 +4601,7 @@
         <v>45599</v>
       </c>
       <c r="AA170">
-        <v>6.61</v>
+        <v>14.23</v>
       </c>
     </row>
     <row r="171" spans="1:42" x14ac:dyDescent="0.3">
@@ -4854,9 +4611,6 @@
       <c r="B171" s="2">
         <v>45412</v>
       </c>
-      <c r="AA171">
-        <v>8.83</v>
-      </c>
       <c r="AB171">
         <v>3</v>
       </c>
@@ -4878,7 +4632,7 @@
         <v>1.0833333329999999</v>
       </c>
       <c r="AA172">
-        <v>3.78</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="173" spans="1:42" x14ac:dyDescent="0.3">
@@ -4889,7 +4643,7 @@
         <v>45534</v>
       </c>
       <c r="AA173">
-        <v>10.1</v>
+        <v>9.0399999999999991</v>
       </c>
     </row>
     <row r="174" spans="1:42" x14ac:dyDescent="0.3">
@@ -4900,7 +4654,7 @@
         <v>45565</v>
       </c>
       <c r="AA174">
-        <v>12.47</v>
+        <v>11.22</v>
       </c>
     </row>
     <row r="175" spans="1:42" x14ac:dyDescent="0.3">
@@ -4919,9 +4673,6 @@
       <c r="S175">
         <v>790</v>
       </c>
-      <c r="AA175">
-        <v>5.92</v>
-      </c>
     </row>
     <row r="176" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
@@ -4942,9 +4693,6 @@
       <c r="Y176">
         <v>5.5833333329999997</v>
       </c>
-      <c r="AA176">
-        <v>1.9300000000000002</v>
-      </c>
       <c r="AI176">
         <v>0.29312928100000002</v>
       </c>
@@ -4956,9 +4704,6 @@
       <c r="B177" s="2">
         <v>45596</v>
       </c>
-      <c r="AA177">
-        <v>7.91</v>
-      </c>
       <c r="AB177">
         <v>6</v>
       </c>
@@ -4980,7 +4725,7 @@
         <v>1.5833333329999999</v>
       </c>
       <c r="AA178">
-        <v>10.25</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="179" spans="1:36" x14ac:dyDescent="0.3">
@@ -5003,7 +4748,7 @@
         <v>4.1111111109999996</v>
       </c>
       <c r="AA179">
-        <v>4.08</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="180" spans="1:36" x14ac:dyDescent="0.3">
@@ -5016,9 +4761,6 @@
       <c r="Y180">
         <v>14.16666667</v>
       </c>
-      <c r="AA180">
-        <v>6.08</v>
-      </c>
     </row>
     <row r="181" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
@@ -5040,7 +4782,7 @@
         <v>9.5</v>
       </c>
       <c r="AA181">
-        <v>13</v>
+        <v>11.58</v>
       </c>
     </row>
     <row r="182" spans="1:36" x14ac:dyDescent="0.3">
@@ -5051,7 +4793,7 @@
         <v>45509</v>
       </c>
       <c r="AA182">
-        <v>8.2199999999999989</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="183" spans="1:36" x14ac:dyDescent="0.3">
@@ -5082,9 +4824,6 @@
       <c r="Y183">
         <v>6</v>
       </c>
-      <c r="AA183">
-        <v>10.39</v>
-      </c>
       <c r="AI183">
         <v>0.57523044899999998</v>
       </c>
@@ -5108,9 +4847,6 @@
       <c r="Y184">
         <v>5.5833333329999997</v>
       </c>
-      <c r="AA184">
-        <v>2.1799999999999997</v>
-      </c>
       <c r="AI184">
         <v>0.28519445100000002</v>
       </c>
@@ -5131,9 +4867,6 @@
       <c r="S185">
         <v>99.17</v>
       </c>
-      <c r="AA185">
-        <v>4.38</v>
-      </c>
     </row>
     <row r="186" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
@@ -5152,7 +4885,7 @@
         <v>270</v>
       </c>
       <c r="AA186">
-        <v>13.23</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="187" spans="1:36" x14ac:dyDescent="0.3">
@@ -5168,9 +4901,6 @@
       <c r="O187">
         <v>0.95</v>
       </c>
-      <c r="AA187">
-        <v>6.38</v>
-      </c>
     </row>
     <row r="188" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
@@ -5180,7 +4910,7 @@
         <v>45450</v>
       </c>
       <c r="AA188">
-        <v>13.67</v>
+        <v>2.9299999999999997</v>
       </c>
     </row>
     <row r="189" spans="1:36" x14ac:dyDescent="0.3">
@@ -5199,9 +4929,6 @@
       <c r="S189">
         <v>102.5</v>
       </c>
-      <c r="AA189">
-        <v>2.33</v>
-      </c>
     </row>
     <row r="190" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
@@ -5211,7 +4938,7 @@
         <v>45572</v>
       </c>
       <c r="AA190">
-        <v>8.4600000000000009</v>
+        <v>11.87</v>
       </c>
     </row>
     <row r="191" spans="1:36" x14ac:dyDescent="0.3">
@@ -5222,7 +4949,7 @@
         <v>45603</v>
       </c>
       <c r="AA191">
-        <v>10.63</v>
+        <v>14.33</v>
       </c>
     </row>
     <row r="192" spans="1:36" x14ac:dyDescent="0.3">
@@ -5233,7 +4960,7 @@
         <v>45481</v>
       </c>
       <c r="AA192">
-        <v>2.63</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="193" spans="1:42" x14ac:dyDescent="0.3">
@@ -5246,9 +4973,6 @@
       <c r="Y193">
         <v>7.8333333329999997</v>
       </c>
-      <c r="AA193">
-        <v>4.83</v>
-      </c>
     </row>
     <row r="194" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
@@ -5278,9 +5002,6 @@
       <c r="Y194">
         <v>7.6875</v>
       </c>
-      <c r="AA194">
-        <v>10.98</v>
-      </c>
       <c r="AI194">
         <v>0.64752907000000004</v>
       </c>
@@ -5301,9 +5022,6 @@
       <c r="S195">
         <v>97.92</v>
       </c>
-      <c r="AA195">
-        <v>6.73</v>
-      </c>
     </row>
     <row r="196" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
@@ -5313,7 +5031,7 @@
         <v>45513</v>
       </c>
       <c r="AA196">
-        <v>9.1300000000000008</v>
+        <v>7.45</v>
       </c>
     </row>
     <row r="197" spans="1:42" x14ac:dyDescent="0.3">
@@ -5324,7 +5042,7 @@
         <v>45544</v>
       </c>
       <c r="AA197">
-        <v>2.88</v>
+        <v>9.94</v>
       </c>
     </row>
     <row r="198" spans="1:42" x14ac:dyDescent="0.3">
@@ -5340,9 +5058,6 @@
       <c r="O198">
         <v>0.97</v>
       </c>
-      <c r="AA198">
-        <v>11.26</v>
-      </c>
     </row>
     <row r="199" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
@@ -5352,7 +5067,7 @@
         <v>45474</v>
       </c>
       <c r="AA199">
-        <v>13.75</v>
+        <v>4.6500000000000004</v>
       </c>
     </row>
     <row r="200" spans="1:42" x14ac:dyDescent="0.3">
@@ -5365,9 +5080,6 @@
       <c r="Y200">
         <v>7.6666666670000003</v>
       </c>
-      <c r="AA200">
-        <v>4.9800000000000004</v>
-      </c>
     </row>
     <row r="201" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
@@ -5407,7 +5119,7 @@
         <v>8.3333333330000006</v>
       </c>
       <c r="AA201">
-        <v>6.97</v>
+        <v>13.49</v>
       </c>
       <c r="AG201">
         <v>2.01E-2</v>
@@ -5441,9 +5153,6 @@
       <c r="Y202">
         <v>5.6666666670000003</v>
       </c>
-      <c r="AA202">
-        <v>9.39</v>
-      </c>
     </row>
     <row r="203" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
@@ -5461,9 +5170,6 @@
       <c r="S203">
         <v>337.5</v>
       </c>
-      <c r="AA203">
-        <v>15.17</v>
-      </c>
     </row>
     <row r="204" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
@@ -5484,9 +5190,6 @@
       <c r="Y204">
         <v>10</v>
       </c>
-      <c r="AA204">
-        <v>7.23</v>
-      </c>
     </row>
     <row r="205" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
@@ -5496,7 +5199,7 @@
         <v>45454</v>
       </c>
       <c r="AA205">
-        <v>8.92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:42" x14ac:dyDescent="0.3">
@@ -5509,9 +5212,6 @@
       <c r="Y206">
         <v>11</v>
       </c>
-      <c r="AA206">
-        <v>14.46</v>
-      </c>
       <c r="AB206">
         <v>5</v>
       </c>
@@ -5548,7 +5248,7 @@
         <v>1.9400000000000001E-2</v>
       </c>
       <c r="AA207">
-        <v>15.18</v>
+        <v>11.72</v>
       </c>
       <c r="AH207">
         <v>371.72814449999998</v>
@@ -5565,7 +5265,7 @@
         <v>45607</v>
       </c>
       <c r="AA208">
-        <v>2.25</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="209" spans="1:42" x14ac:dyDescent="0.3">
@@ -5593,9 +5293,6 @@
       <c r="Y209">
         <v>5.9166666670000003</v>
       </c>
-      <c r="AA209">
-        <v>5.5</v>
-      </c>
       <c r="AI209">
         <v>0.49497487400000001</v>
       </c>
@@ -5619,9 +5316,6 @@
       <c r="Y210">
         <v>5.4166666670000003</v>
       </c>
-      <c r="AA210">
-        <v>12.85</v>
-      </c>
       <c r="AI210">
         <v>0.27314054799999998</v>
       </c>
@@ -5642,9 +5336,6 @@
       <c r="S211">
         <v>91.67</v>
       </c>
-      <c r="AA211">
-        <v>7.36</v>
-      </c>
     </row>
     <row r="212" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
@@ -5654,7 +5345,7 @@
         <v>45516</v>
       </c>
       <c r="AA212">
-        <v>10.73</v>
+        <v>7.28</v>
       </c>
     </row>
     <row r="213" spans="1:42" x14ac:dyDescent="0.3">
@@ -5665,7 +5356,7 @@
         <v>45547</v>
       </c>
       <c r="AA213">
-        <v>14.62</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="214" spans="1:42" x14ac:dyDescent="0.3">
@@ -5678,9 +5369,6 @@
       <c r="Y214">
         <v>2.5</v>
       </c>
-      <c r="AA214">
-        <v>15.18</v>
-      </c>
     </row>
     <row r="215" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
@@ -5719,9 +5407,6 @@
       <c r="X215">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="AA215">
-        <v>9.15</v>
-      </c>
       <c r="AH215">
         <v>12.1</v>
       </c>
@@ -5737,7 +5422,7 @@
         <v>45457</v>
       </c>
       <c r="AA216">
-        <v>10.85</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="217" spans="1:42" x14ac:dyDescent="0.3">
@@ -5748,7 +5433,7 @@
         <v>45579</v>
       </c>
       <c r="AA217">
-        <v>13.07</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="218" spans="1:42" x14ac:dyDescent="0.3">
@@ -5780,7 +5465,7 @@
         <v>6.3333333329999997</v>
       </c>
       <c r="AA218">
-        <v>2.9</v>
+        <v>13.7</v>
       </c>
       <c r="AI218">
         <v>0.62921960099999996</v>
@@ -5794,7 +5479,7 @@
         <v>45488</v>
       </c>
       <c r="AA219">
-        <v>5.85</v>
+        <v>5.28</v>
       </c>
     </row>
     <row r="220" spans="1:42" x14ac:dyDescent="0.3">
@@ -5810,9 +5495,6 @@
       <c r="O220">
         <v>0.92</v>
       </c>
-      <c r="AA220">
-        <v>7.79</v>
-      </c>
     </row>
     <row r="221" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
@@ -5830,9 +5512,6 @@
       <c r="S221">
         <v>86.92</v>
       </c>
-      <c r="AA221">
-        <v>14.82</v>
-      </c>
     </row>
     <row r="222" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
@@ -5845,7 +5524,7 @@
         <v>10.16666667</v>
       </c>
       <c r="AA222">
-        <v>15.18</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="223" spans="1:42" x14ac:dyDescent="0.3">
@@ -5883,7 +5562,7 @@
         <v>1.83E-2</v>
       </c>
       <c r="AA223">
-        <v>3.15</v>
+        <v>9.85</v>
       </c>
       <c r="AC223">
         <v>32</v>
@@ -5932,9 +5611,6 @@
       <c r="Y224">
         <v>8.6666666669999994</v>
       </c>
-      <c r="AA224">
-        <v>9.31</v>
-      </c>
     </row>
     <row r="225" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
@@ -5979,9 +5655,6 @@
       <c r="X225">
         <v>1.9900000000000001E-2</v>
       </c>
-      <c r="AA225">
-        <v>11.05</v>
-      </c>
       <c r="AG225">
         <v>1.0699999999999999E-2</v>
       </c>
@@ -6026,9 +5699,6 @@
       <c r="Y226">
         <v>6.1666666670000003</v>
       </c>
-      <c r="AA226">
-        <v>8.49</v>
-      </c>
       <c r="AI226">
         <v>0.29027593699999998</v>
       </c>
@@ -6049,9 +5719,6 @@
       <c r="S227">
         <v>399.17</v>
       </c>
-      <c r="AA227">
-        <v>10.15</v>
-      </c>
     </row>
     <row r="228" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
@@ -6061,7 +5728,7 @@
         <v>45582</v>
       </c>
       <c r="AA228">
-        <v>12</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="229" spans="1:42" x14ac:dyDescent="0.3">
@@ -6072,7 +5739,7 @@
         <v>45614</v>
       </c>
       <c r="AA229">
-        <v>5.99</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="230" spans="1:42" x14ac:dyDescent="0.3">
@@ -6100,9 +5767,6 @@
       <c r="Y230">
         <v>5.5833333329999997</v>
       </c>
-      <c r="AA230">
-        <v>13.21</v>
-      </c>
       <c r="AI230">
         <v>0.41148831200000002</v>
       </c>
@@ -6117,9 +5781,6 @@
       <c r="Y231">
         <v>2.6666666669999999</v>
       </c>
-      <c r="AA231">
-        <v>15.09</v>
-      </c>
     </row>
     <row r="232" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
@@ -6141,7 +5802,7 @@
         <v>7.5</v>
       </c>
       <c r="AA232">
-        <v>3.53</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="233" spans="1:42" x14ac:dyDescent="0.3">
@@ -6152,7 +5813,7 @@
         <v>45523</v>
       </c>
       <c r="AA233">
-        <v>8.0300000000000011</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="234" spans="1:42" x14ac:dyDescent="0.3">
@@ -6171,9 +5832,6 @@
       <c r="S234">
         <v>973.33</v>
       </c>
-      <c r="AA234">
-        <v>9.5</v>
-      </c>
     </row>
     <row r="235" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
@@ -6192,7 +5850,7 @@
         <v>115.42</v>
       </c>
       <c r="AA235">
-        <v>11.2</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="236" spans="1:42" x14ac:dyDescent="0.3">
@@ -6203,7 +5861,7 @@
         <v>45537</v>
       </c>
       <c r="AA236">
-        <v>13.37</v>
+        <v>8.8099999999999987</v>
       </c>
       <c r="AC236">
         <v>30</v>
@@ -6267,9 +5925,6 @@
       <c r="Z237">
         <v>598.79999999999995</v>
       </c>
-      <c r="AA237">
-        <v>3.8</v>
-      </c>
       <c r="AB237">
         <v>10</v>
       </c>
@@ -6334,7 +5989,7 @@
         <v>94.58</v>
       </c>
       <c r="AA238">
-        <v>6.25</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="239" spans="1:42" x14ac:dyDescent="0.3">
@@ -6353,9 +6008,6 @@
       <c r="S239">
         <v>165.83</v>
       </c>
-      <c r="AA239">
-        <v>8.2100000000000009</v>
-      </c>
     </row>
     <row r="240" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
@@ -6368,7 +6020,7 @@
         <v>10.16666667</v>
       </c>
       <c r="AA240">
-        <v>9.75</v>
+        <v>10.06</v>
       </c>
     </row>
     <row r="241" spans="1:42" x14ac:dyDescent="0.3">
@@ -6379,7 +6031,7 @@
         <v>45586</v>
       </c>
       <c r="AA241">
-        <v>15.15</v>
+        <v>12.53</v>
       </c>
     </row>
     <row r="242" spans="1:42" x14ac:dyDescent="0.3">
@@ -6390,7 +6042,7 @@
         <v>45495</v>
       </c>
       <c r="AA242">
-        <v>11.45</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="243" spans="1:42" x14ac:dyDescent="0.3">
@@ -6412,9 +6064,6 @@
       <c r="Y243">
         <v>6.4166666670000003</v>
       </c>
-      <c r="AA243">
-        <v>13.6</v>
-      </c>
       <c r="AB243">
         <v>8</v>
       </c>
@@ -6448,7 +6097,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AA244">
-        <v>6.43</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="245" spans="1:42" x14ac:dyDescent="0.3">
@@ -6479,9 +6128,6 @@
       <c r="X245">
         <v>2.01E-2</v>
       </c>
-      <c r="AA245">
-        <v>8.34</v>
-      </c>
       <c r="AH245">
         <v>1.34</v>
       </c>
@@ -6500,7 +6146,7 @@
         <v>11.66666667</v>
       </c>
       <c r="AA246">
-        <v>15.15</v>
+        <v>7.93</v>
       </c>
       <c r="AB246">
         <v>4</v>
@@ -6517,7 +6163,7 @@
         <v>45558</v>
       </c>
       <c r="AA247">
-        <v>10.02</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="248" spans="1:42" x14ac:dyDescent="0.3">
@@ -6533,9 +6179,6 @@
       <c r="O248">
         <v>0.98</v>
       </c>
-      <c r="AA248">
-        <v>4.8499999999999996</v>
-      </c>
     </row>
     <row r="249" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
@@ -6563,7 +6206,10 @@
         <v>1.67E-2</v>
       </c>
       <c r="AA249">
-        <v>6.88</v>
+        <v>3.89</v>
+      </c>
+      <c r="AB249">
+        <v>4</v>
       </c>
       <c r="AC249">
         <v>20</v>
@@ -6603,9 +6249,6 @@
       <c r="Y250">
         <v>5.25</v>
       </c>
-      <c r="AA250">
-        <v>15.18</v>
-      </c>
       <c r="AI250">
         <v>0.37324506299999999</v>
       </c>
@@ -6627,7 +6270,7 @@
         <v>106.67</v>
       </c>
       <c r="AA251">
-        <v>4.46</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="252" spans="1:42" x14ac:dyDescent="0.3">
@@ -6650,7 +6293,7 @@
         <v>7.1666666670000003</v>
       </c>
       <c r="AA252">
-        <v>11.75</v>
+        <v>12.95</v>
       </c>
     </row>
     <row r="253" spans="1:42" x14ac:dyDescent="0.3">
@@ -6696,9 +6339,6 @@
       <c r="X253">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="AA253">
-        <v>13.84</v>
-      </c>
       <c r="AG253">
         <v>1.41E-2</v>
       </c>
@@ -6734,9 +6374,6 @@
       <c r="Y254">
         <v>4</v>
       </c>
-      <c r="AA254">
-        <v>6.62</v>
-      </c>
     </row>
     <row r="255" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
@@ -6746,7 +6383,7 @@
         <v>45530</v>
       </c>
       <c r="AA255">
-        <v>14.02</v>
+        <v>8.26</v>
       </c>
     </row>
     <row r="256" spans="1:42" x14ac:dyDescent="0.3">
@@ -6757,7 +6394,7 @@
         <v>45561</v>
       </c>
       <c r="AA256">
-        <v>8.73</v>
+        <v>10.51</v>
       </c>
     </row>
     <row r="257" spans="1:42" x14ac:dyDescent="0.3">
@@ -6768,7 +6405,7 @@
         <v>45439</v>
       </c>
       <c r="AA257">
-        <v>10.199999999999999</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="258" spans="1:42" x14ac:dyDescent="0.3">
@@ -6788,7 +6425,7 @@
         <v>95</v>
       </c>
       <c r="AA258">
-        <v>5.0599999999999996</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="259" spans="1:42" x14ac:dyDescent="0.3">
@@ -6801,9 +6438,6 @@
       <c r="Y259">
         <v>6.3333333329999997</v>
       </c>
-      <c r="AA259">
-        <v>7.01</v>
-      </c>
     </row>
     <row r="260" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
@@ -6824,9 +6458,6 @@
       <c r="Y260">
         <v>12</v>
       </c>
-      <c r="AA260">
-        <v>12.32</v>
-      </c>
     </row>
     <row r="261" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
@@ -6844,9 +6475,6 @@
       <c r="S261">
         <v>95.83</v>
       </c>
-      <c r="AA261">
-        <v>14.2</v>
-      </c>
     </row>
     <row r="262" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
@@ -6864,9 +6492,6 @@
       <c r="S262">
         <v>224.17</v>
       </c>
-      <c r="AA262">
-        <v>15.18</v>
-      </c>
     </row>
     <row r="263" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
@@ -6876,7 +6501,7 @@
         <v>45593</v>
       </c>
       <c r="AA263">
-        <v>5.19</v>
+        <v>13.19</v>
       </c>
     </row>
     <row r="264" spans="1:42" x14ac:dyDescent="0.3">
@@ -6887,7 +6512,7 @@
         <v>45502</v>
       </c>
       <c r="AA264">
-        <v>10.44</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="265" spans="1:42" x14ac:dyDescent="0.3">
@@ -6900,9 +6525,6 @@
       <c r="Y265">
         <v>12.16666667</v>
       </c>
-      <c r="AA265">
-        <v>12.64</v>
-      </c>
     </row>
     <row r="266" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
@@ -6929,9 +6551,6 @@
       <c r="Y266">
         <v>7.1041666670000003</v>
       </c>
-      <c r="AA266">
-        <v>15.68</v>
-      </c>
       <c r="AI266">
         <v>0.61267501800000002</v>
       </c>
@@ -6970,9 +6589,6 @@
       <c r="X267">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="AA267">
-        <v>7.39</v>
-      </c>
       <c r="AG267">
         <v>4.1599999999999998E-2</v>
       </c>
@@ -7003,7 +6619,7 @@
         <v>45599</v>
       </c>
       <c r="AA268">
-        <v>9.0299999999999994</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="269" spans="1:42" x14ac:dyDescent="0.3">
@@ -7013,9 +6629,6 @@
       <c r="B269" s="2">
         <v>45412</v>
       </c>
-      <c r="AA269">
-        <v>14.67</v>
-      </c>
       <c r="AB269">
         <v>3</v>
       </c>
@@ -7037,7 +6650,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="AA270">
-        <v>15.73</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="271" spans="1:42" x14ac:dyDescent="0.3">
@@ -7048,7 +6661,7 @@
         <v>45534</v>
       </c>
       <c r="AA271">
-        <v>2.25</v>
+        <v>8.5500000000000007</v>
       </c>
     </row>
     <row r="272" spans="1:42" x14ac:dyDescent="0.3">
@@ -7059,7 +6672,7 @@
         <v>45565</v>
       </c>
       <c r="AA272">
-        <v>5.55</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="273" spans="1:36" x14ac:dyDescent="0.3">
@@ -7078,9 +6691,6 @@
       <c r="S273">
         <v>800</v>
       </c>
-      <c r="AA273">
-        <v>12.95</v>
-      </c>
     </row>
     <row r="274" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
@@ -7101,9 +6711,6 @@
       <c r="Y274">
         <v>5.4166666670000003</v>
       </c>
-      <c r="AA274">
-        <v>7.57</v>
-      </c>
       <c r="AI274">
         <v>0.29311669800000001</v>
       </c>
@@ -7115,9 +6722,6 @@
       <c r="B275" s="2">
         <v>45596</v>
       </c>
-      <c r="AA275">
-        <v>10.82</v>
-      </c>
       <c r="AB275">
         <v>6</v>
       </c>
@@ -7139,7 +6743,7 @@
         <v>1.4</v>
       </c>
       <c r="AA276">
-        <v>14.91</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="277" spans="1:36" x14ac:dyDescent="0.3">
@@ -7162,7 +6766,7 @@
         <v>5.8333333329999997</v>
       </c>
       <c r="AA277">
-        <v>15.73</v>
+        <v>4.7699999999999996</v>
       </c>
     </row>
     <row r="278" spans="1:36" x14ac:dyDescent="0.3">
@@ -7175,9 +6779,6 @@
       <c r="Y278">
         <v>12.66666667</v>
       </c>
-      <c r="AA278">
-        <v>9.2899999999999991</v>
-      </c>
     </row>
     <row r="279" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
@@ -7199,7 +6800,7 @@
         <v>10.25</v>
       </c>
       <c r="AA279">
-        <v>11.02</v>
+        <v>11.08</v>
       </c>
     </row>
     <row r="280" spans="1:36" x14ac:dyDescent="0.3">
@@ -7210,7 +6811,7 @@
         <v>45509</v>
       </c>
       <c r="AA280">
-        <v>13.15</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="281" spans="1:36" x14ac:dyDescent="0.3">
@@ -7241,9 +6842,6 @@
       <c r="Y281">
         <v>6.8333333329999997</v>
       </c>
-      <c r="AA281">
-        <v>2.85</v>
-      </c>
       <c r="AI281">
         <v>0.557317073</v>
       </c>
@@ -7267,9 +6865,6 @@
       <c r="Y282">
         <v>5.3333333329999997</v>
       </c>
-      <c r="AA282">
-        <v>5.85</v>
-      </c>
       <c r="AI282">
         <v>0.28467490499999998</v>
       </c>
@@ -7290,9 +6885,6 @@
       <c r="S283">
         <v>95.17</v>
       </c>
-      <c r="AA283">
-        <v>7.87</v>
-      </c>
     </row>
     <row r="284" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
@@ -7311,7 +6903,7 @@
         <v>297.5</v>
       </c>
       <c r="AA284">
-        <v>15.1</v>
+        <v>9.2100000000000009</v>
       </c>
     </row>
     <row r="285" spans="1:36" x14ac:dyDescent="0.3">
@@ -7327,9 +6919,6 @@
       <c r="O285">
         <v>0.96</v>
       </c>
-      <c r="AA285">
-        <v>15.73</v>
-      </c>
     </row>
     <row r="286" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
@@ -7339,7 +6928,7 @@
         <v>45450</v>
       </c>
       <c r="AA286">
-        <v>2.99</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="287" spans="1:36" x14ac:dyDescent="0.3">
@@ -7358,9 +6947,6 @@
       <c r="S287">
         <v>105</v>
       </c>
-      <c r="AA287">
-        <v>9.4499999999999993</v>
-      </c>
     </row>
     <row r="288" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
@@ -7370,7 +6956,7 @@
         <v>45572</v>
       </c>
       <c r="AA288">
-        <v>11.14</v>
+        <v>11.42</v>
       </c>
     </row>
     <row r="289" spans="1:42" x14ac:dyDescent="0.3">
@@ -7381,7 +6967,7 @@
         <v>45603</v>
       </c>
       <c r="AA289">
-        <v>8.7899999999999991</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="290" spans="1:42" x14ac:dyDescent="0.3">
@@ -7392,7 +6978,7 @@
         <v>45481</v>
       </c>
       <c r="AA290">
-        <v>10.27</v>
+        <v>4.8900000000000006</v>
       </c>
     </row>
     <row r="291" spans="1:42" x14ac:dyDescent="0.3">
@@ -7405,9 +6991,6 @@
       <c r="Y291">
         <v>12.16666667</v>
       </c>
-      <c r="AA291">
-        <v>12.15</v>
-      </c>
     </row>
     <row r="292" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
@@ -7437,9 +7020,6 @@
       <c r="Y292">
         <v>7.5</v>
       </c>
-      <c r="AA292">
-        <v>6.12</v>
-      </c>
       <c r="AI292">
         <v>0.64534674800000003</v>
       </c>
@@ -7460,9 +7040,6 @@
       <c r="S293">
         <v>96.67</v>
       </c>
-      <c r="AA293">
-        <v>13.34</v>
-      </c>
     </row>
     <row r="294" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
@@ -7472,7 +7049,7 @@
         <v>45513</v>
       </c>
       <c r="AA294">
-        <v>15.45</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="295" spans="1:42" x14ac:dyDescent="0.3">
@@ -7483,7 +7060,7 @@
         <v>45544</v>
       </c>
       <c r="AA295">
-        <v>3.46</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="296" spans="1:42" x14ac:dyDescent="0.3">
@@ -7499,9 +7076,6 @@
       <c r="O296">
         <v>0.9</v>
       </c>
-      <c r="AA296">
-        <v>8.08</v>
-      </c>
     </row>
     <row r="297" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
@@ -7511,7 +7085,7 @@
         <v>45474</v>
       </c>
       <c r="AA297">
-        <v>9.7200000000000006</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="298" spans="1:42" x14ac:dyDescent="0.3">
@@ -7524,9 +7098,6 @@
       <c r="Y298">
         <v>5.5</v>
       </c>
-      <c r="AA298">
-        <v>11.37</v>
-      </c>
     </row>
     <row r="299" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
@@ -7566,7 +7137,7 @@
         <v>5.5</v>
       </c>
       <c r="AA299">
-        <v>13.54</v>
+        <v>13.48</v>
       </c>
       <c r="AG299">
         <v>1.01E-2</v>
@@ -7600,9 +7171,6 @@
       <c r="Y300">
         <v>5.6666666670000003</v>
       </c>
-      <c r="AA300">
-        <v>3.65</v>
-      </c>
     </row>
     <row r="301" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
@@ -7620,9 +7188,6 @@
       <c r="S301">
         <v>295</v>
       </c>
-      <c r="AA301">
-        <v>6.37</v>
-      </c>
     </row>
     <row r="302" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
@@ -7643,9 +7208,6 @@
       <c r="Y302">
         <v>8.6666666669999994</v>
       </c>
-      <c r="AA302">
-        <v>8.2800000000000011</v>
-      </c>
     </row>
     <row r="303" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
@@ -7655,7 +7217,7 @@
         <v>45454</v>
       </c>
       <c r="AA303">
-        <v>9.8699999999999992</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="304" spans="1:42" x14ac:dyDescent="0.3">
@@ -7668,9 +7230,6 @@
       <c r="Y304">
         <v>9.1666666669999994</v>
       </c>
-      <c r="AA304">
-        <v>15.63</v>
-      </c>
       <c r="AB304">
         <v>5</v>
       </c>
@@ -7707,7 +7266,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="AA305">
-        <v>11.62</v>
+        <v>11.6</v>
       </c>
       <c r="AH305">
         <v>364.03917949999999</v>
@@ -7724,7 +7283,7 @@
         <v>45607</v>
       </c>
       <c r="AA306">
-        <v>13.72</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="307" spans="1:35" x14ac:dyDescent="0.3">
@@ -7752,9 +7311,6 @@
       <c r="Y307">
         <v>4.8333333329999997</v>
       </c>
-      <c r="AA307">
-        <v>6.65</v>
-      </c>
       <c r="AI307">
         <v>0.51355484500000004</v>
       </c>
@@ -7775,9 +7331,6 @@
       <c r="Y308">
         <v>5.3333333329999997</v>
       </c>
-      <c r="AA308">
-        <v>8.5</v>
-      </c>
       <c r="AI308">
         <v>0.25711146400000001</v>
       </c>
@@ -7798,9 +7351,6 @@
       <c r="S309">
         <v>92.08</v>
       </c>
-      <c r="AA309">
-        <v>15.65</v>
-      </c>
     </row>
     <row r="310" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
@@ -7810,7 +7360,7 @@
         <v>45516</v>
       </c>
       <c r="AA310">
-        <v>10.050000000000001</v>
+        <v>7.18</v>
       </c>
     </row>
     <row r="311" spans="1:35" x14ac:dyDescent="0.3">
@@ -7821,7 +7371,7 @@
         <v>45547</v>
       </c>
       <c r="AA311">
-        <v>4.79</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="312" spans="1:35" x14ac:dyDescent="0.3">
@@ -7834,9 +7384,6 @@
       <c r="Y312">
         <v>3</v>
       </c>
-      <c r="AA312">
-        <v>6.98</v>
-      </c>
     </row>
     <row r="313" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
@@ -7875,9 +7422,6 @@
       <c r="X313">
         <v>1.67E-2</v>
       </c>
-      <c r="AA313">
-        <v>15.68</v>
-      </c>
       <c r="AH313">
         <v>9.92</v>
       </c>
@@ -7893,7 +7437,7 @@
         <v>45457</v>
       </c>
       <c r="AA314">
-        <v>4.4700000000000006</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="315" spans="1:35" x14ac:dyDescent="0.3">
@@ -7904,7 +7448,7 @@
         <v>45579</v>
       </c>
       <c r="AA315">
-        <v>11.92</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="316" spans="1:35" x14ac:dyDescent="0.3">
@@ -7936,7 +7480,7 @@
         <v>6.0833333329999997</v>
       </c>
       <c r="AA316">
-        <v>13.94</v>
+        <v>13.75</v>
       </c>
       <c r="AI316">
         <v>0.65602983800000003</v>
@@ -7950,7 +7494,7 @@
         <v>45488</v>
       </c>
       <c r="AA317">
-        <v>6.8</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="318" spans="1:35" x14ac:dyDescent="0.3">
@@ -7966,9 +7510,6 @@
       <c r="O318">
         <v>0.8</v>
       </c>
-      <c r="AA318">
-        <v>14.2</v>
-      </c>
     </row>
     <row r="319" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
@@ -7986,9 +7527,6 @@
       <c r="S319">
         <v>85.08</v>
       </c>
-      <c r="AA319">
-        <v>8.89</v>
-      </c>
     </row>
     <row r="320" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
@@ -8001,7 +7539,7 @@
         <v>10</v>
       </c>
       <c r="AA320">
-        <v>10.35</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="321" spans="1:42" x14ac:dyDescent="0.3">
@@ -8039,7 +7577,7 @@
         <v>1.7100000000000001E-2</v>
       </c>
       <c r="AA321">
-        <v>5.14</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="AC321">
         <v>32</v>
@@ -8088,9 +7626,6 @@
       <c r="Y322">
         <v>7.5</v>
       </c>
-      <c r="AA322">
-        <v>7.14</v>
-      </c>
     </row>
     <row r="323" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
@@ -8135,9 +7670,6 @@
       <c r="X323">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="AA323">
-        <v>12.49</v>
-      </c>
       <c r="AG323">
         <v>4.8999999999999998E-3</v>
       </c>
@@ -8179,9 +7711,6 @@
       <c r="Y324">
         <v>5.6666666670000003</v>
       </c>
-      <c r="AA324">
-        <v>14.46</v>
-      </c>
       <c r="AI324">
         <v>0.28631284899999998</v>
       </c>
@@ -8202,9 +7731,6 @@
       <c r="S325">
         <v>334.17</v>
       </c>
-      <c r="AA325">
-        <v>15.7</v>
-      </c>
     </row>
     <row r="326" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
@@ -8214,7 +7740,7 @@
         <v>45582</v>
       </c>
       <c r="AA326">
-        <v>5.27</v>
+        <v>12.13</v>
       </c>
     </row>
     <row r="327" spans="1:42" x14ac:dyDescent="0.3">
@@ -8225,7 +7751,7 @@
         <v>45614</v>
       </c>
       <c r="AA327">
-        <v>10.57</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="328" spans="1:42" x14ac:dyDescent="0.3">
@@ -8253,9 +7779,6 @@
       <c r="Y328">
         <v>4.5833333329999997</v>
       </c>
-      <c r="AA328">
-        <v>12.75</v>
-      </c>
       <c r="AI328">
         <v>0.41160914999999998</v>
       </c>
@@ -8270,9 +7793,6 @@
       <c r="Y329">
         <v>2.6666666669999999</v>
       </c>
-      <c r="AA329">
-        <v>15.55</v>
-      </c>
     </row>
     <row r="330" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
@@ -8294,7 +7814,7 @@
         <v>6.8333333329999997</v>
       </c>
       <c r="AA330">
-        <v>7.15</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="331" spans="1:42" x14ac:dyDescent="0.3">
@@ -8305,7 +7825,7 @@
         <v>45523</v>
       </c>
       <c r="AA331">
-        <v>8.92</v>
+        <v>7.59</v>
       </c>
     </row>
     <row r="332" spans="1:42" x14ac:dyDescent="0.3">
@@ -8324,9 +7844,6 @@
       <c r="S332">
         <v>861.67</v>
       </c>
-      <c r="AA332">
-        <v>14.61</v>
-      </c>
     </row>
     <row r="333" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
@@ -8345,7 +7862,7 @@
         <v>115</v>
       </c>
       <c r="AA333">
-        <v>15.55</v>
+        <v>6.61</v>
       </c>
     </row>
     <row r="334" spans="1:42" x14ac:dyDescent="0.3">
@@ -8356,7 +7873,7 @@
         <v>45537</v>
       </c>
       <c r="AA334">
-        <v>2.17</v>
+        <v>8.83</v>
       </c>
       <c r="AC334">
         <v>30</v>
@@ -8420,9 +7937,6 @@
       <c r="Z335">
         <v>519.4</v>
       </c>
-      <c r="AA335">
-        <v>5.45</v>
-      </c>
       <c r="AB335">
         <v>10</v>
       </c>
@@ -8487,7 +8001,7 @@
         <v>93.75</v>
       </c>
       <c r="AA336">
-        <v>12.89</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="337" spans="1:42" x14ac:dyDescent="0.3">
@@ -8506,9 +8020,6 @@
       <c r="S337">
         <v>155</v>
       </c>
-      <c r="AA337">
-        <v>7.4</v>
-      </c>
     </row>
     <row r="338" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
@@ -8521,7 +8032,7 @@
         <v>9.8333333330000006</v>
       </c>
       <c r="AA338">
-        <v>10.7</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="339" spans="1:42" x14ac:dyDescent="0.3">
@@ -8532,7 +8043,7 @@
         <v>45586</v>
       </c>
       <c r="AA339">
-        <v>14.83</v>
+        <v>12.47</v>
       </c>
     </row>
     <row r="340" spans="1:42" x14ac:dyDescent="0.3">
@@ -8543,7 +8054,7 @@
         <v>45495</v>
       </c>
       <c r="AA340">
-        <v>15.55</v>
+        <v>5.92</v>
       </c>
     </row>
     <row r="341" spans="1:42" x14ac:dyDescent="0.3">
@@ -8565,9 +8076,6 @@
       <c r="Y341">
         <v>5.75</v>
       </c>
-      <c r="AA341">
-        <v>9.1300000000000008</v>
-      </c>
       <c r="AB341">
         <v>8</v>
       </c>
@@ -8601,7 +8109,7 @@
         <v>1</v>
       </c>
       <c r="AA342">
-        <v>10.93</v>
+        <v>1.9300000000000002</v>
       </c>
     </row>
     <row r="343" spans="1:42" x14ac:dyDescent="0.3">
@@ -8632,9 +8140,6 @@
       <c r="X343">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="AA343">
-        <v>13.16</v>
-      </c>
       <c r="AH343">
         <v>1.42</v>
       </c>
@@ -8653,7 +8158,7 @@
         <v>11</v>
       </c>
       <c r="AA344">
-        <v>2.75</v>
+        <v>7.91</v>
       </c>
       <c r="AB344">
         <v>4</v>
@@ -8670,7 +8175,7 @@
         <v>45558</v>
       </c>
       <c r="AA345">
-        <v>5.75</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="346" spans="1:42" x14ac:dyDescent="0.3">
@@ -8686,9 +8191,6 @@
       <c r="O346">
         <v>0.92</v>
       </c>
-      <c r="AA346">
-        <v>7.73</v>
-      </c>
     </row>
     <row r="347" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
@@ -8716,7 +8218,10 @@
         <v>1.6500000000000001E-2</v>
       </c>
       <c r="AA347">
-        <v>15.04</v>
+        <v>4.08</v>
+      </c>
+      <c r="AB347">
+        <v>4</v>
       </c>
       <c r="AC347">
         <v>20</v>
@@ -8756,9 +8261,6 @@
       <c r="Y348">
         <v>4.9166666670000003</v>
       </c>
-      <c r="AA348">
-        <v>15.55</v>
-      </c>
       <c r="AI348">
         <v>0.34819145000000001</v>
       </c>
@@ -8780,7 +8282,7 @@
         <v>107.92</v>
       </c>
       <c r="AA349">
-        <v>2.8600000000000003</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="350" spans="1:42" x14ac:dyDescent="0.3">
@@ -8803,7 +8305,7 @@
         <v>7.6666666670000003</v>
       </c>
       <c r="AA350">
-        <v>9.3800000000000008</v>
+        <v>13</v>
       </c>
     </row>
     <row r="351" spans="1:42" x14ac:dyDescent="0.3">
@@ -8849,9 +8351,6 @@
       <c r="X351">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="AA351">
-        <v>11.11</v>
-      </c>
       <c r="AG351">
         <v>6.1000000000000004E-3</v>
       </c>
@@ -8887,9 +8386,6 @@
       <c r="Y352">
         <v>3.111111111</v>
       </c>
-      <c r="AA352">
-        <v>8.620000000000001</v>
-      </c>
     </row>
     <row r="353" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
@@ -8899,7 +8395,7 @@
         <v>45530</v>
       </c>
       <c r="AA353">
-        <v>10.17</v>
+        <v>8.2199999999999989</v>
       </c>
     </row>
     <row r="354" spans="1:42" x14ac:dyDescent="0.3">
@@ -8910,7 +8406,7 @@
         <v>45561</v>
       </c>
       <c r="AA354">
-        <v>12.11</v>
+        <v>10.39</v>
       </c>
     </row>
     <row r="355" spans="1:42" x14ac:dyDescent="0.3">
@@ -8921,7 +8417,7 @@
         <v>45439</v>
       </c>
       <c r="AA355">
-        <v>5.89</v>
+        <v>2.1799999999999997</v>
       </c>
     </row>
     <row r="356" spans="1:42" x14ac:dyDescent="0.3">
@@ -8941,7 +8437,7 @@
         <v>89.17</v>
       </c>
       <c r="AA356">
-        <v>13.29</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="357" spans="1:42" x14ac:dyDescent="0.3">
@@ -8954,9 +8450,6 @@
       <c r="Y357">
         <v>8.5</v>
       </c>
-      <c r="AA357">
-        <v>15.3</v>
-      </c>
     </row>
     <row r="358" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
@@ -8977,9 +8470,6 @@
       <c r="Y358">
         <v>8.8333333330000006</v>
       </c>
-      <c r="AA358">
-        <v>3.33</v>
-      </c>
     </row>
     <row r="359" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
@@ -8997,9 +8487,6 @@
       <c r="S359">
         <v>96.25</v>
       </c>
-      <c r="AA359">
-        <v>7.99</v>
-      </c>
     </row>
     <row r="360" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
@@ -9017,9 +8504,6 @@
       <c r="S360">
         <v>210</v>
       </c>
-      <c r="AA360">
-        <v>9.6</v>
-      </c>
     </row>
     <row r="361" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
@@ -9029,7 +8513,7 @@
         <v>45593</v>
       </c>
       <c r="AA361">
-        <v>11.25</v>
+        <v>13.23</v>
       </c>
     </row>
     <row r="362" spans="1:42" x14ac:dyDescent="0.3">
@@ -9040,7 +8524,7 @@
         <v>45502</v>
       </c>
       <c r="AA362">
-        <v>13.49</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="363" spans="1:42" x14ac:dyDescent="0.3">
@@ -9053,9 +8537,6 @@
       <c r="Y363">
         <v>14.83333333</v>
       </c>
-      <c r="AA363">
-        <v>3.55</v>
-      </c>
     </row>
     <row r="364" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
@@ -9082,9 +8563,6 @@
       <c r="Y364">
         <v>6.5</v>
       </c>
-      <c r="AA364">
-        <v>6.13</v>
-      </c>
       <c r="AI364">
         <v>0.64069327099999995</v>
       </c>
@@ -9123,9 +8601,6 @@
       <c r="X365">
         <v>1.7100000000000001E-2</v>
       </c>
-      <c r="AA365">
-        <v>8.15</v>
-      </c>
       <c r="AG365">
         <v>3.56E-2</v>
       </c>
@@ -9156,7 +8631,7 @@
         <v>45599</v>
       </c>
       <c r="AA366">
-        <v>9.77</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="367" spans="1:42" x14ac:dyDescent="0.3">
@@ -9166,9 +8641,6 @@
       <c r="B367" s="2">
         <v>45412</v>
       </c>
-      <c r="AA367">
-        <v>15.54</v>
-      </c>
       <c r="AB367">
         <v>3</v>
       </c>
@@ -9190,7 +8662,7 @@
         <v>1</v>
       </c>
       <c r="AA368">
-        <v>11.57</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="369" spans="1:36" x14ac:dyDescent="0.3">
@@ -9201,7 +8673,7 @@
         <v>45534</v>
       </c>
       <c r="AA369">
-        <v>13.65</v>
+        <v>8.4600000000000009</v>
       </c>
     </row>
     <row r="370" spans="1:36" x14ac:dyDescent="0.3">
@@ -9212,7 +8684,7 @@
         <v>45565</v>
       </c>
       <c r="AA370">
-        <v>6.47</v>
+        <v>10.63</v>
       </c>
     </row>
     <row r="371" spans="1:36" x14ac:dyDescent="0.3">
@@ -9231,9 +8703,6 @@
       <c r="S371">
         <v>689.17</v>
       </c>
-      <c r="AA371">
-        <v>8.41</v>
-      </c>
     </row>
     <row r="372" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
@@ -9254,9 +8723,6 @@
       <c r="Y372">
         <v>5.5833333329999997</v>
       </c>
-      <c r="AA372">
-        <v>15.55</v>
-      </c>
       <c r="AI372">
         <v>0.32403297399999997</v>
       </c>
@@ -9268,9 +8734,6 @@
       <c r="B373" s="2">
         <v>45596</v>
       </c>
-      <c r="AA373">
-        <v>10.02</v>
-      </c>
       <c r="AB373">
         <v>6</v>
       </c>
@@ -9292,7 +8755,7 @@
         <v>1.3333333329999999</v>
       </c>
       <c r="AA374">
-        <v>4.6500000000000004</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="375" spans="1:36" x14ac:dyDescent="0.3">
@@ -9315,7 +8778,7 @@
         <v>4.6666666670000003</v>
       </c>
       <c r="AA375">
-        <v>6.84</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="376" spans="1:36" x14ac:dyDescent="0.3">
@@ -9328,9 +8791,6 @@
       <c r="Y376">
         <v>12.66666667</v>
       </c>
-      <c r="AA376">
-        <v>15.55</v>
-      </c>
     </row>
     <row r="377" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
@@ -9352,7 +8812,7 @@
         <v>11</v>
       </c>
       <c r="AA377">
-        <v>4.16</v>
+        <v>10.98</v>
       </c>
     </row>
     <row r="378" spans="1:36" x14ac:dyDescent="0.3">
@@ -9363,7 +8823,7 @@
         <v>45509</v>
       </c>
       <c r="AA378">
-        <v>11.77</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="379" spans="1:36" x14ac:dyDescent="0.3">
@@ -9394,9 +8854,6 @@
       <c r="Y379">
         <v>5.6666666670000003</v>
       </c>
-      <c r="AA379">
-        <v>13.87</v>
-      </c>
       <c r="AI379">
         <v>0.57189014500000002</v>
       </c>
@@ -9417,9 +8874,6 @@
       <c r="Y380">
         <v>4.8333333329999997</v>
       </c>
-      <c r="AA380">
-        <v>6.62</v>
-      </c>
       <c r="AI380">
         <v>0.29251864300000002</v>
       </c>
@@ -9440,9 +8894,6 @@
       <c r="S381">
         <v>94.17</v>
       </c>
-      <c r="AA381">
-        <v>14.15</v>
-      </c>
     </row>
     <row r="382" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
@@ -9461,7 +8912,7 @@
         <v>279.17</v>
       </c>
       <c r="AA382">
-        <v>8.73</v>
+        <v>9.1300000000000008</v>
       </c>
     </row>
     <row r="383" spans="1:36" x14ac:dyDescent="0.3">
@@ -9477,9 +8928,6 @@
       <c r="O383">
         <v>0.9</v>
       </c>
-      <c r="AA383">
-        <v>10.220000000000001</v>
-      </c>
     </row>
     <row r="384" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
@@ -9489,7 +8937,7 @@
         <v>45450</v>
       </c>
       <c r="AA384">
-        <v>4.8499999999999996</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="385" spans="1:42" x14ac:dyDescent="0.3">
@@ -9508,9 +8956,6 @@
       <c r="S385">
         <v>106.67</v>
       </c>
-      <c r="AA385">
-        <v>6.96</v>
-      </c>
     </row>
     <row r="386" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
@@ -9520,7 +8965,7 @@
         <v>45572</v>
       </c>
       <c r="AA386">
-        <v>12.35</v>
+        <v>11.26</v>
       </c>
     </row>
     <row r="387" spans="1:42" x14ac:dyDescent="0.3">
@@ -9531,7 +8976,7 @@
         <v>45603</v>
       </c>
       <c r="AA387">
-        <v>14.41</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="388" spans="1:42" x14ac:dyDescent="0.3">
@@ -9542,7 +8987,7 @@
         <v>45481</v>
       </c>
       <c r="AA388">
-        <v>15.55</v>
+        <v>4.9800000000000004</v>
       </c>
     </row>
     <row r="389" spans="1:42" x14ac:dyDescent="0.3">
@@ -9555,9 +9000,6 @@
       <c r="Y389">
         <v>10.83333333</v>
       </c>
-      <c r="AA389">
-        <v>5.13</v>
-      </c>
     </row>
     <row r="390" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
@@ -9587,9 +9029,6 @@
       <c r="Y390">
         <v>6.8541666670000003</v>
       </c>
-      <c r="AA390">
-        <v>10.48</v>
-      </c>
       <c r="AI390">
         <v>0.68038981700000001</v>
       </c>
@@ -9610,9 +9049,6 @@
       <c r="S391">
         <v>97.5</v>
       </c>
-      <c r="AA391">
-        <v>12.65</v>
-      </c>
     </row>
     <row r="392" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
@@ -9622,7 +9058,7 @@
         <v>45513</v>
       </c>
       <c r="AA392">
-        <v>14.93</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="393" spans="1:42" x14ac:dyDescent="0.3">
@@ -9633,7 +9069,7 @@
         <v>45544</v>
       </c>
       <c r="AA393">
-        <v>6.75</v>
+        <v>9.39</v>
       </c>
     </row>
     <row r="394" spans="1:42" x14ac:dyDescent="0.3">
@@ -9649,9 +9085,6 @@
       <c r="O394">
         <v>0.96</v>
       </c>
-      <c r="AA394">
-        <v>8.4600000000000009</v>
-      </c>
     </row>
     <row r="395" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
@@ -9663,9 +9096,6 @@
       <c r="Y395">
         <v>15.16666667</v>
       </c>
-      <c r="AA395">
-        <v>13.89</v>
-      </c>
     </row>
     <row r="396" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
@@ -9687,7 +9117,7 @@
         <v>6.5</v>
       </c>
       <c r="AA396">
-        <v>14.99</v>
+        <v>15.17</v>
       </c>
       <c r="AI396">
         <v>0.64345785300000002</v>
@@ -9751,9 +9181,6 @@
       <c r="Z397">
         <v>606.20000000000005</v>
       </c>
-      <c r="AA397">
-        <v>2.2199999999999998</v>
-      </c>
       <c r="AB397">
         <v>10</v>
       </c>
@@ -9809,7 +9236,7 @@
         <v>45453</v>
       </c>
       <c r="AA398">
-        <v>5.12</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="399" spans="1:42" x14ac:dyDescent="0.3">
@@ -9823,7 +9250,7 @@
         <v>13.33333333</v>
       </c>
       <c r="AA399">
-        <v>12.11</v>
+        <v>8.92</v>
       </c>
       <c r="AB399">
         <v>4</v>
@@ -9851,9 +9278,6 @@
       <c r="Y400">
         <v>14.08333333</v>
       </c>
-      <c r="AA400">
-        <v>6.93</v>
-      </c>
     </row>
     <row r="401" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
@@ -9874,9 +9298,6 @@
       <c r="Y401">
         <v>10</v>
       </c>
-      <c r="AA401">
-        <v>10.15</v>
-      </c>
     </row>
     <row r="402" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
@@ -9886,7 +9307,7 @@
         <v>45576</v>
       </c>
       <c r="AA402">
-        <v>14.08</v>
+        <v>14.46</v>
       </c>
     </row>
     <row r="403" spans="1:42" x14ac:dyDescent="0.3">
@@ -9933,7 +9354,7 @@
         <v>1.8700000000000001E-2</v>
       </c>
       <c r="AA403">
-        <v>15</v>
+        <v>15.18</v>
       </c>
       <c r="AB403">
         <v>8</v>
@@ -9994,9 +9415,6 @@
       <c r="Y404">
         <v>6.1666666670000003</v>
       </c>
-      <c r="AA404">
-        <v>8.66</v>
-      </c>
       <c r="AI404">
         <v>0.41329581399999998</v>
       </c>
@@ -10009,7 +9427,7 @@
         <v>45394</v>
       </c>
       <c r="AA405">
-        <v>10.41</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="406" spans="1:42" x14ac:dyDescent="0.3">
@@ -10023,7 +9441,7 @@
         <v>7.2222222220000001</v>
       </c>
       <c r="AA406">
-        <v>12.36</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="407" spans="1:42" x14ac:dyDescent="0.3">
@@ -10042,9 +9460,6 @@
       <c r="S407">
         <v>127.92</v>
       </c>
-      <c r="AA407">
-        <v>2.74</v>
-      </c>
     </row>
     <row r="408" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
@@ -10054,7 +9469,7 @@
         <v>45547</v>
       </c>
       <c r="AA408">
-        <v>5.5</v>
+        <v>12.85</v>
       </c>
     </row>
     <row r="409" spans="1:42" x14ac:dyDescent="0.3">
@@ -10068,7 +9483,7 @@
         <v>12.83333333</v>
       </c>
       <c r="AA409">
-        <v>7.37</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="410" spans="1:42" x14ac:dyDescent="0.3">
@@ -10088,7 +9503,7 @@
         <v>379.17</v>
       </c>
       <c r="AA410">
-        <v>14.27</v>
+        <v>10.73</v>
       </c>
     </row>
     <row r="411" spans="1:42" x14ac:dyDescent="0.3">
@@ -10099,7 +9514,7 @@
         <v>45579</v>
       </c>
       <c r="AA411">
-        <v>15</v>
+        <v>14.62</v>
       </c>
     </row>
     <row r="412" spans="1:42" x14ac:dyDescent="0.3">
@@ -10128,7 +9543,7 @@
         <v>6.75</v>
       </c>
       <c r="AA412">
-        <v>2.85</v>
+        <v>15.18</v>
       </c>
       <c r="AI412">
         <v>0.64313787099999997</v>
@@ -10150,9 +9565,6 @@
       <c r="S413">
         <v>97.92</v>
       </c>
-      <c r="AA413">
-        <v>8.85</v>
-      </c>
     </row>
     <row r="414" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
@@ -10162,7 +9574,7 @@
         <v>45489</v>
       </c>
       <c r="AA414">
-        <v>10.53</v>
+        <v>9.15</v>
       </c>
     </row>
     <row r="415" spans="1:42" x14ac:dyDescent="0.3">
@@ -10176,7 +9588,7 @@
         <v>16.333333329999999</v>
       </c>
       <c r="AA415">
-        <v>8.120000000000001</v>
+        <v>10.85</v>
       </c>
       <c r="AB415">
         <v>5</v>
@@ -10193,7 +9605,7 @@
         <v>45551</v>
       </c>
       <c r="AA416">
-        <v>9.66</v>
+        <v>13.07</v>
       </c>
     </row>
     <row r="417" spans="1:35" x14ac:dyDescent="0.3">
@@ -10215,9 +9627,6 @@
       <c r="Y417">
         <v>8</v>
       </c>
-      <c r="AA417">
-        <v>11.46</v>
-      </c>
     </row>
     <row r="418" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
@@ -10230,7 +9639,7 @@
         <v>1.7777777779999999</v>
       </c>
       <c r="AA418">
-        <v>5.63</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="419" spans="1:35" x14ac:dyDescent="0.3">
@@ -10244,7 +9653,7 @@
         <v>8.5555555559999998</v>
       </c>
       <c r="AA419">
-        <v>12.55</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="420" spans="1:35" x14ac:dyDescent="0.3">
@@ -10255,7 +9664,7 @@
         <v>45460</v>
       </c>
       <c r="AA420">
-        <v>14.57</v>
+        <v>7.79</v>
       </c>
     </row>
     <row r="421" spans="1:35" x14ac:dyDescent="0.3">
@@ -10274,9 +9683,6 @@
       <c r="S421">
         <v>609.16999999999996</v>
       </c>
-      <c r="AA421">
-        <v>3.38</v>
-      </c>
     </row>
     <row r="422" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
@@ -10286,7 +9692,7 @@
         <v>45582</v>
       </c>
       <c r="AA422">
-        <v>7.59</v>
+        <v>14.82</v>
       </c>
     </row>
     <row r="423" spans="1:35" x14ac:dyDescent="0.3">
@@ -10299,9 +9705,6 @@
       <c r="C423">
         <v>0.17</v>
       </c>
-      <c r="AA423">
-        <v>9.1300000000000008</v>
-      </c>
     </row>
     <row r="424" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
@@ -10311,7 +9714,7 @@
         <v>45614</v>
       </c>
       <c r="AA424">
-        <v>10.71</v>
+        <v>15.18</v>
       </c>
     </row>
     <row r="425" spans="1:35" x14ac:dyDescent="0.3">
@@ -10339,9 +9742,6 @@
       <c r="Y425">
         <v>6.4166666670000003</v>
       </c>
-      <c r="AA425">
-        <v>12.77</v>
-      </c>
       <c r="AI425">
         <v>0.33977508499999998</v>
       </c>
@@ -10357,7 +9757,7 @@
         <v>1.888888889</v>
       </c>
       <c r="AA426">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="427" spans="1:35" x14ac:dyDescent="0.3">
@@ -10370,9 +9770,6 @@
       <c r="Y427">
         <v>15.33333333</v>
       </c>
-      <c r="AA427">
-        <v>5.8</v>
-      </c>
     </row>
     <row r="428" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
@@ -10394,7 +9791,7 @@
         <v>16.333333329999999</v>
       </c>
       <c r="AA428">
-        <v>7.68</v>
+        <v>9.31</v>
       </c>
     </row>
     <row r="429" spans="1:35" x14ac:dyDescent="0.3">
@@ -10405,7 +9802,7 @@
         <v>45523</v>
       </c>
       <c r="AA429">
-        <v>9.3000000000000007</v>
+        <v>11.05</v>
       </c>
     </row>
     <row r="430" spans="1:35" x14ac:dyDescent="0.3">
@@ -10421,9 +9818,6 @@
       <c r="O430">
         <v>0.99</v>
       </c>
-      <c r="AA430">
-        <v>14.87</v>
-      </c>
     </row>
     <row r="431" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
@@ -10433,7 +9827,7 @@
         <v>45475</v>
       </c>
       <c r="AA431">
-        <v>10.92</v>
+        <v>8.49</v>
       </c>
     </row>
     <row r="432" spans="1:35" x14ac:dyDescent="0.3">
@@ -10453,7 +9847,7 @@
         <v>306.67</v>
       </c>
       <c r="AA432">
-        <v>12.93</v>
+        <v>10.15</v>
       </c>
     </row>
     <row r="433" spans="1:36" x14ac:dyDescent="0.3">
@@ -10464,7 +9858,7 @@
         <v>45537</v>
       </c>
       <c r="AA433">
-        <v>6.07</v>
+        <v>12</v>
       </c>
     </row>
     <row r="434" spans="1:36" x14ac:dyDescent="0.3">
@@ -10478,7 +9872,7 @@
         <v>9.7777777780000008</v>
       </c>
       <c r="AA434">
-        <v>7.89</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="435" spans="1:36" x14ac:dyDescent="0.3">
@@ -10497,9 +9891,6 @@
       <c r="S435">
         <v>140.41999999999999</v>
       </c>
-      <c r="AA435">
-        <v>14.89</v>
-      </c>
     </row>
     <row r="436" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
@@ -10517,9 +9908,6 @@
       <c r="S436">
         <v>423.33</v>
       </c>
-      <c r="AA436">
-        <v>9.5500000000000007</v>
-      </c>
     </row>
     <row r="437" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
@@ -10532,7 +9920,7 @@
         <v>11.5</v>
       </c>
       <c r="AA437">
-        <v>4.49</v>
+        <v>13.21</v>
       </c>
     </row>
     <row r="438" spans="1:36" x14ac:dyDescent="0.3">
@@ -10542,9 +9930,6 @@
       <c r="B438" s="2">
         <v>45585</v>
       </c>
-      <c r="AA438">
-        <v>6.51</v>
-      </c>
       <c r="AB438">
         <v>6</v>
       </c>
@@ -10563,7 +9948,7 @@
         <v>45586</v>
       </c>
       <c r="AA439">
-        <v>14.93</v>
+        <v>15.09</v>
       </c>
     </row>
     <row r="440" spans="1:36" x14ac:dyDescent="0.3">
@@ -10577,7 +9962,7 @@
         <v>2.4444444440000002</v>
       </c>
       <c r="AA440">
-        <v>4.05</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="441" spans="1:36" x14ac:dyDescent="0.3">
@@ -10588,7 +9973,7 @@
         <v>45465</v>
       </c>
       <c r="AA441">
-        <v>11.23</v>
+        <v>8.0300000000000011</v>
       </c>
     </row>
     <row r="442" spans="1:36" x14ac:dyDescent="0.3">
@@ -10599,7 +9984,7 @@
         <v>45495</v>
       </c>
       <c r="AA442">
-        <v>13.17</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="443" spans="1:36" x14ac:dyDescent="0.3">
@@ -10621,9 +10006,6 @@
       <c r="Y443">
         <v>7</v>
       </c>
-      <c r="AA443">
-        <v>6.27</v>
-      </c>
       <c r="AI443">
         <v>0.607089663</v>
       </c>
@@ -10638,9 +10020,6 @@
       <c r="C444">
         <v>0.23</v>
       </c>
-      <c r="AA444">
-        <v>13.41</v>
-      </c>
     </row>
     <row r="445" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
@@ -10658,9 +10037,6 @@
       <c r="S445">
         <v>113.75</v>
       </c>
-      <c r="AA445">
-        <v>8.36</v>
-      </c>
     </row>
     <row r="446" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
@@ -10690,9 +10066,6 @@
       <c r="X446">
         <v>1.9699999999999999E-2</v>
       </c>
-      <c r="AA446">
-        <v>9.73</v>
-      </c>
       <c r="AH446">
         <v>40.450000000000003</v>
       </c>
@@ -10711,7 +10084,7 @@
         <v>15.66666667</v>
       </c>
       <c r="AA447">
-        <v>4.6899999999999995</v>
+        <v>11.2</v>
       </c>
       <c r="AC447">
         <v>32</v>
@@ -10728,7 +10101,7 @@
         <v>45558</v>
       </c>
       <c r="AA448">
-        <v>6.59</v>
+        <v>13.37</v>
       </c>
     </row>
     <row r="449" spans="1:42" x14ac:dyDescent="0.3">
@@ -10744,9 +10117,6 @@
       <c r="O449">
         <v>0.99</v>
       </c>
-      <c r="AA449">
-        <v>11.69</v>
-      </c>
     </row>
     <row r="450" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
@@ -10759,7 +10129,7 @@
         <v>2.5555555559999998</v>
       </c>
       <c r="AA450">
-        <v>13.66</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="451" spans="1:42" x14ac:dyDescent="0.3">
@@ -10773,7 +10143,7 @@
         <v>11.44444444</v>
       </c>
       <c r="AA451">
-        <v>14.95</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="452" spans="1:42" x14ac:dyDescent="0.3">
@@ -10804,9 +10174,6 @@
       <c r="X452">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="AA452">
-        <v>4.75</v>
-      </c>
       <c r="AH452">
         <v>26.1</v>
       </c>
@@ -10842,9 +10209,6 @@
       <c r="X453">
         <v>1.9800000000000002E-2</v>
       </c>
-      <c r="AA453">
-        <v>9.91</v>
-      </c>
       <c r="AH453">
         <v>478.40548230000002</v>
       </c>
@@ -10886,9 +10250,6 @@
       <c r="X454">
         <v>2.12E-2</v>
       </c>
-      <c r="AA454">
-        <v>11.92</v>
-      </c>
       <c r="AG454">
         <v>1.9E-2</v>
       </c>
@@ -10942,7 +10303,7 @@
         <v>45468</v>
       </c>
       <c r="AA456">
-        <v>7.21</v>
+        <v>8.2100000000000009</v>
       </c>
     </row>
     <row r="457" spans="1:42" x14ac:dyDescent="0.3">
@@ -10962,7 +10323,7 @@
         <v>262.08</v>
       </c>
       <c r="AA457">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="458" spans="1:42" x14ac:dyDescent="0.3">
@@ -10985,7 +10346,7 @@
         <v>7.6666666670000003</v>
       </c>
       <c r="AA458">
-        <v>14.15</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="459" spans="1:42" x14ac:dyDescent="0.3">
@@ -11034,7 +10395,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="AA460">
-        <v>10.45</v>
+        <v>11.45</v>
       </c>
       <c r="AG460">
         <v>4.5900000000000003E-2</v>
@@ -11066,7 +10427,7 @@
         <v>45561</v>
       </c>
       <c r="AA461">
-        <v>12.6</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="462" spans="1:42" x14ac:dyDescent="0.3">
@@ -11137,7 +10498,7 @@
         <v>13</v>
       </c>
       <c r="AA465">
-        <v>5.43</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="466" spans="1:36" x14ac:dyDescent="0.3">
@@ -11148,7 +10509,7 @@
         <v>45471</v>
       </c>
       <c r="AA466">
-        <v>7.34</v>
+        <v>8.34</v>
       </c>
     </row>
     <row r="467" spans="1:36" x14ac:dyDescent="0.3">
@@ -11176,7 +10537,7 @@
         <v>45593</v>
       </c>
       <c r="AA468">
-        <v>14.15</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="469" spans="1:36" x14ac:dyDescent="0.3">
@@ -11239,7 +10600,7 @@
         <v>45502</v>
       </c>
       <c r="AA471">
-        <v>9.02</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="472" spans="1:36" x14ac:dyDescent="0.3">
@@ -11293,7 +10654,7 @@
         <v>5.1111111109999996</v>
       </c>
       <c r="AA474">
-        <v>3.85</v>
+        <v>4.8499999999999996</v>
       </c>
     </row>
     <row r="475" spans="1:36" x14ac:dyDescent="0.3">
@@ -11307,7 +10668,7 @@
         <v>15.222222220000001</v>
       </c>
       <c r="AA475">
-        <v>5.88</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="476" spans="1:36" x14ac:dyDescent="0.3">
@@ -11318,7 +10679,7 @@
         <v>45599</v>
       </c>
       <c r="AA476">
-        <v>14.18</v>
+        <v>15.18</v>
       </c>
     </row>
     <row r="477" spans="1:36" x14ac:dyDescent="0.3">
@@ -11338,7 +10699,7 @@
         <v>3.888888889</v>
       </c>
       <c r="AA477">
-        <v>3.46</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="478" spans="1:36" x14ac:dyDescent="0.3">
@@ -11349,7 +10710,7 @@
         <v>45534</v>
       </c>
       <c r="AA478">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="479" spans="1:36" x14ac:dyDescent="0.3">
@@ -11360,7 +10721,7 @@
         <v>45565</v>
       </c>
       <c r="AA479">
-        <v>12.84</v>
+        <v>13.84</v>
       </c>
     </row>
     <row r="480" spans="1:36" x14ac:dyDescent="0.3">
@@ -11414,7 +10775,7 @@
         <v>13.7037037066666</v>
       </c>
       <c r="AA482">
-        <v>5.62</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="483" spans="1:42" x14ac:dyDescent="0.3">
@@ -11468,7 +10829,7 @@
         <v>12.33333333</v>
       </c>
       <c r="AA485">
-        <v>13.02</v>
+        <v>14.02</v>
       </c>
     </row>
     <row r="486" spans="1:42" x14ac:dyDescent="0.3">
@@ -11479,7 +10840,7 @@
         <v>45478</v>
       </c>
       <c r="AA486">
-        <v>7.73</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="487" spans="1:42" x14ac:dyDescent="0.3">
@@ -11517,7 +10878,7 @@
         <v>2.2200000000000001E-2</v>
       </c>
       <c r="AA487">
-        <v>9.1999999999999993</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AC487">
         <v>30</v>
@@ -11658,7 +11019,7 @@
         <v>5.6666666670000003</v>
       </c>
       <c r="AA490">
-        <v>4.0599999999999996</v>
+        <v>5.0599999999999996</v>
       </c>
     </row>
     <row r="491" spans="1:42" x14ac:dyDescent="0.3">
@@ -11681,7 +11042,7 @@
         <v>14.83333333</v>
       </c>
       <c r="AA491">
-        <v>6.01</v>
+        <v>7.01</v>
       </c>
     </row>
     <row r="492" spans="1:42" x14ac:dyDescent="0.3">
@@ -11701,7 +11062,7 @@
         <v>520.83000000000004</v>
       </c>
       <c r="AA492">
-        <v>11.32</v>
+        <v>12.32</v>
       </c>
     </row>
     <row r="493" spans="1:42" x14ac:dyDescent="0.3">
@@ -11743,7 +11104,7 @@
         <v>45572</v>
       </c>
       <c r="AA495">
-        <v>13.2</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="496" spans="1:42" x14ac:dyDescent="0.3">
@@ -11754,7 +11115,7 @@
         <v>45603</v>
       </c>
       <c r="AA496">
-        <v>14.18</v>
+        <v>15.18</v>
       </c>
     </row>
     <row r="497" spans="1:42" x14ac:dyDescent="0.3">
@@ -11791,6 +11152,9 @@
       <c r="Y497">
         <v>6.2222222220000001</v>
       </c>
+      <c r="AB497">
+        <v>4</v>
+      </c>
       <c r="AC497">
         <v>20</v>
       </c>
@@ -11867,7 +11231,7 @@
         <v>45421</v>
       </c>
       <c r="AA500">
-        <v>4.1900000000000004</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="501" spans="1:42" x14ac:dyDescent="0.3">
@@ -11895,7 +11259,7 @@
         <v>45513</v>
       </c>
       <c r="AA502">
-        <v>9.44</v>
+        <v>10.44</v>
       </c>
     </row>
     <row r="503" spans="1:42" x14ac:dyDescent="0.3">
@@ -11906,7 +11270,7 @@
         <v>45544</v>
       </c>
       <c r="AA503">
-        <v>11.64</v>
+        <v>12.64</v>
       </c>
     </row>
     <row r="504" spans="1:42" x14ac:dyDescent="0.3">
@@ -11954,7 +11318,7 @@
         <v>6.75</v>
       </c>
       <c r="AA506">
-        <v>14.68</v>
+        <v>15.68</v>
       </c>
       <c r="AI506">
         <v>0.67656830199999995</v>
@@ -12073,7 +11437,7 @@
         <v>45453</v>
       </c>
       <c r="AA508">
-        <v>6.39</v>
+        <v>7.39</v>
       </c>
     </row>
     <row r="509" spans="1:42" x14ac:dyDescent="0.3">
@@ -12087,7 +11451,7 @@
         <v>16.333333329999999</v>
       </c>
       <c r="AA509">
-        <v>8.0299999999999994</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="AB509">
         <v>4</v>
@@ -12144,7 +11508,7 @@
         <v>45576</v>
       </c>
       <c r="AA512">
-        <v>13.67</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="513" spans="1:42" x14ac:dyDescent="0.3">
@@ -12191,7 +11555,7 @@
         <v>2.0199999999999999E-2</v>
       </c>
       <c r="AA513">
-        <v>14.73</v>
+        <v>15.73</v>
       </c>
       <c r="AB513">
         <v>8</v>
@@ -12264,7 +11628,7 @@
         <v>45394</v>
       </c>
       <c r="AA515">
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="516" spans="1:42" x14ac:dyDescent="0.3">
@@ -12278,7 +11642,7 @@
         <v>7.2727272730000001</v>
       </c>
       <c r="AA516">
-        <v>4.55</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="517" spans="1:42" x14ac:dyDescent="0.3">
@@ -12306,7 +11670,7 @@
         <v>45547</v>
       </c>
       <c r="AA518">
-        <v>11.95</v>
+        <v>12.95</v>
       </c>
     </row>
     <row r="519" spans="1:42" x14ac:dyDescent="0.3">
@@ -12320,7 +11684,7 @@
         <v>13.66666667</v>
       </c>
       <c r="AA519">
-        <v>6.57</v>
+        <v>7.57</v>
       </c>
     </row>
     <row r="520" spans="1:42" x14ac:dyDescent="0.3">
@@ -12340,7 +11704,7 @@
         <v>348.33</v>
       </c>
       <c r="AA520">
-        <v>9.82</v>
+        <v>10.82</v>
       </c>
     </row>
     <row r="521" spans="1:42" x14ac:dyDescent="0.3">
@@ -12351,7 +11715,7 @@
         <v>45579</v>
       </c>
       <c r="AA521">
-        <v>13.91</v>
+        <v>14.91</v>
       </c>
     </row>
     <row r="522" spans="1:42" x14ac:dyDescent="0.3">
@@ -12380,7 +11744,7 @@
         <v>6.2291666670000003</v>
       </c>
       <c r="AA522">
-        <v>14.73</v>
+        <v>15.73</v>
       </c>
       <c r="AI522">
         <v>0.68631314899999996</v>
@@ -12411,7 +11775,7 @@
         <v>45489</v>
       </c>
       <c r="AA524">
-        <v>8.2899999999999991</v>
+        <v>9.2899999999999991</v>
       </c>
     </row>
     <row r="525" spans="1:42" x14ac:dyDescent="0.3">
@@ -12425,7 +11789,7 @@
         <v>17.166666670000001</v>
       </c>
       <c r="AA525">
-        <v>10.02</v>
+        <v>11.02</v>
       </c>
       <c r="AB525">
         <v>5</v>
@@ -12442,7 +11806,7 @@
         <v>45551</v>
       </c>
       <c r="AA526">
-        <v>12.15</v>
+        <v>13.15</v>
       </c>
     </row>
     <row r="527" spans="1:42" x14ac:dyDescent="0.3">
@@ -12476,7 +11840,7 @@
         <v>1.5454545449999999</v>
       </c>
       <c r="AA528">
-        <v>1.85</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="529" spans="1:35" x14ac:dyDescent="0.3">
@@ -12490,7 +11854,7 @@
         <v>8.7272727270000008</v>
       </c>
       <c r="AA529">
-        <v>4.8499999999999996</v>
+        <v>5.85</v>
       </c>
     </row>
     <row r="530" spans="1:35" x14ac:dyDescent="0.3">
@@ -12501,7 +11865,7 @@
         <v>45460</v>
       </c>
       <c r="AA530">
-        <v>6.87</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="531" spans="1:35" x14ac:dyDescent="0.3">
@@ -12529,7 +11893,7 @@
         <v>45582</v>
       </c>
       <c r="AA532">
-        <v>14.1</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="533" spans="1:35" x14ac:dyDescent="0.3">
@@ -12551,7 +11915,7 @@
         <v>45614</v>
       </c>
       <c r="AA534">
-        <v>14.73</v>
+        <v>15.73</v>
       </c>
     </row>
     <row r="535" spans="1:35" x14ac:dyDescent="0.3">
@@ -12594,7 +11958,7 @@
         <v>1.636363636</v>
       </c>
       <c r="AA536">
-        <v>1.99</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="537" spans="1:35" x14ac:dyDescent="0.3">
@@ -12628,7 +11992,7 @@
         <v>14.16666667</v>
       </c>
       <c r="AA538">
-        <v>8.4499999999999993</v>
+        <v>9.4499999999999993</v>
       </c>
     </row>
     <row r="539" spans="1:35" x14ac:dyDescent="0.3">
@@ -12639,7 +12003,7 @@
         <v>45523</v>
       </c>
       <c r="AA539">
-        <v>10.14</v>
+        <v>11.14</v>
       </c>
     </row>
     <row r="540" spans="1:35" x14ac:dyDescent="0.3">
@@ -12664,7 +12028,7 @@
         <v>45475</v>
       </c>
       <c r="AA541">
-        <v>7.79</v>
+        <v>8.7899999999999991</v>
       </c>
     </row>
     <row r="542" spans="1:35" x14ac:dyDescent="0.3">
@@ -12684,7 +12048,7 @@
         <v>275</v>
       </c>
       <c r="AA542">
-        <v>9.27</v>
+        <v>10.27</v>
       </c>
     </row>
     <row r="543" spans="1:35" x14ac:dyDescent="0.3">
@@ -12695,7 +12059,7 @@
         <v>45537</v>
       </c>
       <c r="AA543">
-        <v>11.15</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="544" spans="1:35" x14ac:dyDescent="0.3">
@@ -12709,7 +12073,7 @@
         <v>10.272727270000001</v>
       </c>
       <c r="AA544">
-        <v>5.12</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="545" spans="1:36" x14ac:dyDescent="0.3">
@@ -12757,7 +12121,7 @@
         <v>8.8333333330000006</v>
       </c>
       <c r="AA547">
-        <v>12.34</v>
+        <v>13.34</v>
       </c>
     </row>
     <row r="548" spans="1:36" x14ac:dyDescent="0.3">
@@ -12785,7 +12149,7 @@
         <v>45586</v>
       </c>
       <c r="AA549">
-        <v>14.45</v>
+        <v>15.45</v>
       </c>
     </row>
     <row r="550" spans="1:36" x14ac:dyDescent="0.3">
@@ -12799,7 +12163,7 @@
         <v>2.5454545450000001</v>
       </c>
       <c r="AA550">
-        <v>2.46</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="551" spans="1:36" x14ac:dyDescent="0.3">
@@ -12810,7 +12174,7 @@
         <v>45465</v>
       </c>
       <c r="AA551">
-        <v>7.08</v>
+        <v>8.08</v>
       </c>
     </row>
     <row r="552" spans="1:36" x14ac:dyDescent="0.3">
@@ -12821,7 +12185,7 @@
         <v>45495</v>
       </c>
       <c r="AA552">
-        <v>8.7200000000000006</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="553" spans="1:36" x14ac:dyDescent="0.3">
@@ -12921,7 +12285,7 @@
         <v>15</v>
       </c>
       <c r="AA557">
-        <v>10.37</v>
+        <v>11.37</v>
       </c>
       <c r="AC557">
         <v>32</v>
@@ -12938,7 +12302,7 @@
         <v>45558</v>
       </c>
       <c r="AA558">
-        <v>12.54</v>
+        <v>13.54</v>
       </c>
     </row>
     <row r="559" spans="1:36" x14ac:dyDescent="0.3">
@@ -12966,7 +12330,7 @@
         <v>2.7272727269999999</v>
       </c>
       <c r="AA560">
-        <v>2.65</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="561" spans="1:42" x14ac:dyDescent="0.3">
@@ -12980,7 +12344,7 @@
         <v>12.09090909</v>
       </c>
       <c r="AA561">
-        <v>5.37</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="562" spans="1:42" x14ac:dyDescent="0.3">
@@ -13140,7 +12504,7 @@
         <v>45468</v>
       </c>
       <c r="AA566">
-        <v>7.28</v>
+        <v>8.2800000000000011</v>
       </c>
     </row>
     <row r="567" spans="1:42" x14ac:dyDescent="0.3">
@@ -13160,7 +12524,7 @@
         <v>251.25</v>
       </c>
       <c r="AA567">
-        <v>8.8699999999999992</v>
+        <v>9.8699999999999992</v>
       </c>
     </row>
     <row r="568" spans="1:42" x14ac:dyDescent="0.3">
@@ -13183,7 +12547,7 @@
         <v>7.5</v>
       </c>
       <c r="AA568">
-        <v>14.63</v>
+        <v>15.63</v>
       </c>
     </row>
     <row r="569" spans="1:42" x14ac:dyDescent="0.3">
@@ -13232,7 +12596,7 @@
         <v>2.18E-2</v>
       </c>
       <c r="AA570">
-        <v>10.62</v>
+        <v>11.62</v>
       </c>
       <c r="AG570">
         <v>3.2899999999999999E-2</v>
@@ -13264,7 +12628,7 @@
         <v>45561</v>
       </c>
       <c r="AA571">
-        <v>12.72</v>
+        <v>13.72</v>
       </c>
     </row>
     <row r="572" spans="1:42" x14ac:dyDescent="0.3">
@@ -13335,7 +12699,7 @@
         <v>13.636363640000001</v>
       </c>
       <c r="AA575">
-        <v>5.65</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="576" spans="1:42" x14ac:dyDescent="0.3">
@@ -13346,7 +12710,7 @@
         <v>45471</v>
       </c>
       <c r="AA576">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="577" spans="1:36" x14ac:dyDescent="0.3">
@@ -13374,7 +12738,7 @@
         <v>45593</v>
       </c>
       <c r="AA578">
-        <v>14.65</v>
+        <v>15.65</v>
       </c>
     </row>
     <row r="579" spans="1:36" x14ac:dyDescent="0.3">
@@ -13437,7 +12801,7 @@
         <v>45502</v>
       </c>
       <c r="AA581">
-        <v>9.0500000000000007</v>
+        <v>10.050000000000001</v>
       </c>
     </row>
     <row r="582" spans="1:36" x14ac:dyDescent="0.3">
@@ -13491,7 +12855,7 @@
         <v>5</v>
       </c>
       <c r="AA584">
-        <v>3.79</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="585" spans="1:36" x14ac:dyDescent="0.3">
@@ -13505,7 +12869,7 @@
         <v>16</v>
       </c>
       <c r="AA585">
-        <v>5.98</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="586" spans="1:36" x14ac:dyDescent="0.3">
@@ -13516,7 +12880,7 @@
         <v>45599</v>
       </c>
       <c r="AA586">
-        <v>14.68</v>
+        <v>15.68</v>
       </c>
     </row>
     <row r="587" spans="1:36" x14ac:dyDescent="0.3">
@@ -13536,7 +12900,7 @@
         <v>4.3636363640000004</v>
       </c>
       <c r="AA587">
-        <v>3.47</v>
+        <v>4.4700000000000006</v>
       </c>
     </row>
     <row r="588" spans="1:36" x14ac:dyDescent="0.3">
@@ -13547,7 +12911,7 @@
         <v>45534</v>
       </c>
       <c r="AA588">
-        <v>10.92</v>
+        <v>11.92</v>
       </c>
     </row>
     <row r="589" spans="1:36" x14ac:dyDescent="0.3">
@@ -13558,7 +12922,7 @@
         <v>45565</v>
       </c>
       <c r="AA589">
-        <v>12.94</v>
+        <v>13.94</v>
       </c>
     </row>
     <row r="590" spans="1:36" x14ac:dyDescent="0.3">
@@ -13612,7 +12976,7 @@
         <v>11.9595959633333</v>
       </c>
       <c r="AA592">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="593" spans="1:42" x14ac:dyDescent="0.3">
@@ -13666,7 +13030,7 @@
         <v>9.4166666669999994</v>
       </c>
       <c r="AA595">
-        <v>13.2</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="596" spans="1:42" x14ac:dyDescent="0.3">
@@ -13677,7 +13041,7 @@
         <v>45478</v>
       </c>
       <c r="AA596">
-        <v>7.89</v>
+        <v>8.89</v>
       </c>
     </row>
     <row r="597" spans="1:42" x14ac:dyDescent="0.3">
@@ -13715,7 +13079,7 @@
         <v>2.0500000000000001E-2</v>
       </c>
       <c r="AA597">
-        <v>9.35</v>
+        <v>10.35</v>
       </c>
       <c r="AC597">
         <v>30</v>
@@ -13856,7 +13220,7 @@
         <v>5.5454545450000001</v>
       </c>
       <c r="AA600">
-        <v>4.1399999999999997</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="601" spans="1:42" x14ac:dyDescent="0.3">
@@ -13879,7 +13243,7 @@
         <v>12.83333333</v>
       </c>
       <c r="AA601">
-        <v>6.14</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="602" spans="1:42" x14ac:dyDescent="0.3">
@@ -13899,7 +13263,7 @@
         <v>474.17</v>
       </c>
       <c r="AA602">
-        <v>11.49</v>
+        <v>12.49</v>
       </c>
     </row>
     <row r="603" spans="1:42" x14ac:dyDescent="0.3">
@@ -13941,7 +13305,7 @@
         <v>45572</v>
       </c>
       <c r="AA605">
-        <v>13.46</v>
+        <v>14.46</v>
       </c>
     </row>
     <row r="606" spans="1:42" x14ac:dyDescent="0.3">
@@ -13952,7 +13316,7 @@
         <v>45603</v>
       </c>
       <c r="AA606">
-        <v>14.7</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="607" spans="1:42" x14ac:dyDescent="0.3">
@@ -13989,6 +13353,9 @@
       <c r="Y607">
         <v>6.6363636359999996</v>
       </c>
+      <c r="AB607">
+        <v>4</v>
+      </c>
       <c r="AC607">
         <v>20</v>
       </c>
@@ -14065,7 +13432,7 @@
         <v>45421</v>
       </c>
       <c r="AA610">
-        <v>4.2699999999999996</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="611" spans="1:42" x14ac:dyDescent="0.3">
@@ -14093,7 +13460,7 @@
         <v>45513</v>
       </c>
       <c r="AA612">
-        <v>9.57</v>
+        <v>10.57</v>
       </c>
     </row>
     <row r="613" spans="1:42" x14ac:dyDescent="0.3">
@@ -14104,7 +13471,7 @@
         <v>45544</v>
       </c>
       <c r="AA613">
-        <v>11.75</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="614" spans="1:42" x14ac:dyDescent="0.3">
@@ -14152,7 +13519,7 @@
         <v>7.6041666670000003</v>
       </c>
       <c r="AA616">
-        <v>14.55</v>
+        <v>15.55</v>
       </c>
       <c r="AI616">
         <v>0.65942331799999998</v>
@@ -14271,7 +13638,7 @@
         <v>45453</v>
       </c>
       <c r="AA618">
-        <v>6.15</v>
+        <v>7.15</v>
       </c>
     </row>
     <row r="619" spans="1:42" x14ac:dyDescent="0.3">
@@ -14285,7 +13652,7 @@
         <v>14.33333333</v>
       </c>
       <c r="AA619">
-        <v>7.92</v>
+        <v>8.92</v>
       </c>
       <c r="AB619">
         <v>4</v>
@@ -14342,7 +13709,7 @@
         <v>45576</v>
       </c>
       <c r="AA622">
-        <v>13.61</v>
+        <v>14.61</v>
       </c>
     </row>
     <row r="623" spans="1:42" x14ac:dyDescent="0.3">
@@ -14389,7 +13756,7 @@
         <v>1.72E-2</v>
       </c>
       <c r="AA623">
-        <v>14.55</v>
+        <v>15.55</v>
       </c>
       <c r="AB623">
         <v>8</v>
@@ -14462,7 +13829,7 @@
         <v>45394</v>
       </c>
       <c r="AA625">
-        <v>1.17</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="626" spans="1:36" x14ac:dyDescent="0.3">
@@ -14476,7 +13843,7 @@
         <v>7.3636363640000004</v>
       </c>
       <c r="AA626">
-        <v>4.45</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="627" spans="1:36" x14ac:dyDescent="0.3">
@@ -14504,7 +13871,7 @@
         <v>45547</v>
       </c>
       <c r="AA628">
-        <v>11.89</v>
+        <v>12.89</v>
       </c>
     </row>
     <row r="629" spans="1:36" x14ac:dyDescent="0.3">
@@ -14518,7 +13885,7 @@
         <v>14.66666667</v>
       </c>
       <c r="AA629">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="630" spans="1:36" x14ac:dyDescent="0.3">
@@ -14538,7 +13905,7 @@
         <v>355</v>
       </c>
       <c r="AA630">
-        <v>9.6999999999999993</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="631" spans="1:36" x14ac:dyDescent="0.3">
@@ -14549,7 +13916,7 @@
         <v>45579</v>
       </c>
       <c r="AA631">
-        <v>13.83</v>
+        <v>14.83</v>
       </c>
     </row>
     <row r="632" spans="1:36" x14ac:dyDescent="0.3">
@@ -14578,7 +13945,7 @@
         <v>6.6666666670000003</v>
       </c>
       <c r="AA632">
-        <v>14.55</v>
+        <v>15.55</v>
       </c>
       <c r="AI632">
         <v>0.63686618399999995</v>
@@ -14609,7 +13976,7 @@
         <v>45489</v>
       </c>
       <c r="AA634">
-        <v>8.1300000000000008</v>
+        <v>9.1300000000000008</v>
       </c>
     </row>
     <row r="635" spans="1:36" x14ac:dyDescent="0.3">
@@ -14623,7 +13990,7 @@
         <v>18</v>
       </c>
       <c r="AA635">
-        <v>9.93</v>
+        <v>10.93</v>
       </c>
       <c r="AB635">
         <v>5</v>
@@ -14640,7 +14007,7 @@
         <v>45551</v>
       </c>
       <c r="AA636">
-        <v>12.16</v>
+        <v>13.16</v>
       </c>
     </row>
     <row r="637" spans="1:36" x14ac:dyDescent="0.3">
@@ -14674,7 +14041,7 @@
         <v>1.363636364</v>
       </c>
       <c r="AA638">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="639" spans="1:36" x14ac:dyDescent="0.3">
@@ -14688,7 +14055,7 @@
         <v>9.0909090910000003</v>
       </c>
       <c r="AA639">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="640" spans="1:36" x14ac:dyDescent="0.3">
@@ -14699,7 +14066,7 @@
         <v>45460</v>
       </c>
       <c r="AA640">
-        <v>6.73</v>
+        <v>7.73</v>
       </c>
     </row>
     <row r="641" spans="1:35" x14ac:dyDescent="0.3">
@@ -14727,7 +14094,7 @@
         <v>45582</v>
       </c>
       <c r="AA642">
-        <v>14.04</v>
+        <v>15.04</v>
       </c>
     </row>
     <row r="643" spans="1:35" x14ac:dyDescent="0.3">
@@ -14749,7 +14116,7 @@
         <v>45614</v>
       </c>
       <c r="AA644">
-        <v>14.55</v>
+        <v>15.55</v>
       </c>
     </row>
     <row r="645" spans="1:35" x14ac:dyDescent="0.3">
@@ -14792,7 +14159,7 @@
         <v>1.636363636</v>
       </c>
       <c r="AA646">
-        <v>1.86</v>
+        <v>2.8600000000000003</v>
       </c>
     </row>
     <row r="647" spans="1:35" x14ac:dyDescent="0.3">
@@ -14826,7 +14193,7 @@
         <v>15.66666667</v>
       </c>
       <c r="AA648">
-        <v>8.3800000000000008</v>
+        <v>9.3800000000000008</v>
       </c>
     </row>
     <row r="649" spans="1:35" x14ac:dyDescent="0.3">
@@ -14837,7 +14204,7 @@
         <v>45523</v>
       </c>
       <c r="AA649">
-        <v>10.11</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="650" spans="1:35" x14ac:dyDescent="0.3">
@@ -14862,7 +14229,7 @@
         <v>45475</v>
       </c>
       <c r="AA651">
-        <v>7.62</v>
+        <v>8.620000000000001</v>
       </c>
     </row>
     <row r="652" spans="1:35" x14ac:dyDescent="0.3">
@@ -14882,7 +14249,7 @@
         <v>276.67</v>
       </c>
       <c r="AA652">
-        <v>9.17</v>
+        <v>10.17</v>
       </c>
     </row>
     <row r="653" spans="1:35" x14ac:dyDescent="0.3">
@@ -14893,7 +14260,7 @@
         <v>45537</v>
       </c>
       <c r="AA653">
-        <v>11.11</v>
+        <v>12.11</v>
       </c>
     </row>
     <row r="654" spans="1:35" x14ac:dyDescent="0.3">
@@ -14907,7 +14274,7 @@
         <v>10.363636359999999</v>
       </c>
       <c r="AA654">
-        <v>4.8899999999999997</v>
+        <v>5.89</v>
       </c>
     </row>
     <row r="655" spans="1:35" x14ac:dyDescent="0.3">
@@ -14955,7 +14322,7 @@
         <v>9.6666666669999994</v>
       </c>
       <c r="AA657">
-        <v>12.29</v>
+        <v>13.29</v>
       </c>
     </row>
     <row r="658" spans="1:36" x14ac:dyDescent="0.3">
@@ -14983,7 +14350,7 @@
         <v>45586</v>
       </c>
       <c r="AA659">
-        <v>14.3</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="660" spans="1:36" x14ac:dyDescent="0.3">
@@ -14997,7 +14364,7 @@
         <v>2.2727272730000001</v>
       </c>
       <c r="AA660">
-        <v>2.33</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="661" spans="1:36" x14ac:dyDescent="0.3">
@@ -15008,7 +14375,7 @@
         <v>45465</v>
       </c>
       <c r="AA661">
-        <v>6.99</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="662" spans="1:36" x14ac:dyDescent="0.3">
@@ -15019,7 +14386,7 @@
         <v>45495</v>
       </c>
       <c r="AA662">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="663" spans="1:36" x14ac:dyDescent="0.3">
@@ -15119,7 +14486,7 @@
         <v>16.166666670000001</v>
       </c>
       <c r="AA667">
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="AC667">
         <v>32</v>
@@ -15136,7 +14503,7 @@
         <v>45558</v>
       </c>
       <c r="AA668">
-        <v>12.49</v>
+        <v>13.49</v>
       </c>
     </row>
     <row r="669" spans="1:36" x14ac:dyDescent="0.3">
@@ -15164,7 +14531,7 @@
         <v>2.636363636</v>
       </c>
       <c r="AA670">
-        <v>2.5499999999999998</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="671" spans="1:36" x14ac:dyDescent="0.3">
@@ -15178,7 +14545,7 @@
         <v>12.272727270000001</v>
       </c>
       <c r="AA671">
-        <v>5.13</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="672" spans="1:36" x14ac:dyDescent="0.3">
@@ -15338,7 +14705,7 @@
         <v>45468</v>
       </c>
       <c r="AA676">
-        <v>7.15</v>
+        <v>8.15</v>
       </c>
     </row>
     <row r="677" spans="1:42" x14ac:dyDescent="0.3">
@@ -15358,7 +14725,7 @@
         <v>242.08</v>
       </c>
       <c r="AA677">
-        <v>8.77</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="678" spans="1:42" x14ac:dyDescent="0.3">
@@ -15381,7 +14748,7 @@
         <v>7</v>
       </c>
       <c r="AA678">
-        <v>14.54</v>
+        <v>15.54</v>
       </c>
     </row>
     <row r="679" spans="1:42" x14ac:dyDescent="0.3">
@@ -15430,7 +14797,7 @@
         <v>2.23E-2</v>
       </c>
       <c r="AA680">
-        <v>10.57</v>
+        <v>11.57</v>
       </c>
       <c r="AG680">
         <v>4.2500000000000003E-2</v>
@@ -15462,7 +14829,7 @@
         <v>45561</v>
       </c>
       <c r="AA681">
-        <v>12.65</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="682" spans="1:42" x14ac:dyDescent="0.3">
@@ -15533,7 +14900,7 @@
         <v>13.09090909</v>
       </c>
       <c r="AA685">
-        <v>5.47</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="686" spans="1:42" x14ac:dyDescent="0.3">
@@ -15544,7 +14911,7 @@
         <v>45471</v>
       </c>
       <c r="AA686">
-        <v>7.41</v>
+        <v>8.41</v>
       </c>
     </row>
     <row r="687" spans="1:42" x14ac:dyDescent="0.3">
@@ -15572,7 +14939,7 @@
         <v>45593</v>
       </c>
       <c r="AA688">
-        <v>14.55</v>
+        <v>15.55</v>
       </c>
     </row>
     <row r="689" spans="1:36" x14ac:dyDescent="0.3">
@@ -15629,7 +14996,7 @@
         <v>45502</v>
       </c>
       <c r="AA691">
-        <v>9.02</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="692" spans="1:36" x14ac:dyDescent="0.3">
@@ -15683,7 +15050,7 @@
         <v>5.1818181819999998</v>
       </c>
       <c r="AA694">
-        <v>3.65</v>
+        <v>4.6500000000000004</v>
       </c>
     </row>
     <row r="695" spans="1:36" x14ac:dyDescent="0.3">
@@ -15697,7 +15064,7 @@
         <v>14.90909091</v>
       </c>
       <c r="AA695">
-        <v>5.84</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="696" spans="1:36" x14ac:dyDescent="0.3">
@@ -15708,7 +15075,7 @@
         <v>45599</v>
       </c>
       <c r="AA696">
-        <v>14.55</v>
+        <v>15.55</v>
       </c>
     </row>
     <row r="697" spans="1:36" x14ac:dyDescent="0.3">
@@ -15728,7 +15095,7 @@
         <v>4.0909090910000003</v>
       </c>
       <c r="AA697">
-        <v>3.16</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="698" spans="1:36" x14ac:dyDescent="0.3">
@@ -15739,7 +15106,7 @@
         <v>45534</v>
       </c>
       <c r="AA698">
-        <v>10.77</v>
+        <v>11.77</v>
       </c>
     </row>
     <row r="699" spans="1:36" x14ac:dyDescent="0.3">
@@ -15750,7 +15117,7 @@
         <v>45565</v>
       </c>
       <c r="AA699">
-        <v>12.87</v>
+        <v>13.87</v>
       </c>
     </row>
     <row r="700" spans="1:36" x14ac:dyDescent="0.3">
@@ -15804,7 +15171,7 @@
         <v>10.4343434353333</v>
       </c>
       <c r="AA702">
-        <v>5.62</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="703" spans="1:36" x14ac:dyDescent="0.3">
@@ -15858,7 +15225,7 @@
         <v>8.3333333330000006</v>
       </c>
       <c r="AA705">
-        <v>13.15</v>
+        <v>14.15</v>
       </c>
     </row>
     <row r="706" spans="1:42" x14ac:dyDescent="0.3">
@@ -15869,7 +15236,7 @@
         <v>45478</v>
       </c>
       <c r="AA706">
-        <v>7.73</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="707" spans="1:42" x14ac:dyDescent="0.3">
@@ -15907,7 +15274,7 @@
         <v>1.9400000000000001E-2</v>
       </c>
       <c r="AA707">
-        <v>9.2200000000000006</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="AC707">
         <v>30</v>
@@ -16045,7 +15412,7 @@
         <v>6.1818181819999998</v>
       </c>
       <c r="AA710">
-        <v>3.85</v>
+        <v>4.8499999999999996</v>
       </c>
     </row>
     <row r="711" spans="1:42" x14ac:dyDescent="0.3">
@@ -16068,7 +15435,7 @@
         <v>13</v>
       </c>
       <c r="AA711">
-        <v>5.96</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="712" spans="1:42" x14ac:dyDescent="0.3">
@@ -16088,7 +15455,7 @@
         <v>489.17</v>
       </c>
       <c r="AA712">
-        <v>11.35</v>
+        <v>12.35</v>
       </c>
     </row>
     <row r="713" spans="1:42" x14ac:dyDescent="0.3">
@@ -16130,7 +15497,7 @@
         <v>45572</v>
       </c>
       <c r="AA715">
-        <v>13.41</v>
+        <v>14.41</v>
       </c>
     </row>
     <row r="716" spans="1:42" x14ac:dyDescent="0.3">
@@ -16141,7 +15508,7 @@
         <v>45603</v>
       </c>
       <c r="AA716">
-        <v>14.55</v>
+        <v>15.55</v>
       </c>
     </row>
     <row r="717" spans="1:42" x14ac:dyDescent="0.3">
@@ -16178,6 +15545,9 @@
       <c r="Y717">
         <v>6.9090909089999997</v>
       </c>
+      <c r="AB717">
+        <v>4</v>
+      </c>
       <c r="AC717">
         <v>20</v>
       </c>
@@ -16254,7 +15624,7 @@
         <v>45421</v>
       </c>
       <c r="AA720">
-        <v>4.13</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="721" spans="1:42" x14ac:dyDescent="0.3">
@@ -16282,7 +15652,7 @@
         <v>45513</v>
       </c>
       <c r="AA722">
-        <v>9.48</v>
+        <v>10.48</v>
       </c>
     </row>
     <row r="723" spans="1:42" x14ac:dyDescent="0.3">
@@ -16293,7 +15663,7 @@
         <v>45544</v>
       </c>
       <c r="AA723">
-        <v>11.65</v>
+        <v>12.65</v>
       </c>
     </row>
     <row r="724" spans="1:42" x14ac:dyDescent="0.3">
@@ -16341,7 +15711,7 @@
         <v>6</v>
       </c>
       <c r="AA726">
-        <v>13.93</v>
+        <v>14.93</v>
       </c>
       <c r="AI726">
         <v>0.69918699200000001</v>
@@ -16460,7 +15830,7 @@
         <v>45453</v>
       </c>
       <c r="AA728">
-        <v>5.75</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="729" spans="1:42" x14ac:dyDescent="0.3">
@@ -16474,7 +15844,7 @@
         <v>20.166666670000001</v>
       </c>
       <c r="AA729">
-        <v>7.46</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="AB729">
         <v>4</v>
@@ -16531,7 +15901,7 @@
         <v>45576</v>
       </c>
       <c r="AA732">
-        <v>12.89</v>
+        <v>13.89</v>
       </c>
     </row>
     <row r="733" spans="1:42" x14ac:dyDescent="0.3">
@@ -16578,7 +15948,7 @@
         <v>1.9300000000000001E-2</v>
       </c>
       <c r="AA733">
-        <v>13.99</v>
+        <v>14.99</v>
       </c>
       <c r="AB733">
         <v>8</v>
@@ -16651,7 +16021,7 @@
         <v>45394</v>
       </c>
       <c r="AA735">
-        <v>1.22</v>
+        <v>2.2199999999999998</v>
       </c>
     </row>
     <row r="736" spans="1:42" x14ac:dyDescent="0.3">
@@ -16665,7 +16035,7 @@
         <v>6.6666666670000003</v>
       </c>
       <c r="AA736">
-        <v>4.12</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="737" spans="1:36" x14ac:dyDescent="0.3">
@@ -16693,7 +16063,7 @@
         <v>45547</v>
       </c>
       <c r="AA738">
-        <v>11.11</v>
+        <v>12.11</v>
       </c>
     </row>
     <row r="739" spans="1:36" x14ac:dyDescent="0.3">
@@ -16707,7 +16077,7 @@
         <v>15.66666667</v>
       </c>
       <c r="AA739">
-        <v>5.93</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="740" spans="1:36" x14ac:dyDescent="0.3">
@@ -16727,7 +16097,7 @@
         <v>304.17</v>
       </c>
       <c r="AA740">
-        <v>9.15</v>
+        <v>10.15</v>
       </c>
     </row>
     <row r="741" spans="1:36" x14ac:dyDescent="0.3">
@@ -16738,7 +16108,7 @@
         <v>45579</v>
       </c>
       <c r="AA741">
-        <v>13.08</v>
+        <v>14.08</v>
       </c>
     </row>
     <row r="742" spans="1:36" x14ac:dyDescent="0.3">
@@ -16767,7 +16137,7 @@
         <v>5.6666666670000003</v>
       </c>
       <c r="AA742">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI742">
         <v>0.69002548200000002</v>
@@ -16798,7 +16168,7 @@
         <v>45489</v>
       </c>
       <c r="AA744">
-        <v>7.66</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="745" spans="1:36" x14ac:dyDescent="0.3">
@@ -16812,7 +16182,7 @@
         <v>17</v>
       </c>
       <c r="AA745">
-        <v>9.41</v>
+        <v>10.41</v>
       </c>
       <c r="AB745">
         <v>5</v>
@@ -16829,7 +16199,7 @@
         <v>45551</v>
       </c>
       <c r="AA746">
-        <v>11.36</v>
+        <v>12.36</v>
       </c>
     </row>
     <row r="747" spans="1:36" x14ac:dyDescent="0.3">
@@ -16863,7 +16233,7 @@
         <v>1.6666666670000001</v>
       </c>
       <c r="AA748">
-        <v>1.74</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="749" spans="1:36" x14ac:dyDescent="0.3">
@@ -16877,7 +16247,7 @@
         <v>8.3333333330000006</v>
       </c>
       <c r="AA749">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="750" spans="1:36" x14ac:dyDescent="0.3">
@@ -16888,7 +16258,7 @@
         <v>45460</v>
       </c>
       <c r="AA750">
-        <v>6.37</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="751" spans="1:36" x14ac:dyDescent="0.3">
@@ -16916,7 +16286,7 @@
         <v>45582</v>
       </c>
       <c r="AA752">
-        <v>13.27</v>
+        <v>14.27</v>
       </c>
     </row>
     <row r="753" spans="1:36" x14ac:dyDescent="0.3">
@@ -16938,7 +16308,7 @@
         <v>45614</v>
       </c>
       <c r="AA754">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="755" spans="1:36" x14ac:dyDescent="0.3">
@@ -16981,7 +16351,7 @@
         <v>1.6666666670000001</v>
       </c>
       <c r="AA756">
-        <v>1.85</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="757" spans="1:36" x14ac:dyDescent="0.3">
@@ -17015,7 +16385,7 @@
         <v>14.16666667</v>
       </c>
       <c r="AA758">
-        <v>7.85</v>
+        <v>8.85</v>
       </c>
     </row>
     <row r="759" spans="1:36" x14ac:dyDescent="0.3">
@@ -17026,7 +16396,7 @@
         <v>45523</v>
       </c>
       <c r="AA759">
-        <v>9.5299999999999994</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="760" spans="1:36" x14ac:dyDescent="0.3">
@@ -17051,7 +16421,7 @@
         <v>45475</v>
       </c>
       <c r="AA761">
-        <v>7.12</v>
+        <v>8.120000000000001</v>
       </c>
     </row>
     <row r="762" spans="1:36" x14ac:dyDescent="0.3">
@@ -17071,7 +16441,7 @@
         <v>240.83</v>
       </c>
       <c r="AA762">
-        <v>8.66</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="763" spans="1:36" x14ac:dyDescent="0.3">
@@ -17082,7 +16452,7 @@
         <v>45537</v>
       </c>
       <c r="AA763">
-        <v>10.46</v>
+        <v>11.46</v>
       </c>
     </row>
     <row r="764" spans="1:36" x14ac:dyDescent="0.3">
@@ -17096,7 +16466,7 @@
         <v>9.5</v>
       </c>
       <c r="AA764">
-        <v>4.63</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="765" spans="1:36" x14ac:dyDescent="0.3">
@@ -17144,7 +16514,7 @@
         <v>9.1666666669999994</v>
       </c>
       <c r="AA767">
-        <v>11.55</v>
+        <v>12.55</v>
       </c>
     </row>
     <row r="768" spans="1:36" x14ac:dyDescent="0.3">
@@ -17172,7 +16542,7 @@
         <v>45586</v>
       </c>
       <c r="AA769">
-        <v>13.57</v>
+        <v>14.57</v>
       </c>
     </row>
     <row r="770" spans="1:42" x14ac:dyDescent="0.3">
@@ -17186,7 +16556,7 @@
         <v>2.25</v>
       </c>
       <c r="AA770">
-        <v>2.38</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="771" spans="1:42" x14ac:dyDescent="0.3">
@@ -17197,7 +16567,7 @@
         <v>45465</v>
       </c>
       <c r="AA771">
-        <v>6.59</v>
+        <v>7.59</v>
       </c>
     </row>
     <row r="772" spans="1:42" x14ac:dyDescent="0.3">
@@ -17208,7 +16578,7 @@
         <v>45495</v>
       </c>
       <c r="AA772">
-        <v>8.1300000000000008</v>
+        <v>9.1300000000000008</v>
       </c>
     </row>
     <row r="773" spans="1:42" x14ac:dyDescent="0.3">
@@ -17308,7 +16678,7 @@
         <v>16.166666670000001</v>
       </c>
       <c r="AA777">
-        <v>9.7100000000000009</v>
+        <v>10.71</v>
       </c>
       <c r="AC777">
         <v>32</v>
@@ -17325,7 +16695,7 @@
         <v>45558</v>
       </c>
       <c r="AA778">
-        <v>11.77</v>
+        <v>12.77</v>
       </c>
     </row>
     <row r="779" spans="1:42" x14ac:dyDescent="0.3">
@@ -17353,7 +16723,7 @@
         <v>2.6666666669999999</v>
       </c>
       <c r="AA780">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="781" spans="1:42" x14ac:dyDescent="0.3">
@@ -17367,7 +16737,7 @@
         <v>11.08333333</v>
       </c>
       <c r="AA781">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="782" spans="1:42" x14ac:dyDescent="0.3">
@@ -17527,7 +16897,7 @@
         <v>45468</v>
       </c>
       <c r="AA786">
-        <v>6.68</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="787" spans="1:42" x14ac:dyDescent="0.3">
@@ -17547,7 +16917,7 @@
         <v>230.83</v>
       </c>
       <c r="AA787">
-        <v>8.3000000000000007</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="788" spans="1:42" x14ac:dyDescent="0.3">
@@ -17570,7 +16940,7 @@
         <v>8.1666666669999994</v>
       </c>
       <c r="AA788">
-        <v>13.87</v>
+        <v>14.87</v>
       </c>
     </row>
     <row r="789" spans="1:42" x14ac:dyDescent="0.3">
@@ -17619,7 +16989,7 @@
         <v>2.0899999999999998E-2</v>
       </c>
       <c r="AA790">
-        <v>9.92</v>
+        <v>10.92</v>
       </c>
       <c r="AG790">
         <v>2.3800000000000002E-2</v>
@@ -17651,7 +17021,7 @@
         <v>45561</v>
       </c>
       <c r="AA791">
-        <v>11.93</v>
+        <v>12.93</v>
       </c>
     </row>
     <row r="792" spans="1:42" x14ac:dyDescent="0.3">
@@ -17722,7 +17092,7 @@
         <v>12.25</v>
       </c>
       <c r="AA795">
-        <v>5.07</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="796" spans="1:42" x14ac:dyDescent="0.3">
@@ -17733,7 +17103,7 @@
         <v>45471</v>
       </c>
       <c r="AA796">
-        <v>6.89</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="797" spans="1:42" x14ac:dyDescent="0.3">
@@ -17761,7 +17131,7 @@
         <v>45593</v>
       </c>
       <c r="AA798">
-        <v>13.89</v>
+        <v>14.89</v>
       </c>
     </row>
     <row r="799" spans="1:42" x14ac:dyDescent="0.3">
@@ -17824,7 +17194,7 @@
         <v>45502</v>
       </c>
       <c r="AA801">
-        <v>8.5500000000000007</v>
+        <v>9.5500000000000007</v>
       </c>
     </row>
     <row r="802" spans="1:35" x14ac:dyDescent="0.3">
@@ -17878,7 +17248,7 @@
         <v>4.8333333329999997</v>
       </c>
       <c r="AA804">
-        <v>3.49</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="805" spans="1:35" x14ac:dyDescent="0.3">
@@ -17892,7 +17262,7 @@
         <v>13.33333333</v>
       </c>
       <c r="AA805">
-        <v>5.51</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="806" spans="1:35" x14ac:dyDescent="0.3">
@@ -17903,7 +17273,7 @@
         <v>45599</v>
       </c>
       <c r="AA806">
-        <v>13.93</v>
+        <v>14.93</v>
       </c>
     </row>
     <row r="807" spans="1:35" x14ac:dyDescent="0.3">
@@ -17923,7 +17293,7 @@
         <v>3.8333333330000001</v>
       </c>
       <c r="AA807">
-        <v>3.05</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="808" spans="1:35" x14ac:dyDescent="0.3">
@@ -17934,7 +17304,7 @@
         <v>45534</v>
       </c>
       <c r="AA808">
-        <v>10.23</v>
+        <v>11.23</v>
       </c>
     </row>
     <row r="809" spans="1:35" x14ac:dyDescent="0.3">
@@ -17945,7 +17315,7 @@
         <v>45565</v>
       </c>
       <c r="AA809">
-        <v>12.17</v>
+        <v>13.17</v>
       </c>
     </row>
     <row r="810" spans="1:35" x14ac:dyDescent="0.3">
@@ -17996,7 +17366,7 @@
         <v>10.749999998666601</v>
       </c>
       <c r="AA812">
-        <v>5.27</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="813" spans="1:35" x14ac:dyDescent="0.3">
@@ -18050,7 +17420,7 @@
         <v>8.3333333330000006</v>
       </c>
       <c r="AA815">
-        <v>12.41</v>
+        <v>13.41</v>
       </c>
     </row>
     <row r="816" spans="1:35" x14ac:dyDescent="0.3">
@@ -18061,7 +17431,7 @@
         <v>45478</v>
       </c>
       <c r="AA816">
-        <v>7.36</v>
+        <v>8.36</v>
       </c>
     </row>
     <row r="817" spans="1:42" x14ac:dyDescent="0.3">
@@ -18099,7 +17469,7 @@
         <v>1.9800000000000002E-2</v>
       </c>
       <c r="AA817">
-        <v>8.73</v>
+        <v>9.73</v>
       </c>
       <c r="AC817">
         <v>30</v>
@@ -18237,7 +17607,7 @@
         <v>5.5</v>
       </c>
       <c r="AA820">
-        <v>3.69</v>
+        <v>4.6899999999999995</v>
       </c>
     </row>
     <row r="821" spans="1:42" x14ac:dyDescent="0.3">
@@ -18260,7 +17630,7 @@
         <v>10.33333333</v>
       </c>
       <c r="AA821">
-        <v>5.59</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="822" spans="1:42" x14ac:dyDescent="0.3">
@@ -18280,7 +17650,7 @@
         <v>410.83</v>
       </c>
       <c r="AA822">
-        <v>10.69</v>
+        <v>11.69</v>
       </c>
     </row>
     <row r="823" spans="1:42" x14ac:dyDescent="0.3">
@@ -18322,7 +17692,7 @@
         <v>45572</v>
       </c>
       <c r="AA825">
-        <v>12.66</v>
+        <v>13.66</v>
       </c>
     </row>
     <row r="826" spans="1:42" x14ac:dyDescent="0.3">
@@ -18333,7 +17703,7 @@
         <v>45603</v>
       </c>
       <c r="AA826">
-        <v>13.95</v>
+        <v>14.95</v>
       </c>
     </row>
     <row r="827" spans="1:42" x14ac:dyDescent="0.3">
@@ -18376,6 +17746,9 @@
       <c r="Y827">
         <v>6.3333333329999997</v>
       </c>
+      <c r="AB827">
+        <v>4</v>
+      </c>
       <c r="AC827">
         <v>20</v>
       </c>
@@ -18452,7 +17825,7 @@
         <v>45421</v>
       </c>
       <c r="AA830">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="831" spans="1:42" x14ac:dyDescent="0.3">
@@ -18480,7 +17853,7 @@
         <v>45513</v>
       </c>
       <c r="AA832">
-        <v>8.91</v>
+        <v>9.91</v>
       </c>
     </row>
     <row r="833" spans="1:27" x14ac:dyDescent="0.3">
@@ -18491,7 +17864,7 @@
         <v>45544</v>
       </c>
       <c r="AA833">
-        <v>10.92</v>
+        <v>11.92</v>
       </c>
     </row>
   </sheetData>
@@ -45313,7 +44686,7 @@
   <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45339,7 +44712,7 @@
         <v>33</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>634.12500000000011</v>
@@ -45350,7 +44723,7 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>673.09090909090901</v>
@@ -45361,7 +44734,7 @@
         <v>34</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>706.8</v>
@@ -45372,7 +44745,7 @@
         <v>35</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>682.66666666666652</v>
@@ -45383,7 +44756,7 @@
         <v>33</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>738.4545454545455</v>
@@ -45394,7 +44767,7 @@
         <v>36</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>801.72727272727275</v>
@@ -45405,7 +44778,7 @@
         <v>34</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>793.63636363636363</v>
@@ -45416,7 +44789,7 @@
         <v>35</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>841.8</v>
@@ -45427,7 +44800,7 @@
         <v>33</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>850.18181818181824</v>
@@ -45438,7 +44811,7 @@
         <v>36</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>836.99999999999989</v>
@@ -45449,7 +44822,7 @@
         <v>34</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>858</v>
@@ -45460,7 +44833,7 @@
         <v>35</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>988.45454545454527</v>
@@ -45471,7 +44844,7 @@
         <v>33</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>925.09090909090901</v>
@@ -45482,7 +44855,7 @@
         <v>36</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>941.72727272727263</v>
@@ -45493,7 +44866,7 @@
         <v>34</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>941.81818181818164</v>
@@ -45504,7 +44877,7 @@
         <v>35</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>1102.3636363636363</v>
@@ -45515,7 +44888,7 @@
         <v>33</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <v>994.09090909090912</v>
@@ -45526,7 +44899,7 @@
         <v>36</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>1006.2727272727273</v>
@@ -45537,7 +44910,7 @@
         <v>34</v>
       </c>
       <c r="B20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>960.09090909090912</v>
@@ -45548,7 +44921,7 @@
         <v>35</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21">
         <v>1157</v>
@@ -45559,7 +44932,7 @@
         <v>33</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>884.09090909090901</v>
@@ -45570,7 +44943,7 @@
         <v>36</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>981.63636363636363</v>
@@ -45581,7 +44954,7 @@
         <v>34</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <v>963.63636363636351</v>
@@ -45592,7 +44965,7 @@
         <v>35</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>1108.6363636363637</v>
@@ -45603,7 +44976,7 @@
         <v>33</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>1045.8181818181815</v>
@@ -45614,7 +44987,7 @@
         <v>36</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>1174.8181818181818</v>
@@ -45625,7 +44998,7 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28">
         <v>1109.2727272727273</v>
@@ -45636,7 +45009,7 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29">
         <v>1258.8181818181822</v>
@@ -45647,7 +45020,7 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30">
         <v>1394.7272727272725</v>
@@ -45658,7 +45031,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31">
         <v>1605.7272727272727</v>
@@ -45669,7 +45042,7 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32">
         <v>1642.1818181818182</v>
@@ -45680,7 +45053,7 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33">
         <v>1588.7272727272727</v>
@@ -45691,7 +45064,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34">
         <v>2092.9090909090914</v>
@@ -45702,7 +45075,7 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35">
         <v>2283</v>
@@ -45713,7 +45086,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36">
         <v>2330</v>
@@ -45724,7 +45097,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37">
         <v>2295</v>
@@ -45735,7 +45108,7 @@
         <v>33</v>
       </c>
       <c r="B38">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38">
         <v>2859.818181818182</v>
@@ -45746,7 +45119,7 @@
         <v>36</v>
       </c>
       <c r="B39">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39">
         <v>3250.454545454545</v>
@@ -45757,7 +45130,7 @@
         <v>34</v>
       </c>
       <c r="B40">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40">
         <v>3213.5999999999995</v>
@@ -45768,7 +45141,7 @@
         <v>35</v>
       </c>
       <c r="B41">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41">
         <v>3195.818181818182</v>
@@ -45779,7 +45152,7 @@
         <v>33</v>
       </c>
       <c r="B42">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C42">
         <v>3485.181818181818</v>
@@ -45790,7 +45163,7 @@
         <v>36</v>
       </c>
       <c r="B43">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43">
         <v>3966.4545454545455</v>
@@ -45801,7 +45174,7 @@
         <v>34</v>
       </c>
       <c r="B44">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44">
         <v>4198.3636363636369</v>
@@ -45812,7 +45185,7 @@
         <v>35</v>
       </c>
       <c r="B45">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C45">
         <v>3861.3636363636365</v>
@@ -45823,7 +45196,7 @@
         <v>33</v>
       </c>
       <c r="B46">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C46">
         <v>3905.3636363636365</v>
@@ -45834,7 +45207,7 @@
         <v>36</v>
       </c>
       <c r="B47">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C47">
         <v>4400.8181818181811</v>
@@ -45845,7 +45218,7 @@
         <v>34</v>
       </c>
       <c r="B48">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C48">
         <v>4745.3999999999996</v>
@@ -45856,7 +45229,7 @@
         <v>35</v>
       </c>
       <c r="B49">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C49">
         <v>4418.909090909091</v>
@@ -45867,7 +45240,7 @@
         <v>33</v>
       </c>
       <c r="B50">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C50">
         <v>4042.2727272727279</v>
@@ -45878,7 +45251,7 @@
         <v>36</v>
       </c>
       <c r="B51">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C51">
         <v>4555</v>
@@ -45889,7 +45262,7 @@
         <v>34</v>
       </c>
       <c r="B52">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C52">
         <v>5405.9090909090901</v>
@@ -45900,7 +45273,7 @@
         <v>35</v>
       </c>
       <c r="B53">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C53">
         <v>5147.909090909091</v>
@@ -45911,7 +45284,7 @@
         <v>33</v>
       </c>
       <c r="B54">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C54">
         <v>2825.4545454545455</v>
@@ -45922,7 +45295,7 @@
         <v>36</v>
       </c>
       <c r="B55">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C55">
         <v>3648.909090909091</v>
@@ -45933,7 +45306,7 @@
         <v>34</v>
       </c>
       <c r="B56">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C56">
         <v>4347.5454545454559</v>
@@ -45944,7 +45317,7 @@
         <v>35</v>
       </c>
       <c r="B57">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C57">
         <v>4530.181818181818</v>
@@ -45955,7 +45328,7 @@
         <v>30</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58">
         <v>354.49999999999994</v>
@@ -45966,7 +45339,7 @@
         <v>32</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59">
         <v>399.7</v>
@@ -45977,7 +45350,7 @@
         <v>29</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60">
         <v>397.33333333333331</v>
@@ -45988,7 +45361,7 @@
         <v>31</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61">
         <v>323.63636363636363</v>
@@ -45999,7 +45372,7 @@
         <v>30</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62">
         <v>456.36363636363637</v>
@@ -46010,7 +45383,7 @@
         <v>32</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63">
         <v>384.75</v>
@@ -46021,7 +45394,7 @@
         <v>29</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64">
         <v>522.5454545454545</v>
@@ -46032,7 +45405,7 @@
         <v>31</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65">
         <v>390.54545454545456</v>
@@ -46043,7 +45416,7 @@
         <v>30</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C66">
         <v>484.91666666666663</v>
@@ -46054,7 +45427,7 @@
         <v>32</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C67">
         <v>395.36363636363643</v>
@@ -46065,7 +45438,7 @@
         <v>29</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C68">
         <v>529.27272727272725</v>
@@ -46076,7 +45449,7 @@
         <v>31</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C69">
         <v>399.72727272727269</v>
@@ -46087,7 +45460,7 @@
         <v>30</v>
       </c>
       <c r="B70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C70">
         <v>578.08333333333337</v>
@@ -46098,7 +45471,7 @@
         <v>32</v>
       </c>
       <c r="B71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C71">
         <v>479.36363636363649</v>
@@ -46109,7 +45482,7 @@
         <v>29</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C72">
         <v>586.29999999999995</v>
@@ -46120,7 +45493,7 @@
         <v>31</v>
       </c>
       <c r="B73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C73">
         <v>454.4</v>
@@ -46131,7 +45504,7 @@
         <v>30</v>
       </c>
       <c r="B74">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C74">
         <v>676.74999999999989</v>
@@ -46142,7 +45515,7 @@
         <v>32</v>
       </c>
       <c r="B75">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C75">
         <v>600.16666666666663</v>
@@ -46153,7 +45526,7 @@
         <v>29</v>
       </c>
       <c r="B76">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C76">
         <v>662.45454545454538</v>
@@ -46164,7 +45537,7 @@
         <v>31</v>
       </c>
       <c r="B77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C77">
         <v>605</v>
@@ -46175,7 +45548,7 @@
         <v>30</v>
       </c>
       <c r="B78">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C78">
         <v>893.24999999999989</v>
@@ -46186,7 +45559,7 @@
         <v>32</v>
       </c>
       <c r="B79">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C79">
         <v>867.33333333333337</v>
@@ -46197,7 +45570,7 @@
         <v>29</v>
       </c>
       <c r="B80">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80">
         <v>928.72727272727275</v>
@@ -46208,7 +45581,7 @@
         <v>31</v>
       </c>
       <c r="B81">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C81">
         <v>842.27272727272725</v>
@@ -46219,7 +45592,7 @@
         <v>30</v>
       </c>
       <c r="B82">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82">
         <v>1352.5833333333333</v>
@@ -46230,7 +45603,7 @@
         <v>32</v>
       </c>
       <c r="B83">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C83">
         <v>1235.4166666666665</v>
@@ -46241,7 +45614,7 @@
         <v>29</v>
       </c>
       <c r="B84">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84">
         <v>1340.4999999999998</v>
@@ -46252,7 +45625,7 @@
         <v>31</v>
       </c>
       <c r="B85">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C85">
         <v>1228</v>
@@ -46263,7 +45636,7 @@
         <v>30</v>
       </c>
       <c r="B86">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C86">
         <v>1859.4166666666665</v>
@@ -46274,7 +45647,7 @@
         <v>32</v>
       </c>
       <c r="B87">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C87">
         <v>1918.7499999999995</v>
@@ -46285,7 +45658,7 @@
         <v>29</v>
       </c>
       <c r="B88">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C88">
         <v>2108.090909090909</v>
@@ -46296,7 +45669,7 @@
         <v>31</v>
       </c>
       <c r="B89">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C89">
         <v>2017.1818181818182</v>
@@ -46307,7 +45680,7 @@
         <v>30</v>
       </c>
       <c r="B90">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C90">
         <v>2949.9166666666665</v>
@@ -46318,7 +45691,7 @@
         <v>32</v>
       </c>
       <c r="B91">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C91">
         <v>2871.6666666666665</v>
@@ -46329,7 +45702,7 @@
         <v>29</v>
       </c>
       <c r="B92">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C92">
         <v>2969.181818181818</v>
@@ -46340,7 +45713,7 @@
         <v>31</v>
       </c>
       <c r="B93">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C93">
         <v>3176.454545454545</v>
@@ -46351,7 +45724,7 @@
         <v>30</v>
       </c>
       <c r="B94">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C94">
         <v>3682.2500000000005</v>
@@ -46362,7 +45735,7 @@
         <v>32</v>
       </c>
       <c r="B95">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C95">
         <v>3689.75</v>
@@ -46373,7 +45746,7 @@
         <v>29</v>
       </c>
       <c r="B96">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C96">
         <v>3884.0909090909095</v>
@@ -46384,7 +45757,7 @@
         <v>31</v>
       </c>
       <c r="B97">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C97">
         <v>4125.181818181818</v>
@@ -46395,7 +45768,7 @@
         <v>30</v>
       </c>
       <c r="B98">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C98">
         <v>4076.7500000000005</v>
@@ -46406,7 +45779,7 @@
         <v>32</v>
       </c>
       <c r="B99">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C99">
         <v>4224.5</v>
@@ -46417,7 +45790,7 @@
         <v>29</v>
       </c>
       <c r="B100">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C100">
         <v>4677.545454545454</v>
@@ -46428,7 +45801,7 @@
         <v>31</v>
       </c>
       <c r="B101">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C101">
         <v>4765.9090909090901</v>
@@ -46439,7 +45812,7 @@
         <v>30</v>
       </c>
       <c r="B102">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C102">
         <v>4143.083333333333</v>
@@ -46450,7 +45823,7 @@
         <v>32</v>
       </c>
       <c r="B103">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C103">
         <v>4077.0833333333335</v>
@@ -46461,7 +45834,7 @@
         <v>29</v>
       </c>
       <c r="B104">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C104">
         <v>4523.6363636363631</v>
@@ -46472,7 +45845,7 @@
         <v>31</v>
       </c>
       <c r="B105">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C105">
         <v>4790.8181818181811</v>
@@ -46483,7 +45856,7 @@
         <v>30</v>
       </c>
       <c r="B106">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C106">
         <v>3072.833333333333</v>
@@ -46494,7 +45867,7 @@
         <v>32</v>
       </c>
       <c r="B107">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C107">
         <v>3044</v>
@@ -46505,7 +45878,7 @@
         <v>29</v>
       </c>
       <c r="B108">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C108">
         <v>3524.090909090909</v>
@@ -46516,7 +45889,7 @@
         <v>31</v>
       </c>
       <c r="B109">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C109">
         <v>3761.7272727272725</v>
@@ -55498,7 +54871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA7743A-48F6-4711-9904-E82A6ACE9CC4}">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>

--- a/Tests/Validation/Wheat/data/Lincoln2024.xlsx
+++ b/Tests/Validation/Wheat/data/Lincoln2024.xlsx
@@ -65,305 +65,305 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3967" uniqueCount="99">
-  <si>
-    <t>SimulationName</t>
-  </si>
-  <si>
-    <t>Clock.Today</t>
-  </si>
-  <si>
-    <t>Wheat.AboveGround.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Live.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Stem.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Dead.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.LAI</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>g/m2</t>
-  </si>
-  <si>
-    <t>SLA</t>
-  </si>
-  <si>
-    <t>mm2/g</t>
-  </si>
-  <si>
-    <t>SD1</t>
-  </si>
-  <si>
-    <t>SD2</t>
-  </si>
-  <si>
-    <t>Cultivar</t>
-  </si>
-  <si>
-    <t>Kerrin</t>
-  </si>
-  <si>
-    <t>N application dates</t>
-  </si>
-  <si>
-    <t>Z30</t>
-  </si>
-  <si>
-    <t>Z32</t>
-  </si>
-  <si>
-    <t>Canopy Height</t>
-  </si>
-  <si>
-    <t>NDVI</t>
-  </si>
-  <si>
-    <t>RawNDVI obtained from GreenSeeker_ did not correct using bare soil readings</t>
-  </si>
-  <si>
-    <t>Sowing date</t>
-  </si>
-  <si>
-    <t>Growth Stage</t>
-  </si>
-  <si>
-    <t>Mid 20s</t>
-  </si>
-  <si>
-    <t>38.7 kg N/ha</t>
-  </si>
-  <si>
-    <t>77.3 kg N/ha</t>
-  </si>
-  <si>
-    <t>116 kg N/ha</t>
-  </si>
-  <si>
-    <t>Z39</t>
-  </si>
-  <si>
-    <t>Lincoln2024SD16AprNMid</t>
-  </si>
-  <si>
-    <t>Lincoln2024SD16AprNNil</t>
-  </si>
-  <si>
-    <t>Lincoln2024SD16AprNHigh</t>
-  </si>
-  <si>
-    <t>Lincoln2024SD16AprNLow</t>
-  </si>
-  <si>
-    <t>Lincoln2024SD20MarNNil</t>
-  </si>
-  <si>
-    <t>Lincoln2024SD20MarNMid</t>
-  </si>
-  <si>
-    <t>Lincoln2024SD20MarNHigh</t>
-  </si>
-  <si>
-    <t>Lincoln2024SD20MarNLow</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.Zadok.Stage</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.CoverTotal</t>
-  </si>
-  <si>
-    <t>Prop intercepted light</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>TotalLeaf and LAI values were corrected starting from 24/10/2024 cut.</t>
-  </si>
-  <si>
-    <t>Haun stage updated</t>
-  </si>
-  <si>
-    <t>Wheat.Ear.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Ear.Number</t>
-  </si>
-  <si>
-    <t>Wheat.Stem.Number</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Number</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>No./m2</t>
-  </si>
-  <si>
-    <t>No. of grains/m2</t>
-  </si>
-  <si>
-    <t>No. of heads/m2</t>
-  </si>
-  <si>
-    <t>No. of stems/m2</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Size</t>
-  </si>
-  <si>
-    <t>MaxLeafSize.Script.LeafPosition</t>
-  </si>
-  <si>
-    <t>MaxLeafSize.Script.MaxLeafSize</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.CurrentStageName</t>
-  </si>
-  <si>
-    <t>Emergence</t>
-  </si>
-  <si>
-    <t>TerminalSpikelet</t>
-  </si>
-  <si>
-    <t>2ndNodeOnMainStem</t>
-  </si>
-  <si>
-    <t>FlagLeaf</t>
-  </si>
-  <si>
-    <t>Flowering</t>
-  </si>
-  <si>
-    <t>Tillering</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.LiveFWt</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.HaunStage</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Height</t>
-  </si>
-  <si>
-    <t>NDVIModel.Script.NDVI</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.StemNumberPerPlant</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.Stage</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.StemPopulation</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Protein</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.SpecificAreaCanopy</t>
-  </si>
-  <si>
-    <t>Wheat.Population</t>
-  </si>
-  <si>
-    <t>HarvestRipe</t>
-  </si>
-  <si>
-    <t>DoubleRidge</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.LiveWtProportion</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.DeadWtProportion</t>
-  </si>
-  <si>
-    <t>Wheat.Stem.WtProportion</t>
-  </si>
-  <si>
-    <t>Wheat.Ear.WtProportion</t>
-  </si>
-  <si>
-    <t>Marked Plant Tiller #</t>
-  </si>
-  <si>
-    <t>Random Plantss Tiller#</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Live.Wt/stem (g)</t>
-  </si>
-  <si>
-    <t>Wheat.Stem.Wt/stem (g)</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Dead.Wt/stem (g)</t>
-  </si>
-  <si>
-    <t>Wheat.Ear.Wt/stem (g)</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Live.Nconc</t>
-  </si>
-  <si>
-    <t>Wheat.Stem.Nconc</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Dead.Nconc</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Nconc</t>
-  </si>
-  <si>
-    <t>Wheat.Ear.Nconc</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Live.N</t>
-  </si>
-  <si>
-    <t>Wheat.Leaf.Dead.N</t>
-  </si>
-  <si>
-    <t>Wheat.Ear.N</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.N</t>
-  </si>
-  <si>
-    <t>Wheat.Stem.N</t>
-  </si>
-  <si>
-    <t>Wheat.AboveGround.N</t>
-  </si>
-  <si>
-    <t>Wheat.Spike.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Spike.Nconc</t>
-  </si>
-  <si>
-    <t>Wheat.Spike.N</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3967" uniqueCount="99">
+  <x:si>
+    <x:t>SimulationName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clock.Today</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.AboveGround.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Live.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Stem.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Dead.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.LAI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Unit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Weight</x:t>
+  </x:si>
+  <x:si>
+    <x:t>g/m2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SLA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mm2/g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SD1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SD2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cultivar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kerrin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N application dates</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Z30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Z32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Canopy Height</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NDVI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RawNDVI obtained from GreenSeeker_ did not correct using bare soil readings</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sowing date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Growth Stage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mid 20s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38.7 kg N/ha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77.3 kg N/ha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>116 kg N/ha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Z39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln2024SD16AprNMid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln2024SD16AprNNil</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln2024SD16AprNHigh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln2024SD16AprNLow</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln2024SD20MarNNil</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln2024SD20MarNMid</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln2024SD20MarNHigh</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lincoln2024SD20MarNLow</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.Zadok.Stage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.CoverTotal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prop intercepted light</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TotalLeaf and LAI values were corrected starting from 24/10/2024 cut.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Haun stage updated</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Ear.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Ear.Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Stem.Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Number</x:t>
+  </x:si>
+  <x:si>
+    <x:t>No./m2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>No. of grains/m2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>No. of heads/m2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>No. of stems/m2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Size</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MaxLeafSize.Script.LeafPosition</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MaxLeafSize.Script.MaxLeafSize</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.CurrentStageName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Emergence</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TerminalSpikelet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2ndNodeOnMainStem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FlagLeaf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flowering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tillering</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.LiveFWt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.HaunStage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Height</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spectral.NDVI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.StemNumberPerPlant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.Stage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.StemPopulation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Protein</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.SpecificAreaCanopy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Population</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HarvestRipe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DoubleRidge</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.LiveWtProportion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.DeadWtProportion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Stem.WtProportion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Ear.WtProportion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marked Plant Tiller #</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Random Plantss Tiller#</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Live.Wt/stem (g)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Stem.Wt/stem (g)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Dead.Wt/stem (g)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Ear.Wt/stem (g)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Live.Nconc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Stem.Nconc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Dead.Nconc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Nconc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Ear.Nconc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Live.N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Leaf.Dead.N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Ear.N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Stem.N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.AboveGround.N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Spike.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Spike.Nconc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Spike.N</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Tests/Validation/Wheat/data/Lincoln2024.xlsx
+++ b/Tests/Validation/Wheat/data/Lincoln2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\ApsimX\Tests\Validation\Wheat\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95990E4-387C-42D5-B7CF-6D68FB62BF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67928D1-1D3F-438F-AF02-584C483CB072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" autoFilterDateGrouping="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3985" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3985" uniqueCount="111">
   <si>
     <t>SimulationName</t>
   </si>
@@ -400,6 +400,9 @@
   <si>
     <t>Wheat.Phenology.Zadok.Stage-NotModeled</t>
   </si>
+  <si>
+    <t>Spectral.NDVI</t>
+  </si>
 </sst>
 </file>
 
@@ -37330,7 +37333,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CDB945A4-1CBA-4E3B-AECB-2763496B12BB}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CDB945A4-1CBA-4E3B-AECB-2763496B12BB}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="42">
     <pivotField axis="axisRow" showAll="0">
@@ -37791,8 +37794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BBE95E-A304-486E-A4C6-DD8F3EEFA3AF}">
   <dimension ref="A1:AP833"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37840,7 +37843,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -94464,15 +94467,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002CA9C2C83C87A7408E0099D61CB2C224" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3ce516e8a7524994cf4149f9aaa4cac7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="322cff4d-e128-4275-8c17-01ea60ce9850" xmlns:ns4="7391035e-a561-4b14-b643-167d3e77bc43" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="449e7fc92384ad82c475872e96556466" ns3:_="" ns4:_="">
     <xsd:import namespace="322cff4d-e128-4275-8c17-01ea60ce9850"/>
@@ -94725,6 +94719,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3709C4F5-F4CD-4825-B22E-AD384DC6F7E6}">
   <ds:schemaRefs>
@@ -94743,14 +94746,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{565FE936-45C1-4267-BB01-0C6ECA531FFF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1EA98CE-4368-4F90-9C57-5CE2133AA34B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -94767,4 +94762,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{565FE936-45C1-4267-BB01-0C6ECA531FFF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>